--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B436E2-36CD-4625-8EC7-1DFE9DCCA5ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="patrones febrero" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Patrones registrados al IMSS por entidad federativa</t>
   </si>
@@ -174,105 +173,6 @@
   </si>
   <si>
     <t>Febrero 2021 respecto a Febrero 2020</t>
-  </si>
-  <si>
-    <t>2020/Feb</t>
-  </si>
-  <si>
-    <t>CIUDAD DE MÉXICO</t>
-  </si>
-  <si>
-    <t>GUERRERO</t>
-  </si>
-  <si>
-    <t>MORELOS</t>
-  </si>
-  <si>
-    <t>QUERÉTARO</t>
-  </si>
-  <si>
-    <t>AGUASCALIENTES</t>
-  </si>
-  <si>
-    <t>CHIHUAHUA</t>
-  </si>
-  <si>
-    <t>COAHUILA</t>
-  </si>
-  <si>
-    <t>DURANGO</t>
-  </si>
-  <si>
-    <t>NUEVO LEÓN</t>
-  </si>
-  <si>
-    <t>SAN LUIS POTOSÍ</t>
-  </si>
-  <si>
-    <t>TAMAULIPAS</t>
-  </si>
-  <si>
-    <t>ZACATECAS</t>
-  </si>
-  <si>
-    <t>BAJA CALIFORNIA</t>
-  </si>
-  <si>
-    <t>BAJA CALIFORNIA SUR</t>
-  </si>
-  <si>
-    <t>COLIMA</t>
-  </si>
-  <si>
-    <t>GUANAJUATO</t>
-  </si>
-  <si>
-    <t>JALISCO</t>
-  </si>
-  <si>
-    <t>MICHOACÁN</t>
-  </si>
-  <si>
-    <t>NAYARIT</t>
-  </si>
-  <si>
-    <t>SINALOA</t>
-  </si>
-  <si>
-    <t>SONORA</t>
-  </si>
-  <si>
-    <t>CAMPECHE</t>
-  </si>
-  <si>
-    <t>CHIAPAS</t>
-  </si>
-  <si>
-    <t>HIDALGO</t>
-  </si>
-  <si>
-    <t>OAXACA</t>
-  </si>
-  <si>
-    <t>PUEBLA</t>
-  </si>
-  <si>
-    <t>QUINTANA ROO</t>
-  </si>
-  <si>
-    <t>TABASCO</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>VERACRUZ</t>
-  </si>
-  <si>
-    <t>YUCATÁN</t>
-  </si>
-  <si>
-    <t>NACIONAL</t>
   </si>
   <si>
     <r>
@@ -310,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -722,11 +622,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3FBADF2F-D94A-4DBB-A566-32AFA52C8DD3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F1B3B1EB-1B04-4ECA-A3A8-BD1E62CDC2A4}"/>
-    <cellStyle name="Normal 2 2 2" xfId="3" xr:uid="{9EB5E47E-A792-4C93-B3EA-E8849A811422}"/>
-    <cellStyle name="Normal 7" xfId="4" xr:uid="{E4ADD626-37E9-44A2-A1EA-FC6815F3DA07}"/>
-    <cellStyle name="Porcentaje 2" xfId="5" xr:uid="{9B8E1B2D-0742-4EB7-BD1D-EA0D1D1A1ACF}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2 2" xfId="3"/>
+    <cellStyle name="Normal 7" xfId="4"/>
+    <cellStyle name="Porcentaje 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,36 +838,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE248518-FCF0-4142-B2FC-2F1FE84CED74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F38"/>
+      <selection activeCell="T1" sqref="T1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="5" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.1796875" style="2"/>
-    <col min="23" max="23" width="19.08984375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="2"/>
+    <col min="2" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="19.140625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -985,7 +885,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
         <v>42</v>
       </c>
@@ -1003,7 +903,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1019,7 +919,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +957,7 @@
       <c r="Q4" s="64"/>
       <c r="R4" s="64"/>
     </row>
-    <row r="5" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="72"/>
@@ -1101,11 +1001,8 @@
         <v>8</v>
       </c>
       <c r="T5" s="8"/>
-      <c r="U5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1172,21 +1069,8 @@
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
         <v>13</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="2">
-        <v>3447038</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="2">
-        <f>VLOOKUP(W6,$T$5:$U$38,2,FALSE)</f>
-        <v>338559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
@@ -1253,21 +1137,8 @@
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
         <v>8</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="2">
-        <v>156351</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" ref="X7:X37" si="12">VLOOKUP(W7,$T$5:$U$38,2,FALSE)</f>
-        <v>940382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>11</v>
       </c>
@@ -1334,21 +1205,8 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="2">
-        <v>213476</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="2">
-        <f t="shared" si="12"/>
-        <v>185493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
@@ -1415,21 +1273,8 @@
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1638840</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="2">
-        <f t="shared" si="12"/>
-        <v>134890</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
@@ -1496,21 +1341,8 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="2">
-        <v>615585</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="2">
-        <f t="shared" si="12"/>
-        <v>225972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>14</v>
       </c>
@@ -1577,21 +1409,8 @@
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="2">
-        <v>338559</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" s="2">
-        <f t="shared" si="12"/>
-        <v>902039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
@@ -1658,21 +1477,8 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U12" s="2">
-        <v>902039</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="2">
-        <f t="shared" si="12"/>
-        <v>3447038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
@@ -1739,21 +1545,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="T13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="U13" s="2">
-        <v>780681</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" si="12"/>
-        <v>780681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
@@ -1820,21 +1614,9 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="T14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="U14" s="2">
-        <v>245574</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X14" s="2">
-        <f t="shared" si="12"/>
-        <v>139287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
@@ -1901,21 +1683,9 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="T15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1655159</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X15" s="2">
-        <f t="shared" si="12"/>
-        <v>245574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
@@ -1982,21 +1752,9 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U16" s="2">
-        <v>455287</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X16" s="2">
-        <f t="shared" si="12"/>
-        <v>1638840</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
@@ -2063,21 +1821,9 @@
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="T17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U17" s="2">
-        <v>702453</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="12"/>
-        <v>1013555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>21</v>
       </c>
@@ -2144,21 +1890,9 @@
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="T18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="U18" s="2">
-        <v>189057</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="2">
-        <f t="shared" si="12"/>
-        <v>156351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="31" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>22</v>
       </c>
@@ -2226,21 +1960,11 @@
         <v>26</v>
       </c>
       <c r="S19" s="2"/>
-      <c r="T19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="U19" s="2">
-        <v>940382</v>
-      </c>
-      <c r="W19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="X19" s="2">
-        <f t="shared" si="12"/>
-        <v>233747</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="31" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T19" s="8"/>
+      <c r="U19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>23</v>
       </c>
@@ -2308,21 +2032,11 @@
         <v>6</v>
       </c>
       <c r="S20" s="2"/>
-      <c r="T20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="U20" s="2">
-        <v>185493</v>
-      </c>
-      <c r="W20" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="X20" s="2">
-        <f t="shared" si="12"/>
-        <v>1837966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T20" s="8"/>
+      <c r="U20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>24</v>
       </c>
@@ -2389,21 +2103,9 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="T21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U21" s="2">
-        <v>139287</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="2">
-        <f t="shared" si="12"/>
-        <v>468015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>25</v>
       </c>
@@ -2470,21 +2172,9 @@
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1013555</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X22" s="2">
-        <f t="shared" si="12"/>
-        <v>213476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>26</v>
       </c>
@@ -2551,21 +2241,9 @@
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="T23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="U23" s="2">
-        <v>1837966</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" s="2">
-        <f t="shared" si="12"/>
-        <v>159617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>27</v>
       </c>
@@ -2632,21 +2310,9 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="T24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" s="2">
-        <v>468015</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" s="2">
-        <f t="shared" si="12"/>
-        <v>1655159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>28</v>
       </c>
@@ -2713,21 +2379,9 @@
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="T25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U25" s="2">
-        <v>159617</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X25" s="2">
-        <f t="shared" si="12"/>
-        <v>216685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>29</v>
       </c>
@@ -2794,21 +2448,9 @@
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="T26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U26" s="2">
-        <v>587810</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X26" s="2">
-        <f t="shared" si="12"/>
-        <v>628017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
@@ -2875,21 +2517,9 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="T27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U27" s="2">
-        <v>611885</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X27" s="2">
-        <f t="shared" si="12"/>
-        <v>615585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>31</v>
       </c>
@@ -2956,21 +2586,9 @@
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="T28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="U28" s="2">
-        <v>134890</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="2">
-        <f t="shared" si="12"/>
-        <v>472041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>32</v>
       </c>
@@ -3037,21 +2655,9 @@
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="T29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="U29" s="2">
-        <v>225972</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X29" s="2">
-        <f t="shared" si="12"/>
-        <v>455287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>33</v>
       </c>
@@ -3118,21 +2724,9 @@
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="T30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="U30" s="2">
-        <v>233747</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X30" s="2">
-        <f t="shared" si="12"/>
-        <v>587810</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>34</v>
       </c>
@@ -3199,21 +2793,9 @@
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="T31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="U31" s="2">
-        <v>216685</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X31" s="2">
-        <f t="shared" si="12"/>
-        <v>611885</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>35</v>
       </c>
@@ -3280,21 +2862,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="T32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="U32" s="2">
-        <v>628017</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X32" s="2">
-        <f t="shared" si="12"/>
-        <v>173223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>36</v>
       </c>
@@ -3361,21 +2931,9 @@
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="T33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="U33" s="2">
-        <v>472041</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X33" s="2">
-        <f t="shared" si="12"/>
-        <v>702453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>37</v>
       </c>
@@ -3442,21 +3000,9 @@
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="T34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="U34" s="2">
-        <v>173223</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X34" s="2">
-        <f t="shared" si="12"/>
-        <v>103111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>38</v>
       </c>
@@ -3523,21 +3069,9 @@
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="T35" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="U35" s="2">
-        <v>103111</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X35" s="2">
-        <f t="shared" si="12"/>
-        <v>757110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>39</v>
       </c>
@@ -3604,21 +3138,9 @@
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="T36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U36" s="2">
-        <v>757110</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X36" s="2">
-        <f t="shared" si="12"/>
-        <v>384631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>40</v>
       </c>
@@ -3685,21 +3207,9 @@
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="T37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="U37" s="2">
-        <v>384631</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X37" s="2">
-        <f t="shared" si="12"/>
-        <v>189057</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="13" x14ac:dyDescent="0.3">
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>41</v>
       </c>
@@ -3748,29 +3258,16 @@
       </c>
       <c r="Q38" s="52"/>
       <c r="R38" s="53"/>
-      <c r="T38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U38" s="2">
-        <v>20613536</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X38" s="2">
-        <f>SUM(X6:X37)</f>
-        <v>20613536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="58" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" s="58" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="59"/>
       <c r="D39" s="59"/>
       <c r="G39" s="59"/>
       <c r="O39" s="60"/>
     </row>
-    <row r="40" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
@@ -3791,9 +3288,9 @@
       <c r="R40" s="65"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="61" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J41" s="62"/>
       <c r="K41" s="62"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -845,23 +845,14 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:AB1048576"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="10" style="2" customWidth="1"/>
+    <col min="15" max="18" width="9.85546875" style="2" customWidth="1"/>
     <col min="19" max="22" width="9.140625" style="2"/>
     <col min="23" max="23" width="19.140625" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="patrones marzo" sheetId="2" r:id="rId1"/>
+    <sheet name="patrones abril" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -152,19 +152,6 @@
   </si>
   <si>
     <t>2019-2021</t>
-  </si>
-  <si>
-    <t>2021
-Febrero</t>
-  </si>
-  <si>
-    <t>Febrero 2021 respecto a enero 2021</t>
-  </si>
-  <si>
-    <t>Febrero 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Febrero 2021 respecto a Febrero 2020</t>
   </si>
   <si>
     <r>
@@ -203,8 +190,21 @@
 Marzo</t>
   </si>
   <si>
+    <t>2021
+Abril</t>
+  </si>
+  <si>
+    <t>Abril 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Abril 2021 respecto a Abril 2020</t>
+  </si>
+  <si>
+    <t>Abril 2021 respecto a Marzo 2021</t>
+  </si>
+  <si>
     <t>2020
-Marzo</t>
+Abril</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -864,9 +864,7 @@
     <col min="7" max="10" width="9.42578125" style="2" customWidth="1"/>
     <col min="11" max="14" width="9.5703125" style="2" customWidth="1"/>
     <col min="15" max="18" width="9.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="2"/>
-    <col min="20" max="20" width="27" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -935,25 +933,25 @@
         <v>49</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="59" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>43</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
       <c r="K4" s="59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" s="60"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
@@ -1014,37 +1012,37 @@
         <v>16017</v>
       </c>
       <c r="D6" s="10">
+        <v>16028</v>
+      </c>
+      <c r="E6" s="9">
         <v>16126</v>
       </c>
-      <c r="E6" s="9">
-        <v>16087</v>
-      </c>
       <c r="F6" s="9">
-        <v>16126</v>
+        <v>16189</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>2.4243177721141596E-3</v>
+        <v>3.9067344660796977E-3</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>6.8052694012612491E-3</v>
+        <v>1.0738590247861612E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
@@ -1052,23 +1050,23 @@
       </c>
       <c r="N6" s="18">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" s="19">
         <f>F6-D6</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="P6" s="20">
         <f>F6/D6-1</f>
-        <v>0</v>
+        <v>1.0044921387571737E-2</v>
       </c>
       <c r="Q6" s="25">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1082,25 +1080,25 @@
         <v>41338</v>
       </c>
       <c r="D7" s="10">
-        <v>41472</v>
+        <v>41132</v>
       </c>
       <c r="E7" s="9">
-        <v>41481</v>
+        <v>41658</v>
       </c>
       <c r="F7" s="9">
-        <v>41658</v>
+        <v>41850</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>4.267013813553211E-3</v>
+        <v>4.6089586634019408E-3</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
@@ -1108,35 +1106,35 @@
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>7.7410614930573107E-3</v>
+        <v>1.2385698388891475E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N37" si="7">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" s="19">
         <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>186</v>
+        <v>718</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>4.4849537037037202E-3</v>
+        <v>1.7455995332101626E-2</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" s="26">
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1150,21 +1148,21 @@
         <v>12767</v>
       </c>
       <c r="D8" s="10">
-        <v>12773</v>
+        <v>12587</v>
       </c>
       <c r="E8" s="9">
-        <v>12903</v>
+        <v>12933</v>
       </c>
       <c r="F8" s="9">
-        <v>12933</v>
+        <v>12988</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>2.3250406882120433E-3</v>
+        <v>4.2526869249206456E-3</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
@@ -1172,39 +1170,39 @@
       </c>
       <c r="J8" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>1.3002271481162397E-2</v>
+        <v>1.7310252996005415E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>160</v>
+        <v>401</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="9"/>
-        <v>1.252642292335393E-2</v>
+        <v>3.1858266465400797E-2</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1218,37 +1216,37 @@
         <v>5807</v>
       </c>
       <c r="D9" s="10">
-        <v>5961</v>
+        <v>5935</v>
       </c>
       <c r="E9" s="9">
-        <v>5814</v>
+        <v>5831</v>
       </c>
       <c r="F9" s="9">
-        <v>5831</v>
+        <v>5860</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>2.9239766081872176E-3</v>
+        <v>4.9734179386040633E-3</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>4.1329429998278044E-3</v>
+        <v>9.1269157912863275E-3</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
@@ -1256,23 +1254,23 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" si="8"/>
-        <v>-130</v>
+        <v>-75</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="9"/>
-        <v>-2.1808421405804412E-2</v>
+        <v>-1.2636899747262009E-2</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1286,41 +1284,41 @@
         <v>14324</v>
       </c>
       <c r="D10" s="10">
-        <v>14304</v>
+        <v>14277</v>
       </c>
       <c r="E10" s="9">
-        <v>14327</v>
+        <v>14373</v>
       </c>
       <c r="F10" s="9">
-        <v>14373</v>
+        <v>14418</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="22">
         <f>F10/E10-1</f>
-        <v>3.2107210162630739E-3</v>
+        <v>3.1308703819661332E-3</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>3.4208321697850597E-3</v>
+        <v>6.5624127338732574E-3</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="7"/>
@@ -1328,19 +1326,19 @@
       </c>
       <c r="O10" s="19">
         <f t="shared" si="8"/>
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="9"/>
-        <v>4.8238255033556943E-3</v>
+        <v>9.8760243748685639E-3</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1354,21 +1352,21 @@
         <v>39670</v>
       </c>
       <c r="D11" s="10">
-        <v>40033</v>
+        <v>39876</v>
       </c>
       <c r="E11" s="9">
-        <v>39752</v>
+        <v>39950</v>
       </c>
       <c r="F11" s="9">
-        <v>39950</v>
+        <v>40094</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>4.9808814650835753E-3</v>
+        <v>3.604505632039956E-3</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
@@ -1376,35 +1374,35 @@
       </c>
       <c r="J11" s="24">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>7.0582304008066643E-3</v>
+        <v>1.0688177464078574E-2</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="8"/>
-        <v>-83</v>
+        <v>218</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="9"/>
-        <v>-2.0732895361327275E-3</v>
+        <v>5.4669475373658738E-3</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="11"/>
@@ -1422,37 +1420,37 @@
         <v>118117</v>
       </c>
       <c r="D12" s="10">
-        <v>118835</v>
+        <v>118394</v>
       </c>
       <c r="E12" s="9">
-        <v>117824</v>
+        <v>117841</v>
       </c>
       <c r="F12" s="9">
-        <v>117841</v>
+        <v>117816</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-25</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>1.4428299837043745E-4</v>
+        <v>-2.1215027027943201E-4</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>-276</v>
+        <v>-301</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>-2.336666186916414E-3</v>
+        <v>-2.5483207328327317E-3</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
@@ -1464,19 +1462,19 @@
       </c>
       <c r="O12" s="19">
         <f t="shared" si="8"/>
-        <v>-994</v>
+        <v>-578</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="9"/>
-        <v>-8.3645390667732578E-3</v>
+        <v>-4.8820041556160154E-3</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R12" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1490,57 +1488,57 @@
         <v>34021</v>
       </c>
       <c r="D13" s="10">
-        <v>34492</v>
+        <v>34298</v>
       </c>
       <c r="E13" s="9">
-        <v>34085</v>
+        <v>34104</v>
       </c>
       <c r="F13" s="9">
-        <v>34104</v>
+        <v>34235</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>5.5742995452545685E-4</v>
+        <v>3.8411916490734832E-3</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>2.4396696158255349E-3</v>
+        <v>6.2902325034537299E-3</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>-388</v>
+        <v>-63</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="9"/>
-        <v>-1.1248985271947065E-2</v>
+        <v>-1.8368417983556373E-3</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="11"/>
@@ -1558,53 +1556,53 @@
         <v>10753</v>
       </c>
       <c r="D14" s="10">
-        <v>10719</v>
+        <v>10679</v>
       </c>
       <c r="E14" s="9">
-        <v>10744</v>
+        <v>10794</v>
       </c>
       <c r="F14" s="9">
-        <v>10794</v>
+        <v>10897</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>4.6537602382725751E-3</v>
+        <v>9.5423383361126213E-3</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>3.8128894262066115E-3</v>
+        <v>1.3391611643262413E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="8"/>
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="9"/>
-        <v>6.9969213546039466E-3</v>
+        <v>2.0413896432250223E-2</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="10"/>
@@ -1612,7 +1610,7 @@
       </c>
       <c r="R14" s="26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1626,61 +1624,61 @@
         <v>14267</v>
       </c>
       <c r="D15" s="10">
-        <v>14320</v>
+        <v>14245</v>
       </c>
       <c r="E15" s="9">
-        <v>14342</v>
+        <v>14316</v>
       </c>
       <c r="F15" s="9">
-        <v>14316</v>
+        <v>14313</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-3</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>-1.8128573420722605E-3</v>
+        <v>-2.0955574182734971E-4</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>3.4344991939441183E-3</v>
+        <v>3.2242237330903922E-3</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="8"/>
-        <v>-4</v>
+        <v>68</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="9"/>
-        <v>-2.7932960893850556E-4</v>
+        <v>4.7736047736046672E-3</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1694,37 +1692,37 @@
         <v>72960</v>
       </c>
       <c r="D16" s="10">
-        <v>72590</v>
+        <v>72249</v>
       </c>
       <c r="E16" s="9">
-        <v>72749</v>
+        <v>72421</v>
       </c>
       <c r="F16" s="9">
-        <v>72421</v>
+        <v>72325</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>-328</v>
+        <v>-96</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>-4.5086530399043312E-3</v>
+        <v>-1.3255823587080551E-3</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>-539</v>
+        <v>-635</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>-7.3876096491227727E-3</v>
+        <v>-8.7033991228070429E-3</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
@@ -1736,19 +1734,19 @@
       </c>
       <c r="O16" s="19">
         <f t="shared" si="8"/>
-        <v>-169</v>
+        <v>76</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="9"/>
-        <v>-2.3281443725030604E-3</v>
+        <v>1.0519176736010216E-3</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1762,25 +1760,25 @@
         <v>47776</v>
       </c>
       <c r="D17" s="10">
-        <v>48599</v>
+        <v>48197</v>
       </c>
       <c r="E17" s="9">
-        <v>47646</v>
+        <v>47663</v>
       </c>
       <c r="F17" s="9">
-        <v>47663</v>
+        <v>47685</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>3.5679805230248718E-4</v>
+        <v>4.6157396722823485E-4</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="3"/>
@@ -1788,35 +1786,35 @@
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>-113</v>
+        <v>-91</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>-2.3652042866710854E-3</v>
+        <v>-1.90472203616876E-3</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="8"/>
-        <v>-936</v>
+        <v>-512</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="9"/>
-        <v>-1.9259655548468091E-2</v>
+        <v>-1.0623067825798249E-2</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1830,41 +1828,41 @@
         <v>13652</v>
       </c>
       <c r="D18" s="10">
-        <v>13895</v>
+        <v>13832</v>
       </c>
       <c r="E18" s="9">
-        <v>13526</v>
+        <v>13558</v>
       </c>
       <c r="F18" s="9">
-        <v>13558</v>
+        <v>13535</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>-23</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>2.365813987875276E-3</v>
+        <v>-1.696415400501583E-3</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>-94</v>
+        <v>-117</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>-6.8854380310576779E-3</v>
+        <v>-8.5701728684441925E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N18" s="18">
         <f t="shared" si="7"/>
@@ -1872,15 +1870,15 @@
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-337</v>
+        <v>-297</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="9"/>
-        <v>-2.4253328535444374E-2</v>
+        <v>-2.147194910352801E-2</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R18" s="26">
         <f t="shared" si="11"/>
@@ -1898,57 +1896,57 @@
         <v>15458</v>
       </c>
       <c r="D19" s="10">
-        <v>15743</v>
+        <v>15591</v>
       </c>
       <c r="E19" s="9">
-        <v>15439</v>
+        <v>15440</v>
       </c>
       <c r="F19" s="9">
-        <v>15440</v>
+        <v>15508</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>6.4771034393507065E-5</v>
+        <v>4.4041450777201341E-3</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>-18</v>
+        <v>50</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>-1.1644455945141186E-3</v>
+        <v>3.2345710958727736E-3</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N19" s="18">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>-303</v>
+        <v>-83</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="9"/>
-        <v>-1.9246649304452745E-2</v>
+        <v>-5.32358411904299E-3</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="11"/>
@@ -1967,37 +1965,37 @@
         <v>98067</v>
       </c>
       <c r="D20" s="31">
-        <v>98367</v>
+        <v>97741</v>
       </c>
       <c r="E20" s="30">
-        <v>98474</v>
+        <v>98700</v>
       </c>
       <c r="F20" s="30">
-        <v>98700</v>
+        <v>98877</v>
       </c>
       <c r="G20" s="29">
         <f>F20-E20</f>
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="H20" s="32">
         <f>F20/E20-1</f>
-        <v>2.2950220362736307E-3</v>
+        <v>1.7933130699088196E-3</v>
       </c>
       <c r="I20" s="33">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="34">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="4"/>
-        <v>633</v>
+        <v>810</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="5"/>
-        <v>6.4547707179785085E-3</v>
+        <v>8.2596592125792068E-3</v>
       </c>
       <c r="M20" s="37">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
@@ -2005,19 +2003,19 @@
       </c>
       <c r="N20" s="38">
         <f>_xlfn.RANK.EQ(L20,$L$6:$L$37)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O20" s="39">
         <f>F20-D20</f>
-        <v>333</v>
+        <v>1136</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="9"/>
-        <v>3.3852816493336046E-3</v>
+        <v>1.1622553483185083E-2</v>
       </c>
       <c r="Q20" s="41">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="42">
         <f t="shared" si="11"/>
@@ -2036,61 +2034,61 @@
         <v>36276</v>
       </c>
       <c r="D21" s="10">
-        <v>36257</v>
+        <v>36156</v>
       </c>
       <c r="E21" s="9">
-        <v>36276</v>
+        <v>36281</v>
       </c>
       <c r="F21" s="9">
-        <v>36281</v>
+        <v>36326</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>1.3783217554297345E-4</v>
+        <v>1.2403186240732555E-3</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>1.3783217554297345E-4</v>
+        <v>1.3783217554306226E-3</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O21" s="19">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="9"/>
-        <v>6.6194114240003543E-4</v>
+        <v>4.7018475495077539E-3</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2104,53 +2102,53 @@
         <v>12099</v>
       </c>
       <c r="D22" s="10">
-        <v>12306</v>
+        <v>12188</v>
       </c>
       <c r="E22" s="9">
-        <v>12100</v>
+        <v>12102</v>
       </c>
       <c r="F22" s="9">
-        <v>12102</v>
+        <v>12135</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>1.6528925619829771E-4</v>
+        <v>2.7268220128904286E-3</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>2.4795437639468787E-4</v>
+        <v>2.9754525167369206E-3</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="8"/>
-        <v>-204</v>
+        <v>-53</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="9"/>
-        <v>-1.6577279375914133E-2</v>
+        <v>-4.3485395470954646E-3</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="10"/>
@@ -2158,7 +2156,7 @@
       </c>
       <c r="R22" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2172,61 +2170,61 @@
         <v>12766</v>
       </c>
       <c r="D23" s="10">
-        <v>12828</v>
+        <v>12691</v>
       </c>
       <c r="E23" s="9">
-        <v>12776</v>
+        <v>12803</v>
       </c>
       <c r="F23" s="9">
-        <v>12803</v>
+        <v>12871</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>2.1133375078272731E-3</v>
+        <v>5.31125517456843E-3</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>2.8983236722543992E-3</v>
+        <v>8.2249725834246945E-3</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>-25</v>
+        <v>180</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="9"/>
-        <v>-1.9488618646710254E-3</v>
+        <v>1.4183279489401901E-2</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R23" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2240,61 +2238,61 @@
         <v>69698</v>
       </c>
       <c r="D24" s="10">
-        <v>69395</v>
+        <v>68958</v>
       </c>
       <c r="E24" s="9">
-        <v>69678</v>
+        <v>69882</v>
       </c>
       <c r="F24" s="9">
-        <v>69882</v>
+        <v>69827</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>-55</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>2.9277533798328648E-3</v>
+        <v>-7.8704101199167376E-4</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>2.639960974490041E-3</v>
+        <v>1.8508422049412498E-3</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="8"/>
-        <v>487</v>
+        <v>869</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="9"/>
-        <v>7.0177966712299256E-3</v>
+        <v>1.2601873604222824E-2</v>
       </c>
       <c r="Q24" s="25">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2308,53 +2306,53 @@
         <v>13897</v>
       </c>
       <c r="D25" s="10">
-        <v>14001</v>
+        <v>13877</v>
       </c>
       <c r="E25" s="9">
-        <v>13855</v>
+        <v>13866</v>
       </c>
       <c r="F25" s="9">
-        <v>13866</v>
+        <v>13940</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>7.9393720678444524E-4</v>
+        <v>5.3367950382230411E-3</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>-31</v>
+        <v>43</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>-2.230697272792681E-3</v>
+        <v>3.0941929912930988E-3</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="8"/>
-        <v>-135</v>
+        <v>63</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="9"/>
-        <v>-9.642168416541641E-3</v>
+        <v>4.5398861425380854E-3</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="10"/>
@@ -2362,7 +2360,7 @@
       </c>
       <c r="R25" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -2376,61 +2374,61 @@
         <v>33169</v>
       </c>
       <c r="D26" s="10">
-        <v>33470</v>
+        <v>33120</v>
       </c>
       <c r="E26" s="9">
-        <v>33097</v>
+        <v>33102</v>
       </c>
       <c r="F26" s="9">
-        <v>33102</v>
+        <v>33006</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-96</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>1.5107109405687602E-4</v>
+        <v>-2.9001268805510794E-3</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>-67</v>
+        <v>-163</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>-2.0199583948867783E-3</v>
+        <v>-4.9142271397991655E-3</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O26" s="19">
         <f t="shared" si="8"/>
-        <v>-368</v>
+        <v>-114</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="9"/>
-        <v>-1.0994920824619059E-2</v>
+        <v>-3.4420289855072728E-3</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -2444,61 +2442,61 @@
         <v>26076</v>
       </c>
       <c r="D27" s="10">
-        <v>26071</v>
+        <v>25834</v>
       </c>
       <c r="E27" s="9">
-        <v>26121</v>
+        <v>26255</v>
       </c>
       <c r="F27" s="9">
-        <v>26255</v>
+        <v>26314</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>5.129972053137255E-3</v>
+        <v>2.2471910112360494E-3</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>6.8645497775732256E-3</v>
+        <v>9.1271667433654446E-3</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N27" s="18">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>184</v>
+        <v>480</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="9"/>
-        <v>7.0576502627439641E-3</v>
+        <v>1.8580165673143911E-2</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R27" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -2512,61 +2510,61 @@
         <v>16569</v>
       </c>
       <c r="D28" s="10">
-        <v>17267</v>
+        <v>16843</v>
       </c>
       <c r="E28" s="9">
-        <v>16718</v>
+        <v>16865</v>
       </c>
       <c r="F28" s="9">
-        <v>16865</v>
+        <v>16958</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>8.7929178131356256E-3</v>
+        <v>5.5143788911948821E-3</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>389</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>1.7864687066208029E-2</v>
+        <v>2.3477578610658467E-2</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>-402</v>
+        <v>115</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="9"/>
-        <v>-2.3281403833902869E-2</v>
+        <v>6.8277622751291567E-3</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R28" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -2580,37 +2578,37 @@
         <v>22803</v>
       </c>
       <c r="D29" s="10">
-        <v>23094</v>
+        <v>22951</v>
       </c>
       <c r="E29" s="9">
-        <v>22874</v>
+        <v>22910</v>
       </c>
       <c r="F29" s="9">
-        <v>22910</v>
+        <v>22964</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>1.5738392935209511E-3</v>
+        <v>2.3570493234394974E-3</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>4.6923650396877292E-3</v>
+        <v>7.0604744989695156E-3</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
@@ -2618,15 +2616,15 @@
       </c>
       <c r="N29" s="18">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O29" s="19">
         <f t="shared" si="8"/>
-        <v>-184</v>
+        <v>13</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="9"/>
-        <v>-7.967437429635349E-3</v>
+        <v>5.6642412095331274E-4</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="10"/>
@@ -2634,7 +2632,7 @@
       </c>
       <c r="R29" s="26">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2648,53 +2646,53 @@
         <v>40632</v>
       </c>
       <c r="D30" s="10">
-        <v>40775</v>
+        <v>40504</v>
       </c>
       <c r="E30" s="9">
-        <v>40759</v>
+        <v>40970</v>
       </c>
       <c r="F30" s="9">
-        <v>40970</v>
+        <v>41101</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>5.176770774552919E-3</v>
+        <v>3.1974615572369913E-3</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>469</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>8.3185666469778319E-3</v>
+        <v>1.1542626501279685E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O30" s="19">
         <f t="shared" si="8"/>
-        <v>195</v>
+        <v>597</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="9"/>
-        <v>4.7823421213979422E-3</v>
+        <v>1.4739285008888103E-2</v>
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="10"/>
@@ -2702,7 +2700,7 @@
       </c>
       <c r="R30" s="26">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2716,61 +2714,61 @@
         <v>37552</v>
       </c>
       <c r="D31" s="10">
-        <v>38045</v>
+        <v>37854</v>
       </c>
       <c r="E31" s="9">
-        <v>37502</v>
+        <v>37594</v>
       </c>
       <c r="F31" s="9">
-        <v>37594</v>
+        <v>37585</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>-9</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>2.4532024958667797E-3</v>
+        <v>-2.393999042400452E-4</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>1.1184490839368788E-3</v>
+        <v>8.7878142309327778E-4</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>-451</v>
+        <v>-269</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="9"/>
-        <v>-1.185438296753849E-2</v>
+        <v>-7.1062503302160573E-3</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R31" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2784,61 +2782,61 @@
         <v>10735</v>
       </c>
       <c r="D32" s="10">
-        <v>10643</v>
+        <v>10625</v>
       </c>
       <c r="E32" s="9">
-        <v>10864</v>
+        <v>10952</v>
       </c>
       <c r="F32" s="9">
-        <v>10952</v>
+        <v>10935</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>-17</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>8.1001472754049786E-3</v>
+        <v>-1.5522279035792286E-3</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>2.0214252445272418E-2</v>
+        <v>1.8630647414997759E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="8"/>
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="9"/>
-        <v>2.9033167340035693E-2</v>
+        <v>2.9176470588235359E-2</v>
       </c>
       <c r="Q32" s="25">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R32" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2852,61 +2850,61 @@
         <v>33799</v>
       </c>
       <c r="D33" s="10">
-        <v>34279</v>
+        <v>34120</v>
       </c>
       <c r="E33" s="9">
-        <v>33816</v>
+        <v>33776</v>
       </c>
       <c r="F33" s="9">
-        <v>33776</v>
+        <v>33844</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>68</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>-1.1828720132481818E-3</v>
+        <v>2.013263855992431E-3</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>-23</v>
+        <v>45</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>-6.8049350572496614E-4</v>
+        <v>1.33140033728818E-3</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="8"/>
-        <v>-503</v>
+        <v>-276</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="9"/>
-        <v>-1.4673706934274611E-2</v>
+        <v>-8.0890973036342739E-3</v>
       </c>
       <c r="Q33" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2920,21 +2918,21 @@
         <v>5146</v>
       </c>
       <c r="D34" s="10">
-        <v>5234</v>
+        <v>5191</v>
       </c>
       <c r="E34" s="9">
-        <v>5166</v>
+        <v>5187</v>
       </c>
       <c r="F34" s="9">
-        <v>5187</v>
+        <v>5236</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>4.0650406504065817E-3</v>
+        <v>9.4466936572199511E-3</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
@@ -2942,39 +2940,39 @@
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>7.9673532841042505E-3</v>
+        <v>1.748931208705784E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="8"/>
-        <v>-47</v>
+        <v>45</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="9"/>
-        <v>-8.9797478028276201E-3</v>
+        <v>8.6688499325755508E-3</v>
       </c>
       <c r="Q34" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2988,61 +2986,61 @@
         <v>43019</v>
       </c>
       <c r="D35" s="10">
-        <v>43925</v>
+        <v>43542</v>
       </c>
       <c r="E35" s="9">
-        <v>42905</v>
+        <v>42925</v>
       </c>
       <c r="F35" s="9">
-        <v>42925</v>
+        <v>43156</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>4.6614613681383865E-4</v>
+        <v>5.3814793244031378E-3</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>-94</v>
+        <v>137</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>-2.1850810107162388E-3</v>
+        <v>3.1846393454055821E-3</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N35" s="18">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O35" s="19">
         <f t="shared" si="8"/>
-        <v>-1000</v>
+        <v>-386</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="9"/>
-        <v>-2.2766078542970969E-2</v>
+        <v>-8.8650039042763584E-3</v>
       </c>
       <c r="Q35" s="25">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R35" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3056,61 +3054,61 @@
         <v>19413</v>
       </c>
       <c r="D36" s="10">
-        <v>20001</v>
+        <v>19728</v>
       </c>
       <c r="E36" s="9">
-        <v>19440</v>
+        <v>19565</v>
       </c>
       <c r="F36" s="9">
-        <v>19565</v>
+        <v>19630</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>6.4300411522633105E-3</v>
+        <v>3.3222591362125353E-3</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>7.8298047699993933E-3</v>
+        <v>1.1178076546644045E-2</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N36" s="18">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O36" s="19">
         <f t="shared" si="8"/>
-        <v>-436</v>
+        <v>-98</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="9"/>
-        <v>-2.17989100544973E-2</v>
+        <v>-4.9675587996755866E-3</v>
       </c>
       <c r="Q36" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R36" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3124,21 +3122,21 @@
         <v>11771</v>
       </c>
       <c r="D37" s="10">
-        <v>11931</v>
+        <v>11819</v>
       </c>
       <c r="E37" s="9">
-        <v>11770</v>
+        <v>11794</v>
       </c>
       <c r="F37" s="9">
-        <v>11794</v>
+        <v>11847</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>2.0390824129141727E-3</v>
+        <v>4.493810412073973E-3</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
@@ -3146,39 +3144,39 @@
       </c>
       <c r="J37" s="24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>1.953954634270616E-3</v>
+        <v>6.456545748024789E-3</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="8"/>
-        <v>-137</v>
+        <v>28</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="9"/>
-        <v>-1.1482692146509099E-2</v>
+        <v>2.3690667569167267E-3</v>
       </c>
       <c r="Q37" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R37" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3192,54 +3190,54 @@
         <v>1000414</v>
       </c>
       <c r="D38" s="46">
-        <v>1007751</v>
+        <v>1001062</v>
       </c>
       <c r="E38" s="45">
-        <v>1000910</v>
+        <v>1002537</v>
       </c>
       <c r="F38" s="45">
-        <v>1002537</v>
+        <v>1004265</v>
       </c>
       <c r="G38" s="44">
         <f t="shared" si="0"/>
-        <v>1627</v>
+        <v>1728</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>1.6255207760937918E-3</v>
+        <v>1.7236271579004203E-3</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
       <c r="K38" s="50">
         <f>F38-C38</f>
-        <v>2123</v>
+        <v>3851</v>
       </c>
       <c r="L38" s="51">
         <f t="shared" si="5"/>
-        <v>2.1221214417230794E-3</v>
+        <v>3.8494063457727989E-3</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="52">
         <f t="shared" si="8"/>
-        <v>-5214</v>
+        <v>3203</v>
       </c>
       <c r="P38" s="53">
         <f t="shared" si="9"/>
-        <v>-5.1738971233965536E-3</v>
+        <v>3.199602022651904E-3</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="49"/>
     </row>
-    <row r="39" spans="1:18" s="54" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="55"/>
       <c r="D39" s="55"/>
       <c r="G39" s="55"/>
       <c r="O39" s="56"/>
     </row>
-    <row r="40" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -3261,7 +3259,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="57" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J41" s="58"/>
       <c r="K41" s="58"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="patrones abril" sheetId="2" r:id="rId1"/>
+    <sheet name="patrones mayo" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -187,24 +187,24 @@
   </si>
   <si>
     <t>2021
-Marzo</t>
+Abril</t>
   </si>
   <si>
     <t>2021
-Abril</t>
-  </si>
-  <si>
-    <t>Abril 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Abril 2021 respecto a Abril 2020</t>
-  </si>
-  <si>
-    <t>Abril 2021 respecto a Marzo 2021</t>
+Mayo</t>
+  </si>
+  <si>
+    <t>Mayo 2021 respecto a Abril 2021</t>
+  </si>
+  <si>
+    <t>Mayo 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Mayo 2021 respecto a Mayo 2020</t>
   </si>
   <si>
     <t>2020
-Abril</t>
+Mayo</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -932,26 +932,26 @@
       <c r="D4" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="69" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="69" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
       <c r="K4" s="59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="60"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
@@ -962,7 +962,7 @@
       <c r="B5" s="66"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="70"/>
       <c r="G5" s="5" t="s">
         <v>4</v>
@@ -1012,57 +1012,57 @@
         <v>16017</v>
       </c>
       <c r="D6" s="10">
-        <v>16028</v>
+        <v>15950</v>
       </c>
       <c r="E6" s="9">
-        <v>16126</v>
+        <v>16189</v>
       </c>
       <c r="F6" s="9">
-        <v>16189</v>
+        <v>16211</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>3.9067344660796977E-3</v>
+        <v>1.3589474334425589E-3</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>1.0738590247861612E-2</v>
+        <v>1.2112130860960191E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N6" s="18">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O6" s="19">
         <f>F6-D6</f>
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="P6" s="20">
         <f>F6/D6-1</f>
-        <v>1.0044921387571737E-2</v>
+        <v>1.6363636363636358E-2</v>
       </c>
       <c r="Q6" s="25">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
@@ -1080,37 +1080,37 @@
         <v>41338</v>
       </c>
       <c r="D7" s="10">
-        <v>41132</v>
+        <v>40992</v>
       </c>
       <c r="E7" s="9">
-        <v>41658</v>
+        <v>41850</v>
       </c>
       <c r="F7" s="9">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>4.6089586634019408E-3</v>
+        <v>5.1373954599760463E-3</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>512</v>
+        <v>727</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>1.2385698388891475E-2</v>
+        <v>1.7586724079539318E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
@@ -1118,15 +1118,15 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N37" si="7">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O7" s="19">
         <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>718</v>
+        <v>1073</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>1.7455995332101626E-2</v>
+        <v>2.6175839188134375E-2</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="R7" s="26">
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1148,53 +1148,53 @@
         <v>12767</v>
       </c>
       <c r="D8" s="10">
-        <v>12587</v>
+        <v>12493</v>
       </c>
       <c r="E8" s="9">
-        <v>12933</v>
+        <v>12988</v>
       </c>
       <c r="F8" s="9">
-        <v>12988</v>
+        <v>13024</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>4.2526869249206456E-3</v>
+        <v>2.7717893440097896E-3</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>1.7310252996005415E-2</v>
+        <v>2.0130022714811568E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>401</v>
+        <v>531</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="9"/>
-        <v>3.1858266465400797E-2</v>
+        <v>4.2503802129192358E-2</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="10"/>
@@ -1216,37 +1216,37 @@
         <v>5807</v>
       </c>
       <c r="D9" s="10">
-        <v>5935</v>
+        <v>5908</v>
       </c>
       <c r="E9" s="9">
-        <v>5831</v>
+        <v>5860</v>
       </c>
       <c r="F9" s="9">
-        <v>5860</v>
+        <v>5894</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>4.9734179386040633E-3</v>
+        <v>5.8020477815698968E-3</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>9.1269157912863275E-3</v>
+        <v>1.4981918374375791E-2</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
@@ -1254,23 +1254,23 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" si="8"/>
-        <v>-75</v>
+        <v>-14</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="9"/>
-        <v>-1.2636899747262009E-2</v>
+        <v>-2.3696682464454666E-3</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1284,61 +1284,61 @@
         <v>14324</v>
       </c>
       <c r="D10" s="10">
-        <v>14277</v>
+        <v>14285</v>
       </c>
       <c r="E10" s="9">
-        <v>14373</v>
+        <v>14418</v>
       </c>
       <c r="F10" s="9">
-        <v>14418</v>
+        <v>14366</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>45</v>
+        <v>-52</v>
       </c>
       <c r="H10" s="22">
         <f>F10/E10-1</f>
-        <v>3.1308703819661332E-3</v>
+        <v>-3.6066028575392206E-3</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>6.5624127338732574E-3</v>
+        <v>2.9321418598156068E-3</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="8"/>
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="9"/>
-        <v>9.8760243748685639E-3</v>
+        <v>5.6702835141757557E-3</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1352,61 +1352,61 @@
         <v>39670</v>
       </c>
       <c r="D11" s="10">
-        <v>39876</v>
+        <v>39760</v>
       </c>
       <c r="E11" s="9">
-        <v>39950</v>
+        <v>40094</v>
       </c>
       <c r="F11" s="9">
-        <v>40094</v>
+        <v>40230</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>3.604505632039956E-3</v>
+        <v>3.3920287324786802E-3</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="24">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>424</v>
+        <v>560</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>1.0688177464078574E-2</v>
+        <v>1.4116460801613329E-2</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="8"/>
-        <v>218</v>
+        <v>470</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="9"/>
-        <v>5.4669475373658738E-3</v>
+        <v>1.1820925553319928E-2</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1420,41 +1420,41 @@
         <v>118117</v>
       </c>
       <c r="D12" s="10">
-        <v>118394</v>
+        <v>118016</v>
       </c>
       <c r="E12" s="9">
-        <v>117841</v>
+        <v>117816</v>
       </c>
       <c r="F12" s="9">
-        <v>117816</v>
+        <v>117947</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>131</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>-2.1215027027943201E-4</v>
+        <v>1.1119033068514028E-3</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>-301</v>
+        <v>-170</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>-2.5483207328327317E-3</v>
+        <v>-1.4392509122310715E-3</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="7"/>
@@ -1462,19 +1462,19 @@
       </c>
       <c r="O12" s="19">
         <f t="shared" si="8"/>
-        <v>-578</v>
+        <v>-69</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="9"/>
-        <v>-4.8820041556160154E-3</v>
+        <v>-5.846664859001649E-4</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R12" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1488,37 +1488,37 @@
         <v>34021</v>
       </c>
       <c r="D13" s="10">
-        <v>34298</v>
+        <v>34180</v>
       </c>
       <c r="E13" s="9">
-        <v>34104</v>
+        <v>34235</v>
       </c>
       <c r="F13" s="9">
-        <v>34235</v>
+        <v>34327</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>3.8411916490734832E-3</v>
+        <v>2.6873083102088025E-3</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>6.2902325034537299E-3</v>
+        <v>8.9944446077423468E-3</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
@@ -1526,23 +1526,23 @@
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>-63</v>
+        <v>147</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="9"/>
-        <v>-1.8368417983556373E-3</v>
+        <v>4.3007606787595076E-3</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1556,37 +1556,37 @@
         <v>10753</v>
       </c>
       <c r="D14" s="10">
-        <v>10679</v>
+        <v>10634</v>
       </c>
       <c r="E14" s="9">
-        <v>10794</v>
+        <v>10897</v>
       </c>
       <c r="F14" s="9">
-        <v>10897</v>
+        <v>10925</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>9.5423383361126213E-3</v>
+        <v>2.5695145452877544E-3</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>1.3391611643262413E-2</v>
+        <v>1.5995536129452148E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
@@ -1598,15 +1598,15 @@
       </c>
       <c r="O14" s="19">
         <f t="shared" si="8"/>
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="9"/>
-        <v>2.0413896432250223E-2</v>
+        <v>2.7365055482414968E-2</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="11"/>
@@ -1624,21 +1624,21 @@
         <v>14267</v>
       </c>
       <c r="D15" s="10">
-        <v>14245</v>
+        <v>14218</v>
       </c>
       <c r="E15" s="9">
-        <v>14316</v>
+        <v>14313</v>
       </c>
       <c r="F15" s="9">
-        <v>14313</v>
+        <v>14323</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>-2.0955574182734971E-4</v>
+        <v>6.986655488017135E-4</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
@@ -1646,35 +1646,35 @@
       </c>
       <c r="J15" s="24">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>3.2242237330903922E-3</v>
+        <v>3.9251419359360717E-3</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="8"/>
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="9"/>
-        <v>4.7736047736046672E-3</v>
+        <v>7.3850049233366022E-3</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="11"/>
@@ -1692,25 +1692,25 @@
         <v>72960</v>
       </c>
       <c r="D16" s="10">
-        <v>72249</v>
+        <v>72175</v>
       </c>
       <c r="E16" s="9">
-        <v>72421</v>
+        <v>72325</v>
       </c>
       <c r="F16" s="9">
-        <v>72325</v>
+        <v>72265</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>-60</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>-1.3255823587080551E-3</v>
+        <v>-8.2958866228832751E-4</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" si="3"/>
@@ -1718,11 +1718,11 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>-635</v>
+        <v>-695</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>-8.7033991228070429E-3</v>
+        <v>-9.5257675438596978E-3</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
@@ -1734,19 +1734,19 @@
       </c>
       <c r="O16" s="19">
         <f t="shared" si="8"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="9"/>
-        <v>1.0519176736010216E-3</v>
+        <v>1.2469691721510578E-3</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1760,41 +1760,41 @@
         <v>47776</v>
       </c>
       <c r="D17" s="10">
-        <v>48197</v>
+        <v>47920</v>
       </c>
       <c r="E17" s="9">
-        <v>47663</v>
+        <v>47685</v>
       </c>
       <c r="F17" s="9">
-        <v>47685</v>
+        <v>47805</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>4.6157396722823485E-4</v>
+        <v>2.5165146272412287E-3</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>-91</v>
+        <v>29</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>-1.90472203616876E-3</v>
+        <v>6.0699933020758046E-4</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
@@ -1802,15 +1802,15 @@
       </c>
       <c r="O17" s="19">
         <f t="shared" si="8"/>
-        <v>-512</v>
+        <v>-115</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="9"/>
-        <v>-1.0623067825798249E-2</v>
+        <v>-2.3998330550918379E-3</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="11"/>
@@ -1828,37 +1828,37 @@
         <v>13652</v>
       </c>
       <c r="D18" s="10">
-        <v>13832</v>
+        <v>13760</v>
       </c>
       <c r="E18" s="9">
-        <v>13558</v>
+        <v>13535</v>
       </c>
       <c r="F18" s="9">
-        <v>13535</v>
+        <v>13561</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>-1.696415400501583E-3</v>
+        <v>1.9209456963427129E-3</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>-117</v>
+        <v>-91</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>-8.5701728684441925E-3</v>
+        <v>-6.6656900087899151E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
@@ -1870,15 +1870,15 @@
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-297</v>
+        <v>-199</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="9"/>
-        <v>-2.147194910352801E-2</v>
+        <v>-1.4462209302325557E-2</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R18" s="26">
         <f t="shared" si="11"/>
@@ -1896,37 +1896,37 @@
         <v>15458</v>
       </c>
       <c r="D19" s="10">
-        <v>15591</v>
+        <v>15513</v>
       </c>
       <c r="E19" s="9">
-        <v>15440</v>
+        <v>15508</v>
       </c>
       <c r="F19" s="9">
-        <v>15508</v>
+        <v>15535</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>4.4041450777201341E-3</v>
+        <v>1.7410368841888069E-3</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>3.2345710958727736E-3</v>
+        <v>4.9812394876438404E-3</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>-83</v>
+        <v>22</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="9"/>
-        <v>-5.32358411904299E-3</v>
+        <v>1.4181654096563356E-3</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="10"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="R19" s="26">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S19" s="2"/>
     </row>
@@ -1965,37 +1965,37 @@
         <v>98067</v>
       </c>
       <c r="D20" s="31">
-        <v>97741</v>
+        <v>97536</v>
       </c>
       <c r="E20" s="30">
-        <v>98700</v>
+        <v>98877</v>
       </c>
       <c r="F20" s="30">
-        <v>98877</v>
+        <v>99245</v>
       </c>
       <c r="G20" s="29">
         <f>F20-E20</f>
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="H20" s="32">
         <f>F20/E20-1</f>
-        <v>1.7933130699088196E-3</v>
+        <v>3.7217957664572587E-3</v>
       </c>
       <c r="I20" s="33">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="4"/>
-        <v>810</v>
+        <v>1178</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="5"/>
-        <v>8.2596592125792068E-3</v>
+        <v>1.2012195743726251E-2</v>
       </c>
       <c r="M20" s="37">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
@@ -2007,11 +2007,11 @@
       </c>
       <c r="O20" s="39">
         <f>F20-D20</f>
-        <v>1136</v>
+        <v>1709</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="9"/>
-        <v>1.1622553483185083E-2</v>
+        <v>1.7521735564304475E-2</v>
       </c>
       <c r="Q20" s="41">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
@@ -2034,61 +2034,61 @@
         <v>36276</v>
       </c>
       <c r="D21" s="10">
-        <v>36156</v>
+        <v>36027</v>
       </c>
       <c r="E21" s="9">
-        <v>36281</v>
+        <v>36326</v>
       </c>
       <c r="F21" s="9">
-        <v>36326</v>
+        <v>36342</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>1.2403186240732555E-3</v>
+        <v>4.4045587182739432E-4</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>1.3783217554306226E-3</v>
+        <v>1.8193847171683597E-3</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" s="19">
         <f t="shared" si="8"/>
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="9"/>
-        <v>4.7018475495077539E-3</v>
+        <v>8.7434424181862536E-3</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2102,61 +2102,61 @@
         <v>12099</v>
       </c>
       <c r="D22" s="10">
-        <v>12188</v>
+        <v>12119</v>
       </c>
       <c r="E22" s="9">
-        <v>12102</v>
+        <v>12135</v>
       </c>
       <c r="F22" s="9">
-        <v>12135</v>
+        <v>12150</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>2.7268220128904286E-3</v>
+        <v>1.2360939431397266E-3</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>2.9754525167369206E-3</v>
+        <v>4.215224398710582E-3</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="8"/>
-        <v>-53</v>
+        <v>31</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="9"/>
-        <v>-4.3485395470954646E-3</v>
+        <v>2.5579668289463786E-3</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R22" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2170,37 +2170,37 @@
         <v>12766</v>
       </c>
       <c r="D23" s="10">
-        <v>12691</v>
+        <v>12615</v>
       </c>
       <c r="E23" s="9">
-        <v>12803</v>
+        <v>12871</v>
       </c>
       <c r="F23" s="9">
-        <v>12871</v>
+        <v>12903</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>5.31125517456843E-3</v>
+        <v>2.4862093077460123E-3</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>8.2249725834246945E-3</v>
+        <v>1.0731630894563748E-2</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="6"/>
@@ -2212,19 +2212,19 @@
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="9"/>
-        <v>1.4183279489401901E-2</v>
+        <v>2.282996432818063E-2</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R23" s="26">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2238,53 +2238,53 @@
         <v>69698</v>
       </c>
       <c r="D24" s="10">
-        <v>68958</v>
+        <v>68981</v>
       </c>
       <c r="E24" s="9">
-        <v>69882</v>
+        <v>69827</v>
       </c>
       <c r="F24" s="9">
-        <v>69827</v>
+        <v>70064</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>237</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>-7.8704101199167376E-4</v>
+        <v>3.3941025677746151E-3</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>366</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>1.8508422049412498E-3</v>
+        <v>5.2512267209963159E-3</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="8"/>
-        <v>869</v>
+        <v>1083</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="9"/>
-        <v>1.2601873604222824E-2</v>
+        <v>1.5699975355532692E-2</v>
       </c>
       <c r="Q24" s="25">
         <f t="shared" si="10"/>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="R24" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2306,61 +2306,61 @@
         <v>13897</v>
       </c>
       <c r="D25" s="10">
-        <v>13877</v>
+        <v>13822</v>
       </c>
       <c r="E25" s="9">
-        <v>13866</v>
+        <v>13940</v>
       </c>
       <c r="F25" s="9">
-        <v>13940</v>
+        <v>13919</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>-21</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>5.3367950382230411E-3</v>
+        <v>-1.5064562410329607E-3</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>3.0941929912930988E-3</v>
+        <v>1.583075483917451E-3</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="8"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="9"/>
-        <v>4.5398861425380854E-3</v>
+        <v>7.0177977137895198E-3</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R25" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -2374,41 +2374,41 @@
         <v>33169</v>
       </c>
       <c r="D26" s="10">
-        <v>33120</v>
+        <v>32994</v>
       </c>
       <c r="E26" s="9">
-        <v>33102</v>
+        <v>33006</v>
       </c>
       <c r="F26" s="9">
-        <v>33006</v>
+        <v>32984</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>-22</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>-2.9001268805510794E-3</v>
+        <v>-6.6654547657996055E-4</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>-163</v>
+        <v>-185</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>-4.9142271397991655E-3</v>
+        <v>-5.5774970605082519E-3</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="7"/>
@@ -2416,19 +2416,19 @@
       </c>
       <c r="O26" s="19">
         <f t="shared" si="8"/>
-        <v>-114</v>
+        <v>-10</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="9"/>
-        <v>-3.4420289855072728E-3</v>
+        <v>-3.0308540946843987E-4</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -2442,41 +2442,41 @@
         <v>26076</v>
       </c>
       <c r="D27" s="10">
-        <v>25834</v>
+        <v>25776</v>
       </c>
       <c r="E27" s="9">
-        <v>26255</v>
+        <v>26314</v>
       </c>
       <c r="F27" s="9">
-        <v>26314</v>
+        <v>26425</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>2.2471910112360494E-3</v>
+        <v>4.2182868435054477E-3</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>349</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>9.1271667433654446E-3</v>
+        <v>1.3383954594262892E-2</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N27" s="18">
         <f t="shared" si="7"/>
@@ -2484,11 +2484,11 @@
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>480</v>
+        <v>649</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="9"/>
-        <v>1.8580165673143911E-2</v>
+        <v>2.5178460583488604E-2</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="10"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="R27" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -2510,41 +2510,41 @@
         <v>16569</v>
       </c>
       <c r="D28" s="10">
-        <v>16843</v>
+        <v>16719</v>
       </c>
       <c r="E28" s="9">
-        <v>16865</v>
+        <v>16958</v>
       </c>
       <c r="F28" s="9">
-        <v>16958</v>
+        <v>17142</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>5.5143788911948821E-3</v>
+        <v>1.0850336124542892E-2</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>389</v>
+        <v>573</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>2.3477578610658467E-2</v>
+        <v>3.4582654354517572E-2</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" s="18">
         <f t="shared" si="7"/>
@@ -2552,19 +2552,19 @@
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>115</v>
+        <v>423</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="9"/>
-        <v>6.8277622751291567E-3</v>
+        <v>2.5300556253364359E-2</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R28" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -2578,61 +2578,61 @@
         <v>22803</v>
       </c>
       <c r="D29" s="10">
-        <v>22951</v>
+        <v>22888</v>
       </c>
       <c r="E29" s="9">
-        <v>22910</v>
+        <v>22964</v>
       </c>
       <c r="F29" s="9">
-        <v>22964</v>
+        <v>22967</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>2.3570493234394974E-3</v>
+        <v>1.3063926145262528E-4</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>7.0604744989695156E-3</v>
+        <v>7.1920361355961582E-3</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O29" s="19">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="9"/>
-        <v>5.6642412095331274E-4</v>
+        <v>3.4515903530234482E-3</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R29" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2646,37 +2646,37 @@
         <v>40632</v>
       </c>
       <c r="D30" s="10">
-        <v>40504</v>
+        <v>40280</v>
       </c>
       <c r="E30" s="9">
-        <v>40970</v>
+        <v>41101</v>
       </c>
       <c r="F30" s="9">
-        <v>41101</v>
+        <v>41236</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>3.1974615572369913E-3</v>
+        <v>3.2845916157757671E-3</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>469</v>
+        <v>604</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>1.1542626501279685E-2</v>
+        <v>1.4865130931285719E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
@@ -2684,15 +2684,15 @@
       </c>
       <c r="N30" s="18">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O30" s="19">
         <f t="shared" si="8"/>
-        <v>597</v>
+        <v>956</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="9"/>
-        <v>1.4739285008888103E-2</v>
+        <v>2.3733862959284924E-2</v>
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="10"/>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="R30" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2714,61 +2714,61 @@
         <v>37552</v>
       </c>
       <c r="D31" s="10">
-        <v>37854</v>
+        <v>37753</v>
       </c>
       <c r="E31" s="9">
-        <v>37594</v>
+        <v>37585</v>
       </c>
       <c r="F31" s="9">
-        <v>37585</v>
+        <v>37680</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>95</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>-2.393999042400452E-4</v>
+        <v>2.5276040973791769E-3</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>8.7878142309327778E-4</v>
+        <v>3.408606731998276E-3</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>-269</v>
+        <v>-73</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="9"/>
-        <v>-7.1062503302160573E-3</v>
+        <v>-1.933621169178612E-3</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R31" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2782,57 +2782,57 @@
         <v>10735</v>
       </c>
       <c r="D32" s="10">
-        <v>10625</v>
+        <v>10590</v>
       </c>
       <c r="E32" s="9">
-        <v>10952</v>
+        <v>10935</v>
       </c>
       <c r="F32" s="9">
-        <v>10935</v>
+        <v>10939</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>-1.5522279035792286E-3</v>
+        <v>3.6579789666202345E-4</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>1.8630647414997759E-2</v>
+        <v>1.9003260363297692E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="8"/>
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="9"/>
-        <v>2.9176470588235359E-2</v>
+        <v>3.2955618508026419E-2</v>
       </c>
       <c r="Q32" s="25">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R32" s="26">
         <f t="shared" si="11"/>
@@ -2850,61 +2850,61 @@
         <v>33799</v>
       </c>
       <c r="D33" s="10">
-        <v>34120</v>
+        <v>34110</v>
       </c>
       <c r="E33" s="9">
-        <v>33776</v>
+        <v>33844</v>
       </c>
       <c r="F33" s="9">
-        <v>33844</v>
+        <v>33906</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>2.013263855992431E-3</v>
+        <v>1.8319347594846214E-3</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>1.33140033728818E-3</v>
+        <v>3.1657741353294799E-3</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="8"/>
-        <v>-276</v>
+        <v>-204</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="9"/>
-        <v>-8.0890973036342739E-3</v>
+        <v>-5.9806508355321197E-3</v>
       </c>
       <c r="Q33" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2918,61 +2918,61 @@
         <v>5146</v>
       </c>
       <c r="D34" s="10">
-        <v>5191</v>
+        <v>5188</v>
       </c>
       <c r="E34" s="9">
-        <v>5187</v>
+        <v>5236</v>
       </c>
       <c r="F34" s="9">
-        <v>5236</v>
+        <v>5215</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>-21</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>9.4466936572199511E-3</v>
+        <v>-4.0106951871657914E-3</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>1.748931208705784E-2</v>
+        <v>1.3408472600077825E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="9"/>
-        <v>8.6688499325755508E-3</v>
+        <v>5.2043176561296089E-3</v>
       </c>
       <c r="Q34" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2986,37 +2986,37 @@
         <v>43019</v>
       </c>
       <c r="D35" s="10">
-        <v>43542</v>
+        <v>43256</v>
       </c>
       <c r="E35" s="9">
-        <v>42925</v>
+        <v>43156</v>
       </c>
       <c r="F35" s="9">
-        <v>43156</v>
+        <v>43190</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>5.3814793244031378E-3</v>
+        <v>7.8783946612293043E-4</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>3.1846393454055821E-3</v>
+        <v>3.9749877960901792E-3</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
@@ -3028,19 +3028,19 @@
       </c>
       <c r="O35" s="19">
         <f t="shared" si="8"/>
-        <v>-386</v>
+        <v>-66</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="9"/>
-        <v>-8.8650039042763584E-3</v>
+        <v>-1.5257998890327862E-3</v>
       </c>
       <c r="Q35" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R35" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3054,37 +3054,37 @@
         <v>19413</v>
       </c>
       <c r="D36" s="10">
-        <v>19728</v>
+        <v>19586</v>
       </c>
       <c r="E36" s="9">
-        <v>19565</v>
+        <v>19630</v>
       </c>
       <c r="F36" s="9">
-        <v>19630</v>
+        <v>19720</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>3.3222591362125353E-3</v>
+        <v>4.5848191543556016E-3</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>1.1178076546644045E-2</v>
+        <v>1.5814145160459425E-2</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
@@ -3092,23 +3092,23 @@
       </c>
       <c r="N36" s="18">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O36" s="19">
         <f t="shared" si="8"/>
-        <v>-98</v>
+        <v>134</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="9"/>
-        <v>-4.9675587996755866E-3</v>
+        <v>6.8416215664250934E-3</v>
       </c>
       <c r="Q36" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R36" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3122,37 +3122,37 @@
         <v>11771</v>
       </c>
       <c r="D37" s="10">
-        <v>11819</v>
+        <v>11723</v>
       </c>
       <c r="E37" s="9">
-        <v>11794</v>
+        <v>11847</v>
       </c>
       <c r="F37" s="9">
-        <v>11847</v>
+        <v>11869</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>4.493810412073973E-3</v>
+        <v>1.8570102135562205E-3</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J37" s="24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>6.456545748024789E-3</v>
+        <v>8.3255458329793974E-3</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
@@ -3160,23 +3160,23 @@
       </c>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="9"/>
-        <v>2.3690667569167267E-3</v>
+        <v>1.2454149961613981E-2</v>
       </c>
       <c r="Q37" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R37" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3190,41 +3190,41 @@
         <v>1000414</v>
       </c>
       <c r="D38" s="46">
-        <v>1001062</v>
+        <v>997767</v>
       </c>
       <c r="E38" s="45">
-        <v>1002537</v>
+        <v>1004265</v>
       </c>
       <c r="F38" s="45">
-        <v>1004265</v>
+        <v>1006374</v>
       </c>
       <c r="G38" s="44">
         <f t="shared" si="0"/>
-        <v>1728</v>
+        <v>2109</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>1.7236271579004203E-3</v>
+        <v>2.1000433152604803E-3</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
       <c r="K38" s="50">
         <f>F38-C38</f>
-        <v>3851</v>
+        <v>5960</v>
       </c>
       <c r="L38" s="51">
         <f t="shared" si="5"/>
-        <v>3.8494063457727989E-3</v>
+        <v>5.9575335810975183E-3</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="52">
         <f t="shared" si="8"/>
-        <v>3203</v>
+        <v>8607</v>
       </c>
       <c r="P38" s="53">
         <f t="shared" si="9"/>
-        <v>3.199602022651904E-3</v>
+        <v>8.6262624440376356E-3</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="49"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="patrones mayo" sheetId="2" r:id="rId1"/>
+    <sheet name="julio" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -187,24 +187,24 @@
   </si>
   <si>
     <t>2021
-Abril</t>
+Junio</t>
   </si>
   <si>
     <t>2021
-Mayo</t>
-  </si>
-  <si>
-    <t>Mayo 2021 respecto a Abril 2021</t>
-  </si>
-  <si>
-    <t>Mayo 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Mayo 2021 respecto a Mayo 2020</t>
+Julio</t>
   </si>
   <si>
     <t>2020
-Mayo</t>
+Julio</t>
+  </si>
+  <si>
+    <t>Julio 2021 respecto a Junio 2021</t>
+  </si>
+  <si>
+    <t>Julio 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Julio 2021 respecto a Julio 2020</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -626,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -853,7 +856,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,28 +933,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="67" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="69" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
       <c r="K4" s="59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="60"/>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
@@ -962,7 +965,7 @@
       <c r="B5" s="66"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
-      <c r="E5" s="70"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="70"/>
       <c r="G5" s="5" t="s">
         <v>4</v>
@@ -1012,25 +1015,25 @@
         <v>16017</v>
       </c>
       <c r="D6" s="10">
-        <v>15950</v>
+        <v>15996</v>
       </c>
       <c r="E6" s="9">
-        <v>16189</v>
+        <v>16255</v>
       </c>
       <c r="F6" s="9">
-        <v>16211</v>
+        <v>16473</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>1.3589474334425589E-3</v>
+        <v>1.3411258074438548E-2</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
@@ -1038,35 +1041,35 @@
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>194</v>
+        <v>456</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>1.2112130860960191E-2</v>
+        <v>2.8469750889679624E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N6" s="18">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O6" s="19">
         <f>F6-D6</f>
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="P6" s="20">
         <f>F6/D6-1</f>
-        <v>1.6363636363636358E-2</v>
+        <v>2.9819954988747233E-2</v>
       </c>
       <c r="Q6" s="25">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1083,58 +1086,58 @@
         <v>40992</v>
       </c>
       <c r="E7" s="9">
-        <v>41850</v>
+        <v>42355</v>
       </c>
       <c r="F7" s="9">
-        <v>42065</v>
+        <v>43092</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>215</v>
+        <v>737</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>5.1373954599760463E-3</v>
+        <v>1.7400543029158388E-2</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>727</v>
+        <v>1754</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>1.7586724079539318E-2</v>
+        <v>4.2430693308819878E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N37" si="7">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O7" s="19">
         <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>1073</v>
+        <v>2100</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>2.6175839188134375E-2</v>
+        <v>5.1229508196721341E-2</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" s="26">
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1148,61 +1151,61 @@
         <v>12767</v>
       </c>
       <c r="D8" s="10">
-        <v>12493</v>
+        <v>12656</v>
       </c>
       <c r="E8" s="9">
-        <v>12988</v>
+        <v>13133</v>
       </c>
       <c r="F8" s="9">
-        <v>13024</v>
+        <v>13392</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>2.7717893440097896E-3</v>
+        <v>1.9721312723673279E-2</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>257</v>
+        <v>625</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>2.0130022714811568E-2</v>
+        <v>4.8954335395942739E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>531</v>
+        <v>736</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="9"/>
-        <v>4.2503802129192358E-2</v>
+        <v>5.8154235145385647E-2</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R8" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1216,61 +1219,61 @@
         <v>5807</v>
       </c>
       <c r="D9" s="10">
-        <v>5908</v>
+        <v>5902</v>
       </c>
       <c r="E9" s="9">
-        <v>5860</v>
+        <v>5921</v>
       </c>
       <c r="F9" s="9">
-        <v>5894</v>
+        <v>6066</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>5.8020477815698968E-3</v>
+        <v>2.4489106569836272E-2</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>1.4981918374375791E-2</v>
+        <v>4.4601343206474908E-2</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" si="8"/>
-        <v>-14</v>
+        <v>164</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="9"/>
-        <v>-2.3696682464454666E-3</v>
+        <v>2.7787190782785576E-2</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1284,61 +1287,61 @@
         <v>14324</v>
       </c>
       <c r="D10" s="10">
-        <v>14285</v>
+        <v>14390</v>
       </c>
       <c r="E10" s="9">
-        <v>14418</v>
+        <v>14447</v>
       </c>
       <c r="F10" s="9">
-        <v>14366</v>
+        <v>14671</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>-52</v>
+        <v>224</v>
       </c>
       <c r="H10" s="22">
         <f>F10/E10-1</f>
-        <v>-3.6066028575392206E-3</v>
+        <v>1.5504949124385714E-2</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>2.9321418598156068E-3</v>
+        <v>2.4225076794191613E-2</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="8"/>
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="9"/>
-        <v>5.6702835141757557E-3</v>
+        <v>1.9527449617790182E-2</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1352,53 +1355,53 @@
         <v>39670</v>
       </c>
       <c r="D11" s="10">
-        <v>39760</v>
+        <v>39778</v>
       </c>
       <c r="E11" s="9">
-        <v>40094</v>
+        <v>40523</v>
       </c>
       <c r="F11" s="9">
-        <v>40230</v>
+        <v>41096</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>573</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>3.3920287324786802E-3</v>
+        <v>1.414011795770298E-2</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J11" s="24">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>560</v>
+        <v>1426</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>1.4116460801613329E-2</v>
+        <v>3.5946559112679521E-2</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="8"/>
-        <v>470</v>
+        <v>1318</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="9"/>
-        <v>1.1820925553319928E-2</v>
+        <v>3.3133893106742418E-2</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="10"/>
@@ -1406,7 +1409,7 @@
       </c>
       <c r="R11" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1420,61 +1423,61 @@
         <v>118117</v>
       </c>
       <c r="D12" s="10">
-        <v>118016</v>
+        <v>118631</v>
       </c>
       <c r="E12" s="9">
-        <v>117816</v>
+        <v>118428</v>
       </c>
       <c r="F12" s="9">
-        <v>117947</v>
+        <v>120984</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>2556</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>1.1119033068514028E-3</v>
+        <v>2.1582733812949728E-2</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>-170</v>
+        <v>2867</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>-1.4392509122310715E-3</v>
+        <v>2.4272543325685625E-2</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="8"/>
-        <v>-69</v>
+        <v>2353</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="9"/>
-        <v>-5.846664859001649E-4</v>
+        <v>1.98346132123981E-2</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="R12" s="26">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1488,25 +1491,25 @@
         <v>34021</v>
       </c>
       <c r="D13" s="10">
-        <v>34180</v>
+        <v>34269</v>
       </c>
       <c r="E13" s="9">
-        <v>34235</v>
+        <v>34490</v>
       </c>
       <c r="F13" s="9">
-        <v>34327</v>
+        <v>35062</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>572</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>2.6873083102088025E-3</v>
+        <v>1.6584517251377218E-2</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="3"/>
@@ -1514,35 +1517,35 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>306</v>
+        <v>1041</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>8.9944446077423468E-3</v>
+        <v>3.0598747832221385E-2</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>147</v>
+        <v>793</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="9"/>
-        <v>4.3007606787595076E-3</v>
+        <v>2.314044763488865E-2</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1556,61 +1559,61 @@
         <v>10753</v>
       </c>
       <c r="D14" s="10">
-        <v>10634</v>
+        <v>10715</v>
       </c>
       <c r="E14" s="9">
-        <v>10897</v>
+        <v>11020</v>
       </c>
       <c r="F14" s="9">
-        <v>10925</v>
+        <v>11173</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>2.5695145452877544E-3</v>
+        <v>1.3883847549909234E-2</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>1.5995536129452148E-2</v>
+        <v>3.9058867292848465E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="8"/>
-        <v>291</v>
+        <v>458</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="9"/>
-        <v>2.7365055482414968E-2</v>
+        <v>4.2743817078861435E-2</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1624,61 +1627,61 @@
         <v>14267</v>
       </c>
       <c r="D15" s="10">
-        <v>14218</v>
+        <v>14232</v>
       </c>
       <c r="E15" s="9">
-        <v>14313</v>
+        <v>14356</v>
       </c>
       <c r="F15" s="9">
-        <v>14323</v>
+        <v>14515</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>6.986655488017135E-4</v>
+        <v>1.1075508498188835E-2</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>3.9251419359360717E-3</v>
+        <v>1.7382771430574095E-2</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="9"/>
-        <v>7.3850049233366022E-3</v>
+        <v>1.9884766722878089E-2</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1692,61 +1695,61 @@
         <v>72960</v>
       </c>
       <c r="D16" s="10">
-        <v>72175</v>
+        <v>72768</v>
       </c>
       <c r="E16" s="9">
-        <v>72325</v>
+        <v>72470</v>
       </c>
       <c r="F16" s="9">
-        <v>72265</v>
+        <v>74305</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>1835</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>-8.2958866228832751E-4</v>
+        <v>2.5320822409272692E-2</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>-695</v>
+        <v>1345</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>-9.5257675438596978E-3</v>
+        <v>1.8434758771929793E-2</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O16" s="19">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>1537</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="9"/>
-        <v>1.2469691721510578E-3</v>
+        <v>2.1121921723834758E-2</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1760,61 +1763,61 @@
         <v>47776</v>
       </c>
       <c r="D17" s="10">
-        <v>47920</v>
+        <v>47892</v>
       </c>
       <c r="E17" s="9">
-        <v>47685</v>
+        <v>48063</v>
       </c>
       <c r="F17" s="9">
-        <v>47805</v>
+        <v>48679</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>616</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>2.5165146272412287E-3</v>
+        <v>1.281651166177733E-2</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>903</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>6.0699933020758046E-4</v>
+        <v>1.8900703281982567E-2</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="8"/>
-        <v>-115</v>
+        <v>787</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="9"/>
-        <v>-2.3998330550918379E-3</v>
+        <v>1.6432807149419526E-2</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1828,57 +1831,57 @@
         <v>13652</v>
       </c>
       <c r="D18" s="10">
-        <v>13760</v>
+        <v>13791</v>
       </c>
       <c r="E18" s="9">
-        <v>13535</v>
+        <v>13554</v>
       </c>
       <c r="F18" s="9">
-        <v>13561</v>
+        <v>13680</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>1.9209456963427129E-3</v>
+        <v>9.2961487383798058E-3</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>-91</v>
+        <v>28</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>-6.6656900087899151E-3</v>
+        <v>2.0509815411662302E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N18" s="18">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-199</v>
+        <v>-111</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="9"/>
-        <v>-1.4462209302325557E-2</v>
+        <v>-8.0487274309332113E-3</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R18" s="26">
         <f t="shared" si="11"/>
@@ -1896,61 +1899,61 @@
         <v>15458</v>
       </c>
       <c r="D19" s="10">
-        <v>15513</v>
+        <v>15502</v>
       </c>
       <c r="E19" s="9">
-        <v>15508</v>
+        <v>15549</v>
       </c>
       <c r="F19" s="9">
-        <v>15535</v>
+        <v>15750</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>1.7410368841888069E-3</v>
+        <v>1.2926876326451842E-2</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>4.9812394876438404E-3</v>
+        <v>1.8889895199896589E-2</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N19" s="18">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="9"/>
-        <v>1.4181654096563356E-3</v>
+        <v>1.5997935750225789E-2</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S19" s="2"/>
     </row>
@@ -1965,37 +1968,37 @@
         <v>98067</v>
       </c>
       <c r="D20" s="31">
-        <v>97536</v>
+        <v>97738</v>
       </c>
       <c r="E20" s="30">
-        <v>98877</v>
+        <v>99679</v>
       </c>
       <c r="F20" s="30">
-        <v>99245</v>
+        <v>100963</v>
       </c>
       <c r="G20" s="29">
         <f>F20-E20</f>
-        <v>368</v>
+        <v>1284</v>
       </c>
       <c r="H20" s="32">
         <f>F20/E20-1</f>
-        <v>3.7217957664572587E-3</v>
+        <v>1.2881349130709596E-2</v>
       </c>
       <c r="I20" s="33">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" s="34">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="4"/>
-        <v>1178</v>
+        <v>2896</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="5"/>
-        <v>1.2012195743726251E-2</v>
+        <v>2.9530830962505306E-2</v>
       </c>
       <c r="M20" s="37">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
@@ -2003,15 +2006,15 @@
       </c>
       <c r="N20" s="38">
         <f>_xlfn.RANK.EQ(L20,$L$6:$L$37)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O20" s="39">
         <f>F20-D20</f>
-        <v>1709</v>
+        <v>3225</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="9"/>
-        <v>1.7521735564304475E-2</v>
+        <v>3.2996378071988408E-2</v>
       </c>
       <c r="Q20" s="41">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
@@ -2019,7 +2022,7 @@
       </c>
       <c r="R20" s="42">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S20" s="2"/>
     </row>
@@ -2034,61 +2037,61 @@
         <v>36276</v>
       </c>
       <c r="D21" s="10">
-        <v>36027</v>
+        <v>36086</v>
       </c>
       <c r="E21" s="9">
-        <v>36326</v>
+        <v>36500</v>
       </c>
       <c r="F21" s="9">
-        <v>36342</v>
+        <v>36738</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>4.4045587182739432E-4</v>
+        <v>6.5205479452055126E-3</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>462</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>1.8193847171683597E-3</v>
+        <v>1.273569302017874E-2</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O21" s="19">
         <f t="shared" si="8"/>
-        <v>315</v>
+        <v>652</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="9"/>
-        <v>8.7434424181862536E-3</v>
+        <v>1.8067948789004085E-2</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2102,61 +2105,61 @@
         <v>12099</v>
       </c>
       <c r="D22" s="10">
-        <v>12119</v>
+        <v>12108</v>
       </c>
       <c r="E22" s="9">
-        <v>12135</v>
+        <v>12169</v>
       </c>
       <c r="F22" s="9">
-        <v>12150</v>
+        <v>12356</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>1.2360939431397266E-3</v>
+        <v>1.536691593393047E-2</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>4.215224398710582E-3</v>
+        <v>2.1241424911149664E-2</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="9"/>
-        <v>2.5579668289463786E-3</v>
+        <v>2.0482325735051266E-2</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R22" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2170,61 +2173,61 @@
         <v>12766</v>
       </c>
       <c r="D23" s="10">
-        <v>12615</v>
+        <v>12620</v>
       </c>
       <c r="E23" s="9">
-        <v>12871</v>
+        <v>13053</v>
       </c>
       <c r="F23" s="9">
-        <v>12903</v>
+        <v>13268</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>2.4862093077460123E-3</v>
+        <v>1.6471309277560797E-2</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>137</v>
+        <v>502</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>1.0731630894563748E-2</v>
+        <v>3.9323202255992395E-2</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>288</v>
+        <v>648</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="9"/>
-        <v>2.282996432818063E-2</v>
+        <v>5.1347068145800367E-2</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R23" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2238,53 +2241,53 @@
         <v>69698</v>
       </c>
       <c r="D24" s="10">
-        <v>68981</v>
+        <v>69665</v>
       </c>
       <c r="E24" s="9">
-        <v>69827</v>
+        <v>70678</v>
       </c>
       <c r="F24" s="9">
-        <v>70064</v>
+        <v>72034</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>1356</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>3.3941025677746151E-3</v>
+        <v>1.9185602309063743E-2</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>366</v>
+        <v>2336</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>5.2512267209963159E-3</v>
+        <v>3.3516026284828859E-2</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="8"/>
-        <v>1083</v>
+        <v>2369</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="9"/>
-        <v>1.5699975355532692E-2</v>
+        <v>3.4005598220053113E-2</v>
       </c>
       <c r="Q24" s="25">
         <f t="shared" si="10"/>
@@ -2292,7 +2295,7 @@
       </c>
       <c r="R24" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2306,61 +2309,61 @@
         <v>13897</v>
       </c>
       <c r="D25" s="10">
-        <v>13822</v>
+        <v>13863</v>
       </c>
       <c r="E25" s="9">
-        <v>13940</v>
+        <v>14047</v>
       </c>
       <c r="F25" s="9">
-        <v>13919</v>
+        <v>14214</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>167</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>-1.5064562410329607E-3</v>
+        <v>1.1888659500249199E-2</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>1.583075483917451E-3</v>
+        <v>2.2810678563718767E-2</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="9"/>
-        <v>7.0177977137895198E-3</v>
+        <v>2.5319194979441573E-2</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R25" s="26">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -2374,41 +2377,41 @@
         <v>33169</v>
       </c>
       <c r="D26" s="10">
-        <v>32994</v>
+        <v>33048</v>
       </c>
       <c r="E26" s="9">
-        <v>33006</v>
+        <v>33138</v>
       </c>
       <c r="F26" s="9">
-        <v>32984</v>
+        <v>33656</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>518</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>-6.6654547657996055E-4</v>
+        <v>1.5631601182932053E-2</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>-185</v>
+        <v>487</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>-5.5774970605082519E-3</v>
+        <v>1.4682384153878569E-2</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="7"/>
@@ -2416,15 +2419,15 @@
       </c>
       <c r="O26" s="19">
         <f t="shared" si="8"/>
-        <v>-10</v>
+        <v>608</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="9"/>
-        <v>-3.0308540946843987E-4</v>
+        <v>1.8397482449770131E-2</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" si="11"/>
@@ -2442,25 +2445,25 @@
         <v>26076</v>
       </c>
       <c r="D27" s="10">
-        <v>25776</v>
+        <v>25996</v>
       </c>
       <c r="E27" s="9">
-        <v>26314</v>
+        <v>26639</v>
       </c>
       <c r="F27" s="9">
-        <v>26425</v>
+        <v>27264</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>625</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>4.2182868435054477E-3</v>
+        <v>2.3461841660723071E-2</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="3"/>
@@ -2468,31 +2471,31 @@
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>349</v>
+        <v>1188</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>1.3383954594262892E-2</v>
+        <v>4.5559134836631321E-2</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N27" s="18">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>649</v>
+        <v>1268</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="9"/>
-        <v>2.5178460583488604E-2</v>
+        <v>4.8776734882289619E-2</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R27" s="26">
         <f t="shared" si="11"/>
@@ -2510,25 +2513,25 @@
         <v>16569</v>
       </c>
       <c r="D28" s="10">
-        <v>16719</v>
+        <v>16883</v>
       </c>
       <c r="E28" s="9">
-        <v>16958</v>
+        <v>17389</v>
       </c>
       <c r="F28" s="9">
-        <v>17142</v>
+        <v>18033</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>644</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>1.0850336124542892E-2</v>
+        <v>3.7034907125194083E-2</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" si="3"/>
@@ -2536,15 +2539,15 @@
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>573</v>
+        <v>1464</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>3.4582654354517572E-2</v>
+        <v>8.8357776570704427E-2</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N28" s="18">
         <f t="shared" si="7"/>
@@ -2552,19 +2555,19 @@
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>423</v>
+        <v>1150</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="9"/>
-        <v>2.5300556253364359E-2</v>
+        <v>6.8115856186696577E-2</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R28" s="26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -2578,25 +2581,25 @@
         <v>22803</v>
       </c>
       <c r="D29" s="10">
-        <v>22888</v>
+        <v>23013</v>
       </c>
       <c r="E29" s="9">
-        <v>22964</v>
+        <v>23041</v>
       </c>
       <c r="F29" s="9">
-        <v>22967</v>
+        <v>23311</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>1.3063926145262528E-4</v>
+        <v>1.1718241395772822E-2</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="3"/>
@@ -2604,35 +2607,35 @@
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>7.1920361355961582E-3</v>
+        <v>2.2277770468797975E-2</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O29" s="19">
         <f t="shared" si="8"/>
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="9"/>
-        <v>3.4515903530234482E-3</v>
+        <v>1.2949202624603418E-2</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R29" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2646,57 +2649,57 @@
         <v>40632</v>
       </c>
       <c r="D30" s="10">
-        <v>40280</v>
+        <v>40410</v>
       </c>
       <c r="E30" s="9">
-        <v>41101</v>
+        <v>41559</v>
       </c>
       <c r="F30" s="9">
-        <v>41236</v>
+        <v>42178</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>619</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>3.2845916157757671E-3</v>
+        <v>1.4894487355326058E-2</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>604</v>
+        <v>1546</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>1.4865130931285719E-2</v>
+        <v>3.8048828509549049E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O30" s="19">
         <f t="shared" si="8"/>
-        <v>956</v>
+        <v>1768</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="9"/>
-        <v>2.3733862959284924E-2</v>
+        <v>4.3751546646869643E-2</v>
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" s="26">
         <f t="shared" si="11"/>
@@ -2714,61 +2717,61 @@
         <v>37552</v>
       </c>
       <c r="D31" s="10">
-        <v>37753</v>
+        <v>37690</v>
       </c>
       <c r="E31" s="9">
-        <v>37585</v>
+        <v>38030</v>
       </c>
       <c r="F31" s="9">
-        <v>37680</v>
+        <v>38675</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>645</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>2.5276040973791769E-3</v>
+        <v>1.696029450433878E-2</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>1123</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>3.408606731998276E-3</v>
+        <v>2.9905198125266264E-2</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>-73</v>
+        <v>985</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="9"/>
-        <v>-1.933621169178612E-3</v>
+        <v>2.6134253117537698E-2</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R31" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2782,57 +2785,57 @@
         <v>10735</v>
       </c>
       <c r="D32" s="10">
-        <v>10590</v>
+        <v>10637</v>
       </c>
       <c r="E32" s="9">
-        <v>10935</v>
+        <v>11015</v>
       </c>
       <c r="F32" s="9">
-        <v>10939</v>
+        <v>11282</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>3.6579789666202345E-4</v>
+        <v>2.4239673172945952E-2</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>547</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>1.9003260363297692E-2</v>
+        <v>5.0954820680018553E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="8"/>
-        <v>349</v>
+        <v>645</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="9"/>
-        <v>3.2955618508026419E-2</v>
+        <v>6.0637397762526968E-2</v>
       </c>
       <c r="Q32" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="R32" s="26">
         <f t="shared" si="11"/>
@@ -2850,57 +2853,57 @@
         <v>33799</v>
       </c>
       <c r="D33" s="10">
-        <v>34110</v>
+        <v>34091</v>
       </c>
       <c r="E33" s="9">
-        <v>33844</v>
+        <v>34032</v>
       </c>
       <c r="F33" s="9">
-        <v>33906</v>
+        <v>34370</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>1.8319347594846214E-3</v>
+        <v>9.9318288669487664E-3</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>571</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>3.1657741353294799E-3</v>
+        <v>1.689399094647781E-2</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="8"/>
-        <v>-204</v>
+        <v>279</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="9"/>
-        <v>-5.9806508355321197E-3</v>
+        <v>8.1839781760582042E-3</v>
       </c>
       <c r="Q33" s="25">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="11"/>
@@ -2918,61 +2921,61 @@
         <v>5146</v>
       </c>
       <c r="D34" s="10">
-        <v>5188</v>
+        <v>5146</v>
       </c>
       <c r="E34" s="9">
-        <v>5236</v>
+        <v>5252</v>
       </c>
       <c r="F34" s="9">
-        <v>5215</v>
+        <v>5322</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>70</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>-4.0106951871657914E-3</v>
+        <v>1.3328255902513408E-2</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>1.3408472600077825E-2</v>
+        <v>3.4201321414691011E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="9"/>
-        <v>5.2043176561296089E-3</v>
+        <v>3.4201321414691011E-2</v>
       </c>
       <c r="Q34" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2986,61 +2989,61 @@
         <v>43019</v>
       </c>
       <c r="D35" s="10">
-        <v>43256</v>
+        <v>43389</v>
       </c>
       <c r="E35" s="9">
-        <v>43156</v>
+        <v>43366</v>
       </c>
       <c r="F35" s="9">
-        <v>43190</v>
+        <v>43928</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>562</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>7.8783946612293043E-4</v>
+        <v>1.2959461329151933E-2</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>909</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>3.9749877960901792E-3</v>
+        <v>2.1130198284478929E-2</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N35" s="18">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O35" s="19">
         <f t="shared" si="8"/>
-        <v>-66</v>
+        <v>539</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="9"/>
-        <v>-1.5257998890327862E-3</v>
+        <v>1.2422503399479146E-2</v>
       </c>
       <c r="Q35" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R35" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3054,61 +3057,61 @@
         <v>19413</v>
       </c>
       <c r="D36" s="10">
-        <v>19586</v>
+        <v>19697</v>
       </c>
       <c r="E36" s="9">
-        <v>19630</v>
+        <v>19904</v>
       </c>
       <c r="F36" s="9">
-        <v>19720</v>
+        <v>20210</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>4.5848191543556016E-3</v>
+        <v>1.5373794212218739E-2</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>307</v>
+        <v>797</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>1.5814145160459425E-2</v>
+        <v>4.1054963169010472E-2</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N36" s="18">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O36" s="19">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>513</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="9"/>
-        <v>6.8416215664250934E-3</v>
+        <v>2.6044575316037877E-2</v>
       </c>
       <c r="Q36" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R36" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3122,61 +3125,61 @@
         <v>11771</v>
       </c>
       <c r="D37" s="10">
-        <v>11723</v>
+        <v>11721</v>
       </c>
       <c r="E37" s="9">
-        <v>11847</v>
+        <v>11919</v>
       </c>
       <c r="F37" s="9">
-        <v>11869</v>
+        <v>12017</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>1.8570102135562205E-3</v>
+        <v>8.2221662891182046E-3</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J37" s="24">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>8.3255458329793974E-3</v>
+        <v>2.0898819131764501E-2</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="8"/>
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="9"/>
-        <v>1.2454149961613981E-2</v>
+        <v>2.5253817933623468E-2</v>
       </c>
       <c r="Q37" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R37" s="26">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3190,41 +3193,41 @@
         <v>1000414</v>
       </c>
       <c r="D38" s="46">
-        <v>997767</v>
+        <v>882684</v>
       </c>
       <c r="E38" s="45">
-        <v>1004265</v>
-      </c>
-      <c r="F38" s="45">
-        <v>1006374</v>
+        <v>1011974</v>
+      </c>
+      <c r="F38" s="71">
+        <v>1028757</v>
       </c>
       <c r="G38" s="44">
         <f t="shared" si="0"/>
-        <v>2109</v>
+        <v>16783</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>2.1000433152604803E-3</v>
+        <v>1.6584418176751603E-2</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
       <c r="K38" s="50">
         <f>F38-C38</f>
-        <v>5960</v>
+        <v>28343</v>
       </c>
       <c r="L38" s="51">
         <f t="shared" si="5"/>
-        <v>5.9575335810975183E-3</v>
+        <v>2.8331270853866553E-2</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="52">
         <f t="shared" si="8"/>
-        <v>8607</v>
+        <v>146073</v>
       </c>
       <c r="P38" s="53">
         <f t="shared" si="9"/>
-        <v>8.6262624440376356E-3</v>
+        <v>0.16548730916160248</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="49"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="julio" sheetId="2" r:id="rId1"/>
+    <sheet name="agosto" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -187,24 +187,24 @@
   </si>
   <si>
     <t>2021
-Junio</t>
+Julio</t>
   </si>
   <si>
     <t>2021
-Julio</t>
+Agosto</t>
   </si>
   <si>
     <t>2020
-Julio</t>
-  </si>
-  <si>
-    <t>Julio 2021 respecto a Junio 2021</t>
-  </si>
-  <si>
-    <t>Julio 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Julio 2021 respecto a Julio 2020</t>
+Agosto</t>
+  </si>
+  <si>
+    <t>Agosto2021 respecto a Julio 2021</t>
+  </si>
+  <si>
+    <t>Agosto 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Agosto 2021 respecto a Agosto 2020</t>
   </si>
 </sst>
 </file>
@@ -593,6 +593,9 @@
     <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -626,9 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -856,7 +856,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="F6" activeCellId="1" sqref="A6:A38 F6:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,17 +871,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -889,17 +889,17 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -923,50 +923,50 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="59" t="s">
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60" t="s">
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="5" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1015,37 +1015,37 @@
         <v>16017</v>
       </c>
       <c r="D6" s="10">
-        <v>15996</v>
+        <v>16023</v>
       </c>
       <c r="E6" s="9">
-        <v>16255</v>
+        <v>16473</v>
       </c>
       <c r="F6" s="9">
-        <v>16473</v>
+        <v>16597</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>1.3411258074438548E-2</v>
+        <v>7.5274691920110826E-3</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>456</v>
+        <v>580</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>2.8469750889679624E-2</v>
+        <v>3.6211525254417287E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
@@ -1053,15 +1053,15 @@
       </c>
       <c r="N6" s="18">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" s="19">
         <f>F6-D6</f>
-        <v>477</v>
+        <v>574</v>
       </c>
       <c r="P6" s="20">
         <f>F6/D6-1</f>
-        <v>2.9819954988747233E-2</v>
+        <v>3.582350371341203E-2</v>
       </c>
       <c r="Q6" s="25">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1083,21 +1083,21 @@
         <v>41338</v>
       </c>
       <c r="D7" s="10">
-        <v>40992</v>
+        <v>41084</v>
       </c>
       <c r="E7" s="9">
-        <v>42355</v>
+        <v>43092</v>
       </c>
       <c r="F7" s="9">
-        <v>43092</v>
+        <v>43604</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>737</v>
+        <v>512</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>1.7400543029158388E-2</v>
+        <v>1.1881555741204863E-2</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
@@ -1105,15 +1105,15 @@
       </c>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>1754</v>
+        <v>2266</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>4.2430693308819878E-2</v>
+        <v>5.4816391697711575E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
@@ -1125,11 +1125,11 @@
       </c>
       <c r="O7" s="19">
         <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>2100</v>
+        <v>2520</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>5.1229508196721341E-2</v>
+        <v>6.1337747054814429E-2</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
@@ -1151,53 +1151,53 @@
         <v>12767</v>
       </c>
       <c r="D8" s="10">
-        <v>12656</v>
+        <v>12692</v>
       </c>
       <c r="E8" s="9">
-        <v>13133</v>
+        <v>13392</v>
       </c>
       <c r="F8" s="9">
-        <v>13392</v>
+        <v>13503</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>1.9721312723673279E-2</v>
+        <v>8.2885304659499059E-3</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>4.8954335395942739E-2</v>
+        <v>5.7648625362262118E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>736</v>
+        <v>811</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="9"/>
-        <v>5.8154235145385647E-2</v>
+        <v>6.3898518751969835E-2</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="10"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="R8" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1219,41 +1219,41 @@
         <v>5807</v>
       </c>
       <c r="D9" s="10">
-        <v>5902</v>
+        <v>5861</v>
       </c>
       <c r="E9" s="9">
-        <v>5921</v>
+        <v>6066</v>
       </c>
       <c r="F9" s="9">
-        <v>6066</v>
+        <v>6139</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>2.4489106569836272E-2</v>
+        <v>1.2034289482360627E-2</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>4.4601343206474908E-2</v>
+        <v>5.7172378164284554E-2</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="7"/>
@@ -1261,19 +1261,19 @@
       </c>
       <c r="O9" s="19">
         <f t="shared" si="8"/>
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="9"/>
-        <v>2.7787190782785576E-2</v>
+        <v>4.7432178809077019E-2</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1287,61 +1287,61 @@
         <v>14324</v>
       </c>
       <c r="D10" s="10">
-        <v>14390</v>
+        <v>14389</v>
       </c>
       <c r="E10" s="9">
-        <v>14447</v>
+        <v>14671</v>
       </c>
       <c r="F10" s="9">
-        <v>14671</v>
+        <v>14683</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="H10" s="22">
         <f>F10/E10-1</f>
-        <v>1.5504949124385714E-2</v>
+        <v>8.1794015404534903E-4</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>2.4225076794191613E-2</v>
+        <v>2.5062831611281755E-2</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="8"/>
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="9"/>
-        <v>1.9527449617790182E-2</v>
+        <v>2.0432274654249793E-2</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1355,41 +1355,41 @@
         <v>39670</v>
       </c>
       <c r="D11" s="10">
-        <v>39778</v>
+        <v>39803</v>
       </c>
       <c r="E11" s="9">
-        <v>40523</v>
+        <v>41096</v>
       </c>
       <c r="F11" s="9">
-        <v>41096</v>
+        <v>41443</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>573</v>
+        <v>347</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>1.414011795770298E-2</v>
+        <v>8.4436441502822035E-3</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J11" s="24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>1426</v>
+        <v>1773</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>3.5946559112679521E-2</v>
+        <v>4.4693723216536529E-2</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="7"/>
@@ -1397,15 +1397,15 @@
       </c>
       <c r="O11" s="19">
         <f t="shared" si="8"/>
-        <v>1318</v>
+        <v>1640</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="9"/>
-        <v>3.3133893106742418E-2</v>
+        <v>4.120292440268325E-2</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="11"/>
@@ -1423,21 +1423,21 @@
         <v>118117</v>
       </c>
       <c r="D12" s="10">
-        <v>118631</v>
+        <v>118642</v>
       </c>
       <c r="E12" s="9">
-        <v>118428</v>
+        <v>120984</v>
       </c>
       <c r="F12" s="9">
-        <v>120984</v>
+        <v>122640</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>2556</v>
+        <v>1656</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>2.1582733812949728E-2</v>
+        <v>1.3687760365006962E-2</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
@@ -1445,39 +1445,39 @@
       </c>
       <c r="J12" s="24">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>2867</v>
+        <v>4523</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>2.4272543325685625E-2</v>
+        <v>3.8292540447183665E-2</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="8"/>
-        <v>2353</v>
+        <v>3998</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="9"/>
-        <v>1.98346132123981E-2</v>
+        <v>3.3698015879705334E-2</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1491,37 +1491,37 @@
         <v>34021</v>
       </c>
       <c r="D13" s="10">
-        <v>34269</v>
+        <v>34182</v>
       </c>
       <c r="E13" s="9">
-        <v>34490</v>
+        <v>35062</v>
       </c>
       <c r="F13" s="9">
-        <v>35062</v>
+        <v>35290</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>572</v>
+        <v>228</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>1.6584517251377218E-2</v>
+        <v>6.5027665278649671E-3</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>1041</v>
+        <v>1269</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>3.0598747832221385E-2</v>
+        <v>3.7300490873284131E-2</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
@@ -1529,15 +1529,15 @@
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>793</v>
+        <v>1108</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="9"/>
-        <v>2.314044763488865E-2</v>
+        <v>3.2414721198291474E-2</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="10"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="R13" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1559,37 +1559,37 @@
         <v>10753</v>
       </c>
       <c r="D14" s="10">
-        <v>10715</v>
+        <v>10722</v>
       </c>
       <c r="E14" s="9">
-        <v>11020</v>
+        <v>11173</v>
       </c>
       <c r="F14" s="9">
-        <v>11173</v>
+        <v>11279</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>1.3883847549909234E-2</v>
+        <v>9.4871565380829637E-3</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>3.9058867292848465E-2</v>
+        <v>4.8916581419138794E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
@@ -1597,23 +1597,23 @@
       </c>
       <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="8"/>
-        <v>458</v>
+        <v>557</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="9"/>
-        <v>4.2743817078861435E-2</v>
+        <v>5.1949263197164752E-2</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1627,37 +1627,37 @@
         <v>14267</v>
       </c>
       <c r="D15" s="10">
-        <v>14232</v>
+        <v>14272</v>
       </c>
       <c r="E15" s="9">
-        <v>14356</v>
+        <v>14515</v>
       </c>
       <c r="F15" s="9">
-        <v>14515</v>
+        <v>14584</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>1.1075508498188835E-2</v>
+        <v>4.7537030657940349E-3</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>1.7382771430574095E-2</v>
+        <v>2.2219107030209573E-2</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
@@ -1665,23 +1665,23 @@
       </c>
       <c r="N15" s="18">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="8"/>
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="9"/>
-        <v>1.9884766722878089E-2</v>
+        <v>2.1860986547085126E-2</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1695,57 +1695,57 @@
         <v>72960</v>
       </c>
       <c r="D16" s="10">
-        <v>72768</v>
+        <v>72959</v>
       </c>
       <c r="E16" s="9">
-        <v>72470</v>
+        <v>74305</v>
       </c>
       <c r="F16" s="9">
-        <v>74305</v>
+        <v>75223</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>1835</v>
+        <v>918</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>2.5320822409272692E-2</v>
+        <v>1.2354484893345008E-2</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>1345</v>
+        <v>2263</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>1.8434758771929793E-2</v>
+        <v>3.1016995614035148E-2</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O16" s="19">
         <f t="shared" si="8"/>
-        <v>1537</v>
+        <v>2264</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="9"/>
-        <v>2.1121921723834758E-2</v>
+        <v>3.1031127071368791E-2</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="11"/>
@@ -1763,53 +1763,53 @@
         <v>47776</v>
       </c>
       <c r="D17" s="10">
-        <v>47892</v>
+        <v>47904</v>
       </c>
       <c r="E17" s="9">
-        <v>48063</v>
+        <v>48679</v>
       </c>
       <c r="F17" s="9">
-        <v>48679</v>
+        <v>48978</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>616</v>
+        <v>299</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>1.281651166177733E-2</v>
+        <v>6.1422790114833425E-3</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>903</v>
+        <v>1202</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>1.8900703281982567E-2</v>
+        <v>2.5159075686537191E-2</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="8"/>
-        <v>787</v>
+        <v>1074</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="9"/>
-        <v>1.6432807149419526E-2</v>
+        <v>2.2419839679358677E-2</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="10"/>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="R17" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1831,37 +1831,37 @@
         <v>13652</v>
       </c>
       <c r="D18" s="10">
-        <v>13791</v>
+        <v>13836</v>
       </c>
       <c r="E18" s="9">
-        <v>13554</v>
+        <v>13680</v>
       </c>
       <c r="F18" s="9">
-        <v>13680</v>
+        <v>13765</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>9.2961487383798058E-3</v>
+        <v>6.2134502923976154E-3</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>2.0509815411662302E-3</v>
+        <v>8.2771755054205087E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
@@ -1873,11 +1873,11 @@
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-111</v>
+        <v>-71</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="9"/>
-        <v>-8.0487274309332113E-3</v>
+        <v>-5.1315409077767882E-3</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="10"/>
@@ -1899,37 +1899,37 @@
         <v>15458</v>
       </c>
       <c r="D19" s="10">
-        <v>15502</v>
+        <v>15498</v>
       </c>
       <c r="E19" s="9">
-        <v>15549</v>
+        <v>15750</v>
       </c>
       <c r="F19" s="9">
-        <v>15750</v>
+        <v>15814</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>1.2926876326451842E-2</v>
+        <v>4.0634920634921023E-3</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>1.8889895199896589E-2</v>
+        <v>2.3030146202613455E-2</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
@@ -1937,23 +1937,23 @@
       </c>
       <c r="N19" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="9"/>
-        <v>1.5997935750225789E-2</v>
+        <v>2.0389727706800809E-2</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S19" s="2"/>
     </row>
@@ -1968,21 +1968,21 @@
         <v>98067</v>
       </c>
       <c r="D20" s="31">
-        <v>97738</v>
+        <v>98006</v>
       </c>
       <c r="E20" s="30">
-        <v>99679</v>
+        <v>100963</v>
       </c>
       <c r="F20" s="30">
-        <v>100963</v>
+        <v>101796</v>
       </c>
       <c r="G20" s="29">
         <f>F20-E20</f>
-        <v>1284</v>
+        <v>833</v>
       </c>
       <c r="H20" s="32">
         <f>F20/E20-1</f>
-        <v>1.2881349130709596E-2</v>
+        <v>8.2505472301734883E-3</v>
       </c>
       <c r="I20" s="33">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
@@ -1990,39 +1990,39 @@
       </c>
       <c r="J20" s="34">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="4"/>
-        <v>2896</v>
+        <v>3729</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="5"/>
-        <v>2.9530830962505306E-2</v>
+        <v>3.8025023708281092E-2</v>
       </c>
       <c r="M20" s="37">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="38">
         <f>_xlfn.RANK.EQ(L20,$L$6:$L$37)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O20" s="39">
         <f>F20-D20</f>
-        <v>3225</v>
+        <v>3790</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="9"/>
-        <v>3.2996378071988408E-2</v>
+        <v>3.8671101769279348E-2</v>
       </c>
       <c r="Q20" s="41">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="42">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S20" s="2"/>
     </row>
@@ -2037,41 +2037,41 @@
         <v>36276</v>
       </c>
       <c r="D21" s="10">
-        <v>36086</v>
+        <v>36098</v>
       </c>
       <c r="E21" s="9">
-        <v>36500</v>
+        <v>36738</v>
       </c>
       <c r="F21" s="9">
-        <v>36738</v>
+        <v>36908</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>6.5205479452055126E-3</v>
+        <v>4.6273613152594262E-3</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>462</v>
+        <v>632</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>1.273569302017874E-2</v>
+        <v>1.7421986988642724E-2</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="7"/>
@@ -2079,11 +2079,11 @@
       </c>
       <c r="O21" s="19">
         <f t="shared" si="8"/>
-        <v>652</v>
+        <v>810</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="9"/>
-        <v>1.8067948789004085E-2</v>
+        <v>2.2438916283450627E-2</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="10"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="R21" s="26">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2105,41 +2105,41 @@
         <v>12099</v>
       </c>
       <c r="D22" s="10">
-        <v>12108</v>
+        <v>12084</v>
       </c>
       <c r="E22" s="9">
-        <v>12169</v>
+        <v>12356</v>
       </c>
       <c r="F22" s="9">
-        <v>12356</v>
+        <v>12437</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>1.536691593393047E-2</v>
+        <v>6.5555195856263904E-3</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>2.1241424911149664E-2</v>
+        <v>2.7936193073807791E-2</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
@@ -2147,15 +2147,15 @@
       </c>
       <c r="O22" s="19">
         <f t="shared" si="8"/>
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="9"/>
-        <v>2.0482325735051266E-2</v>
+        <v>2.9212181396888415E-2</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R22" s="26">
         <f t="shared" si="11"/>
@@ -2173,61 +2173,61 @@
         <v>12766</v>
       </c>
       <c r="D23" s="10">
-        <v>12620</v>
+        <v>12697</v>
       </c>
       <c r="E23" s="9">
-        <v>13053</v>
+        <v>13268</v>
       </c>
       <c r="F23" s="9">
-        <v>13268</v>
+        <v>13376</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>1.6471309277560797E-2</v>
+        <v>8.1398854386494079E-3</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>502</v>
+        <v>610</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>3.9323202255992395E-2</v>
+        <v>4.7783174056086564E-2</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="9"/>
-        <v>5.1347068145800367E-2</v>
+        <v>5.3477199338426429E-2</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R23" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2241,37 +2241,37 @@
         <v>69698</v>
       </c>
       <c r="D24" s="10">
-        <v>69665</v>
+        <v>69910</v>
       </c>
       <c r="E24" s="9">
-        <v>70678</v>
+        <v>72034</v>
       </c>
       <c r="F24" s="9">
-        <v>72034</v>
+        <v>73017</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>1356</v>
+        <v>983</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>1.9185602309063743E-2</v>
+        <v>1.3646333675764177E-2</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>2336</v>
+        <v>3319</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>3.3516026284828859E-2</v>
+        <v>4.7619730838761587E-2</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
@@ -2279,19 +2279,19 @@
       </c>
       <c r="N24" s="18">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="8"/>
-        <v>2369</v>
+        <v>3107</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="9"/>
-        <v>3.4005598220053113E-2</v>
+        <v>4.4442855099413592E-2</v>
       </c>
       <c r="Q24" s="25">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" s="26">
         <f t="shared" si="11"/>
@@ -2309,61 +2309,61 @@
         <v>13897</v>
       </c>
       <c r="D25" s="10">
-        <v>13863</v>
+        <v>13840</v>
       </c>
       <c r="E25" s="9">
-        <v>14047</v>
+        <v>14214</v>
       </c>
       <c r="F25" s="9">
-        <v>14214</v>
+        <v>14286</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>1.1888659500249199E-2</v>
+        <v>5.0654284508231395E-3</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>2.2810678563718767E-2</v>
+        <v>2.7991652874721273E-2</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="8"/>
-        <v>351</v>
+        <v>446</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="9"/>
-        <v>2.5319194979441573E-2</v>
+        <v>3.2225433526011482E-2</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R25" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -2377,61 +2377,61 @@
         <v>33169</v>
       </c>
       <c r="D26" s="10">
-        <v>33048</v>
+        <v>33173</v>
       </c>
       <c r="E26" s="9">
-        <v>33138</v>
+        <v>33656</v>
       </c>
       <c r="F26" s="9">
-        <v>33656</v>
+        <v>33954</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>298</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>1.5631601182932053E-2</v>
+        <v>8.8542904682671342E-3</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>487</v>
+        <v>785</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>1.4682384153878569E-2</v>
+        <v>2.366667671621081E-2</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O26" s="19">
         <f t="shared" si="8"/>
-        <v>608</v>
+        <v>781</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="9"/>
-        <v>1.8397482449770131E-2</v>
+        <v>2.3543242998824265E-2</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -2445,37 +2445,37 @@
         <v>26076</v>
       </c>
       <c r="D27" s="10">
-        <v>25996</v>
+        <v>25985</v>
       </c>
       <c r="E27" s="9">
-        <v>26639</v>
+        <v>27264</v>
       </c>
       <c r="F27" s="9">
-        <v>27264</v>
+        <v>27761</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>497</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>2.3461841660723071E-2</v>
+        <v>1.8229166666666741E-2</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>1188</v>
+        <v>1685</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>4.5559134836631321E-2</v>
+        <v>6.461880656542407E-2</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
@@ -2483,23 +2483,23 @@
       </c>
       <c r="N27" s="18">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>1268</v>
+        <v>1776</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="9"/>
-        <v>4.8776734882289619E-2</v>
+        <v>6.8347123340388727E-2</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R27" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -2513,21 +2513,21 @@
         <v>16569</v>
       </c>
       <c r="D28" s="10">
-        <v>16883</v>
+        <v>16918</v>
       </c>
       <c r="E28" s="9">
-        <v>17389</v>
+        <v>18033</v>
       </c>
       <c r="F28" s="9">
-        <v>18033</v>
+        <v>18458</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>644</v>
+        <v>425</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>3.7034907125194083E-2</v>
+        <v>2.3567903288415737E-2</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
@@ -2539,11 +2539,11 @@
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>1464</v>
+        <v>1889</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>8.8357776570704427E-2</v>
+        <v>0.11400808739211787</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>1150</v>
+        <v>1540</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="9"/>
-        <v>6.8115856186696577E-2</v>
+        <v>9.1027308192457745E-2</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="10"/>
@@ -2581,37 +2581,37 @@
         <v>22803</v>
       </c>
       <c r="D29" s="10">
-        <v>23013</v>
+        <v>22998</v>
       </c>
       <c r="E29" s="9">
-        <v>23041</v>
+        <v>23311</v>
       </c>
       <c r="F29" s="9">
-        <v>23311</v>
+        <v>23505</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>1.1718241395772822E-2</v>
+        <v>8.3222512976706131E-3</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>508</v>
+        <v>702</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>2.2277770468797975E-2</v>
+        <v>3.0785422970661669E-2</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
@@ -2619,15 +2619,15 @@
       </c>
       <c r="N29" s="18">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O29" s="19">
         <f t="shared" si="8"/>
-        <v>298</v>
+        <v>507</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="9"/>
-        <v>1.2949202624603418E-2</v>
+        <v>2.2045395251760969E-2</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="10"/>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="R29" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2649,61 +2649,61 @@
         <v>40632</v>
       </c>
       <c r="D30" s="10">
-        <v>40410</v>
+        <v>40467</v>
       </c>
       <c r="E30" s="9">
-        <v>41559</v>
+        <v>42178</v>
       </c>
       <c r="F30" s="9">
-        <v>42178</v>
+        <v>42434</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>619</v>
+        <v>256</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>1.4894487355326058E-2</v>
+        <v>6.0695149129879056E-3</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>1546</v>
+        <v>1802</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>3.8048828509549049E-2</v>
+        <v>4.434928135459737E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O30" s="19">
         <f t="shared" si="8"/>
-        <v>1768</v>
+        <v>1967</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="9"/>
-        <v>4.3751546646869643E-2</v>
+        <v>4.8607507351669188E-2</v>
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R30" s="26">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2717,37 +2717,37 @@
         <v>37552</v>
       </c>
       <c r="D31" s="10">
-        <v>37690</v>
+        <v>37661</v>
       </c>
       <c r="E31" s="9">
-        <v>38030</v>
+        <v>38675</v>
       </c>
       <c r="F31" s="9">
-        <v>38675</v>
+        <v>38969</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>645</v>
+        <v>294</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>1.696029450433878E-2</v>
+        <v>7.6018099547512374E-3</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>1123</v>
+        <v>1417</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>2.9905198125266264E-2</v>
+        <v>3.7734341712824859E-2</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
@@ -2755,15 +2755,15 @@
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>985</v>
+        <v>1308</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="9"/>
-        <v>2.6134253117537698E-2</v>
+        <v>3.4730888717771746E-2</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="10"/>
@@ -2785,61 +2785,61 @@
         <v>10735</v>
       </c>
       <c r="D32" s="10">
-        <v>10637</v>
+        <v>10669</v>
       </c>
       <c r="E32" s="9">
-        <v>11015</v>
+        <v>11282</v>
       </c>
       <c r="F32" s="9">
-        <v>11282</v>
+        <v>11358</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>2.4239673172945952E-2</v>
+        <v>6.7363942563374302E-3</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>5.0954820680018553E-2</v>
+        <v>5.8034466697717724E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="8"/>
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="9"/>
-        <v>6.0637397762526968E-2</v>
+        <v>6.4579623207423387E-2</v>
       </c>
       <c r="Q32" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R32" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2853,57 +2853,57 @@
         <v>33799</v>
       </c>
       <c r="D33" s="10">
-        <v>34091</v>
+        <v>34046</v>
       </c>
       <c r="E33" s="9">
-        <v>34032</v>
+        <v>34370</v>
       </c>
       <c r="F33" s="9">
-        <v>34370</v>
+        <v>34614</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>9.9318288669487664E-3</v>
+        <v>7.0992144311898819E-3</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>571</v>
+        <v>815</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>1.689399094647781E-2</v>
+        <v>2.4113139441995335E-2</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="8"/>
-        <v>279</v>
+        <v>568</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="9"/>
-        <v>8.1839781760582042E-3</v>
+        <v>1.6683310814779917E-2</v>
       </c>
       <c r="Q33" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="11"/>
@@ -2921,37 +2921,37 @@
         <v>5146</v>
       </c>
       <c r="D34" s="10">
-        <v>5146</v>
+        <v>5133</v>
       </c>
       <c r="E34" s="9">
-        <v>5252</v>
+        <v>5322</v>
       </c>
       <c r="F34" s="9">
-        <v>5322</v>
+        <v>5343</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>1.3328255902513408E-2</v>
+        <v>3.9458850056370842E-3</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>3.4201321414691011E-2</v>
+        <v>3.8282160901671247E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
@@ -2959,23 +2959,23 @@
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="9"/>
-        <v>3.4201321414691011E-2</v>
+        <v>4.0911747516072516E-2</v>
       </c>
       <c r="Q34" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2989,57 +2989,57 @@
         <v>43019</v>
       </c>
       <c r="D35" s="10">
-        <v>43389</v>
+        <v>43352</v>
       </c>
       <c r="E35" s="9">
-        <v>43366</v>
+        <v>43928</v>
       </c>
       <c r="F35" s="9">
-        <v>43928</v>
+        <v>44079</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>562</v>
+        <v>151</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>1.2959461329151933E-2</v>
+        <v>3.4374430886905394E-3</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>909</v>
+        <v>1060</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>2.1130198284478929E-2</v>
+        <v>2.4640275227225228E-2</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N35" s="18">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O35" s="19">
         <f t="shared" si="8"/>
-        <v>539</v>
+        <v>727</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="9"/>
-        <v>1.2422503399479146E-2</v>
+        <v>1.6769699206495625E-2</v>
       </c>
       <c r="Q35" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R35" s="26">
         <f t="shared" si="11"/>
@@ -3057,21 +3057,21 @@
         <v>19413</v>
       </c>
       <c r="D36" s="10">
-        <v>19697</v>
+        <v>19711</v>
       </c>
       <c r="E36" s="9">
-        <v>19904</v>
+        <v>20210</v>
       </c>
       <c r="F36" s="9">
-        <v>20210</v>
+        <v>20382</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>1.5373794212218739E-2</v>
+        <v>8.5106382978723527E-3</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
@@ -3079,15 +3079,15 @@
       </c>
       <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>797</v>
+        <v>969</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>4.1054963169010472E-2</v>
+        <v>4.9915005408746715E-2</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
@@ -3099,11 +3099,11 @@
       </c>
       <c r="O36" s="19">
         <f t="shared" si="8"/>
-        <v>513</v>
+        <v>671</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="9"/>
-        <v>2.6044575316037877E-2</v>
+        <v>3.4041905534980543E-2</v>
       </c>
       <c r="Q36" s="25">
         <f t="shared" si="10"/>
@@ -3125,37 +3125,37 @@
         <v>11771</v>
       </c>
       <c r="D37" s="10">
-        <v>11721</v>
+        <v>11727</v>
       </c>
       <c r="E37" s="9">
-        <v>11919</v>
+        <v>12017</v>
       </c>
       <c r="F37" s="9">
-        <v>12017</v>
+        <v>12067</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>8.2221662891182046E-3</v>
+        <v>4.160772239327537E-3</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" s="24">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>2.0898819131764501E-2</v>
+        <v>2.5146546597570207E-2</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
@@ -3167,19 +3167,19 @@
       </c>
       <c r="O37" s="19">
         <f t="shared" si="8"/>
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="9"/>
-        <v>2.5253817933623468E-2</v>
+        <v>2.8992922316022796E-2</v>
       </c>
       <c r="Q37" s="25">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R37" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3193,41 +3193,41 @@
         <v>1000414</v>
       </c>
       <c r="D38" s="46">
-        <v>882684</v>
+        <v>1002342</v>
       </c>
       <c r="E38" s="45">
-        <v>1011974</v>
-      </c>
-      <c r="F38" s="71">
         <v>1028757</v>
+      </c>
+      <c r="F38" s="59">
+        <v>1038286</v>
       </c>
       <c r="G38" s="44">
         <f t="shared" si="0"/>
-        <v>16783</v>
+        <v>9529</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>1.6584418176751603E-2</v>
+        <v>9.2626344219286505E-3</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
       <c r="K38" s="50">
         <f>F38-C38</f>
-        <v>28343</v>
+        <v>37872</v>
       </c>
       <c r="L38" s="51">
         <f t="shared" si="5"/>
-        <v>2.8331270853866553E-2</v>
+        <v>3.7856327480423113E-2</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="52">
         <f t="shared" si="8"/>
-        <v>146073</v>
+        <v>35944</v>
       </c>
       <c r="P38" s="53">
         <f t="shared" si="9"/>
-        <v>0.16548730916160248</v>
+        <v>3.5860015842895887E-2</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="49"/>
@@ -3239,26 +3239,26 @@
       <c r="O39" s="56"/>
     </row>
     <row r="40" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="57" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="agosto" sheetId="2" r:id="rId1"/>
+    <sheet name="septiembre" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -187,24 +187,24 @@
   </si>
   <si>
     <t>2021
-Julio</t>
+Agosto</t>
   </si>
   <si>
     <t>2021
-Agosto</t>
+Septiembre</t>
+  </si>
+  <si>
+    <t>Septiembre 2021 respecto a Agosto 2021</t>
+  </si>
+  <si>
+    <t>Septiembre 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Septiembre 2021 respecto a Septiembre 2020</t>
   </si>
   <si>
     <t>2020
-Agosto</t>
-  </si>
-  <si>
-    <t>Agosto2021 respecto a Julio 2021</t>
-  </si>
-  <si>
-    <t>Agosto 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Agosto 2021 respecto a Agosto 2020</t>
+Septiembre</t>
   </si>
 </sst>
 </file>
@@ -856,14 +856,16 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" activeCellId="1" sqref="A6:A38 F6:F38"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.85546875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="10" width="9.42578125" style="2" customWidth="1"/>
     <col min="11" max="14" width="9.5703125" style="2" customWidth="1"/>
     <col min="15" max="18" width="9.7109375" style="2" customWidth="1"/>
@@ -933,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="68" t="s">
         <v>44</v>
@@ -942,19 +944,19 @@
         <v>45</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
@@ -1015,53 +1017,53 @@
         <v>16017</v>
       </c>
       <c r="D6" s="10">
-        <v>16023</v>
+        <v>16036</v>
       </c>
       <c r="E6" s="9">
-        <v>16473</v>
+        <v>16597</v>
       </c>
       <c r="F6" s="9">
-        <v>16597</v>
+        <v>16724</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>7.5274691920110826E-3</v>
+        <v>7.6519852985479364E-3</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>580</v>
+        <v>707</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>3.6211525254417287E-2</v>
+        <v>4.4140600611849878E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="18">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O6" s="19">
         <f>F6-D6</f>
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="P6" s="20">
         <f>F6/D6-1</f>
-        <v>3.582350371341203E-2</v>
+        <v>4.2903467198802669E-2</v>
       </c>
       <c r="Q6" s="25">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
@@ -1069,7 +1071,7 @@
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1083,21 +1085,21 @@
         <v>41338</v>
       </c>
       <c r="D7" s="10">
-        <v>41084</v>
+        <v>41066</v>
       </c>
       <c r="E7" s="9">
-        <v>43092</v>
+        <v>43604</v>
       </c>
       <c r="F7" s="9">
-        <v>43604</v>
+        <v>44193</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>512</v>
+        <v>589</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>1.1881555741204863E-2</v>
+        <v>1.3507935051830122E-2</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
@@ -1105,31 +1107,31 @@
       </c>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>2266</v>
+        <v>2855</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>5.4816391697711575E-2</v>
+        <v>6.9064783008369934E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N37" si="7">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O7" s="19">
         <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>2520</v>
+        <v>3127</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>6.1337747054814429E-2</v>
+        <v>7.6145716651244255E-2</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
@@ -1137,7 +1139,7 @@
       </c>
       <c r="R7" s="26">
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1154,34 +1156,34 @@
         <v>12692</v>
       </c>
       <c r="E8" s="9">
-        <v>13392</v>
+        <v>13503</v>
       </c>
       <c r="F8" s="9">
-        <v>13503</v>
+        <v>13662</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>8.2885304659499059E-3</v>
+        <v>1.1775161075316509E-2</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>736</v>
+        <v>895</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>5.7648625362262118E-2</v>
+        <v>7.0102608286989998E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
@@ -1189,15 +1191,15 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>811</v>
+        <v>970</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="9"/>
-        <v>6.3898518751969835E-2</v>
+        <v>7.6426095178064868E-2</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="10"/>
@@ -1205,7 +1207,7 @@
       </c>
       <c r="R8" s="26">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1219,37 +1221,37 @@
         <v>5807</v>
       </c>
       <c r="D9" s="10">
-        <v>5861</v>
+        <v>5831</v>
       </c>
       <c r="E9" s="9">
-        <v>6066</v>
+        <v>6139</v>
       </c>
       <c r="F9" s="9">
-        <v>6139</v>
+        <v>6206</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>1.2034289482360627E-2</v>
+        <v>1.0913829613943715E-2</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>5.7172378164284554E-2</v>
+        <v>6.8710177372137027E-2</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
@@ -1261,19 +1263,19 @@
       </c>
       <c r="O9" s="19">
         <f t="shared" si="8"/>
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="9"/>
-        <v>4.7432178809077019E-2</v>
+        <v>6.4311438861258896E-2</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1287,61 +1289,61 @@
         <v>14324</v>
       </c>
       <c r="D10" s="10">
-        <v>14389</v>
+        <v>14396</v>
       </c>
       <c r="E10" s="9">
-        <v>14671</v>
+        <v>14683</v>
       </c>
       <c r="F10" s="9">
-        <v>14683</v>
+        <v>14778</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H10" s="22">
         <f>F10/E10-1</f>
-        <v>8.1794015404534903E-4</v>
+        <v>6.470067424913184E-3</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>359</v>
+        <v>454</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>2.5062831611281755E-2</v>
+        <v>3.1695057246579061E-2</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="9"/>
-        <v>2.0432274654249793E-2</v>
+        <v>2.6535148652403473E-2</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1355,41 +1357,41 @@
         <v>39670</v>
       </c>
       <c r="D11" s="10">
-        <v>39803</v>
+        <v>39785</v>
       </c>
       <c r="E11" s="9">
-        <v>41096</v>
+        <v>41443</v>
       </c>
       <c r="F11" s="9">
-        <v>41443</v>
+        <v>41777</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>8.4436441502822035E-3</v>
+        <v>8.0592621190551661E-3</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="24">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>1773</v>
+        <v>2107</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>4.4693723216536529E-2</v>
+        <v>5.3113183766070104E-2</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="7"/>
@@ -1397,11 +1399,11 @@
       </c>
       <c r="O11" s="19">
         <f t="shared" si="8"/>
-        <v>1640</v>
+        <v>1992</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="9"/>
-        <v>4.120292440268325E-2</v>
+        <v>5.0069121528214078E-2</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="10"/>
@@ -1423,21 +1425,21 @@
         <v>118117</v>
       </c>
       <c r="D12" s="10">
-        <v>118642</v>
+        <v>118439</v>
       </c>
       <c r="E12" s="9">
-        <v>120984</v>
+        <v>122640</v>
       </c>
       <c r="F12" s="9">
-        <v>122640</v>
+        <v>124086</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>1656</v>
+        <v>1446</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>1.3687760365006962E-2</v>
+        <v>1.1790606653620417E-2</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
@@ -1445,15 +1447,15 @@
       </c>
       <c r="J12" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>4523</v>
+        <v>5969</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>3.8292540447183665E-2</v>
+        <v>5.0534639382984636E-2</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
@@ -1461,15 +1463,15 @@
       </c>
       <c r="N12" s="18">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="8"/>
-        <v>3998</v>
+        <v>5647</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="9"/>
-        <v>3.3698015879705334E-2</v>
+        <v>4.7678551828367333E-2</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="10"/>
@@ -1477,7 +1479,7 @@
       </c>
       <c r="R12" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1491,37 +1493,37 @@
         <v>34021</v>
       </c>
       <c r="D13" s="10">
-        <v>34182</v>
+        <v>34161</v>
       </c>
       <c r="E13" s="9">
-        <v>35062</v>
+        <v>35290</v>
       </c>
       <c r="F13" s="9">
-        <v>35290</v>
+        <v>35420</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>6.5027665278649671E-3</v>
+        <v>3.6837631056956255E-3</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>1269</v>
+        <v>1399</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>3.7300490873284131E-2</v>
+        <v>4.1121660151083095E-2</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
@@ -1529,23 +1531,23 @@
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>1108</v>
+        <v>1259</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="9"/>
-        <v>3.2414721198291474E-2</v>
+        <v>3.6854893006645018E-2</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1559,37 +1561,37 @@
         <v>10753</v>
       </c>
       <c r="D14" s="10">
-        <v>10722</v>
+        <v>10723</v>
       </c>
       <c r="E14" s="9">
-        <v>11173</v>
+        <v>11279</v>
       </c>
       <c r="F14" s="9">
-        <v>11279</v>
+        <v>11339</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>9.4871565380829637E-3</v>
+        <v>5.3196205337353586E-3</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>4.8916581419138794E-2</v>
+        <v>5.4496419603831558E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
@@ -1597,23 +1599,23 @@
       </c>
       <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="8"/>
-        <v>557</v>
+        <v>616</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="9"/>
-        <v>5.1949263197164752E-2</v>
+        <v>5.7446610090459815E-2</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1627,37 +1629,37 @@
         <v>14267</v>
       </c>
       <c r="D15" s="10">
-        <v>14272</v>
+        <v>14278</v>
       </c>
       <c r="E15" s="9">
-        <v>14515</v>
+        <v>14584</v>
       </c>
       <c r="F15" s="9">
-        <v>14584</v>
+        <v>14612</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>4.7537030657940349E-3</v>
+        <v>1.9199122325836981E-3</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>2.2219107030209573E-2</v>
+        <v>2.4181677998177609E-2</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
@@ -1669,19 +1671,19 @@
       </c>
       <c r="O15" s="19">
         <f t="shared" si="8"/>
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="9"/>
-        <v>2.1860986547085126E-2</v>
+        <v>2.3392632021291604E-2</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1695,21 +1697,21 @@
         <v>72960</v>
       </c>
       <c r="D16" s="10">
-        <v>72959</v>
+        <v>73041</v>
       </c>
       <c r="E16" s="9">
-        <v>74305</v>
+        <v>75223</v>
       </c>
       <c r="F16" s="9">
-        <v>75223</v>
+        <v>76166</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>918</v>
+        <v>943</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>1.2354484893345008E-2</v>
+        <v>1.2536059449902215E-2</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
@@ -1721,27 +1723,27 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>2263</v>
+        <v>3206</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>3.1016995614035148E-2</v>
+        <v>4.3941885964912331E-2</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O16" s="19">
         <f t="shared" si="8"/>
-        <v>2264</v>
+        <v>3125</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="9"/>
-        <v>3.1031127071368791E-2</v>
+        <v>4.2784189701674302E-2</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="10"/>
@@ -1749,7 +1751,7 @@
       </c>
       <c r="R16" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1763,37 +1765,37 @@
         <v>47776</v>
       </c>
       <c r="D17" s="10">
-        <v>47904</v>
+        <v>47804</v>
       </c>
       <c r="E17" s="9">
-        <v>48679</v>
+        <v>48978</v>
       </c>
       <c r="F17" s="9">
-        <v>48978</v>
+        <v>49169</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>6.1422790114833425E-3</v>
+        <v>3.899710073910656E-3</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>1202</v>
+        <v>1393</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>2.5159075686537191E-2</v>
+        <v>2.9156898861353087E-2</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
@@ -1801,23 +1803,23 @@
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="8"/>
-        <v>1074</v>
+        <v>1365</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="9"/>
-        <v>2.2419839679358677E-2</v>
+        <v>2.8554095891557107E-2</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1831,37 +1833,37 @@
         <v>13652</v>
       </c>
       <c r="D18" s="10">
-        <v>13836</v>
+        <v>13802</v>
       </c>
       <c r="E18" s="9">
-        <v>13680</v>
+        <v>13765</v>
       </c>
       <c r="F18" s="9">
-        <v>13765</v>
+        <v>13745</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>-20</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>6.2134502923976154E-3</v>
+        <v>-1.4529604068289625E-3</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>8.2771755054205087E-3</v>
+        <v>6.812188690301868E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
@@ -1873,11 +1875,11 @@
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-71</v>
+        <v>-57</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="9"/>
-        <v>-5.1315409077767882E-3</v>
+        <v>-4.129836255615138E-3</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="10"/>
@@ -1899,61 +1901,61 @@
         <v>15458</v>
       </c>
       <c r="D19" s="10">
-        <v>15498</v>
+        <v>15506</v>
       </c>
       <c r="E19" s="9">
-        <v>15750</v>
+        <v>15814</v>
       </c>
       <c r="F19" s="9">
-        <v>15814</v>
+        <v>15889</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>4.0634920634921023E-3</v>
+        <v>4.7426331099025276E-3</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>2.3030146202613455E-2</v>
+        <v>2.7882002846422616E-2</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="18">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="9"/>
-        <v>2.0389727706800809E-2</v>
+        <v>2.4700116084096502E-2</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S19" s="2"/>
     </row>
@@ -1968,21 +1970,21 @@
         <v>98067</v>
       </c>
       <c r="D20" s="31">
-        <v>98006</v>
+        <v>98038</v>
       </c>
       <c r="E20" s="30">
-        <v>100963</v>
+        <v>101796</v>
       </c>
       <c r="F20" s="30">
-        <v>101796</v>
+        <v>102475</v>
       </c>
       <c r="G20" s="29">
         <f>F20-E20</f>
-        <v>833</v>
+        <v>679</v>
       </c>
       <c r="H20" s="32">
         <f>F20/E20-1</f>
-        <v>8.2505472301734883E-3</v>
+        <v>6.6702031514007665E-3</v>
       </c>
       <c r="I20" s="33">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
@@ -1990,15 +1992,15 @@
       </c>
       <c r="J20" s="34">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="4"/>
-        <v>3729</v>
+        <v>4408</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="5"/>
-        <v>3.8025023708281092E-2</v>
+        <v>4.4948861492652981E-2</v>
       </c>
       <c r="M20" s="37">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
@@ -2006,15 +2008,15 @@
       </c>
       <c r="N20" s="38">
         <f>_xlfn.RANK.EQ(L20,$L$6:$L$37)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O20" s="39">
         <f>F20-D20</f>
-        <v>3790</v>
+        <v>4437</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="9"/>
-        <v>3.8671101769279348E-2</v>
+        <v>4.5257961198718943E-2</v>
       </c>
       <c r="Q20" s="41">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
@@ -2022,7 +2024,7 @@
       </c>
       <c r="R20" s="42">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S20" s="2"/>
     </row>
@@ -2037,25 +2039,25 @@
         <v>36276</v>
       </c>
       <c r="D21" s="10">
-        <v>36098</v>
+        <v>36127</v>
       </c>
       <c r="E21" s="9">
-        <v>36738</v>
+        <v>36908</v>
       </c>
       <c r="F21" s="9">
-        <v>36908</v>
+        <v>37019</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>4.6273613152594262E-3</v>
+        <v>3.0074780535385148E-3</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
@@ -2063,11 +2065,11 @@
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>632</v>
+        <v>743</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>1.7421986988642724E-2</v>
+        <v>2.048186128569851E-2</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
@@ -2079,19 +2081,19 @@
       </c>
       <c r="O21" s="19">
         <f t="shared" si="8"/>
-        <v>810</v>
+        <v>892</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="9"/>
-        <v>2.2438916283450627E-2</v>
+        <v>2.4690674564729953E-2</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2105,37 +2107,37 @@
         <v>12099</v>
       </c>
       <c r="D22" s="10">
-        <v>12084</v>
+        <v>12014</v>
       </c>
       <c r="E22" s="9">
-        <v>12356</v>
+        <v>12437</v>
       </c>
       <c r="F22" s="9">
-        <v>12437</v>
+        <v>12516</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>6.5555195856263904E-3</v>
+        <v>6.3520141513226935E-3</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>2.7936193073807791E-2</v>
+        <v>3.4465658318869385E-2</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
@@ -2143,15 +2145,15 @@
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="8"/>
-        <v>353</v>
+        <v>502</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="9"/>
-        <v>2.9212181396888415E-2</v>
+        <v>4.1784584651240131E-2</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="10"/>
@@ -2159,7 +2161,7 @@
       </c>
       <c r="R22" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2173,41 +2175,41 @@
         <v>12766</v>
       </c>
       <c r="D23" s="10">
-        <v>12697</v>
+        <v>12700</v>
       </c>
       <c r="E23" s="9">
-        <v>13268</v>
+        <v>13376</v>
       </c>
       <c r="F23" s="9">
-        <v>13376</v>
+        <v>13478</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>8.1398854386494079E-3</v>
+        <v>7.6255980861243966E-3</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>610</v>
+        <v>712</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>4.7783174056086564E-2</v>
+        <v>5.5773147422842007E-2</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="7"/>
@@ -2215,11 +2217,11 @@
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>679</v>
+        <v>778</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="9"/>
-        <v>5.3477199338426429E-2</v>
+        <v>6.1259842519685082E-2</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="10"/>
@@ -2227,7 +2229,7 @@
       </c>
       <c r="R23" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2241,21 +2243,21 @@
         <v>69698</v>
       </c>
       <c r="D24" s="10">
-        <v>69910</v>
+        <v>69980</v>
       </c>
       <c r="E24" s="9">
-        <v>72034</v>
+        <v>73017</v>
       </c>
       <c r="F24" s="9">
-        <v>73017</v>
+        <v>74025</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>983</v>
+        <v>1008</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>1.3646333675764177E-2</v>
+        <v>1.380500431406384E-2</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
@@ -2263,15 +2265,15 @@
       </c>
       <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>3319</v>
+        <v>4327</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>4.7619730838761587E-2</v>
+        <v>6.2082125742489058E-2</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
@@ -2279,15 +2281,15 @@
       </c>
       <c r="N24" s="18">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>4045</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="9"/>
-        <v>4.4442855099413592E-2</v>
+        <v>5.7802229208345324E-2</v>
       </c>
       <c r="Q24" s="25">
         <f t="shared" si="10"/>
@@ -2295,7 +2297,7 @@
       </c>
       <c r="R24" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2309,53 +2311,53 @@
         <v>13897</v>
       </c>
       <c r="D25" s="10">
-        <v>13840</v>
+        <v>13813</v>
       </c>
       <c r="E25" s="9">
-        <v>14214</v>
+        <v>14286</v>
       </c>
       <c r="F25" s="9">
-        <v>14286</v>
+        <v>14322</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>5.0654284508231395E-3</v>
+        <v>2.5199496010079869E-3</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>2.7991652874721273E-2</v>
+        <v>3.0582140030222416E-2</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="8"/>
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="9"/>
-        <v>3.2225433526011482E-2</v>
+        <v>3.6849344820097052E-2</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="10"/>
@@ -2363,7 +2365,7 @@
       </c>
       <c r="R25" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -2377,53 +2379,53 @@
         <v>33169</v>
       </c>
       <c r="D26" s="10">
-        <v>33173</v>
+        <v>33217</v>
       </c>
       <c r="E26" s="9">
-        <v>33656</v>
+        <v>33954</v>
       </c>
       <c r="F26" s="9">
-        <v>33954</v>
+        <v>34133</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>8.8542904682671342E-3</v>
+        <v>5.2718383695589122E-3</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>785</v>
+        <v>964</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>2.366667671621081E-2</v>
+        <v>2.906328198016217E-2</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O26" s="19">
         <f t="shared" si="8"/>
-        <v>781</v>
+        <v>916</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="9"/>
-        <v>2.3543242998824265E-2</v>
+        <v>2.757624108137402E-2</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" si="10"/>
@@ -2431,7 +2433,7 @@
       </c>
       <c r="R26" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -2445,21 +2447,21 @@
         <v>26076</v>
       </c>
       <c r="D27" s="10">
-        <v>25985</v>
+        <v>26000</v>
       </c>
       <c r="E27" s="9">
-        <v>27264</v>
+        <v>27761</v>
       </c>
       <c r="F27" s="9">
-        <v>27761</v>
+        <v>28158</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>1.8229166666666741E-2</v>
+        <v>1.4300637585101361E-2</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
@@ -2467,19 +2469,19 @@
       </c>
       <c r="J27" s="24">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>1685</v>
+        <v>2082</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>6.461880656542407E-2</v>
+        <v>7.9843534284399498E-2</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N27" s="18">
         <f t="shared" si="7"/>
@@ -2487,11 +2489,11 @@
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>1776</v>
+        <v>2158</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="9"/>
-        <v>6.8347123340388727E-2</v>
+        <v>8.2999999999999963E-2</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="10"/>
@@ -2513,37 +2515,37 @@
         <v>16569</v>
       </c>
       <c r="D28" s="10">
-        <v>16918</v>
+        <v>16762</v>
       </c>
       <c r="E28" s="9">
-        <v>18033</v>
+        <v>18458</v>
       </c>
       <c r="F28" s="9">
-        <v>18458</v>
+        <v>18704</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>246</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>2.3567903288415737E-2</v>
+        <v>1.3327554447935874E-2</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>1889</v>
+        <v>2135</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>0.11400808739211787</v>
+        <v>0.1288550908322772</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
@@ -2555,11 +2557,11 @@
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>1540</v>
+        <v>1942</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="9"/>
-        <v>9.1027308192457745E-2</v>
+        <v>0.11585729626536212</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="10"/>
@@ -2581,37 +2583,37 @@
         <v>22803</v>
       </c>
       <c r="D29" s="10">
-        <v>22998</v>
+        <v>22966</v>
       </c>
       <c r="E29" s="9">
-        <v>23311</v>
+        <v>23505</v>
       </c>
       <c r="F29" s="9">
-        <v>23505</v>
+        <v>23622</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>8.3222512976706131E-3</v>
+        <v>4.977664326738962E-3</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>702</v>
+        <v>819</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>3.0785422970661669E-2</v>
+        <v>3.5916326799105391E-2</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
@@ -2623,19 +2625,19 @@
       </c>
       <c r="O29" s="19">
         <f t="shared" si="8"/>
-        <v>507</v>
+        <v>656</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="9"/>
-        <v>2.2045395251760969E-2</v>
+        <v>2.8563964120874363E-2</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R29" s="26">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2649,53 +2651,53 @@
         <v>40632</v>
       </c>
       <c r="D30" s="10">
-        <v>40467</v>
+        <v>40419</v>
       </c>
       <c r="E30" s="9">
-        <v>42178</v>
+        <v>42434</v>
       </c>
       <c r="F30" s="9">
-        <v>42434</v>
+        <v>42665</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>6.0695149129879056E-3</v>
+        <v>5.4437479379743081E-3</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>1802</v>
+        <v>2033</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>4.434928135459737E-2</v>
+        <v>5.0034455601496441E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O30" s="19">
         <f t="shared" si="8"/>
-        <v>1967</v>
+        <v>2246</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="9"/>
-        <v>4.8607507351669188E-2</v>
+        <v>5.5567925975407606E-2</v>
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="10"/>
@@ -2703,7 +2705,7 @@
       </c>
       <c r="R30" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2717,37 +2719,37 @@
         <v>37552</v>
       </c>
       <c r="D31" s="10">
-        <v>37661</v>
+        <v>37616</v>
       </c>
       <c r="E31" s="9">
-        <v>38675</v>
+        <v>38969</v>
       </c>
       <c r="F31" s="9">
-        <v>38969</v>
+        <v>39166</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>7.6018099547512374E-3</v>
+        <v>5.0553003669584484E-3</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>1417</v>
+        <v>1614</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>3.7734341712824859E-2</v>
+        <v>4.2980400511291039E-2</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
@@ -2755,15 +2757,15 @@
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>1308</v>
+        <v>1550</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="9"/>
-        <v>3.4730888717771746E-2</v>
+        <v>4.1205869842620091E-2</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="10"/>
@@ -2771,7 +2773,7 @@
       </c>
       <c r="R31" s="26">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2785,61 +2787,61 @@
         <v>10735</v>
       </c>
       <c r="D32" s="10">
-        <v>10669</v>
+        <v>10737</v>
       </c>
       <c r="E32" s="9">
-        <v>11282</v>
+        <v>11358</v>
       </c>
       <c r="F32" s="9">
-        <v>11358</v>
+        <v>11405</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>6.7363942563374302E-3</v>
+        <v>4.1380524740270985E-3</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>623</v>
+        <v>670</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>5.8034466697717724E-2</v>
+        <v>6.2412668840242214E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="8"/>
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="9"/>
-        <v>6.4579623207423387E-2</v>
+        <v>6.2214771351401632E-2</v>
       </c>
       <c r="Q32" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R32" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2853,41 +2855,41 @@
         <v>33799</v>
       </c>
       <c r="D33" s="10">
-        <v>34046</v>
+        <v>34006</v>
       </c>
       <c r="E33" s="9">
-        <v>34370</v>
+        <v>34614</v>
       </c>
       <c r="F33" s="9">
-        <v>34614</v>
+        <v>34741</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>7.0992144311898819E-3</v>
+        <v>3.6690356503148447E-3</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>815</v>
+        <v>942</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>2.4113139441995335E-2</v>
+        <v>2.7870647060563858E-2</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="7"/>
@@ -2895,19 +2897,19 @@
       </c>
       <c r="O33" s="19">
         <f t="shared" si="8"/>
-        <v>568</v>
+        <v>735</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="9"/>
-        <v>1.6683310814779917E-2</v>
+        <v>2.1613832853025983E-2</v>
       </c>
       <c r="Q33" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2921,37 +2923,37 @@
         <v>5146</v>
       </c>
       <c r="D34" s="10">
-        <v>5133</v>
+        <v>5123</v>
       </c>
       <c r="E34" s="9">
-        <v>5322</v>
+        <v>5343</v>
       </c>
       <c r="F34" s="9">
-        <v>5343</v>
+        <v>5367</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>3.9458850056370842E-3</v>
+        <v>4.4918585064570582E-3</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>3.8282160901671247E-2</v>
+        <v>4.2945977458219931E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
@@ -2959,15 +2961,15 @@
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="8"/>
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="9"/>
-        <v>4.0911747516072516E-2</v>
+        <v>4.7628342767909393E-2</v>
       </c>
       <c r="Q34" s="25">
         <f t="shared" si="10"/>
@@ -2975,7 +2977,7 @@
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2989,25 +2991,25 @@
         <v>43019</v>
       </c>
       <c r="D35" s="10">
-        <v>43352</v>
+        <v>43261</v>
       </c>
       <c r="E35" s="9">
-        <v>43928</v>
+        <v>44079</v>
       </c>
       <c r="F35" s="9">
-        <v>44079</v>
+        <v>44117</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>3.4374430886905394E-3</v>
+        <v>8.6208852287938953E-4</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="3"/>
@@ -3015,35 +3017,35 @@
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>1060</v>
+        <v>1098</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>2.4640275227225228E-2</v>
+        <v>2.5523605848578601E-2</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N35" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O35" s="19">
         <f t="shared" si="8"/>
-        <v>727</v>
+        <v>856</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="9"/>
-        <v>1.6769699206495625E-2</v>
+        <v>1.9786875014447203E-2</v>
       </c>
       <c r="Q35" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R35" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3057,61 +3059,61 @@
         <v>19413</v>
       </c>
       <c r="D36" s="10">
-        <v>19711</v>
+        <v>19639</v>
       </c>
       <c r="E36" s="9">
-        <v>20210</v>
+        <v>20382</v>
       </c>
       <c r="F36" s="9">
-        <v>20382</v>
+        <v>20574</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>8.5106382978723527E-3</v>
+        <v>9.4200765381218243E-3</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>969</v>
+        <v>1161</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>4.9915005408746715E-2</v>
+        <v>5.9805285118219809E-2</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N36" s="18">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O36" s="19">
         <f t="shared" si="8"/>
-        <v>671</v>
+        <v>935</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="9"/>
-        <v>3.4041905534980543E-2</v>
+        <v>4.7609348744844349E-2</v>
       </c>
       <c r="Q36" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R36" s="26">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3125,37 +3127,37 @@
         <v>11771</v>
       </c>
       <c r="D37" s="10">
-        <v>11727</v>
+        <v>11714</v>
       </c>
       <c r="E37" s="9">
-        <v>12017</v>
+        <v>12067</v>
       </c>
       <c r="F37" s="9">
-        <v>12067</v>
+        <v>12087</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>4.160772239327537E-3</v>
+        <v>1.6574127786526116E-3</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J37" s="24">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>2.5146546597570207E-2</v>
+        <v>2.6845637583892579E-2</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
@@ -3163,19 +3165,19 @@
       </c>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="8"/>
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="9"/>
-        <v>2.8992922316022796E-2</v>
+        <v>3.1842240054635429E-2</v>
       </c>
       <c r="Q37" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R37" s="26">
         <f t="shared" si="11"/>
@@ -3193,41 +3195,41 @@
         <v>1000414</v>
       </c>
       <c r="D38" s="46">
-        <v>1002342</v>
+        <v>1001692</v>
       </c>
       <c r="E38" s="45">
-        <v>1028757</v>
+        <v>1038286</v>
       </c>
       <c r="F38" s="59">
-        <v>1038286</v>
+        <v>1046340</v>
       </c>
       <c r="G38" s="44">
         <f t="shared" si="0"/>
-        <v>9529</v>
+        <v>8054</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>9.2626344219286505E-3</v>
+        <v>7.7570149265231425E-3</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
       <c r="K38" s="50">
         <f>F38-C38</f>
-        <v>37872</v>
+        <v>45926</v>
       </c>
       <c r="L38" s="51">
         <f t="shared" si="5"/>
-        <v>3.7856327480423113E-2</v>
+        <v>4.5906994504275156E-2</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="52">
         <f t="shared" si="8"/>
-        <v>35944</v>
+        <v>44648</v>
       </c>
       <c r="P38" s="53">
         <f t="shared" si="9"/>
-        <v>3.5860015842895887E-2</v>
+        <v>4.4572583189243842E-2</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="49"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -187,24 +187,24 @@
   </si>
   <si>
     <t>2021
-Agosto</t>
+Septiembre</t>
+  </si>
+  <si>
+    <t>2020
+Octubre</t>
   </si>
   <si>
     <t>2021
-Septiembre</t>
-  </si>
-  <si>
-    <t>Septiembre 2021 respecto a Agosto 2021</t>
-  </si>
-  <si>
-    <t>Septiembre 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Septiembre 2021 respecto a Septiembre 2020</t>
-  </si>
-  <si>
-    <t>2020
-Septiembre</t>
+Octubre</t>
+  </si>
+  <si>
+    <t>Octubre 2021 respecto a Septiembre 2021</t>
+  </si>
+  <si>
+    <t>Octubre 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Octubre 2021 respecto a Octubre 2020</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="T19" sqref="T19:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -864,7 +864,7 @@
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="10" width="9.42578125" style="2" customWidth="1"/>
     <col min="11" max="14" width="9.5703125" style="2" customWidth="1"/>
@@ -935,28 +935,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="68" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
@@ -1017,37 +1017,37 @@
         <v>16017</v>
       </c>
       <c r="D6" s="10">
-        <v>16036</v>
+        <v>16033</v>
       </c>
       <c r="E6" s="9">
-        <v>16597</v>
+        <v>16724</v>
       </c>
       <c r="F6" s="9">
-        <v>16724</v>
+        <v>16788</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>7.6519852985479364E-3</v>
+        <v>3.8268356852426688E-3</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>707</v>
+        <v>771</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>4.4140600611849878E-2</v>
+        <v>4.8136355122682106E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
@@ -1055,19 +1055,19 @@
       </c>
       <c r="N6" s="18">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" s="19">
         <f>F6-D6</f>
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="P6" s="20">
         <f>F6/D6-1</f>
-        <v>4.2903467198802669E-2</v>
+        <v>4.7090376099295117E-2</v>
       </c>
       <c r="Q6" s="25">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
@@ -1085,21 +1085,21 @@
         <v>41338</v>
       </c>
       <c r="D7" s="10">
-        <v>41066</v>
+        <v>41170</v>
       </c>
       <c r="E7" s="9">
-        <v>43604</v>
+        <v>44193</v>
       </c>
       <c r="F7" s="9">
-        <v>44193</v>
+        <v>44527</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>589</v>
+        <v>334</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>1.3507935051830122E-2</v>
+        <v>7.5577580159753577E-3</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
@@ -1107,15 +1107,15 @@
       </c>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>2855</v>
+        <v>3189</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>6.9064783008369934E-2</v>
+        <v>7.7144515941748537E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
@@ -1127,15 +1127,15 @@
       </c>
       <c r="O7" s="19">
         <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>3127</v>
+        <v>3357</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>7.6145716651244255E-2</v>
+        <v>8.1539956278843917E-2</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" s="26">
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
@@ -1153,57 +1153,57 @@
         <v>12767</v>
       </c>
       <c r="D8" s="10">
-        <v>12692</v>
+        <v>12766</v>
       </c>
       <c r="E8" s="9">
-        <v>13503</v>
+        <v>13662</v>
       </c>
       <c r="F8" s="9">
-        <v>13662</v>
+        <v>13905</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>1.1775161075316509E-2</v>
+        <v>1.7786561264822032E-2</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>895</v>
+        <v>1138</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>7.0102608286989998E-2</v>
+        <v>8.913605388893231E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>970</v>
+        <v>1139</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="9"/>
-        <v>7.6426095178064868E-2</v>
+        <v>8.9221369262102446E-2</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R8" s="26">
         <f t="shared" si="11"/>
@@ -1221,37 +1221,37 @@
         <v>5807</v>
       </c>
       <c r="D9" s="10">
-        <v>5831</v>
+        <v>5811</v>
       </c>
       <c r="E9" s="9">
-        <v>6139</v>
+        <v>6206</v>
       </c>
       <c r="F9" s="9">
-        <v>6206</v>
+        <v>6208</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>1.0913829613943715E-2</v>
+        <v>3.2226877215602023E-4</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>6.8710177372137027E-2</v>
+        <v>6.9054589288789492E-2</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
@@ -1263,15 +1263,15 @@
       </c>
       <c r="O9" s="19">
         <f t="shared" si="8"/>
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="9"/>
-        <v>6.4311438861258896E-2</v>
+        <v>6.8318705902598476E-2</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="11"/>
@@ -1289,61 +1289,61 @@
         <v>14324</v>
       </c>
       <c r="D10" s="10">
-        <v>14396</v>
+        <v>14431</v>
       </c>
       <c r="E10" s="9">
-        <v>14683</v>
+        <v>14778</v>
       </c>
       <c r="F10" s="9">
-        <v>14778</v>
+        <v>14805</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="H10" s="22">
         <f>F10/E10-1</f>
-        <v>6.470067424913184E-3</v>
+        <v>1.8270401948843329E-3</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>3.1695057246579061E-2</v>
+        <v>3.3580005585032158E-2</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="8"/>
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="9"/>
-        <v>2.6535148652403473E-2</v>
+        <v>2.5916429907837379E-2</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1357,21 +1357,21 @@
         <v>39670</v>
       </c>
       <c r="D11" s="10">
-        <v>39785</v>
+        <v>39922</v>
       </c>
       <c r="E11" s="9">
-        <v>41443</v>
+        <v>41777</v>
       </c>
       <c r="F11" s="9">
-        <v>41777</v>
+        <v>42026</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>8.0592621190551661E-3</v>
+        <v>5.9602173444719408E-3</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
@@ -1379,15 +1379,15 @@
       </c>
       <c r="J11" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>2107</v>
+        <v>2356</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>5.3113183766070104E-2</v>
+        <v>5.9389967229644514E-2</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="6"/>
@@ -1399,19 +1399,19 @@
       </c>
       <c r="O11" s="19">
         <f t="shared" si="8"/>
-        <v>1992</v>
+        <v>2104</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="9"/>
-        <v>5.0069121528214078E-2</v>
+        <v>5.2702770402284438E-2</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1425,37 +1425,37 @@
         <v>118117</v>
       </c>
       <c r="D12" s="10">
-        <v>118439</v>
+        <v>118395</v>
       </c>
       <c r="E12" s="9">
-        <v>122640</v>
+        <v>124086</v>
       </c>
       <c r="F12" s="9">
-        <v>124086</v>
+        <v>124614</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>1446</v>
+        <v>528</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>1.1790606653620417E-2</v>
+        <v>4.2551133891011172E-3</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="24">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>5969</v>
+        <v>6497</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>5.0534639382984636E-2</v>
+        <v>5.5004783392737622E-2</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="O12" s="19">
         <f t="shared" si="8"/>
-        <v>5647</v>
+        <v>6219</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="9"/>
-        <v>4.7678551828367333E-2</v>
+        <v>5.2527556062333725E-2</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="10"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="R12" s="26">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1493,37 +1493,37 @@
         <v>34021</v>
       </c>
       <c r="D13" s="10">
-        <v>34161</v>
+        <v>34166</v>
       </c>
       <c r="E13" s="9">
-        <v>35290</v>
+        <v>35420</v>
       </c>
       <c r="F13" s="9">
-        <v>35420</v>
+        <v>35640</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>3.6837631056956255E-3</v>
+        <v>6.2111801242235032E-3</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>1399</v>
+        <v>1619</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>4.1121660151083095E-2</v>
+        <v>4.7588254313512213E-2</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
@@ -1531,23 +1531,23 @@
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>1259</v>
+        <v>1474</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="9"/>
-        <v>3.6854893006645018E-2</v>
+        <v>4.3142305215711607E-2</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R13" s="26">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1561,37 +1561,37 @@
         <v>10753</v>
       </c>
       <c r="D14" s="10">
-        <v>10723</v>
+        <v>10739</v>
       </c>
       <c r="E14" s="9">
-        <v>11279</v>
+        <v>11339</v>
       </c>
       <c r="F14" s="9">
-        <v>11339</v>
+        <v>11417</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>5.3196205337353586E-3</v>
+        <v>6.878913484434257E-3</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>5.4496419603831558E-2</v>
+        <v>6.1750209243931931E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
@@ -1599,23 +1599,23 @@
       </c>
       <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="8"/>
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="9"/>
-        <v>5.7446610090459815E-2</v>
+        <v>6.3134370053077538E-2</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1629,37 +1629,37 @@
         <v>14267</v>
       </c>
       <c r="D15" s="10">
-        <v>14278</v>
+        <v>14371</v>
       </c>
       <c r="E15" s="9">
-        <v>14584</v>
+        <v>14612</v>
       </c>
       <c r="F15" s="9">
-        <v>14612</v>
+        <v>14658</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>1.9199122325836981E-3</v>
+        <v>3.1480974541473472E-3</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>2.4181677998177609E-2</v>
+        <v>2.7405901731268001E-2</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O15" s="19">
         <f t="shared" si="8"/>
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="9"/>
-        <v>2.3392632021291604E-2</v>
+        <v>1.9970774476375963E-2</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="10"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="R15" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1697,37 +1697,37 @@
         <v>72960</v>
       </c>
       <c r="D16" s="10">
-        <v>73041</v>
+        <v>73167</v>
       </c>
       <c r="E16" s="9">
-        <v>75223</v>
+        <v>76166</v>
       </c>
       <c r="F16" s="9">
-        <v>76166</v>
+        <v>76825</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>943</v>
+        <v>659</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>1.2536059449902215E-2</v>
+        <v>8.6521545046345238E-3</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>3206</v>
+        <v>3865</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>4.3941885964912331E-2</v>
+        <v>5.2974232456140413E-2</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
@@ -1735,23 +1735,23 @@
       </c>
       <c r="N16" s="18">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O16" s="19">
         <f t="shared" si="8"/>
-        <v>3125</v>
+        <v>3658</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="9"/>
-        <v>4.2784189701674302E-2</v>
+        <v>4.9995216422704214E-2</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1765,37 +1765,37 @@
         <v>47776</v>
       </c>
       <c r="D17" s="10">
-        <v>47804</v>
+        <v>47896</v>
       </c>
       <c r="E17" s="9">
-        <v>48978</v>
+        <v>49169</v>
       </c>
       <c r="F17" s="9">
-        <v>49169</v>
+        <v>49324</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>3.899710073910656E-3</v>
+        <v>3.1523927678007713E-3</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>1393</v>
+        <v>1548</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>2.9156898861353087E-2</v>
+        <v>3.2401205626255924E-2</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
@@ -1803,23 +1803,23 @@
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="8"/>
-        <v>1365</v>
+        <v>1428</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="9"/>
-        <v>2.8554095891557107E-2</v>
+        <v>2.9814598296308725E-2</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1833,37 +1833,37 @@
         <v>13652</v>
       </c>
       <c r="D18" s="10">
-        <v>13802</v>
+        <v>13797</v>
       </c>
       <c r="E18" s="9">
-        <v>13765</v>
+        <v>13745</v>
       </c>
       <c r="F18" s="9">
-        <v>13745</v>
+        <v>13754</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>-1.4529604068289625E-3</v>
+        <v>6.5478355765735685E-4</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>6.812188690301868E-3</v>
+        <v>7.4714327571052674E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
@@ -1875,11 +1875,11 @@
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-57</v>
+        <v>-43</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="9"/>
-        <v>-4.129836255615138E-3</v>
+        <v>-3.1166195549757747E-3</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="10"/>
@@ -1901,37 +1901,37 @@
         <v>15458</v>
       </c>
       <c r="D19" s="10">
-        <v>15506</v>
+        <v>15513</v>
       </c>
       <c r="E19" s="9">
-        <v>15814</v>
+        <v>15889</v>
       </c>
       <c r="F19" s="9">
-        <v>15889</v>
+        <v>15993</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>4.7426331099025276E-3</v>
+        <v>6.54540877336518E-3</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>431</v>
+        <v>535</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>2.7882002846422616E-2</v>
+        <v>3.4609910725837745E-2</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
@@ -1939,15 +1939,15 @@
       </c>
       <c r="N19" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>383</v>
+        <v>480</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="9"/>
-        <v>2.4700116084096502E-2</v>
+        <v>3.0941790756140009E-2</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="10"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="R19" s="26">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S19" s="2"/>
     </row>
@@ -1970,37 +1970,37 @@
         <v>98067</v>
       </c>
       <c r="D20" s="31">
-        <v>98038</v>
+        <v>98224</v>
       </c>
       <c r="E20" s="30">
-        <v>101796</v>
+        <v>102475</v>
       </c>
       <c r="F20" s="30">
-        <v>102475</v>
+        <v>102866</v>
       </c>
       <c r="G20" s="29">
         <f>F20-E20</f>
-        <v>679</v>
+        <v>391</v>
       </c>
       <c r="H20" s="32">
         <f>F20/E20-1</f>
-        <v>6.6702031514007665E-3</v>
+        <v>3.8155647718955965E-3</v>
       </c>
       <c r="I20" s="33">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="34">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="4"/>
-        <v>4408</v>
+        <v>4799</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="5"/>
-        <v>4.4948861492652981E-2</v>
+        <v>4.8935931556996826E-2</v>
       </c>
       <c r="M20" s="37">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
@@ -2008,15 +2008,15 @@
       </c>
       <c r="N20" s="38">
         <f>_xlfn.RANK.EQ(L20,$L$6:$L$37)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O20" s="39">
         <f>F20-D20</f>
-        <v>4437</v>
+        <v>4642</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="9"/>
-        <v>4.5257961198718943E-2</v>
+        <v>4.7259325623065562E-2</v>
       </c>
       <c r="Q20" s="41">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
@@ -2039,37 +2039,37 @@
         <v>36276</v>
       </c>
       <c r="D21" s="10">
-        <v>36127</v>
+        <v>36185</v>
       </c>
       <c r="E21" s="9">
-        <v>36908</v>
+        <v>37019</v>
       </c>
       <c r="F21" s="9">
-        <v>37019</v>
+        <v>37053</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>3.0074780535385148E-3</v>
+        <v>9.1844728382728391E-4</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>2.048186128569851E-2</v>
+        <v>2.1419120079391396E-2</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
@@ -2081,19 +2081,19 @@
       </c>
       <c r="O21" s="19">
         <f t="shared" si="8"/>
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="9"/>
-        <v>2.4690674564729953E-2</v>
+        <v>2.3987840265303317E-2</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2107,37 +2107,37 @@
         <v>12099</v>
       </c>
       <c r="D22" s="10">
-        <v>12014</v>
+        <v>12079</v>
       </c>
       <c r="E22" s="9">
-        <v>12437</v>
+        <v>12516</v>
       </c>
       <c r="F22" s="9">
-        <v>12516</v>
+        <v>12560</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>6.3520141513226935E-3</v>
+        <v>3.5155001597955149E-3</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>3.4465658318869385E-2</v>
+        <v>3.8102322505992214E-2</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
@@ -2145,15 +2145,15 @@
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="8"/>
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="9"/>
-        <v>4.1784584651240131E-2</v>
+        <v>3.9821177249772299E-2</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="10"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="R22" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2175,37 +2175,37 @@
         <v>12766</v>
       </c>
       <c r="D23" s="10">
-        <v>12700</v>
+        <v>12779</v>
       </c>
       <c r="E23" s="9">
-        <v>13376</v>
+        <v>13478</v>
       </c>
       <c r="F23" s="9">
-        <v>13478</v>
+        <v>13541</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>7.6255980861243966E-3</v>
+        <v>4.6742840184004208E-3</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>712</v>
+        <v>775</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>5.5773147422842007E-2</v>
+        <v>6.0708130972896734E-2</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="6"/>
@@ -2213,23 +2213,23 @@
       </c>
       <c r="N23" s="18">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="9"/>
-        <v>6.1259842519685082E-2</v>
+        <v>5.9629078957665005E-2</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R23" s="26">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2243,37 +2243,37 @@
         <v>69698</v>
       </c>
       <c r="D24" s="10">
-        <v>69980</v>
+        <v>69964</v>
       </c>
       <c r="E24" s="9">
-        <v>73017</v>
+        <v>74025</v>
       </c>
       <c r="F24" s="9">
-        <v>74025</v>
+        <v>74370</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>1008</v>
+        <v>345</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>1.380500431406384E-2</v>
+        <v>4.6605876393110979E-3</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>4327</v>
+        <v>4672</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>6.2082125742489058E-2</v>
+        <v>6.7032052569657719E-2</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
@@ -2285,11 +2285,11 @@
       </c>
       <c r="O24" s="19">
         <f t="shared" si="8"/>
-        <v>4045</v>
+        <v>4406</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="9"/>
-        <v>5.7802229208345324E-2</v>
+        <v>6.2975244411411557E-2</v>
       </c>
       <c r="Q24" s="25">
         <f t="shared" si="10"/>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="R24" s="26">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2311,53 +2311,53 @@
         <v>13897</v>
       </c>
       <c r="D25" s="10">
-        <v>13813</v>
+        <v>13883</v>
       </c>
       <c r="E25" s="9">
-        <v>14286</v>
+        <v>14322</v>
       </c>
       <c r="F25" s="9">
-        <v>14322</v>
+        <v>14433</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>2.5199496010079869E-3</v>
+        <v>7.7503142019270665E-3</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>425</v>
+        <v>536</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>3.0582140030222416E-2</v>
+        <v>3.856947542635103E-2</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="8"/>
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="9"/>
-        <v>3.6849344820097052E-2</v>
+        <v>3.9616797522149305E-2</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="10"/>
@@ -2379,41 +2379,41 @@
         <v>33169</v>
       </c>
       <c r="D26" s="10">
-        <v>33217</v>
+        <v>33276</v>
       </c>
       <c r="E26" s="9">
-        <v>33954</v>
+        <v>34133</v>
       </c>
       <c r="F26" s="9">
-        <v>34133</v>
+        <v>34280</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>5.2718383695589122E-3</v>
+        <v>4.3066826824480486E-3</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>964</v>
+        <v>1111</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>2.906328198016217E-2</v>
+        <v>3.3495130995809363E-2</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="7"/>
@@ -2421,19 +2421,19 @@
       </c>
       <c r="O26" s="19">
         <f t="shared" si="8"/>
-        <v>916</v>
+        <v>1004</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="9"/>
-        <v>2.757624108137402E-2</v>
+        <v>3.017189566053613E-2</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -2447,37 +2447,37 @@
         <v>26076</v>
       </c>
       <c r="D27" s="10">
-        <v>26000</v>
+        <v>26045</v>
       </c>
       <c r="E27" s="9">
-        <v>27761</v>
+        <v>28158</v>
       </c>
       <c r="F27" s="9">
-        <v>28158</v>
+        <v>28379</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>1.4300637585101361E-2</v>
+        <v>7.8485687903970813E-3</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>2082</v>
+        <v>2303</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>7.9843534284399498E-2</v>
+        <v>8.8318760546095998E-2</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
@@ -2485,19 +2485,19 @@
       </c>
       <c r="N27" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>2158</v>
+        <v>2334</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="9"/>
-        <v>8.2999999999999963E-2</v>
+        <v>8.9614129391437869E-2</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R27" s="26">
         <f t="shared" si="11"/>
@@ -2515,37 +2515,37 @@
         <v>16569</v>
       </c>
       <c r="D28" s="10">
-        <v>16762</v>
+        <v>16759</v>
       </c>
       <c r="E28" s="9">
-        <v>18458</v>
+        <v>18704</v>
       </c>
       <c r="F28" s="9">
-        <v>18704</v>
+        <v>19036</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>1.3327554447935874E-2</v>
+        <v>1.7750213857998354E-2</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>2135</v>
+        <v>2467</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>0.1288550908322772</v>
+        <v>0.14889251010924021</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
@@ -2557,15 +2557,15 @@
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>1942</v>
+        <v>2277</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="9"/>
-        <v>0.11585729626536212</v>
+        <v>0.13586729518467688</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28" s="26">
         <f t="shared" si="11"/>
@@ -2583,37 +2583,37 @@
         <v>22803</v>
       </c>
       <c r="D29" s="10">
-        <v>22966</v>
+        <v>22906</v>
       </c>
       <c r="E29" s="9">
-        <v>23505</v>
+        <v>23622</v>
       </c>
       <c r="F29" s="9">
-        <v>23622</v>
+        <v>23752</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>4.977664326738962E-3</v>
+        <v>5.5033443400220872E-3</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>819</v>
+        <v>949</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>3.5916326799105391E-2</v>
+        <v>4.1617331052931528E-2</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
@@ -2625,19 +2625,19 @@
       </c>
       <c r="O29" s="19">
         <f t="shared" si="8"/>
-        <v>656</v>
+        <v>846</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="9"/>
-        <v>2.8563964120874363E-2</v>
+        <v>3.6933554527198043E-2</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R29" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2651,37 +2651,37 @@
         <v>40632</v>
       </c>
       <c r="D30" s="10">
-        <v>40419</v>
+        <v>40481</v>
       </c>
       <c r="E30" s="9">
-        <v>42434</v>
+        <v>42665</v>
       </c>
       <c r="F30" s="9">
-        <v>42665</v>
+        <v>42810</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>5.4437479379743081E-3</v>
+        <v>3.3985702566505793E-3</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>2033</v>
+        <v>2178</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>5.0034455601496441E-2</v>
+        <v>5.3603071470762043E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
@@ -2693,19 +2693,19 @@
       </c>
       <c r="O30" s="19">
         <f t="shared" si="8"/>
-        <v>2246</v>
+        <v>2329</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="9"/>
-        <v>5.5567925975407606E-2</v>
+        <v>5.7533163706430246E-2</v>
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R30" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2719,37 +2719,37 @@
         <v>37552</v>
       </c>
       <c r="D31" s="10">
-        <v>37616</v>
+        <v>37625</v>
       </c>
       <c r="E31" s="9">
-        <v>38969</v>
+        <v>39166</v>
       </c>
       <c r="F31" s="9">
-        <v>39166</v>
+        <v>39220</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>5.0553003669584484E-3</v>
+        <v>1.3787468722872287E-3</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>1614</v>
+        <v>1668</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>4.2980400511291039E-2</v>
+        <v>4.4418406476352867E-2</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
@@ -2757,15 +2757,15 @@
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>1550</v>
+        <v>1595</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="9"/>
-        <v>4.1205869842620091E-2</v>
+        <v>4.2392026578073061E-2</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="10"/>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R31" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2787,37 +2787,37 @@
         <v>10735</v>
       </c>
       <c r="D32" s="10">
-        <v>10737</v>
+        <v>10822</v>
       </c>
       <c r="E32" s="9">
-        <v>11358</v>
+        <v>11405</v>
       </c>
       <c r="F32" s="9">
-        <v>11405</v>
+        <v>11457</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>4.1380524740270985E-3</v>
+        <v>4.5594037702763046E-3</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>670</v>
+        <v>722</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>6.2412668840242214E-2</v>
+        <v>6.7256637168141564E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
@@ -2829,19 +2829,19 @@
       </c>
       <c r="O32" s="19">
         <f t="shared" si="8"/>
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="9"/>
-        <v>6.2214771351401632E-2</v>
+        <v>5.8676769543522411E-2</v>
       </c>
       <c r="Q32" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R32" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2855,37 +2855,37 @@
         <v>33799</v>
       </c>
       <c r="D33" s="10">
-        <v>34006</v>
+        <v>34021</v>
       </c>
       <c r="E33" s="9">
-        <v>34614</v>
+        <v>34741</v>
       </c>
       <c r="F33" s="9">
-        <v>34741</v>
+        <v>34913</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>3.6690356503148447E-3</v>
+        <v>4.9509225410897528E-3</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>942</v>
+        <v>1114</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>2.7870647060563858E-2</v>
+        <v>3.2959555016420561E-2</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
@@ -2893,23 +2893,23 @@
       </c>
       <c r="N33" s="18">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="8"/>
-        <v>735</v>
+        <v>892</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="9"/>
-        <v>2.1613832853025983E-2</v>
+        <v>2.6219099967667026E-2</v>
       </c>
       <c r="Q33" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2923,37 +2923,37 @@
         <v>5146</v>
       </c>
       <c r="D34" s="10">
-        <v>5123</v>
+        <v>5190</v>
       </c>
       <c r="E34" s="9">
-        <v>5343</v>
+        <v>5367</v>
       </c>
       <c r="F34" s="9">
-        <v>5367</v>
+        <v>5403</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>4.4918585064570582E-3</v>
+        <v>6.7076579094467181E-3</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>4.2945977458219931E-2</v>
+        <v>4.9941702293043067E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
@@ -2961,15 +2961,15 @@
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="8"/>
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="9"/>
-        <v>4.7628342767909393E-2</v>
+        <v>4.1040462427745616E-2</v>
       </c>
       <c r="Q34" s="25">
         <f t="shared" si="10"/>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2991,61 +2991,61 @@
         <v>43019</v>
       </c>
       <c r="D35" s="10">
-        <v>43261</v>
+        <v>43224</v>
       </c>
       <c r="E35" s="9">
-        <v>44079</v>
+        <v>44117</v>
       </c>
       <c r="F35" s="9">
-        <v>44117</v>
+        <v>44292</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>8.6208852287938953E-4</v>
+        <v>3.9667248452976978E-3</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>1098</v>
+        <v>1273</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>2.5523605848578601E-2</v>
+        <v>2.9591575815337334E-2</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N35" s="18">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O35" s="19">
         <f t="shared" si="8"/>
-        <v>856</v>
+        <v>1068</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="9"/>
-        <v>1.9786875014447203E-2</v>
+        <v>2.4708495280399756E-2</v>
       </c>
       <c r="Q35" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R35" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3059,41 +3059,41 @@
         <v>19413</v>
       </c>
       <c r="D36" s="10">
-        <v>19639</v>
+        <v>19492</v>
       </c>
       <c r="E36" s="9">
-        <v>20382</v>
+        <v>20574</v>
       </c>
       <c r="F36" s="9">
-        <v>20574</v>
+        <v>20660</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>9.4200765381218243E-3</v>
+        <v>4.1800330514241146E-3</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>1161</v>
+        <v>1247</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>5.9805285118219809E-2</v>
+        <v>6.4235306238087819E-2</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N36" s="18">
         <f t="shared" si="7"/>
@@ -3101,19 +3101,19 @@
       </c>
       <c r="O36" s="19">
         <f t="shared" si="8"/>
-        <v>935</v>
+        <v>1168</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="9"/>
-        <v>4.7609348744844349E-2</v>
+        <v>5.9922019289965212E-2</v>
       </c>
       <c r="Q36" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36" s="26">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3127,37 +3127,37 @@
         <v>11771</v>
       </c>
       <c r="D37" s="10">
-        <v>11714</v>
+        <v>11768</v>
       </c>
       <c r="E37" s="9">
-        <v>12067</v>
+        <v>12087</v>
       </c>
       <c r="F37" s="9">
-        <v>12087</v>
+        <v>12110</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>1.6574127786526116E-3</v>
+        <v>1.9028708529824634E-3</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" s="24">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>2.6845637583892579E-2</v>
+        <v>2.8799592218163195E-2</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
@@ -3165,15 +3165,15 @@
       </c>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="8"/>
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="9"/>
-        <v>3.1842240054635429E-2</v>
+        <v>2.9061862678450012E-2</v>
       </c>
       <c r="Q37" s="25">
         <f t="shared" si="10"/>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="R37" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3195,41 +3195,41 @@
         <v>1000414</v>
       </c>
       <c r="D38" s="46">
-        <v>1001692</v>
+        <v>1002900</v>
       </c>
       <c r="E38" s="45">
-        <v>1038286</v>
+        <v>1046340</v>
       </c>
       <c r="F38" s="59">
-        <v>1046340</v>
-      </c>
-      <c r="G38" s="44">
+        <v>1051619</v>
+      </c>
+      <c r="G38" s="46">
         <f t="shared" si="0"/>
-        <v>8054</v>
+        <v>5279</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>7.7570149265231425E-3</v>
+        <v>5.0452051914291474E-3</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
       <c r="K38" s="50">
         <f>F38-C38</f>
-        <v>45926</v>
+        <v>51205</v>
       </c>
       <c r="L38" s="51">
         <f t="shared" si="5"/>
-        <v>4.5906994504275156E-2</v>
+        <v>5.1183809902700217E-2</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="52">
         <f t="shared" si="8"/>
-        <v>44648</v>
+        <v>48719</v>
       </c>
       <c r="P38" s="53">
         <f t="shared" si="9"/>
-        <v>4.4572583189243842E-2</v>
+        <v>4.8578123442018173E-2</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="49"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="septiembre" sheetId="2" r:id="rId1"/>
+    <sheet name="noviembre" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -187,24 +187,24 @@
   </si>
   <si>
     <t>2021
-Septiembre</t>
+Octubre</t>
+  </si>
+  <si>
+    <t>2021
+Noviembre</t>
   </si>
   <si>
     <t>2020
-Octubre</t>
-  </si>
-  <si>
-    <t>2021
-Octubre</t>
-  </si>
-  <si>
-    <t>Octubre 2021 respecto a Septiembre 2021</t>
-  </si>
-  <si>
-    <t>Octubre 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Octubre 2021 respecto a Octubre 2020</t>
+Noviembre</t>
+  </si>
+  <si>
+    <t>Noviembre  2021 respecto a Octubre 2021</t>
+  </si>
+  <si>
+    <t>Noviembre 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Noviembre 2021 respecto a Noviembre 2020</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19:T20"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -935,13 +935,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="68" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>47</v>
@@ -1017,37 +1017,37 @@
         <v>16017</v>
       </c>
       <c r="D6" s="10">
-        <v>16033</v>
+        <v>16063</v>
       </c>
       <c r="E6" s="9">
-        <v>16724</v>
+        <v>16788</v>
       </c>
       <c r="F6" s="9">
-        <v>16788</v>
+        <v>16770</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>64</v>
+        <v>-18</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>3.8268356852426688E-3</v>
+        <v>-1.0721944245889459E-3</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>4.8136355122682106E-2</v>
+        <v>4.7012549166510542E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
@@ -1055,15 +1055,15 @@
       </c>
       <c r="N6" s="18">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" s="19">
         <f>F6-D6</f>
-        <v>755</v>
+        <v>707</v>
       </c>
       <c r="P6" s="20">
         <f>F6/D6-1</f>
-        <v>4.7090376099295117E-2</v>
+        <v>4.4014194110689076E-2</v>
       </c>
       <c r="Q6" s="25">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1085,37 +1085,37 @@
         <v>41338</v>
       </c>
       <c r="D7" s="10">
-        <v>41170</v>
+        <v>41307</v>
       </c>
       <c r="E7" s="9">
-        <v>44193</v>
+        <v>44527</v>
       </c>
       <c r="F7" s="9">
-        <v>44527</v>
+        <v>44564</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>7.5577580159753577E-3</v>
+        <v>8.3095649830444707E-4</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J7" s="24">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>3189</v>
+        <v>3226</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>7.7144515941748537E-2</v>
+        <v>7.8039576176883285E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
@@ -1123,15 +1123,15 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N37" si="7">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7" s="19">
         <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>3357</v>
+        <v>3257</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>8.1539956278843917E-2</v>
+        <v>7.8848621299053345E-2</v>
       </c>
       <c r="Q7" s="25">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="R7" s="26">
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1153,37 +1153,37 @@
         <v>12767</v>
       </c>
       <c r="D8" s="10">
-        <v>12766</v>
+        <v>12798</v>
       </c>
       <c r="E8" s="9">
-        <v>13662</v>
+        <v>13905</v>
       </c>
       <c r="F8" s="9">
-        <v>13905</v>
+        <v>13977</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>1.7786561264822032E-2</v>
+        <v>5.1779935275080291E-3</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>1138</v>
+        <v>1210</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>8.913605388893231E-2</v>
+        <v>9.477559332654506E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
@@ -1191,15 +1191,15 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>1139</v>
+        <v>1179</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="9"/>
-        <v>8.9221369262102446E-2</v>
+        <v>9.2123769338959161E-2</v>
       </c>
       <c r="Q8" s="25">
         <f t="shared" si="10"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="R8" s="26">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1221,37 +1221,37 @@
         <v>5807</v>
       </c>
       <c r="D9" s="10">
-        <v>5811</v>
+        <v>5803</v>
       </c>
       <c r="E9" s="9">
-        <v>6206</v>
+        <v>6208</v>
       </c>
       <c r="F9" s="9">
-        <v>6208</v>
+        <v>6232</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>3.2226877215602023E-4</v>
+        <v>3.8659793814432852E-3</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J9" s="24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>6.9054589288789492E-2</v>
+        <v>7.3187532288617296E-2</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
@@ -1259,23 +1259,23 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" si="8"/>
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="9"/>
-        <v>6.8318705902598476E-2</v>
+        <v>7.3927278993624057E-2</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R9" s="26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1289,37 +1289,37 @@
         <v>14324</v>
       </c>
       <c r="D10" s="10">
-        <v>14431</v>
+        <v>14403</v>
       </c>
       <c r="E10" s="9">
-        <v>14778</v>
+        <v>14805</v>
       </c>
       <c r="F10" s="9">
-        <v>14805</v>
+        <v>14864</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H10" s="22">
         <f>F10/E10-1</f>
-        <v>1.8270401948843329E-3</v>
+        <v>3.9851401553530064E-3</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J10" s="24">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>3.3580005585032158E-2</v>
+        <v>3.7698966769058817E-2</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
@@ -1327,23 +1327,23 @@
       </c>
       <c r="N10" s="18">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="8"/>
-        <v>374</v>
+        <v>461</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="9"/>
-        <v>2.5916429907837379E-2</v>
+        <v>3.2007220717906071E-2</v>
       </c>
       <c r="Q10" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R10" s="26">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1357,37 +1357,37 @@
         <v>39670</v>
       </c>
       <c r="D11" s="10">
-        <v>39922</v>
+        <v>39839</v>
       </c>
       <c r="E11" s="9">
-        <v>41777</v>
+        <v>42026</v>
       </c>
       <c r="F11" s="9">
-        <v>42026</v>
+        <v>42209</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>5.9602173444719408E-3</v>
+        <v>4.354447246942339E-3</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="24">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>2356</v>
+        <v>2539</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>5.9389967229644514E-2</v>
+        <v>6.4003024955886056E-2</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="6"/>
@@ -1395,19 +1395,19 @@
       </c>
       <c r="N11" s="18">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="8"/>
-        <v>2104</v>
+        <v>2370</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="9"/>
-        <v>5.2702770402284438E-2</v>
+        <v>5.9489445016190245E-2</v>
       </c>
       <c r="Q11" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="11"/>
@@ -1425,21 +1425,21 @@
         <v>118117</v>
       </c>
       <c r="D12" s="10">
-        <v>118395</v>
+        <v>118382</v>
       </c>
       <c r="E12" s="9">
-        <v>124086</v>
+        <v>124614</v>
       </c>
       <c r="F12" s="9">
-        <v>124614</v>
+        <v>125176</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>4.2551133891011172E-3</v>
+        <v>4.5099266535060245E-3</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
@@ -1447,35 +1447,35 @@
       </c>
       <c r="J12" s="24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>6497</v>
+        <v>7059</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>5.5004783392737622E-2</v>
+        <v>5.9762777584936977E-2</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="8"/>
-        <v>6219</v>
+        <v>6794</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="9"/>
-        <v>5.2527556062333725E-2</v>
+        <v>5.7390481661063308E-2</v>
       </c>
       <c r="Q12" s="25">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="26">
         <f t="shared" si="11"/>
@@ -1493,37 +1493,37 @@
         <v>34021</v>
       </c>
       <c r="D13" s="10">
-        <v>34166</v>
+        <v>34138</v>
       </c>
       <c r="E13" s="9">
-        <v>35420</v>
+        <v>35640</v>
       </c>
       <c r="F13" s="9">
-        <v>35640</v>
+        <v>35712</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>6.2111801242235032E-3</v>
+        <v>2.0202020202020332E-3</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>1619</v>
+        <v>1691</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>4.7588254313512213E-2</v>
+        <v>4.9704594221216203E-2</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
@@ -1531,15 +1531,15 @@
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>1474</v>
+        <v>1574</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="9"/>
-        <v>4.3142305215711607E-2</v>
+        <v>4.61069775616616E-2</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="10"/>
@@ -1561,37 +1561,37 @@
         <v>10753</v>
       </c>
       <c r="D14" s="10">
-        <v>10739</v>
+        <v>10766</v>
       </c>
       <c r="E14" s="9">
-        <v>11339</v>
+        <v>11417</v>
       </c>
       <c r="F14" s="9">
-        <v>11417</v>
+        <v>11421</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>6.878913484434257E-3</v>
+        <v>3.503547341683344E-4</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J14" s="24">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>6.1750209243931931E-2</v>
+        <v>6.2122198456244782E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
@@ -1599,15 +1599,15 @@
       </c>
       <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="8"/>
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="9"/>
-        <v>6.3134370053077538E-2</v>
+        <v>6.0839680475571312E-2</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="10"/>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="R14" s="26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1629,37 +1629,37 @@
         <v>14267</v>
       </c>
       <c r="D15" s="10">
-        <v>14371</v>
+        <v>14365</v>
       </c>
       <c r="E15" s="9">
-        <v>14612</v>
+        <v>14658</v>
       </c>
       <c r="F15" s="9">
-        <v>14658</v>
+        <v>14686</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>3.1480974541473472E-3</v>
+        <v>1.9102196752627254E-3</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>2.7405901731268001E-2</v>
+        <v>2.9368472699236037E-2</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
@@ -1667,23 +1667,23 @@
       </c>
       <c r="N15" s="18">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="8"/>
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="9"/>
-        <v>1.9970774476375963E-2</v>
+        <v>2.2345979812043115E-2</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1697,21 +1697,21 @@
         <v>72960</v>
       </c>
       <c r="D16" s="10">
-        <v>73167</v>
+        <v>73185</v>
       </c>
       <c r="E16" s="9">
-        <v>76166</v>
+        <v>76825</v>
       </c>
       <c r="F16" s="9">
-        <v>76825</v>
+        <v>126418</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>659</v>
+        <v>49593</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="1"/>
-        <v>8.6521545046345238E-3</v>
+        <v>0.6455320533680442</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
@@ -1719,39 +1719,39 @@
       </c>
       <c r="J16" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>3865</v>
+        <v>53458</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>5.2974232456140413E-2</v>
+        <v>0.73270285087719289</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O16" s="19">
         <f t="shared" si="8"/>
-        <v>3658</v>
+        <v>53233</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="9"/>
-        <v>4.9995216422704214E-2</v>
+        <v>0.72737582838013259</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1765,53 +1765,53 @@
         <v>47776</v>
       </c>
       <c r="D17" s="10">
-        <v>47896</v>
+        <v>47933</v>
       </c>
       <c r="E17" s="9">
-        <v>49169</v>
+        <v>49324</v>
       </c>
       <c r="F17" s="9">
-        <v>49324</v>
+        <v>49490</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H17" s="22">
         <f t="shared" si="1"/>
-        <v>3.1523927678007713E-3</v>
+        <v>3.3655015813802702E-3</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>1548</v>
+        <v>1714</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>3.2401205626255924E-2</v>
+        <v>3.5875753516409814E-2</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="8"/>
-        <v>1428</v>
+        <v>1557</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="9"/>
-        <v>2.9814598296308725E-2</v>
+        <v>3.2482840631715026E-2</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="10"/>
@@ -1833,37 +1833,37 @@
         <v>13652</v>
       </c>
       <c r="D18" s="10">
-        <v>13797</v>
+        <v>13757</v>
       </c>
       <c r="E18" s="9">
-        <v>13745</v>
+        <v>13754</v>
       </c>
       <c r="F18" s="9">
-        <v>13754</v>
+        <v>13739</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-15</v>
       </c>
       <c r="H18" s="22">
         <f t="shared" si="1"/>
-        <v>6.5478355765735685E-4</v>
+        <v>-1.0905918278318882E-3</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J18" s="24">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>7.4714327571052674E-3</v>
+        <v>6.3726926457661204E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
@@ -1875,11 +1875,11 @@
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-43</v>
+        <v>-18</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="9"/>
-        <v>-3.1166195549757747E-3</v>
+        <v>-1.3084248019190614E-3</v>
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="10"/>
@@ -1901,61 +1901,61 @@
         <v>15458</v>
       </c>
       <c r="D19" s="10">
-        <v>15513</v>
+        <v>15526</v>
       </c>
       <c r="E19" s="9">
-        <v>15889</v>
+        <v>15993</v>
       </c>
       <c r="F19" s="9">
-        <v>15993</v>
+        <v>16050</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="H19" s="22">
         <f t="shared" si="1"/>
-        <v>6.54540877336518E-3</v>
+        <v>3.5640592759331735E-3</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J19" s="24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>3.4609910725837745E-2</v>
+        <v>3.8297321775132565E-2</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19" s="18">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="9"/>
-        <v>3.0941790756140009E-2</v>
+        <v>3.3749838979775904E-2</v>
       </c>
       <c r="Q19" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S19" s="2"/>
     </row>
@@ -1970,41 +1970,41 @@
         <v>98067</v>
       </c>
       <c r="D20" s="31">
-        <v>98224</v>
+        <v>98316</v>
       </c>
       <c r="E20" s="30">
-        <v>102475</v>
+        <v>102866</v>
       </c>
       <c r="F20" s="30">
-        <v>102866</v>
+        <v>103172</v>
       </c>
       <c r="G20" s="29">
         <f>F20-E20</f>
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="H20" s="32">
         <f>F20/E20-1</f>
-        <v>3.8155647718955965E-3</v>
+        <v>2.9747438415026473E-3</v>
       </c>
       <c r="I20" s="33">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="34">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="4"/>
-        <v>4799</v>
+        <v>5105</v>
       </c>
       <c r="L20" s="36">
         <f t="shared" si="5"/>
-        <v>4.8935931556996826E-2</v>
+        <v>5.2056247259526733E-2</v>
       </c>
       <c r="M20" s="37">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" s="38">
         <f>_xlfn.RANK.EQ(L20,$L$6:$L$37)</f>
@@ -2012,19 +2012,19 @@
       </c>
       <c r="O20" s="39">
         <f>F20-D20</f>
-        <v>4642</v>
+        <v>4856</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="9"/>
-        <v>4.7259325623065562E-2</v>
+        <v>4.9391757191098007E-2</v>
       </c>
       <c r="Q20" s="41">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R20" s="42">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S20" s="2"/>
     </row>
@@ -2039,37 +2039,37 @@
         <v>36276</v>
       </c>
       <c r="D21" s="10">
-        <v>36185</v>
+        <v>36262</v>
       </c>
       <c r="E21" s="9">
-        <v>37019</v>
+        <v>37053</v>
       </c>
       <c r="F21" s="9">
-        <v>37053</v>
+        <v>37101</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="1"/>
-        <v>9.1844728382728391E-4</v>
+        <v>1.2954416646424605E-3</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>777</v>
+        <v>825</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>2.1419120079391396E-2</v>
+        <v>2.2742308964604607E-2</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
@@ -2081,19 +2081,19 @@
       </c>
       <c r="O21" s="19">
         <f t="shared" si="8"/>
-        <v>868</v>
+        <v>839</v>
       </c>
       <c r="P21" s="20">
         <f t="shared" si="9"/>
-        <v>2.3987840265303317E-2</v>
+        <v>2.3137168385637841E-2</v>
       </c>
       <c r="Q21" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R21" s="26">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2107,37 +2107,37 @@
         <v>12099</v>
       </c>
       <c r="D22" s="10">
-        <v>12079</v>
+        <v>12097</v>
       </c>
       <c r="E22" s="9">
-        <v>12516</v>
+        <v>12560</v>
       </c>
       <c r="F22" s="9">
-        <v>12560</v>
+        <v>12612</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>3.5155001597955149E-3</v>
+        <v>4.1401273885350864E-3</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J22" s="24">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>3.8102322505992214E-2</v>
+        <v>4.2400198363501174E-2</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
@@ -2145,19 +2145,19 @@
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="8"/>
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="9"/>
-        <v>3.9821177249772299E-2</v>
+        <v>4.2572538645945235E-2</v>
       </c>
       <c r="Q22" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R22" s="26">
         <f t="shared" si="11"/>
@@ -2175,37 +2175,37 @@
         <v>12766</v>
       </c>
       <c r="D23" s="10">
-        <v>12779</v>
+        <v>12792</v>
       </c>
       <c r="E23" s="9">
-        <v>13478</v>
+        <v>13541</v>
       </c>
       <c r="F23" s="9">
-        <v>13541</v>
+        <v>13569</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="1"/>
-        <v>4.6742840184004208E-3</v>
+        <v>2.0677941067868133E-3</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>6.0708130972896734E-2</v>
+        <v>6.2901456995143379E-2</v>
       </c>
       <c r="M23" s="17">
         <f t="shared" si="6"/>
@@ -2213,15 +2213,15 @@
       </c>
       <c r="N23" s="18">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="9"/>
-        <v>5.9629078957665005E-2</v>
+        <v>6.0741088180112479E-2</v>
       </c>
       <c r="Q23" s="25">
         <f t="shared" si="10"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="R23" s="26">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2243,37 +2243,37 @@
         <v>69698</v>
       </c>
       <c r="D24" s="10">
-        <v>69964</v>
+        <v>69980</v>
       </c>
       <c r="E24" s="9">
-        <v>74025</v>
+        <v>74370</v>
       </c>
       <c r="F24" s="9">
-        <v>74370</v>
+        <v>74878</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>508</v>
       </c>
       <c r="H24" s="22">
         <f t="shared" si="1"/>
-        <v>4.6605876393110979E-3</v>
+        <v>6.8307113083232451E-3</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="24">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>4672</v>
+        <v>5180</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>6.7032052569657719E-2</v>
+        <v>7.4320640477488542E-2</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="6"/>
@@ -2281,15 +2281,15 @@
       </c>
       <c r="N24" s="18">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24" s="19">
         <f t="shared" si="8"/>
-        <v>4406</v>
+        <v>4898</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="9"/>
-        <v>6.2975244411411557E-2</v>
+        <v>6.9991426121749134E-2</v>
       </c>
       <c r="Q24" s="25">
         <f t="shared" si="10"/>
@@ -2311,53 +2311,53 @@
         <v>13897</v>
       </c>
       <c r="D25" s="10">
-        <v>13883</v>
+        <v>13903</v>
       </c>
       <c r="E25" s="9">
-        <v>14322</v>
+        <v>14433</v>
       </c>
       <c r="F25" s="9">
-        <v>14433</v>
+        <v>14443</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="H25" s="22">
         <f t="shared" si="1"/>
-        <v>7.7503142019270665E-3</v>
+        <v>6.9285664795959434E-4</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J25" s="24">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>3.856947542635103E-2</v>
+        <v>3.9289055191767952E-2</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O25" s="19">
         <f t="shared" si="8"/>
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="9"/>
-        <v>3.9616797522149305E-2</v>
+        <v>3.8840538013378501E-2</v>
       </c>
       <c r="Q25" s="25">
         <f t="shared" si="10"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="R25" s="26">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -2379,61 +2379,61 @@
         <v>33169</v>
       </c>
       <c r="D26" s="10">
-        <v>33276</v>
+        <v>33314</v>
       </c>
       <c r="E26" s="9">
-        <v>34133</v>
+        <v>34280</v>
       </c>
       <c r="F26" s="9">
-        <v>34280</v>
+        <v>34485</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="H26" s="22">
         <f t="shared" si="1"/>
-        <v>4.3066826824480486E-3</v>
+        <v>5.9801633605600646E-3</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J26" s="24">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>1111</v>
+        <v>1316</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>3.3495130995809363E-2</v>
+        <v>3.9675600711507775E-2</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O26" s="19">
         <f t="shared" si="8"/>
-        <v>1004</v>
+        <v>1171</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="9"/>
-        <v>3.017189566053613E-2</v>
+        <v>3.5150387224590185E-2</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R26" s="26">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -2447,37 +2447,37 @@
         <v>26076</v>
       </c>
       <c r="D27" s="10">
-        <v>26045</v>
+        <v>26110</v>
       </c>
       <c r="E27" s="9">
-        <v>28158</v>
+        <v>28379</v>
       </c>
       <c r="F27" s="9">
-        <v>28379</v>
+        <v>28561</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="H27" s="22">
         <f t="shared" si="1"/>
-        <v>7.8485687903970813E-3</v>
+        <v>6.4131928538708749E-3</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>2303</v>
+        <v>2485</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>8.8318760546095998E-2</v>
+        <v>9.5298358643963743E-2</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" si="6"/>
@@ -2489,19 +2489,19 @@
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>2334</v>
+        <v>2451</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="9"/>
-        <v>8.9614129391437869E-2</v>
+        <v>9.3872079662964403E-2</v>
       </c>
       <c r="Q27" s="25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R27" s="26">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -2515,21 +2515,21 @@
         <v>16569</v>
       </c>
       <c r="D28" s="10">
-        <v>16759</v>
+        <v>16716</v>
       </c>
       <c r="E28" s="9">
-        <v>18704</v>
+        <v>19036</v>
       </c>
       <c r="F28" s="9">
-        <v>19036</v>
+        <v>19219</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>183</v>
       </c>
       <c r="H28" s="22">
         <f t="shared" si="1"/>
-        <v>1.7750213857998354E-2</v>
+        <v>9.613364152132764E-3</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="2"/>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>2467</v>
+        <v>2650</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>0.14889251010924021</v>
+        <v>0.15993723218057809</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="6"/>
@@ -2553,23 +2553,23 @@
       </c>
       <c r="N28" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>2277</v>
+        <v>2503</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="9"/>
-        <v>0.13586729518467688</v>
+        <v>0.14973677913376404</v>
       </c>
       <c r="Q28" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R28" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -2583,37 +2583,37 @@
         <v>22803</v>
       </c>
       <c r="D29" s="10">
-        <v>22906</v>
+        <v>22858</v>
       </c>
       <c r="E29" s="9">
-        <v>23622</v>
+        <v>23752</v>
       </c>
       <c r="F29" s="9">
-        <v>23752</v>
+        <v>23778</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H29" s="22">
         <f t="shared" si="1"/>
-        <v>5.5033443400220872E-3</v>
+        <v>1.0946446615021088E-3</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>949</v>
+        <v>975</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>4.1617331052931528E-2</v>
+        <v>4.2757531903696799E-2</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
@@ -2625,19 +2625,19 @@
       </c>
       <c r="O29" s="19">
         <f t="shared" si="8"/>
-        <v>846</v>
+        <v>920</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="9"/>
-        <v>3.6933554527198043E-2</v>
+        <v>4.0248490681599414E-2</v>
       </c>
       <c r="Q29" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R29" s="26">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2651,37 +2651,37 @@
         <v>40632</v>
       </c>
       <c r="D30" s="10">
-        <v>40481</v>
+        <v>40582</v>
       </c>
       <c r="E30" s="9">
-        <v>42665</v>
+        <v>42810</v>
       </c>
       <c r="F30" s="9">
-        <v>42810</v>
+        <v>42879</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="H30" s="22">
         <f t="shared" si="1"/>
-        <v>3.3985702566505793E-3</v>
+        <v>1.6117729502451716E-3</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J30" s="24">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>2178</v>
+        <v>2247</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>5.3603071470762043E-2</v>
+        <v>5.5301240401653962E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
@@ -2689,23 +2689,23 @@
       </c>
       <c r="N30" s="18">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O30" s="19">
         <f t="shared" si="8"/>
-        <v>2329</v>
+        <v>2297</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="9"/>
-        <v>5.7533163706430246E-2</v>
+        <v>5.6601448918239594E-2</v>
       </c>
       <c r="Q30" s="25">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R30" s="26">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2719,41 +2719,41 @@
         <v>37552</v>
       </c>
       <c r="D31" s="10">
-        <v>37625</v>
+        <v>37597</v>
       </c>
       <c r="E31" s="9">
-        <v>39166</v>
+        <v>39220</v>
       </c>
       <c r="F31" s="9">
-        <v>39220</v>
+        <v>39233</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H31" s="22">
         <f t="shared" si="1"/>
-        <v>1.3787468722872287E-3</v>
+        <v>3.3146353901081227E-4</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J31" s="24">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>1668</v>
+        <v>1681</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>4.4418406476352867E-2</v>
+        <v>4.4764593097571304E-2</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
@@ -2761,11 +2761,11 @@
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>1595</v>
+        <v>1636</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="9"/>
-        <v>4.2392026578073061E-2</v>
+        <v>4.3514110168364484E-2</v>
       </c>
       <c r="Q31" s="25">
         <f t="shared" si="10"/>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R31" s="26">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2787,37 +2787,37 @@
         <v>10735</v>
       </c>
       <c r="D32" s="10">
-        <v>10822</v>
+        <v>10814</v>
       </c>
       <c r="E32" s="9">
-        <v>11405</v>
+        <v>11457</v>
       </c>
       <c r="F32" s="9">
-        <v>11457</v>
+        <v>11461</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="1"/>
-        <v>4.5594037702763046E-3</v>
+        <v>3.4913153530591323E-4</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>6.7256637168141564E-2</v>
+        <v>6.7629250116441497E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
@@ -2825,15 +2825,15 @@
       </c>
       <c r="N32" s="18">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O32" s="19">
         <f t="shared" si="8"/>
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="9"/>
-        <v>5.8676769543522411E-2</v>
+        <v>5.9829850194192735E-2</v>
       </c>
       <c r="Q32" s="25">
         <f t="shared" si="10"/>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="R32" s="26">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2855,57 +2855,57 @@
         <v>33799</v>
       </c>
       <c r="D33" s="10">
-        <v>34021</v>
+        <v>33968</v>
       </c>
       <c r="E33" s="9">
-        <v>34741</v>
+        <v>34913</v>
       </c>
       <c r="F33" s="9">
-        <v>34913</v>
+        <v>34872</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>-41</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="1"/>
-        <v>4.9509225410897528E-3</v>
+        <v>-1.1743476641938866E-3</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>1114</v>
+        <v>1073</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>3.2959555016420561E-2</v>
+        <v>3.1746501375780278E-2</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O33" s="19">
         <f t="shared" si="8"/>
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="9"/>
-        <v>2.6219099967667026E-2</v>
+        <v>2.6613283089967021E-2</v>
       </c>
       <c r="Q33" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R33" s="26">
         <f t="shared" si="11"/>
@@ -2923,61 +2923,61 @@
         <v>5146</v>
       </c>
       <c r="D34" s="10">
-        <v>5190</v>
+        <v>5194</v>
       </c>
       <c r="E34" s="9">
-        <v>5367</v>
+        <v>5403</v>
       </c>
       <c r="F34" s="9">
-        <v>5403</v>
+        <v>5453</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="1"/>
-        <v>6.7076579094467181E-3</v>
+        <v>9.2541180825467251E-3</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>4.9941702293043067E-2</v>
+        <v>5.9657986785853101E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O34" s="19">
         <f t="shared" si="8"/>
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="9"/>
-        <v>4.1040462427745616E-2</v>
+        <v>4.9865229110512166E-2</v>
       </c>
       <c r="Q34" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R34" s="26">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2991,61 +2991,61 @@
         <v>43019</v>
       </c>
       <c r="D35" s="10">
-        <v>43224</v>
+        <v>43183</v>
       </c>
       <c r="E35" s="9">
-        <v>44117</v>
+        <v>44292</v>
       </c>
       <c r="F35" s="9">
-        <v>44292</v>
+        <v>44225</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>-67</v>
       </c>
       <c r="H35" s="22">
         <f t="shared" si="1"/>
-        <v>3.9667248452976978E-3</v>
+        <v>-1.5126885216292241E-3</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>1273</v>
+        <v>1206</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>2.9591575815337334E-2</v>
+        <v>2.8034124456635334E-2</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N35" s="18">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O35" s="19">
         <f t="shared" si="8"/>
-        <v>1068</v>
+        <v>1042</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="9"/>
-        <v>2.4708495280399756E-2</v>
+        <v>2.4129865919459093E-2</v>
       </c>
       <c r="Q35" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R35" s="26">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3059,41 +3059,41 @@
         <v>19413</v>
       </c>
       <c r="D36" s="10">
-        <v>19492</v>
+        <v>19514</v>
       </c>
       <c r="E36" s="9">
-        <v>20574</v>
+        <v>20660</v>
       </c>
       <c r="F36" s="9">
-        <v>20660</v>
+        <v>20780</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="H36" s="22">
         <f t="shared" si="1"/>
-        <v>4.1800330514241146E-3</v>
+        <v>5.8083252662148865E-3</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J36" s="24">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>1247</v>
+        <v>1367</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>6.4235306238087819E-2</v>
+        <v>7.0416731056508475E-2</v>
       </c>
       <c r="M36" s="17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N36" s="18">
         <f t="shared" si="7"/>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="O36" s="19">
         <f t="shared" si="8"/>
-        <v>1168</v>
+        <v>1266</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="9"/>
-        <v>5.9922019289965212E-2</v>
+        <v>6.4876498923849502E-2</v>
       </c>
       <c r="Q36" s="25">
         <f t="shared" si="10"/>
@@ -3127,61 +3127,61 @@
         <v>11771</v>
       </c>
       <c r="D37" s="10">
-        <v>11768</v>
+        <v>11796</v>
       </c>
       <c r="E37" s="9">
-        <v>12087</v>
+        <v>12110</v>
       </c>
       <c r="F37" s="9">
-        <v>12110</v>
+        <v>12049</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>-61</v>
       </c>
       <c r="H37" s="22">
         <f t="shared" si="1"/>
-        <v>1.9028708529824634E-3</v>
+        <v>-5.0371593724194419E-3</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J37" s="24">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>2.8799592218163195E-2</v>
+        <v>2.3617364709880295E-2</v>
       </c>
       <c r="M37" s="17">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" si="8"/>
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="9"/>
-        <v>2.9061862678450012E-2</v>
+        <v>2.1447948457104182E-2</v>
       </c>
       <c r="Q37" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R37" s="26">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3195,41 +3195,41 @@
         <v>1000414</v>
       </c>
       <c r="D38" s="46">
-        <v>1002900</v>
+        <v>1003261</v>
       </c>
       <c r="E38" s="45">
-        <v>1046340</v>
+        <v>1051619</v>
       </c>
       <c r="F38" s="59">
-        <v>1051619</v>
+        <v>1104078</v>
       </c>
       <c r="G38" s="46">
         <f t="shared" si="0"/>
-        <v>5279</v>
+        <v>52459</v>
       </c>
       <c r="H38" s="47">
         <f t="shared" si="1"/>
-        <v>5.0452051914291474E-3</v>
+        <v>4.9884035948380534E-2</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
       <c r="K38" s="50">
         <f>F38-C38</f>
-        <v>51205</v>
+        <v>103664</v>
       </c>
       <c r="L38" s="51">
         <f t="shared" si="5"/>
-        <v>5.1183809902700217E-2</v>
+        <v>0.10362110086424225</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="49"/>
       <c r="O38" s="52">
         <f t="shared" si="8"/>
-        <v>48719</v>
+        <v>100817</v>
       </c>
       <c r="P38" s="53">
         <f t="shared" si="9"/>
-        <v>4.8578123442018173E-2</v>
+        <v>0.10048930437842207</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="49"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Patrones registrados al IMSS por entidad federativa</t>
   </si>
@@ -187,10 +187,6 @@
   </si>
   <si>
     <t>2021
-Octubre</t>
-  </si>
-  <si>
-    <t>2021
 Noviembre</t>
   </si>
   <si>
@@ -198,13 +194,14 @@
 Noviembre</t>
   </si>
   <si>
-    <t>Noviembre  2021 respecto a Octubre 2021</t>
-  </si>
-  <si>
-    <t>Noviembre 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Noviembre 2021 respecto a Noviembre 2020</t>
+    <t>2021
+Diciembre</t>
+  </si>
+  <si>
+    <t>Diciembre 2021 respecto a Noviembre 2021</t>
+  </si>
+  <si>
+    <t>Diciembre 2021 respecto a Diciembre 2020</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -509,8 +506,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -523,8 +518,6 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -559,10 +552,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -586,11 +575,8 @@
     <xf numFmtId="10" fontId="5" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,10 +839,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,47 +854,46 @@
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="10" width="9.42578125" style="2" customWidth="1"/>
     <col min="11" max="14" width="9.5703125" style="2" customWidth="1"/>
-    <col min="15" max="18" width="9.7109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -924,51 +909,45 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="60" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-    </row>
-    <row r="5" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="71"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
@@ -993,20 +972,8 @@
       <c r="N5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1020,34 +987,34 @@
         <v>16063</v>
       </c>
       <c r="E6" s="9">
-        <v>16788</v>
+        <v>16770</v>
       </c>
       <c r="F6" s="9">
-        <v>16770</v>
+        <v>16746</v>
       </c>
       <c r="G6" s="11">
         <f>F6-E6</f>
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="H6" s="12">
         <f>F6/E6-1</f>
-        <v>-1.0721944245889459E-3</v>
+        <v>-1.4311270125223485E-3</v>
       </c>
       <c r="I6" s="13">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J6" s="14">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K6" s="15">
         <f>F6-C6</f>
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="L6" s="16">
         <f>F6/C6-1</f>
-        <v>4.7012549166510542E-2</v>
+        <v>4.5514141224948457E-2</v>
       </c>
       <c r="M6" s="17">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
@@ -1057,25 +1024,9 @@
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
         <v>18</v>
       </c>
-      <c r="O6" s="19">
-        <f>F6-D6</f>
-        <v>707</v>
-      </c>
-      <c r="P6" s="20">
-        <f>F6/D6-1</f>
-        <v>4.4014194110689076E-2</v>
-      </c>
-      <c r="Q6" s="25">
-        <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
-        <v>21</v>
-      </c>
-      <c r="R6" s="26">
-        <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -1088,34 +1039,34 @@
         <v>41307</v>
       </c>
       <c r="E7" s="9">
-        <v>44527</v>
+        <v>44564</v>
       </c>
       <c r="F7" s="9">
-        <v>44564</v>
+        <v>44540</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" ref="G7:G38" si="0">F7-E7</f>
-        <v>37</v>
-      </c>
-      <c r="H7" s="22">
+        <f t="shared" ref="G7:G37" si="0">F7-E7</f>
+        <v>-24</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" ref="H7:H38" si="1">F7/E7-1</f>
-        <v>8.3095649830444707E-4</v>
-      </c>
-      <c r="I7" s="23">
+        <v>-5.3855129701108062E-4</v>
+      </c>
+      <c r="I7" s="21">
         <f t="shared" ref="I7:I37" si="2">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
-        <v>19</v>
-      </c>
-      <c r="J7" s="24">
+        <v>12</v>
+      </c>
+      <c r="J7" s="22">
         <f t="shared" ref="J7:J37" si="3">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" ref="K7:K37" si="4">F7-C7</f>
-        <v>3226</v>
+        <v>3202</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" ref="L7:L38" si="5">F7/C7-1</f>
-        <v>7.8039576176883285E-2</v>
+        <f t="shared" ref="L7:L37" si="5">F7/C7-1</f>
+        <v>7.7458996564903959E-2</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ref="M7:M37" si="6">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
@@ -1123,27 +1074,11 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N37" si="7">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>5</v>
-      </c>
-      <c r="O7" s="19">
-        <f t="shared" ref="O7:O38" si="8">F7-D7</f>
-        <v>3257</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" ref="P7:P38" si="9">F7/D7-1</f>
-        <v>7.8848621299053345E-2</v>
-      </c>
-      <c r="Q7" s="25">
-        <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
-        <v>5</v>
-      </c>
-      <c r="R7" s="26">
-        <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
@@ -1156,34 +1091,34 @@
         <v>12798</v>
       </c>
       <c r="E8" s="9">
-        <v>13905</v>
+        <v>13977</v>
       </c>
       <c r="F8" s="9">
-        <v>13977</v>
+        <v>13964</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="H8" s="22">
-        <f t="shared" si="1"/>
-        <v>5.1779935275080291E-3</v>
-      </c>
-      <c r="I8" s="23">
+        <v>-13</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="1"/>
+        <v>-9.3009944909494546E-4</v>
+      </c>
+      <c r="I8" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J8" s="24">
-        <f t="shared" si="3"/>
-        <v>8</v>
+      <c r="J8" s="22">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" si="4"/>
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="5"/>
-        <v>9.477559332654506E-2</v>
+        <v>9.3757343150309369E-2</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="6"/>
@@ -1191,27 +1126,11 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="O8" s="19">
-        <f t="shared" si="8"/>
-        <v>1179</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="9"/>
-        <v>9.2123769338959161E-2</v>
-      </c>
-      <c r="Q8" s="25">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="R8" s="26">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8">
@@ -1224,34 +1143,34 @@
         <v>5803</v>
       </c>
       <c r="E9" s="9">
-        <v>6208</v>
+        <v>6232</v>
       </c>
       <c r="F9" s="9">
-        <v>6232</v>
+        <v>6254</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H9" s="22">
-        <f t="shared" si="1"/>
-        <v>3.8659793814432852E-3</v>
-      </c>
-      <c r="I9" s="23">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="1"/>
+        <v>3.5301668806162478E-3</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="5"/>
-        <v>7.3187532288617296E-2</v>
+        <v>7.6976063371792636E-2</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="6"/>
@@ -1259,27 +1178,11 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="O9" s="19">
-        <f t="shared" si="8"/>
-        <v>429</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="9"/>
-        <v>7.3927278993624057E-2</v>
-      </c>
-      <c r="Q9" s="25">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="R9" s="26">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8">
@@ -1292,62 +1195,46 @@
         <v>14403</v>
       </c>
       <c r="E10" s="9">
-        <v>14805</v>
+        <v>14864</v>
       </c>
       <c r="F10" s="9">
-        <v>14864</v>
+        <v>14789</v>
       </c>
       <c r="G10" s="8">
         <f>F10-E10</f>
-        <v>59</v>
-      </c>
-      <c r="H10" s="22">
+        <v>-75</v>
+      </c>
+      <c r="H10" s="20">
         <f>F10/E10-1</f>
-        <v>3.9851401553530064E-3</v>
-      </c>
-      <c r="I10" s="23">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <v>-5.045748116254023E-3</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>465</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>3.7698966769058817E-2</v>
+        <v>3.2462999162245154E-2</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="N10" s="18">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="O10" s="19">
-        <f t="shared" si="8"/>
-        <v>461</v>
-      </c>
-      <c r="P10" s="20">
-        <f t="shared" si="9"/>
-        <v>3.2007220717906071E-2</v>
-      </c>
-      <c r="Q10" s="25">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="R10" s="26">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="8">
@@ -1360,62 +1247,46 @@
         <v>39839</v>
       </c>
       <c r="E11" s="9">
-        <v>42026</v>
+        <v>42209</v>
       </c>
       <c r="F11" s="9">
-        <v>42209</v>
+        <v>42167</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" si="1"/>
-        <v>4.354447246942339E-3</v>
-      </c>
-      <c r="I11" s="23">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" si="3"/>
+        <v>-42</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>-9.9504844938280712E-4</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="4"/>
+        <v>2497</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="5"/>
+        <v>6.2944290395765101E-2</v>
+      </c>
+      <c r="M11" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="K11" s="15">
-        <f t="shared" si="4"/>
-        <v>2539</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="5"/>
-        <v>6.4003024955886056E-2</v>
-      </c>
-      <c r="M11" s="17">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="O11" s="19">
-        <f t="shared" si="8"/>
-        <v>2370</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="9"/>
-        <v>5.9489445016190245E-2</v>
-      </c>
-      <c r="Q11" s="25">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="R11" s="26">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="8">
@@ -1428,62 +1299,46 @@
         <v>118382</v>
       </c>
       <c r="E12" s="9">
-        <v>124614</v>
+        <v>125176</v>
       </c>
       <c r="F12" s="9">
-        <v>125176</v>
+        <v>125199</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>562</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" si="1"/>
-        <v>4.5099266535060245E-3</v>
-      </c>
-      <c r="I12" s="23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J12" s="24">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>1.8374129226050862E-4</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>7059</v>
+        <v>7082</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>5.9762777584936977E-2</v>
+        <v>5.99574997671799E-2</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="18">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="O12" s="19">
-        <f t="shared" si="8"/>
-        <v>6794</v>
-      </c>
-      <c r="P12" s="20">
-        <f t="shared" si="9"/>
-        <v>5.7390481661063308E-2</v>
-      </c>
-      <c r="Q12" s="25">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="R12" s="26">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="8">
@@ -1496,62 +1351,46 @@
         <v>34138</v>
       </c>
       <c r="E13" s="9">
-        <v>35640</v>
+        <v>35712</v>
       </c>
       <c r="F13" s="9">
-        <v>35712</v>
+        <v>35642</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="1"/>
-        <v>2.0202020202020332E-3</v>
-      </c>
-      <c r="I13" s="23">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="J13" s="24">
+        <v>-70</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>-1.9601254480287045E-3</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J13" s="22">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>1691</v>
+        <v>1621</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>4.9704594221216203E-2</v>
+        <v>4.7647041533170675E-2</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13" s="18">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="O13" s="19">
-        <f t="shared" si="8"/>
-        <v>1574</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="9"/>
-        <v>4.61069775616616E-2</v>
-      </c>
-      <c r="Q13" s="25">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="R13" s="26">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="8">
@@ -1564,34 +1403,34 @@
         <v>10766</v>
       </c>
       <c r="E14" s="9">
-        <v>11417</v>
+        <v>11421</v>
       </c>
       <c r="F14" s="9">
-        <v>11421</v>
+        <v>11397</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="1"/>
-        <v>3.503547341683344E-4</v>
-      </c>
-      <c r="I14" s="23">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <v>-24</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.1013921723141982E-3</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>6.2122198456244782E-2</v>
+        <v>5.9890263182367676E-2</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="6"/>
@@ -1599,27 +1438,11 @@
       </c>
       <c r="N14" s="18">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="O14" s="19">
-        <f t="shared" si="8"/>
-        <v>655</v>
-      </c>
-      <c r="P14" s="20">
-        <f t="shared" si="9"/>
-        <v>6.0839680475571312E-2</v>
-      </c>
-      <c r="Q14" s="25">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="R14" s="26">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8">
@@ -1632,34 +1455,34 @@
         <v>14365</v>
       </c>
       <c r="E15" s="9">
-        <v>14658</v>
+        <v>14686</v>
       </c>
       <c r="F15" s="9">
-        <v>14686</v>
+        <v>14609</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H15" s="22">
-        <f t="shared" si="1"/>
-        <v>1.9102196752627254E-3</v>
-      </c>
-      <c r="I15" s="23">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J15" s="24">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>-77</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="1"/>
+        <v>-5.2430886558627599E-3</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>419</v>
+        <v>342</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>2.9368472699236037E-2</v>
+        <v>2.3971402537323883E-2</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="6"/>
@@ -1667,27 +1490,11 @@
       </c>
       <c r="N15" s="18">
         <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="O15" s="19">
-        <f t="shared" si="8"/>
-        <v>321</v>
-      </c>
-      <c r="P15" s="20">
-        <f t="shared" si="9"/>
-        <v>2.2345979812043115E-2</v>
-      </c>
-      <c r="Q15" s="25">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="R15" s="26">
-        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="8">
@@ -1700,62 +1507,46 @@
         <v>73185</v>
       </c>
       <c r="E16" s="9">
-        <v>76825</v>
+        <v>77219</v>
       </c>
       <c r="F16" s="9">
-        <v>126418</v>
+        <v>77044</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>49593</v>
-      </c>
-      <c r="H16" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6455320533680442</v>
-      </c>
-      <c r="I16" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-175</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.2662816146284959E-3</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>53458</v>
+        <v>4084</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>0.73270285087719289</v>
+        <v>5.597587719298236E-2</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="19">
-        <f t="shared" si="8"/>
-        <v>53233</v>
-      </c>
-      <c r="P16" s="20">
-        <f t="shared" si="9"/>
-        <v>0.72737582838013259</v>
-      </c>
-      <c r="Q16" s="25">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="26">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="8">
@@ -1768,62 +1559,46 @@
         <v>47933</v>
       </c>
       <c r="E17" s="9">
-        <v>49324</v>
+        <v>49490</v>
       </c>
       <c r="F17" s="9">
-        <v>49490</v>
+        <v>49358</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="H17" s="22">
-        <f t="shared" si="1"/>
-        <v>3.3655015813802702E-3</v>
-      </c>
-      <c r="I17" s="23">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J17" s="24">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <v>-132</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.6672054960598102E-3</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>1714</v>
+        <v>1582</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>3.5875753516409814E-2</v>
+        <v>3.3112860013395862E-2</v>
       </c>
       <c r="M17" s="17">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="O17" s="19">
-        <f t="shared" si="8"/>
-        <v>1557</v>
-      </c>
-      <c r="P17" s="20">
-        <f t="shared" si="9"/>
-        <v>3.2482840631715026E-2</v>
-      </c>
-      <c r="Q17" s="25">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="R17" s="26">
-        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="8">
@@ -1836,34 +1611,34 @@
         <v>13757</v>
       </c>
       <c r="E18" s="9">
-        <v>13754</v>
+        <v>13739</v>
       </c>
       <c r="F18" s="9">
-        <v>13739</v>
+        <v>13674</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="H18" s="22">
-        <f t="shared" si="1"/>
-        <v>-1.0905918278318882E-3</v>
-      </c>
-      <c r="I18" s="23">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="J18" s="24">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <v>-65</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>-4.7310575733313653E-3</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>6.3726926457661204E-3</v>
+        <v>1.6114854966304826E-3</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" si="6"/>
@@ -1873,25 +1648,9 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="O18" s="19">
-        <f t="shared" si="8"/>
-        <v>-18</v>
-      </c>
-      <c r="P18" s="20">
-        <f t="shared" si="9"/>
-        <v>-1.3084248019190614E-3</v>
-      </c>
-      <c r="Q18" s="25">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="R18" s="26">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+    </row>
+    <row r="19" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="8">
@@ -1904,34 +1663,34 @@
         <v>15526</v>
       </c>
       <c r="E19" s="9">
-        <v>15993</v>
+        <v>16050</v>
       </c>
       <c r="F19" s="9">
-        <v>16050</v>
+        <v>15980</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="H19" s="22">
-        <f t="shared" si="1"/>
-        <v>3.5640592759331735E-3</v>
-      </c>
-      <c r="I19" s="23">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="J19" s="24">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>-70</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>-4.3613707165108817E-3</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>3.8297321775132565E-2</v>
+        <v>3.376892224091077E-2</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" si="6"/>
@@ -1941,95 +1700,63 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="O19" s="19">
-        <f t="shared" si="8"/>
-        <v>524</v>
-      </c>
-      <c r="P19" s="20">
-        <f t="shared" si="9"/>
-        <v>3.3749838979775904E-2</v>
-      </c>
-      <c r="Q19" s="25">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="R19" s="26">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="25">
         <v>97390</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="26">
         <v>98067</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="27">
         <v>98316</v>
       </c>
-      <c r="E20" s="30">
-        <v>102866</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="E20" s="26">
         <v>103172</v>
       </c>
-      <c r="G20" s="29">
+      <c r="F20" s="26">
+        <v>103251</v>
+      </c>
+      <c r="G20" s="25">
         <f>F20-E20</f>
-        <v>306</v>
-      </c>
-      <c r="H20" s="32">
+        <v>79</v>
+      </c>
+      <c r="H20" s="28">
         <f>F20/E20-1</f>
-        <v>2.9747438415026473E-3</v>
-      </c>
-      <c r="I20" s="33">
+        <v>7.6571162718575003E-4</v>
+      </c>
+      <c r="I20" s="29">
         <f>_xlfn.RANK.EQ(G20,$G$6:$G$37)</f>
-        <v>4</v>
-      </c>
-      <c r="J20" s="34">
+        <v>1</v>
+      </c>
+      <c r="J20" s="30">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>16</v>
-      </c>
-      <c r="K20" s="35">
-        <f t="shared" si="4"/>
-        <v>5105</v>
-      </c>
-      <c r="L20" s="36">
-        <f t="shared" si="5"/>
-        <v>5.2056247259526733E-2</v>
-      </c>
-      <c r="M20" s="37">
+        <v>6</v>
+      </c>
+      <c r="K20" s="31">
+        <f>F20-C20</f>
+        <v>5184</v>
+      </c>
+      <c r="L20" s="32">
+        <f>F20/C20-1</f>
+        <v>5.2861818960506568E-2</v>
+      </c>
+      <c r="M20" s="33">
         <f>_xlfn.RANK.EQ(K20,$K$6:$K$37)</f>
-        <v>4</v>
-      </c>
-      <c r="N20" s="38">
+        <v>2</v>
+      </c>
+      <c r="N20" s="34">
         <f>_xlfn.RANK.EQ(L20,$L$6:$L$37)</f>
         <v>16</v>
       </c>
-      <c r="O20" s="39">
-        <f>F20-D20</f>
-        <v>4856</v>
-      </c>
-      <c r="P20" s="40">
-        <f t="shared" si="9"/>
-        <v>4.9391757191098007E-2</v>
-      </c>
-      <c r="Q20" s="41">
-        <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
-        <v>4</v>
-      </c>
-      <c r="R20" s="42">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="8">
@@ -2042,34 +1769,34 @@
         <v>36262</v>
       </c>
       <c r="E21" s="9">
-        <v>37053</v>
+        <v>37101</v>
       </c>
       <c r="F21" s="9">
-        <v>37101</v>
+        <v>37104</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H21" s="22">
-        <f t="shared" si="1"/>
-        <v>1.2954416646424605E-3</v>
-      </c>
-      <c r="I21" s="23">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="J21" s="24">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>8.0860354168432735E-5</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>2.2742308964604607E-2</v>
+        <v>2.2825008269930613E-2</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" si="6"/>
@@ -2079,25 +1806,9 @@
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="O21" s="19">
-        <f t="shared" si="8"/>
-        <v>839</v>
-      </c>
-      <c r="P21" s="20">
-        <f t="shared" si="9"/>
-        <v>2.3137168385637841E-2</v>
-      </c>
-      <c r="Q21" s="25">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="R21" s="26">
-        <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="8">
@@ -2110,62 +1821,46 @@
         <v>12097</v>
       </c>
       <c r="E22" s="9">
-        <v>12560</v>
+        <v>12612</v>
       </c>
       <c r="F22" s="9">
-        <v>12612</v>
+        <v>12579</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H22" s="22">
-        <f t="shared" si="1"/>
-        <v>4.1401273885350864E-3</v>
-      </c>
-      <c r="I22" s="23">
+        <v>-33</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.6165556612749441E-3</v>
+      </c>
+      <c r="I22" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J22" s="24">
-        <f t="shared" si="3"/>
-        <v>11</v>
+      <c r="J22" s="22">
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>4.2400198363501174E-2</v>
+        <v>3.9672700223158941E-2</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="O22" s="19">
-        <f t="shared" si="8"/>
-        <v>515</v>
-      </c>
-      <c r="P22" s="20">
-        <f t="shared" si="9"/>
-        <v>4.2572538645945235E-2</v>
-      </c>
-      <c r="Q22" s="25">
-        <f t="shared" si="10"/>
-        <v>26</v>
-      </c>
-      <c r="R22" s="26">
-        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="8">
@@ -2178,62 +1873,46 @@
         <v>12792</v>
       </c>
       <c r="E23" s="9">
-        <v>13541</v>
+        <v>13569</v>
       </c>
       <c r="F23" s="9">
-        <v>13569</v>
+        <v>13590</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H23" s="22">
-        <f t="shared" si="1"/>
-        <v>2.0677941067868133E-3</v>
-      </c>
-      <c r="I23" s="23">
-        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5476453681184665E-3</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="4"/>
+        <v>824</v>
+      </c>
+      <c r="L23" s="16">
+        <f t="shared" si="5"/>
+        <v>6.4546451511828362E-2</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J23" s="24">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="4"/>
-        <v>803</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="5"/>
-        <v>6.2901456995143379E-2</v>
-      </c>
-      <c r="M23" s="17">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
       <c r="N23" s="18">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="O23" s="19">
-        <f t="shared" si="8"/>
-        <v>777</v>
-      </c>
-      <c r="P23" s="20">
-        <f t="shared" si="9"/>
-        <v>6.0741088180112479E-2</v>
-      </c>
-      <c r="Q23" s="25">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="R23" s="26">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="8">
@@ -2246,62 +1925,46 @@
         <v>69980</v>
       </c>
       <c r="E24" s="9">
-        <v>74370</v>
+        <v>74878</v>
       </c>
       <c r="F24" s="9">
-        <v>74878</v>
+        <v>74823</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="H24" s="22">
-        <f t="shared" si="1"/>
-        <v>6.8307113083232451E-3</v>
-      </c>
-      <c r="I24" s="23">
-        <f t="shared" si="2"/>
+        <v>-55</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
+        <v>-7.3452816581642821E-4</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="4"/>
+        <v>5125</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" si="5"/>
+        <v>7.3531521707939973E-2</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J24" s="24">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="4"/>
-        <v>5180</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="5"/>
-        <v>7.4320640477488542E-2</v>
-      </c>
-      <c r="M24" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="N24" s="18">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="O24" s="19">
-        <f t="shared" si="8"/>
-        <v>4898</v>
-      </c>
-      <c r="P24" s="20">
-        <f t="shared" si="9"/>
-        <v>6.9991426121749134E-2</v>
-      </c>
-      <c r="Q24" s="25">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="R24" s="26">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="8">
@@ -2314,62 +1977,46 @@
         <v>13903</v>
       </c>
       <c r="E25" s="9">
-        <v>14433</v>
+        <v>14443</v>
       </c>
       <c r="F25" s="9">
-        <v>14443</v>
+        <v>14401</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H25" s="22">
-        <f t="shared" si="1"/>
-        <v>6.9285664795959434E-4</v>
-      </c>
-      <c r="I25" s="23">
-        <f t="shared" si="2"/>
+        <v>-42</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.9079831060029315E-3</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="4"/>
+        <v>504</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="5"/>
+        <v>3.6266820177016657E-2</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J25" s="24">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="4"/>
-        <v>546</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="5"/>
-        <v>3.9289055191767952E-2</v>
-      </c>
-      <c r="M25" s="17">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
       <c r="N25" s="18">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="O25" s="19">
-        <f t="shared" si="8"/>
-        <v>540</v>
-      </c>
-      <c r="P25" s="20">
-        <f t="shared" si="9"/>
-        <v>3.8840538013378501E-2</v>
-      </c>
-      <c r="Q25" s="25">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="R25" s="26">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="8">
@@ -2382,34 +2029,34 @@
         <v>33314</v>
       </c>
       <c r="E26" s="9">
-        <v>34280</v>
+        <v>34485</v>
       </c>
       <c r="F26" s="9">
-        <v>34485</v>
+        <v>34423</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="H26" s="22">
-        <f t="shared" si="1"/>
-        <v>5.9801633605600646E-3</v>
-      </c>
-      <c r="I26" s="23">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="24">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-62</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>-1.7978831375961013E-3</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>1316</v>
+        <v>1254</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>3.9675600711507775E-2</v>
+        <v>3.7806385480418481E-2</v>
       </c>
       <c r="M26" s="17">
         <f t="shared" si="6"/>
@@ -2419,25 +2066,9 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="O26" s="19">
-        <f t="shared" si="8"/>
-        <v>1171</v>
-      </c>
-      <c r="P26" s="20">
-        <f t="shared" si="9"/>
-        <v>3.5150387224590185E-2</v>
-      </c>
-      <c r="Q26" s="25">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="R26" s="26">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="8">
@@ -2450,62 +2081,46 @@
         <v>26110</v>
       </c>
       <c r="E27" s="9">
-        <v>28379</v>
+        <v>28561</v>
       </c>
       <c r="F27" s="9">
-        <v>28561</v>
+        <v>28507</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="H27" s="22">
-        <f t="shared" si="1"/>
-        <v>6.4131928538708749E-3</v>
-      </c>
-      <c r="I27" s="23">
-        <f t="shared" si="2"/>
+        <v>-54</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
+        <v>-1.890690101887138E-3</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="4"/>
+        <v>2431</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="5"/>
+        <v>9.322748887866239E-2</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J27" s="24">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="4"/>
-        <v>2485</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="5"/>
-        <v>9.5298358643963743E-2</v>
-      </c>
-      <c r="M27" s="17">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
       <c r="N27" s="18">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="O27" s="19">
-        <f t="shared" si="8"/>
-        <v>2451</v>
-      </c>
-      <c r="P27" s="20">
-        <f t="shared" si="9"/>
-        <v>9.3872079662964403E-2</v>
-      </c>
-      <c r="Q27" s="25">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="R27" s="26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="8">
@@ -2518,62 +2133,46 @@
         <v>16716</v>
       </c>
       <c r="E28" s="9">
-        <v>19036</v>
+        <v>19219</v>
       </c>
       <c r="F28" s="9">
-        <v>19219</v>
+        <v>19275</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="H28" s="22">
-        <f t="shared" si="1"/>
-        <v>9.613364152132764E-3</v>
-      </c>
-      <c r="I28" s="23">
-        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>2.9137832353400839E-3</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="4"/>
+        <v>2706</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16331703784175278</v>
+      </c>
+      <c r="M28" s="17">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J28" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="15">
-        <f t="shared" si="4"/>
-        <v>2650</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="5"/>
-        <v>0.15993723218057809</v>
-      </c>
-      <c r="M28" s="17">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
       <c r="N28" s="18">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O28" s="19">
-        <f t="shared" si="8"/>
-        <v>2503</v>
-      </c>
-      <c r="P28" s="20">
-        <f t="shared" si="9"/>
-        <v>0.14973677913376404</v>
-      </c>
-      <c r="Q28" s="25">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="R28" s="26">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="8">
@@ -2586,34 +2185,34 @@
         <v>22858</v>
       </c>
       <c r="E29" s="9">
-        <v>23752</v>
+        <v>23778</v>
       </c>
       <c r="F29" s="9">
-        <v>23778</v>
+        <v>23707</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H29" s="22">
-        <f t="shared" si="1"/>
-        <v>1.0946446615021088E-3</v>
-      </c>
-      <c r="I29" s="23">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <v>-71</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.9859534023046752E-3</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>975</v>
+        <v>904</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>4.2757531903696799E-2</v>
+        <v>3.9643906503530335E-2</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" si="6"/>
@@ -2621,27 +2220,11 @@
       </c>
       <c r="N29" s="18">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="O29" s="19">
-        <f t="shared" si="8"/>
-        <v>920</v>
-      </c>
-      <c r="P29" s="20">
-        <f t="shared" si="9"/>
-        <v>4.0248490681599414E-2</v>
-      </c>
-      <c r="Q29" s="25">
-        <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="R29" s="26">
-        <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="8">
@@ -2654,34 +2237,34 @@
         <v>40582</v>
       </c>
       <c r="E30" s="9">
-        <v>42810</v>
+        <v>42879</v>
       </c>
       <c r="F30" s="9">
-        <v>42879</v>
+        <v>42868</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="H30" s="22">
-        <f t="shared" si="1"/>
-        <v>1.6117729502451716E-3</v>
-      </c>
-      <c r="I30" s="23">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>-11</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.5653583339169117E-4</v>
+      </c>
+      <c r="I30" s="21">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>2247</v>
+        <v>2236</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>5.5301240401653962E-2</v>
+        <v>5.5030517818468239E-2</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" si="6"/>
@@ -2691,25 +2274,9 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="O30" s="19">
-        <f t="shared" si="8"/>
-        <v>2297</v>
-      </c>
-      <c r="P30" s="20">
-        <f t="shared" si="9"/>
-        <v>5.6601448918239594E-2</v>
-      </c>
-      <c r="Q30" s="25">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="R30" s="26">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="8">
@@ -2722,62 +2289,46 @@
         <v>37597</v>
       </c>
       <c r="E31" s="9">
-        <v>39220</v>
+        <v>39233</v>
       </c>
       <c r="F31" s="9">
-        <v>39233</v>
+        <v>39139</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H31" s="22">
-        <f t="shared" si="1"/>
-        <v>3.3146353901081227E-4</v>
-      </c>
-      <c r="I31" s="23">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="J31" s="24">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <v>-94</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.3959421915223933E-3</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>1681</v>
+        <v>1587</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>4.4764593097571304E-2</v>
+        <v>4.2261397528760014E-2</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="O31" s="19">
-        <f t="shared" si="8"/>
-        <v>1636</v>
-      </c>
-      <c r="P31" s="20">
-        <f t="shared" si="9"/>
-        <v>4.3514110168364484E-2</v>
-      </c>
-      <c r="Q31" s="25">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="R31" s="26">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="8">
@@ -2790,34 +2341,34 @@
         <v>10814</v>
       </c>
       <c r="E32" s="9">
-        <v>11457</v>
+        <v>11461</v>
       </c>
       <c r="F32" s="9">
-        <v>11461</v>
+        <v>11432</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H32" s="22">
-        <f t="shared" si="1"/>
-        <v>3.4913153530591323E-4</v>
-      </c>
-      <c r="I32" s="23">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="J32" s="24">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <v>-29</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.530320216385995E-3</v>
+      </c>
+      <c r="I32" s="21">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>6.7629250116441497E-2</v>
+        <v>6.4927806241266817E-2</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="6"/>
@@ -2825,27 +2376,11 @@
       </c>
       <c r="N32" s="18">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="O32" s="19">
-        <f t="shared" si="8"/>
-        <v>647</v>
-      </c>
-      <c r="P32" s="20">
-        <f t="shared" si="9"/>
-        <v>5.9829850194192735E-2</v>
-      </c>
-      <c r="Q32" s="25">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="R32" s="26">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="8">
@@ -2858,34 +2393,34 @@
         <v>33968</v>
       </c>
       <c r="E33" s="9">
-        <v>34913</v>
+        <v>34872</v>
       </c>
       <c r="F33" s="9">
-        <v>34872</v>
+        <v>34785</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>-41</v>
-      </c>
-      <c r="H33" s="22">
-        <f t="shared" si="1"/>
-        <v>-1.1743476641938866E-3</v>
-      </c>
-      <c r="I33" s="23">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J33" s="24">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-87</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.4948382656572177E-3</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>1073</v>
+        <v>986</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>3.1746501375780278E-2</v>
+        <v>2.9172460723690063E-2</v>
       </c>
       <c r="M33" s="17">
         <f t="shared" si="6"/>
@@ -2895,25 +2430,9 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="O33" s="19">
-        <f t="shared" si="8"/>
-        <v>904</v>
-      </c>
-      <c r="P33" s="20">
-        <f t="shared" si="9"/>
-        <v>2.6613283089967021E-2</v>
-      </c>
-      <c r="Q33" s="25">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="R33" s="26">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="8">
@@ -2926,34 +2445,34 @@
         <v>5194</v>
       </c>
       <c r="E34" s="9">
-        <v>5403</v>
+        <v>5453</v>
       </c>
       <c r="F34" s="9">
-        <v>5453</v>
+        <v>5466</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H34" s="22">
-        <f t="shared" si="1"/>
-        <v>9.2541180825467251E-3</v>
-      </c>
-      <c r="I34" s="23">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="J34" s="24">
+        <v>13</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="1"/>
+        <v>2.3840088024940087E-3</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J34" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>5.9657986785853101E-2</v>
+        <v>6.2184220753983777E-2</v>
       </c>
       <c r="M34" s="17">
         <f t="shared" si="6"/>
@@ -2961,27 +2480,11 @@
       </c>
       <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="O34" s="19">
-        <f t="shared" si="8"/>
-        <v>259</v>
-      </c>
-      <c r="P34" s="20">
-        <f t="shared" si="9"/>
-        <v>4.9865229110512166E-2</v>
-      </c>
-      <c r="Q34" s="25">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="R34" s="26">
-        <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="8">
@@ -2994,34 +2497,34 @@
         <v>43183</v>
       </c>
       <c r="E35" s="9">
-        <v>44292</v>
+        <v>44225</v>
       </c>
       <c r="F35" s="9">
-        <v>44225</v>
+        <v>44116</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>-67</v>
-      </c>
-      <c r="H35" s="22">
-        <f t="shared" si="1"/>
-        <v>-1.5126885216292241E-3</v>
-      </c>
-      <c r="I35" s="23">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="J35" s="24">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <v>-109</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="1"/>
+        <v>-2.4646693046919133E-3</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J35" s="22">
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>1206</v>
+        <v>1097</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>2.8034124456635334E-2</v>
+        <v>2.5500360305911407E-2</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" si="6"/>
@@ -3029,27 +2532,11 @@
       </c>
       <c r="N35" s="18">
         <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="O35" s="19">
-        <f t="shared" si="8"/>
-        <v>1042</v>
-      </c>
-      <c r="P35" s="20">
-        <f t="shared" si="9"/>
-        <v>2.4129865919459093E-2</v>
-      </c>
-      <c r="Q35" s="25">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="R35" s="26">
-        <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="8">
@@ -3062,62 +2549,46 @@
         <v>19514</v>
       </c>
       <c r="E36" s="9">
-        <v>20660</v>
+        <v>20780</v>
       </c>
       <c r="F36" s="9">
-        <v>20780</v>
+        <v>20773</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H36" s="22">
-        <f t="shared" si="1"/>
-        <v>5.8083252662148865E-3</v>
-      </c>
-      <c r="I36" s="23">
-        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="1"/>
+        <v>-3.3686236766117261E-4</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J36" s="24">
-        <f t="shared" si="3"/>
+      <c r="K36" s="15">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="5"/>
+        <v>7.0056147942100688E-2</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="N36" s="18">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="K36" s="15">
-        <f t="shared" si="4"/>
-        <v>1367</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="5"/>
-        <v>7.0416731056508475E-2</v>
-      </c>
-      <c r="M36" s="17">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="N36" s="18">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="O36" s="19">
-        <f t="shared" si="8"/>
-        <v>1266</v>
-      </c>
-      <c r="P36" s="20">
-        <f t="shared" si="9"/>
-        <v>6.4876498923849502E-2</v>
-      </c>
-      <c r="Q36" s="25">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="R36" s="26">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="8">
@@ -3130,153 +2601,121 @@
         <v>11796</v>
       </c>
       <c r="E37" s="9">
-        <v>12110</v>
+        <v>12049</v>
       </c>
       <c r="F37" s="9">
-        <v>12049</v>
+        <v>12068</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>-61</v>
-      </c>
-      <c r="H37" s="22">
-        <f t="shared" si="1"/>
-        <v>-5.0371593724194419E-3</v>
-      </c>
-      <c r="I37" s="23">
-        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5768943480787279E-3</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J37" s="22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="shared" si="5"/>
+        <v>2.5231501146886437E-2</v>
+      </c>
+      <c r="M37" s="17">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J37" s="24">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="L37" s="16">
-        <f t="shared" si="5"/>
-        <v>2.3617364709880295E-2</v>
-      </c>
-      <c r="M37" s="17">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
       <c r="N37" s="18">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="O37" s="19">
-        <f t="shared" si="8"/>
-        <v>253</v>
-      </c>
-      <c r="P37" s="20">
-        <f t="shared" si="9"/>
-        <v>2.1447948457104182E-2</v>
-      </c>
-      <c r="Q37" s="25">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="R37" s="26">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="36">
         <v>1001793</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="37">
         <v>1000414</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="38">
         <v>1003261</v>
       </c>
-      <c r="E38" s="45">
-        <v>1051619</v>
-      </c>
-      <c r="F38" s="59">
-        <v>1104078</v>
-      </c>
-      <c r="G38" s="46">
-        <f t="shared" si="0"/>
-        <v>52459</v>
-      </c>
-      <c r="H38" s="47">
-        <f t="shared" si="1"/>
-        <v>4.9884035948380534E-2</v>
-      </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50">
+      <c r="E38" s="37">
+        <v>1054879</v>
+      </c>
+      <c r="F38" s="48">
+        <v>1053670</v>
+      </c>
+      <c r="G38" s="38">
+        <f>F38-E38</f>
+        <v>-1209</v>
+      </c>
+      <c r="H38" s="39">
+        <f t="shared" si="1"/>
+        <v>-1.1461030127626337E-3</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="42">
         <f>F38-C38</f>
-        <v>103664</v>
-      </c>
-      <c r="L38" s="51">
-        <f t="shared" si="5"/>
-        <v>0.10362110086424225</v>
-      </c>
-      <c r="M38" s="48"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="52">
-        <f t="shared" si="8"/>
-        <v>100817</v>
-      </c>
-      <c r="P38" s="53">
-        <f t="shared" si="9"/>
-        <v>0.10048930437842207</v>
-      </c>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="49"/>
-    </row>
-    <row r="39" spans="1:18" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="O39" s="56"/>
-    </row>
-    <row r="40" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+        <v>53256</v>
+      </c>
+      <c r="L38" s="43">
+        <f>F38/C38-1</f>
+        <v>5.3233961140088049E-2</v>
+      </c>
+      <c r="M38" s="40"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="1:14" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="G39" s="45"/>
+    </row>
+    <row r="40" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="57" t="s">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="A40:R40"/>
+    <mergeCell ref="A40:N40"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:A5"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
-    <sheet name="marzo" sheetId="2" r:id="rId1"/>
+    <sheet name="abril" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,27 +188,27 @@
   </si>
   <si>
     <t>2022
-Febrero</t>
+Marzo</t>
   </si>
   <si>
     <t>2022
-Marzo</t>
+Abril</t>
   </si>
   <si>
     <t>2021
-Marzo</t>
-  </si>
-  <si>
-    <t>Marzo 2022 respecto a Febrero 2022</t>
-  </si>
-  <si>
-    <t>Marzo 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Marzo 2022 respecto a Marzo 2021</t>
-  </si>
-  <si>
-    <t>2020-marzo 2022</t>
+Abril</t>
+  </si>
+  <si>
+    <t>2020-abril 2022</t>
+  </si>
+  <si>
+    <t>Abril 2022 respecto a Marzo 2022</t>
+  </si>
+  <si>
+    <t>Abrl 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Abril 2022 respecto a Abril 2021</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -573,9 +573,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -594,17 +591,44 @@
     <xf numFmtId="3" fontId="5" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -622,6 +646,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -631,62 +661,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -915,36 +903,36 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U23:U24"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="15" width="9.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.5703125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="15" width="9.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -956,18 +944,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="A2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1000,54 +988,54 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52" t="s">
+      <c r="H4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="51" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="66"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+    </row>
+    <row r="5" spans="1:19" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1086,70 +1074,70 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="40">
         <v>16017</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="5">
         <v>16063</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="4">
         <v>16746</v>
       </c>
-      <c r="E6" s="73">
-        <v>16126</v>
-      </c>
-      <c r="F6" s="73">
-        <v>16759</v>
-      </c>
-      <c r="G6" s="74">
+      <c r="E6" s="4">
+        <v>16189</v>
+      </c>
+      <c r="F6" s="4">
         <v>16740</v>
+      </c>
+      <c r="G6" s="41">
+        <v>16760</v>
       </c>
       <c r="H6" s="5">
         <f>G6-F6</f>
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="9">
         <f>G6/F6-1</f>
-        <v>-1.1337191956560799E-3</v>
+        <v>1.1947431302270495E-3</v>
       </c>
       <c r="J6" s="10">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>27</v>
-      </c>
-      <c r="K6" s="45">
+        <v>18</v>
+      </c>
+      <c r="K6" s="44">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>28</v>
-      </c>
-      <c r="L6" s="48">
+        <v>15</v>
+      </c>
+      <c r="L6" s="46">
         <f>G6-D6</f>
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="M6" s="28">
         <f>G6/D6-1</f>
-        <v>-3.5829451809388235E-4</v>
+        <v>8.3602054221909583E-4</v>
       </c>
       <c r="N6" s="7">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>25</v>
-      </c>
-      <c r="O6" s="45">
+        <v>23</v>
+      </c>
+      <c r="O6" s="44">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" s="25">
         <f>G6-E6</f>
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="Q6" s="26">
         <f>G6/E6-1</f>
-        <v>3.8075158129728282E-2</v>
+        <v>3.5270862931620295E-2</v>
       </c>
       <c r="R6" s="25">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S6" s="27">
         <f>_xlfn.RANK.EQ(Q6,$Q$6:$Q$37)</f>
@@ -1157,10 +1145,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>41338</v>
       </c>
       <c r="C7" s="5">
@@ -1170,57 +1158,57 @@
         <v>44540</v>
       </c>
       <c r="E7" s="4">
-        <v>41658</v>
+        <v>41850</v>
       </c>
       <c r="F7" s="4">
-        <v>44231</v>
-      </c>
-      <c r="G7" s="42">
         <v>44201</v>
       </c>
+      <c r="G7" s="41">
+        <v>44407</v>
+      </c>
       <c r="H7" s="5">
-        <f t="shared" ref="H7:H38" si="0">G7-F7</f>
-        <v>-30</v>
+        <f t="shared" ref="H7:H37" si="0">G7-F7</f>
+        <v>206</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>-6.7825733083126671E-4</v>
+        <v>4.6605280423519524E-3</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>29</v>
-      </c>
-      <c r="K7" s="45">
+        <v>3</v>
+      </c>
+      <c r="K7" s="44">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>25</v>
-      </c>
-      <c r="L7" s="48">
+        <v>3</v>
+      </c>
+      <c r="L7" s="46">
         <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>-339</v>
+        <v>-133</v>
       </c>
       <c r="M7" s="28">
         <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>-7.6111360574764308E-3</v>
+        <v>-2.9860799281544725E-3</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
         <v>32</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="44">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7">
         <f t="shared" ref="P7:P38" si="8">G7-E7</f>
-        <v>2543</v>
+        <v>2557</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" ref="Q7:Q38" si="9">G7/E7-1</f>
-        <v>6.1044697297037764E-2</v>
+        <v>6.1099163679808832E-2</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" ref="R7:R37" si="10">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" ref="S7:S37" si="11">_xlfn.RANK.EQ(Q7,$Q$6:$Q$37)</f>
@@ -1228,10 +1216,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>12767</v>
       </c>
       <c r="C8" s="5">
@@ -1241,53 +1229,53 @@
         <v>13964</v>
       </c>
       <c r="E8" s="4">
-        <v>12933</v>
+        <v>12988</v>
       </c>
       <c r="F8" s="4">
-        <v>14112</v>
-      </c>
-      <c r="G8" s="42">
         <v>14186</v>
+      </c>
+      <c r="G8" s="41">
+        <v>14264</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>5.2437641723355188E-3</v>
+        <v>5.4983786832087933E-3</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K8" s="45">
+        <v>7</v>
+      </c>
+      <c r="K8" s="44">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L8" s="48">
+        <v>2</v>
+      </c>
+      <c r="L8" s="46">
         <f t="shared" si="4"/>
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="M8" s="28">
         <f t="shared" si="5"/>
-        <v>1.5898023488971624E-2</v>
+        <v>2.1483815525637384E-2</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O8" s="45">
+        <v>7</v>
+      </c>
+      <c r="O8" s="44">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" si="8"/>
-        <v>1253</v>
+        <v>1276</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="9"/>
-        <v>9.6883940307739946E-2</v>
+        <v>9.8244533415460467E-2</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="10"/>
@@ -1299,10 +1287,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>5807</v>
       </c>
       <c r="C9" s="5">
@@ -1312,31 +1300,31 @@
         <v>6254</v>
       </c>
       <c r="E9" s="4">
-        <v>5831</v>
+        <v>5860</v>
       </c>
       <c r="F9" s="4">
-        <v>6311</v>
-      </c>
-      <c r="G9" s="42">
+        <v>6282</v>
+      </c>
+      <c r="G9" s="41">
         <v>6282</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>-4.5951513230866325E-3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="K9" s="45">
+        <v>26</v>
+      </c>
+      <c r="K9" s="44">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="L9" s="48">
+        <v>26</v>
+      </c>
+      <c r="L9" s="46">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -1346,19 +1334,19 @@
       </c>
       <c r="N9" s="7">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="O9" s="45">
+        <v>22</v>
+      </c>
+      <c r="O9" s="44">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="8"/>
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="9"/>
-        <v>7.7345223803807261E-2</v>
+        <v>7.2013651877133045E-2</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="10"/>
@@ -1366,14 +1354,14 @@
       </c>
       <c r="S9" s="8">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>14324</v>
       </c>
       <c r="C10" s="5">
@@ -1383,57 +1371,57 @@
         <v>14789</v>
       </c>
       <c r="E10" s="4">
-        <v>14373</v>
+        <v>14418</v>
       </c>
       <c r="F10" s="4">
-        <v>14730</v>
-      </c>
-      <c r="G10" s="42">
         <v>14736</v>
+      </c>
+      <c r="G10" s="41">
+        <v>14749</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>4.0733197555997691E-4</v>
+        <v>8.8219326818683719E-4</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K10" s="45">
+        <v>20</v>
+      </c>
+      <c r="K10" s="44">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="L10" s="48">
+        <v>17</v>
+      </c>
+      <c r="L10" s="46">
         <f t="shared" si="4"/>
-        <v>-53</v>
+        <v>-40</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" si="5"/>
-        <v>-3.5837446750963675E-3</v>
+        <v>-2.7047129623368749E-3</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="44">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="8"/>
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="9"/>
-        <v>2.5255687747860467E-2</v>
+        <v>2.2957414343182103E-2</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="11"/>
@@ -1441,10 +1429,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="40">
         <v>39670</v>
       </c>
       <c r="C11" s="5">
@@ -1454,53 +1442,53 @@
         <v>42167</v>
       </c>
       <c r="E11" s="4">
-        <v>39950</v>
+        <v>40094</v>
       </c>
       <c r="F11" s="4">
-        <v>42291</v>
-      </c>
-      <c r="G11" s="42">
         <v>42340</v>
+      </c>
+      <c r="G11" s="41">
+        <v>42392</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>1.1586389539144371E-3</v>
+        <v>1.2281530467643798E-3</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K11" s="45">
+        <v>11</v>
+      </c>
+      <c r="K11" s="44">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="L11" s="48">
+        <v>14</v>
+      </c>
+      <c r="L11" s="46">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="M11" s="28">
         <f t="shared" si="5"/>
-        <v>4.1027343657362714E-3</v>
+        <v>5.3359261982117712E-3</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="44">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="8"/>
-        <v>2390</v>
+        <v>2298</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="9"/>
-        <v>5.9824780976220238E-2</v>
+        <v>5.7315309023794114E-2</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="10"/>
@@ -1508,14 +1496,14 @@
       </c>
       <c r="S11" s="8">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>118117</v>
       </c>
       <c r="C12" s="5">
@@ -1525,53 +1513,53 @@
         <v>125199</v>
       </c>
       <c r="E12" s="4">
-        <v>117841</v>
+        <v>117816</v>
       </c>
       <c r="F12" s="4">
-        <v>125331</v>
-      </c>
-      <c r="G12" s="42">
         <v>125741</v>
+      </c>
+      <c r="G12" s="41">
+        <v>125850</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>3.2713374983044385E-3</v>
+        <v>8.6686124653057028E-4</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="45">
+        <v>5</v>
+      </c>
+      <c r="K12" s="44">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L12" s="48">
+        <v>18</v>
+      </c>
+      <c r="L12" s="46">
         <f t="shared" si="4"/>
-        <v>542</v>
+        <v>651</v>
       </c>
       <c r="M12" s="28">
         <f t="shared" si="5"/>
-        <v>4.3291080599685561E-3</v>
+        <v>5.1997220425084034E-3</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="O12" s="45">
+        <v>3</v>
+      </c>
+      <c r="O12" s="44">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7">
         <f t="shared" si="8"/>
-        <v>7900</v>
+        <v>8034</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="9"/>
-        <v>6.7039485408304511E-2</v>
+        <v>6.8191077612548279E-2</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="10"/>
@@ -1579,14 +1567,14 @@
       </c>
       <c r="S12" s="8">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>34021</v>
       </c>
       <c r="C13" s="5">
@@ -1596,68 +1584,68 @@
         <v>35642</v>
       </c>
       <c r="E13" s="4">
-        <v>34104</v>
+        <v>34235</v>
       </c>
       <c r="F13" s="4">
-        <v>35733</v>
-      </c>
-      <c r="G13" s="42">
         <v>35841</v>
+      </c>
+      <c r="G13" s="41">
+        <v>35845</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>3.0224162538829979E-3</v>
+        <v>1.11604028905532E-4</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K13" s="45">
+        <v>24</v>
+      </c>
+      <c r="K13" s="44">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L13" s="48">
+        <v>25</v>
+      </c>
+      <c r="L13" s="46">
         <f t="shared" si="4"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M13" s="28">
         <f t="shared" si="5"/>
-        <v>5.5833006004153418E-3</v>
+        <v>5.6955277481622879E-3</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="O13" s="45">
+        <v>11</v>
+      </c>
+      <c r="O13" s="44">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="8"/>
-        <v>1737</v>
+        <v>1610</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="9"/>
-        <v>5.0932441942294071E-2</v>
+        <v>4.7027895428654931E-2</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>10753</v>
       </c>
       <c r="C14" s="5">
@@ -1667,68 +1655,68 @@
         <v>11397</v>
       </c>
       <c r="E14" s="4">
-        <v>10794</v>
+        <v>10897</v>
       </c>
       <c r="F14" s="4">
-        <v>11379</v>
-      </c>
-      <c r="G14" s="42">
         <v>11440</v>
+      </c>
+      <c r="G14" s="41">
+        <v>11491</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>5.3607522629404158E-3</v>
+        <v>4.4580419580420028E-3</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="K14" s="45">
+        <v>13</v>
+      </c>
+      <c r="K14" s="44">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L14" s="48">
+        <v>4</v>
+      </c>
+      <c r="L14" s="46">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="M14" s="28">
         <f t="shared" si="5"/>
-        <v>3.772922698955794E-3</v>
+        <v>8.2477845046942111E-3</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="O14" s="45">
+        <v>16</v>
+      </c>
+      <c r="O14" s="44">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="8"/>
-        <v>646</v>
+        <v>594</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="9"/>
-        <v>5.9848063739114332E-2</v>
+        <v>5.4510415710746107E-2</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>14267</v>
       </c>
       <c r="C15" s="5">
@@ -1738,53 +1726,53 @@
         <v>14609</v>
       </c>
       <c r="E15" s="4">
-        <v>14316</v>
+        <v>14313</v>
       </c>
       <c r="F15" s="4">
-        <v>14634</v>
-      </c>
-      <c r="G15" s="42">
         <v>14679</v>
+      </c>
+      <c r="G15" s="41">
+        <v>14691</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="1"/>
-        <v>3.0750307503075724E-3</v>
+        <v>8.1749437972611361E-4</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K15" s="45">
+        <v>21</v>
+      </c>
+      <c r="K15" s="44">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L15" s="48">
+        <v>19</v>
+      </c>
+      <c r="L15" s="46">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M15" s="28">
         <f t="shared" si="5"/>
-        <v>4.7915668423574864E-3</v>
+        <v>5.6129783010472334E-3</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="O15" s="45">
+        <v>17</v>
+      </c>
+      <c r="O15" s="44">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7">
         <f t="shared" si="8"/>
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="9"/>
-        <v>2.5356244761106428E-2</v>
+        <v>2.6409557744707657E-2</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="10"/>
@@ -1792,14 +1780,14 @@
       </c>
       <c r="S15" s="8">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="40">
         <v>72960</v>
       </c>
       <c r="C16" s="5">
@@ -1809,68 +1797,68 @@
         <v>77044</v>
       </c>
       <c r="E16" s="4">
-        <v>72421</v>
+        <v>72325</v>
       </c>
       <c r="F16" s="4">
-        <v>77507</v>
-      </c>
-      <c r="G16" s="42">
         <v>77647</v>
+      </c>
+      <c r="G16" s="41">
+        <v>77839</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="1"/>
-        <v>1.8062884642677801E-3</v>
+        <v>2.4727291460069356E-3</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="44">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="L16" s="48">
+        <v>8</v>
+      </c>
+      <c r="L16" s="46">
         <f t="shared" si="4"/>
-        <v>603</v>
+        <v>795</v>
       </c>
       <c r="M16" s="28">
         <f t="shared" si="5"/>
-        <v>7.8266964332069922E-3</v>
+        <v>1.0318778879601309E-2</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="44">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="7">
         <f t="shared" si="8"/>
-        <v>5226</v>
+        <v>5514</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="9"/>
-        <v>7.2161389652172669E-2</v>
+        <v>7.6239198064293134E-2</v>
       </c>
       <c r="R16" s="7">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>47776</v>
       </c>
       <c r="C17" s="5">
@@ -1880,53 +1868,53 @@
         <v>49358</v>
       </c>
       <c r="E17" s="4">
-        <v>47663</v>
+        <v>47685</v>
       </c>
       <c r="F17" s="4">
-        <v>49257</v>
-      </c>
-      <c r="G17" s="42">
         <v>49366</v>
+      </c>
+      <c r="G17" s="41">
+        <v>49438</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>2.2128834480379389E-3</v>
+        <v>1.4584937001174136E-3</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K17" s="45">
+        <v>9</v>
+      </c>
+      <c r="K17" s="44">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L17" s="48">
+        <v>13</v>
+      </c>
+      <c r="L17" s="46">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="M17" s="28">
         <f t="shared" si="5"/>
-        <v>1.6208112160143173E-4</v>
+        <v>1.6208112160136512E-3</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="O17" s="45">
+        <v>18</v>
+      </c>
+      <c r="O17" s="44">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="P17" s="7">
         <f t="shared" si="8"/>
-        <v>1703</v>
+        <v>1753</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="9"/>
-        <v>3.5730021190441219E-2</v>
+        <v>3.6762084512949489E-2</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="10"/>
@@ -1934,14 +1922,14 @@
       </c>
       <c r="S17" s="8">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="40">
         <v>13652</v>
       </c>
       <c r="C18" s="5">
@@ -1951,53 +1939,53 @@
         <v>13674</v>
       </c>
       <c r="E18" s="4">
-        <v>13558</v>
+        <v>13535</v>
       </c>
       <c r="F18" s="4">
-        <v>13648</v>
-      </c>
-      <c r="G18" s="42">
         <v>13642</v>
+      </c>
+      <c r="G18" s="41">
+        <v>13607</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-35</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>-4.3962485345838687E-4</v>
+        <v>-2.5656062160973603E-3</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="K18" s="45">
+        <v>31</v>
+      </c>
+      <c r="K18" s="44">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L18" s="48">
+        <v>32</v>
+      </c>
+      <c r="L18" s="46">
         <f t="shared" si="4"/>
-        <v>-32</v>
+        <v>-67</v>
       </c>
       <c r="M18" s="28">
         <f t="shared" si="5"/>
-        <v>-2.3402076934327942E-3</v>
+        <v>-4.8998098581248817E-3</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="O18" s="45">
+        <v>31</v>
+      </c>
+      <c r="O18" s="44">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7">
         <f t="shared" si="8"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="9"/>
-        <v>6.1956040713968541E-3</v>
+        <v>5.3195419283340595E-3</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="10"/>
@@ -2009,10 +1997,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>15458</v>
       </c>
       <c r="C19" s="5">
@@ -2022,69 +2010,69 @@
         <v>15980</v>
       </c>
       <c r="E19" s="4">
-        <v>15440</v>
+        <v>15508</v>
       </c>
       <c r="F19" s="4">
-        <v>16003</v>
-      </c>
-      <c r="G19" s="42">
         <v>16042</v>
+      </c>
+      <c r="G19" s="41">
+        <v>16045</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="1"/>
-        <v>2.4370430544273791E-3</v>
+        <v>1.8700910110958091E-4</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K19" s="45">
+        <v>25</v>
+      </c>
+      <c r="K19" s="44">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L19" s="48">
+        <v>24</v>
+      </c>
+      <c r="L19" s="46">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M19" s="28">
         <f t="shared" si="5"/>
-        <v>3.8798498122654124E-3</v>
+        <v>4.0675844806008499E-3</v>
       </c>
       <c r="N19" s="7">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="O19" s="45">
+        <v>20</v>
+      </c>
+      <c r="O19" s="44">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P19" s="7">
         <f t="shared" si="8"/>
-        <v>602</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="9"/>
-        <v>3.8989637305699487E-2</v>
+        <v>3.4627289141088369E-2</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="43">
+      <c r="B20" s="42">
         <v>98067</v>
       </c>
       <c r="C20" s="13">
@@ -2094,69 +2082,69 @@
         <v>103251</v>
       </c>
       <c r="E20" s="12">
-        <v>98700</v>
+        <v>98877</v>
       </c>
       <c r="F20" s="12">
-        <v>103626</v>
-      </c>
-      <c r="G20" s="44">
         <v>103976</v>
+      </c>
+      <c r="G20" s="43">
+        <v>104232</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="1"/>
-        <v>3.3775307355297102E-3</v>
+        <v>2.4621066399939107E-3</v>
       </c>
       <c r="J20" s="15">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>2</v>
-      </c>
-      <c r="K20" s="46">
+        <v>1</v>
+      </c>
+      <c r="K20" s="45">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>5</v>
-      </c>
-      <c r="L20" s="49">
+        <v>9</v>
+      </c>
+      <c r="L20" s="47">
         <f t="shared" si="4"/>
-        <v>725</v>
+        <v>981</v>
       </c>
       <c r="M20" s="32">
         <f t="shared" si="5"/>
-        <v>7.0217237605447735E-3</v>
+        <v>9.5011186332336628E-3</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P20" s="17">
         <f t="shared" si="8"/>
-        <v>5276</v>
+        <v>5355</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="9"/>
-        <v>5.3454913880445876E-2</v>
+        <v>5.4158196547225312E-2</v>
       </c>
       <c r="R20" s="17">
         <f>_xlfn.RANK.EQ(P20,$P$6:$P$37)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S20" s="18">
         <f>_xlfn.RANK.EQ(Q20,$Q$6:$Q$37)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="40">
         <v>36276</v>
       </c>
       <c r="C21" s="5">
@@ -2166,53 +2154,53 @@
         <v>37104</v>
       </c>
       <c r="E21" s="4">
-        <v>36281</v>
+        <v>36326</v>
       </c>
       <c r="F21" s="4">
-        <v>37036</v>
-      </c>
-      <c r="G21" s="42">
         <v>37108</v>
+      </c>
+      <c r="G21" s="41">
+        <v>37211</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>1.9440544335240784E-3</v>
+        <v>2.7756817936832601E-3</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K21" s="45">
+        <v>6</v>
+      </c>
+      <c r="K21" s="44">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="L21" s="48">
+        <v>6</v>
+      </c>
+      <c r="L21" s="46">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M21" s="28">
         <f t="shared" si="5"/>
-        <v>1.0780508840024794E-4</v>
+        <v>2.883786114704634E-3</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="O21" s="45">
+        <v>14</v>
+      </c>
+      <c r="O21" s="44">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7">
         <f t="shared" si="8"/>
-        <v>827</v>
+        <v>885</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="9"/>
-        <v>2.2794300046856453E-2</v>
+        <v>2.4362715410449765E-2</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="10"/>
@@ -2220,14 +2208,14 @@
       </c>
       <c r="S21" s="8">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="40">
         <v>12099</v>
       </c>
       <c r="C22" s="5">
@@ -2237,53 +2225,53 @@
         <v>12579</v>
       </c>
       <c r="E22" s="4">
-        <v>12102</v>
+        <v>12135</v>
       </c>
       <c r="F22" s="4">
-        <v>12597</v>
-      </c>
-      <c r="G22" s="42">
         <v>12585</v>
+      </c>
+      <c r="G22" s="41">
+        <v>12608</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>-9.5260776375327705E-4</v>
+        <v>1.8275725069527571E-3</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="K22" s="45">
+        <v>15</v>
+      </c>
+      <c r="K22" s="44">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="L22" s="48">
+        <v>11</v>
+      </c>
+      <c r="L22" s="46">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="5"/>
-        <v>4.7698545194374553E-4</v>
+        <v>2.3054296843947331E-3</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="44">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7">
         <f t="shared" si="8"/>
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="9"/>
-        <v>3.9910758552305303E-2</v>
+        <v>3.8978162340337796E-2</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="10"/>
@@ -2295,10 +2283,10 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="40">
         <v>12766</v>
       </c>
       <c r="C23" s="5">
@@ -2308,53 +2296,53 @@
         <v>13590</v>
       </c>
       <c r="E23" s="4">
-        <v>12803</v>
+        <v>12871</v>
       </c>
       <c r="F23" s="4">
-        <v>13626</v>
-      </c>
-      <c r="G23" s="42">
         <v>13616</v>
+      </c>
+      <c r="G23" s="41">
+        <v>13668</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="1"/>
-        <v>-7.3389109056221091E-4</v>
+        <v>3.8190364277321809E-3</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K23" s="45">
+        <v>11</v>
+      </c>
+      <c r="K23" s="44">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="L23" s="48">
+        <v>5</v>
+      </c>
+      <c r="L23" s="46">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M23" s="28">
         <f t="shared" si="5"/>
-        <v>1.9131714495952412E-3</v>
+        <v>5.7395143487859457E-3</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="O23" s="45">
+      <c r="O23" s="44">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="P23" s="7">
         <f t="shared" si="8"/>
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="9"/>
-        <v>6.3500742013590461E-2</v>
+        <v>6.1922150571051215E-2</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="10"/>
@@ -2366,10 +2354,10 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="40">
         <v>69698</v>
       </c>
       <c r="C24" s="5">
@@ -2379,53 +2367,53 @@
         <v>74823</v>
       </c>
       <c r="E24" s="4">
-        <v>69882</v>
+        <v>69827</v>
       </c>
       <c r="F24" s="4">
-        <v>75221</v>
-      </c>
-      <c r="G24" s="42">
         <v>75415</v>
+      </c>
+      <c r="G24" s="41">
+        <v>75353</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>-62</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="1"/>
-        <v>2.5790670158598594E-3</v>
+        <v>-8.2211761585893051E-4</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K24" s="45">
+        <v>32</v>
+      </c>
+      <c r="K24" s="44">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L24" s="48">
+        <v>29</v>
+      </c>
+      <c r="L24" s="46">
         <f t="shared" si="4"/>
-        <v>592</v>
+        <v>530</v>
       </c>
       <c r="M24" s="28">
         <f t="shared" si="5"/>
-        <v>7.9120056667068006E-3</v>
+        <v>7.0833834516124128E-3</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="O24" s="45">
+        <v>4</v>
+      </c>
+      <c r="O24" s="44">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P24" s="7">
         <f t="shared" si="8"/>
-        <v>5533</v>
+        <v>5526</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="9"/>
-        <v>7.917632580635936E-2</v>
+        <v>7.9138442149884636E-2</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="10"/>
@@ -2437,10 +2425,10 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <v>13897</v>
       </c>
       <c r="C25" s="5">
@@ -2450,53 +2438,53 @@
         <v>14401</v>
       </c>
       <c r="E25" s="4">
-        <v>13866</v>
+        <v>13940</v>
       </c>
       <c r="F25" s="4">
-        <v>14330</v>
-      </c>
-      <c r="G25" s="42">
         <v>14300</v>
+      </c>
+      <c r="G25" s="41">
+        <v>14338</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="1"/>
-        <v>-2.0935101186322358E-3</v>
+        <v>2.6573426573426318E-3</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="K25" s="45">
+        <v>14</v>
+      </c>
+      <c r="K25" s="44">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="L25" s="48">
+        <v>7</v>
+      </c>
+      <c r="L25" s="46">
         <f t="shared" si="4"/>
-        <v>-101</v>
+        <v>-63</v>
       </c>
       <c r="M25" s="28">
         <f t="shared" si="5"/>
-        <v>-7.0134018470939807E-3</v>
+        <v>-4.3746962016526503E-3</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="O25" s="45">
+        <v>30</v>
+      </c>
+      <c r="O25" s="44">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="P25" s="7">
         <f t="shared" si="8"/>
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="9"/>
-        <v>3.1299581710659163E-2</v>
+        <v>2.8550932568149223E-2</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="10"/>
@@ -2508,10 +2496,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="40">
         <v>33169</v>
       </c>
       <c r="C26" s="5">
@@ -2521,68 +2509,68 @@
         <v>34423</v>
       </c>
       <c r="E26" s="4">
-        <v>33102</v>
+        <v>33006</v>
       </c>
       <c r="F26" s="4">
-        <v>34612</v>
-      </c>
-      <c r="G26" s="42">
         <v>34645</v>
+      </c>
+      <c r="G26" s="41">
+        <v>34668</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="1"/>
-        <v>9.5342655726327052E-4</v>
+        <v>6.6387646124987931E-4</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="44">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="L26" s="48">
+        <v>20</v>
+      </c>
+      <c r="L26" s="46">
         <f t="shared" si="4"/>
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M26" s="28">
         <f t="shared" si="5"/>
-        <v>6.4491764227405657E-3</v>
+        <v>7.1173343404118405E-3</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O26" s="45">
+        <v>8</v>
+      </c>
+      <c r="O26" s="44">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P26" s="7">
         <f t="shared" si="8"/>
-        <v>1543</v>
+        <v>1662</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="9"/>
-        <v>4.6613497673856585E-2</v>
+        <v>5.0354481003453966E-2</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="40">
         <v>26076</v>
       </c>
       <c r="C27" s="5">
@@ -2592,53 +2580,53 @@
         <v>28507</v>
       </c>
       <c r="E27" s="4">
-        <v>26255</v>
+        <v>26314</v>
       </c>
       <c r="F27" s="4">
-        <v>28845</v>
-      </c>
-      <c r="G27" s="42">
         <v>28982</v>
+      </c>
+      <c r="G27" s="41">
+        <v>28992</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="1"/>
-        <v>4.7495233142658133E-3</v>
+        <v>3.4504175005167781E-4</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K27" s="45">
+        <v>23</v>
+      </c>
+      <c r="K27" s="44">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L27" s="48">
+        <v>22</v>
+      </c>
+      <c r="L27" s="46">
         <f t="shared" si="4"/>
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="M27" s="28">
         <f t="shared" si="5"/>
-        <v>1.666257410460581E-2</v>
+        <v>1.7013365138387027E-2</v>
       </c>
       <c r="N27" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="44">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" s="7">
         <f t="shared" si="8"/>
-        <v>2727</v>
+        <v>2678</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="9"/>
-        <v>0.10386593029899061</v>
+        <v>0.10177092042258873</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="10"/>
@@ -2650,10 +2638,10 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>16569</v>
       </c>
       <c r="C28" s="5">
@@ -2663,57 +2651,57 @@
         <v>19275</v>
       </c>
       <c r="E28" s="4">
-        <v>16865</v>
+        <v>16958</v>
       </c>
       <c r="F28" s="4">
-        <v>19640</v>
-      </c>
-      <c r="G28" s="42">
         <v>19364</v>
+      </c>
+      <c r="G28" s="41">
+        <v>19607</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>-276</v>
+        <v>243</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="1"/>
-        <v>-1.4052953156822756E-2</v>
+        <v>1.2549060111547217E-2</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K28" s="45">
+        <v>2</v>
+      </c>
+      <c r="K28" s="44">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="L28" s="48">
+        <v>1</v>
+      </c>
+      <c r="L28" s="46">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>332</v>
       </c>
       <c r="M28" s="28">
         <f t="shared" si="5"/>
-        <v>4.6173800259403652E-3</v>
+        <v>1.7224383916990993E-2</v>
       </c>
       <c r="N28" s="7">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="O28" s="45">
+        <v>6</v>
+      </c>
+      <c r="O28" s="44">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" si="8"/>
-        <v>2499</v>
+        <v>2649</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="9"/>
-        <v>0.14817669730210503</v>
+        <v>0.15620945866257818</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="11"/>
@@ -2721,10 +2709,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="40">
         <v>22803</v>
       </c>
       <c r="C29" s="5">
@@ -2734,53 +2722,53 @@
         <v>23707</v>
       </c>
       <c r="E29" s="4">
-        <v>22910</v>
+        <v>22964</v>
       </c>
       <c r="F29" s="4">
-        <v>23699</v>
-      </c>
-      <c r="G29" s="42">
         <v>23712</v>
+      </c>
+      <c r="G29" s="41">
+        <v>23705</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-7</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="1"/>
-        <v>5.4854635216683434E-4</v>
+        <v>-2.9520917678815817E-4</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K29" s="45">
+        <v>28</v>
+      </c>
+      <c r="K29" s="44">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="L29" s="48">
+        <v>28</v>
+      </c>
+      <c r="L29" s="46">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="M29" s="28">
         <f t="shared" si="5"/>
-        <v>2.1090817058255773E-4</v>
+        <v>-8.4363268233023092E-5</v>
       </c>
       <c r="N29" s="7">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="O29" s="45">
+        <v>24</v>
+      </c>
+      <c r="O29" s="44">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P29" s="7">
         <f t="shared" si="8"/>
-        <v>802</v>
+        <v>741</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="9"/>
-        <v>3.500654735923181E-2</v>
+        <v>3.2267897578819094E-2</v>
       </c>
       <c r="R29" s="7">
         <f t="shared" si="10"/>
@@ -2792,10 +2780,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="40">
         <v>40632</v>
       </c>
       <c r="C30" s="5">
@@ -2805,53 +2793,53 @@
         <v>42868</v>
       </c>
       <c r="E30" s="4">
-        <v>40970</v>
+        <v>41101</v>
       </c>
       <c r="F30" s="4">
-        <v>42995</v>
-      </c>
-      <c r="G30" s="42">
         <v>43021</v>
+      </c>
+      <c r="G30" s="41">
+        <v>43033</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="1"/>
-        <v>6.0472147924173214E-4</v>
+        <v>2.7893354408314863E-4</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K30" s="45">
+        <v>21</v>
+      </c>
+      <c r="K30" s="44">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="L30" s="48">
+        <v>23</v>
+      </c>
+      <c r="L30" s="46">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M30" s="28">
         <f t="shared" si="5"/>
-        <v>3.5690958290566233E-3</v>
+        <v>3.8490249136884369E-3</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="O30" s="45">
+        <v>12</v>
+      </c>
+      <c r="O30" s="44">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7">
         <f t="shared" si="8"/>
-        <v>2051</v>
+        <v>1932</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="9"/>
-        <v>5.0061020258725941E-2</v>
+        <v>4.7006155567991037E-2</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" si="10"/>
@@ -2859,14 +2847,14 @@
       </c>
       <c r="S30" s="8">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="40">
         <v>37552</v>
       </c>
       <c r="C31" s="5">
@@ -2876,68 +2864,68 @@
         <v>39139</v>
       </c>
       <c r="E31" s="4">
-        <v>37594</v>
+        <v>37585</v>
       </c>
       <c r="F31" s="4">
-        <v>39261</v>
-      </c>
-      <c r="G31" s="42">
         <v>39290</v>
+      </c>
+      <c r="G31" s="41">
+        <v>39364</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="1"/>
-        <v>7.3864649397625826E-4</v>
+        <v>1.8834308984474468E-3</v>
       </c>
       <c r="J31" s="10">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K31" s="45">
+        <v>8</v>
+      </c>
+      <c r="K31" s="44">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L31" s="48">
+        <v>10</v>
+      </c>
+      <c r="L31" s="46">
         <f t="shared" si="4"/>
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="M31" s="28">
         <f t="shared" si="5"/>
-        <v>3.8580444058355923E-3</v>
+        <v>5.748741664324486E-3</v>
       </c>
       <c r="N31" s="7">
         <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O31" s="44">
+        <f t="shared" si="7"/>
         <v>11</v>
-      </c>
-      <c r="O31" s="45">
-        <f t="shared" si="7"/>
-        <v>16</v>
       </c>
       <c r="P31" s="7">
         <f t="shared" si="8"/>
-        <v>1696</v>
+        <v>1779</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="9"/>
-        <v>4.5113581954567161E-2</v>
+        <v>4.7332712518291853E-2</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="40">
         <v>10735</v>
       </c>
       <c r="C32" s="5">
@@ -2947,31 +2935,31 @@
         <v>11432</v>
       </c>
       <c r="E32" s="4">
-        <v>10952</v>
+        <v>10935</v>
       </c>
       <c r="F32" s="4">
-        <v>11468</v>
-      </c>
-      <c r="G32" s="42">
+        <v>11534</v>
+      </c>
+      <c r="G32" s="41">
         <v>11534</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="1"/>
-        <v>5.7551447506103415E-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K32" s="45">
+        <v>26</v>
+      </c>
+      <c r="K32" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="48">
+        <v>26</v>
+      </c>
+      <c r="L32" s="46">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
@@ -2981,34 +2969,34 @@
       </c>
       <c r="N32" s="7">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="O32" s="45">
+        <v>15</v>
+      </c>
+      <c r="O32" s="44">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P32" s="7">
         <f t="shared" si="8"/>
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="9"/>
-        <v>5.3140978816654583E-2</v>
+        <v>5.4778235025148669E-2</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="40">
         <v>33799</v>
       </c>
       <c r="C33" s="5">
@@ -3018,53 +3006,53 @@
         <v>34785</v>
       </c>
       <c r="E33" s="4">
-        <v>33776</v>
+        <v>33844</v>
       </c>
       <c r="F33" s="4">
-        <v>34767</v>
-      </c>
-      <c r="G33" s="42">
         <v>34725</v>
+      </c>
+      <c r="G33" s="41">
+        <v>34740</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>-42</v>
+        <v>15</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>-1.2080421088963567E-3</v>
+        <v>4.3196544276447035E-4</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="K33" s="45">
+        <v>19</v>
+      </c>
+      <c r="K33" s="44">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="L33" s="48">
+        <v>21</v>
+      </c>
+      <c r="L33" s="46">
         <f t="shared" si="4"/>
-        <v>-60</v>
+        <v>-45</v>
       </c>
       <c r="M33" s="28">
         <f t="shared" si="5"/>
-        <v>-1.7248814144027458E-3</v>
+        <v>-1.2936610608020871E-3</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="O33" s="45">
+      <c r="O33" s="44">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P33" s="7">
         <f t="shared" si="8"/>
-        <v>949</v>
+        <v>896</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="9"/>
-        <v>2.8096873519658949E-2</v>
+        <v>2.6474412008036907E-2</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" si="10"/>
@@ -3076,10 +3064,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="40">
         <v>5146</v>
       </c>
       <c r="C34" s="5">
@@ -3089,53 +3077,53 @@
         <v>5466</v>
       </c>
       <c r="E34" s="4">
-        <v>5187</v>
+        <v>5236</v>
       </c>
       <c r="F34" s="4">
-        <v>5457</v>
-      </c>
-      <c r="G34" s="42">
         <v>5461</v>
+      </c>
+      <c r="G34" s="41">
+        <v>5453</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" si="1"/>
-        <v>7.3300348176652541E-4</v>
+        <v>-1.4649331624244644E-3</v>
       </c>
       <c r="J34" s="10">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K34" s="45">
+        <v>29</v>
+      </c>
+      <c r="K34" s="44">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="L34" s="48">
+        <v>31</v>
+      </c>
+      <c r="L34" s="46">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="M34" s="28">
         <f t="shared" si="5"/>
-        <v>-9.1474570069516314E-4</v>
+        <v>-2.3783388218074908E-3</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="O34" s="45">
+        <v>26</v>
+      </c>
+      <c r="O34" s="44">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P34" s="7">
         <f t="shared" si="8"/>
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="9"/>
-        <v>5.2824368613842321E-2</v>
+        <v>4.1443850267379734E-2</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="10"/>
@@ -3143,14 +3131,14 @@
       </c>
       <c r="S34" s="8">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="40">
         <v>43019</v>
       </c>
       <c r="C35" s="5">
@@ -3160,53 +3148,53 @@
         <v>44116</v>
       </c>
       <c r="E35" s="4">
-        <v>42925</v>
+        <v>43156</v>
       </c>
       <c r="F35" s="4">
-        <v>44020</v>
-      </c>
-      <c r="G35" s="42">
         <v>44039</v>
+      </c>
+      <c r="G35" s="41">
+        <v>44111</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="1"/>
-        <v>4.3162199000446044E-4</v>
+        <v>1.634914507595564E-3</v>
       </c>
       <c r="J35" s="10">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K35" s="45">
+        <v>9</v>
+      </c>
+      <c r="K35" s="44">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="L35" s="48">
+        <v>12</v>
+      </c>
+      <c r="L35" s="46">
         <f t="shared" si="4"/>
-        <v>-77</v>
+        <v>-5</v>
       </c>
       <c r="M35" s="28">
         <f t="shared" si="5"/>
-        <v>-1.7453984948770929E-3</v>
+        <v>-1.1333756460241151E-4</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="O35" s="45">
+        <v>25</v>
+      </c>
+      <c r="O35" s="44">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P35" s="7">
         <f t="shared" si="8"/>
-        <v>1114</v>
+        <v>955</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="9"/>
-        <v>2.5952242283051818E-2</v>
+        <v>2.2129020298452096E-2</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="10"/>
@@ -3214,14 +3202,14 @@
       </c>
       <c r="S35" s="8">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="40">
         <v>19413</v>
       </c>
       <c r="C36" s="5">
@@ -3231,13 +3219,13 @@
         <v>20773</v>
       </c>
       <c r="E36" s="4">
-        <v>19565</v>
+        <v>19630</v>
       </c>
       <c r="F36" s="4">
-        <v>20892</v>
-      </c>
-      <c r="G36" s="42">
         <v>20914</v>
+      </c>
+      <c r="G36" s="41">
+        <v>20936</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="0"/>
@@ -3245,39 +3233,39 @@
       </c>
       <c r="I36" s="9">
         <f t="shared" si="1"/>
-        <v>1.0530346544130875E-3</v>
+        <v>1.0519269388926666E-3</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K36" s="45">
+        <v>17</v>
+      </c>
+      <c r="K36" s="44">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L36" s="46">
         <f t="shared" si="4"/>
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="M36" s="28">
         <f t="shared" si="5"/>
-        <v>6.7876570548308646E-3</v>
+        <v>7.8467241130313337E-3</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="O36" s="45">
+        <v>13</v>
+      </c>
+      <c r="O36" s="44">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P36" s="7">
         <f t="shared" si="8"/>
-        <v>1349</v>
+        <v>1306</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="9"/>
-        <v>6.8949654996166565E-2</v>
+        <v>6.6530820173204219E-2</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" si="10"/>
@@ -3285,70 +3273,70 @@
       </c>
       <c r="S36" s="8">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="55">
         <v>11771</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="56">
         <v>11796</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="57">
         <v>12068</v>
       </c>
-      <c r="E37" s="77">
-        <v>11794</v>
-      </c>
-      <c r="F37" s="77">
-        <v>12038</v>
-      </c>
-      <c r="G37" s="78">
+      <c r="E37" s="57">
+        <v>11847</v>
+      </c>
+      <c r="F37" s="57">
         <v>12054</v>
+      </c>
+      <c r="G37" s="58">
+        <v>12042</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>-12</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="1"/>
-        <v>1.3291244392756862E-3</v>
+        <v>-9.9552015928328075E-4</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K37" s="45">
+        <v>30</v>
+      </c>
+      <c r="K37" s="44">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="L37" s="48">
+        <v>30</v>
+      </c>
+      <c r="L37" s="46">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-26</v>
       </c>
       <c r="M37" s="28">
         <f t="shared" si="5"/>
-        <v>-1.1600928074245731E-3</v>
+        <v>-2.1544580709313976E-3</v>
       </c>
       <c r="N37" s="7">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="O37" s="45">
+        <v>27</v>
+      </c>
+      <c r="O37" s="44">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P37" s="7">
         <f t="shared" si="8"/>
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="6">
         <f t="shared" si="9"/>
-        <v>2.2045107681872178E-2</v>
+        <v>1.6459863256520713E-2</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="10"/>
@@ -3359,89 +3347,89 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
+    <row r="38" spans="1:19" s="39" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="51">
         <v>1000414</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="52">
         <v>1003261</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="53">
         <v>1053670</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="53">
         <f>SUM(E6:E37)</f>
-        <v>1002537</v>
-      </c>
-      <c r="F38" s="69">
+        <v>1004265</v>
+      </c>
+      <c r="F38" s="53">
         <f>SUM(F6:F37)</f>
-        <v>1056056</v>
-      </c>
-      <c r="G38" s="70">
+        <v>1057624</v>
+      </c>
+      <c r="G38" s="54">
         <f>SUM(G6:G37)</f>
-        <v>1057624</v>
-      </c>
-      <c r="H38" s="47">
+        <v>1059255</v>
+      </c>
+      <c r="H38" s="72">
         <f>G38-F38</f>
-        <v>1568</v>
+        <v>1631</v>
       </c>
       <c r="I38" s="33">
         <f t="shared" si="1"/>
-        <v>1.4847697470588006E-3</v>
+        <v>1.5421359575804594E-3</v>
       </c>
       <c r="J38" s="34"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="50">
+      <c r="L38" s="48">
         <f t="shared" si="4"/>
-        <v>3954</v>
+        <v>5585</v>
       </c>
       <c r="M38" s="38">
         <f t="shared" si="5"/>
-        <v>3.7525980620118915E-3</v>
+        <v>5.3005210359979849E-3</v>
       </c>
       <c r="N38" s="34"/>
       <c r="O38" s="37"/>
       <c r="P38" s="35">
         <f t="shared" si="8"/>
-        <v>55087</v>
+        <v>54990</v>
       </c>
       <c r="Q38" s="36">
         <f t="shared" si="9"/>
-        <v>5.4947597944015936E-2</v>
+        <v>5.4756463682394507E-2</v>
       </c>
       <c r="R38" s="34"/>
       <c r="S38" s="37"/>
     </row>
-    <row r="39" spans="1:19" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="19" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+    <row r="40" spans="1:19" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -188,27 +188,27 @@
   </si>
   <si>
     <t>2022
-Abril</t>
+Mayo</t>
+  </si>
+  <si>
+    <t>2021
+Junio</t>
   </si>
   <si>
     <t>2022
-Mayo</t>
-  </si>
-  <si>
-    <t>Mayo 2022 respecto a Abril 2022</t>
-  </si>
-  <si>
-    <t>Mayo 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Mayo 2022 respecto a Mayo 2021</t>
-  </si>
-  <si>
-    <t>2021
-Mayo</t>
-  </si>
-  <si>
-    <t>2020-mayo 2022</t>
+Junio</t>
+  </si>
+  <si>
+    <t>Junio 2022 respecto a Mayo 2022</t>
+  </si>
+  <si>
+    <t>Junio 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Junio 2022 respecto a Junio 2021</t>
+  </si>
+  <si>
+    <t>2020-junio 2022</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -453,6 +453,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -463,7 +483,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -603,27 +623,6 @@
     <xf numFmtId="10" fontId="9" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,19 +648,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,7 +914,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -909,18 +932,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -932,18 +955,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -976,54 +999,54 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
     </row>
     <row r="5" spans="1:19" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="73"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1065,51 +1088,51 @@
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="16">
         <v>16017</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="17">
         <v>16063</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="18">
         <v>16746</v>
       </c>
-      <c r="E6" s="55">
-        <v>16211</v>
-      </c>
-      <c r="F6" s="55">
-        <v>16760</v>
-      </c>
-      <c r="G6" s="56">
+      <c r="E6" s="18">
+        <v>16255</v>
+      </c>
+      <c r="F6" s="18">
         <v>16722</v>
+      </c>
+      <c r="G6" s="19">
+        <v>16756</v>
       </c>
       <c r="H6" s="17">
         <f>G6-F6</f>
-        <v>-38</v>
+        <v>34</v>
       </c>
       <c r="I6" s="20">
         <f>G6/F6-1</f>
-        <v>-2.267303102625351E-3</v>
+        <v>2.0332496112904774E-3</v>
       </c>
       <c r="J6" s="21">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K6" s="22">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L6" s="23">
         <f>G6-D6</f>
-        <v>-24</v>
+        <v>10</v>
       </c>
       <c r="M6" s="24">
         <f>G6/D6-1</f>
-        <v>-1.4331780723755294E-3</v>
+        <v>5.9715753015643358E-4</v>
       </c>
       <c r="N6" s="25">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="22">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
@@ -1117,19 +1140,19 @@
       </c>
       <c r="P6" s="26">
         <f>G6-E6</f>
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="27">
         <f>G6/E6-1</f>
-        <v>3.1521806180988321E-2</v>
+        <v>3.0821285758228179E-2</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S6" s="28">
         <f>_xlfn.RANK.EQ(Q6,$Q$6:$Q$37)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1146,53 +1169,53 @@
         <v>44540</v>
       </c>
       <c r="E7" s="18">
-        <v>42065</v>
+        <v>42355</v>
       </c>
       <c r="F7" s="18">
-        <v>44407</v>
+        <v>44535</v>
       </c>
       <c r="G7" s="19">
-        <v>44535</v>
+        <v>44751</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>2.8824284459656457E-3</v>
+        <v>4.8501178848097126E-3</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L7" s="23">
         <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>-5</v>
+        <v>211</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>-1.1225864391561924E-4</v>
+        <v>4.7373147732374665E-3</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P38" si="8">G7-E7</f>
-        <v>2470</v>
+        <v>2396</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:Q38" si="9">G7/E7-1</f>
-        <v>5.8718649708783932E-2</v>
+        <v>5.6569472317318015E-2</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" ref="R7:R37" si="10">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
@@ -1200,7 +1223,7 @@
       </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7:S37" si="11">_xlfn.RANK.EQ(Q7,$Q$6:$Q$37)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1217,37 +1240,37 @@
         <v>13964</v>
       </c>
       <c r="E8" s="18">
-        <v>13024</v>
+        <v>13133</v>
       </c>
       <c r="F8" s="18">
-        <v>14264</v>
+        <v>14393</v>
       </c>
       <c r="G8" s="19">
-        <v>14393</v>
+        <v>14487</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>9.0437464946719892E-3</v>
+        <v>6.5309525463768114E-3</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="4"/>
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="5"/>
-        <v>3.0721856201661346E-2</v>
+        <v>3.7453451733027832E-2</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="6"/>
@@ -1255,19 +1278,19 @@
       </c>
       <c r="O8" s="22">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" si="8"/>
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" si="9"/>
-        <v>0.10511363636363646</v>
+        <v>0.10309906342800579</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S8" s="30">
         <f t="shared" si="11"/>
@@ -1288,53 +1311,53 @@
         <v>6254</v>
       </c>
       <c r="E9" s="18">
-        <v>5894</v>
+        <v>5921</v>
       </c>
       <c r="F9" s="18">
-        <v>6282</v>
+        <v>6293</v>
       </c>
       <c r="G9" s="19">
-        <v>6293</v>
+        <v>6332</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>1.7510347023241835E-3</v>
+        <v>6.1973621484188168E-3</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L9" s="23">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="5"/>
-        <v>6.2360089542692343E-3</v>
+        <v>1.2472017908538469E-2</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="8"/>
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="Q9" s="29">
         <f t="shared" si="9"/>
-        <v>6.7695961995249299E-2</v>
+        <v>6.9413950346225217E-2</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="10"/>
@@ -1342,7 +1365,7 @@
       </c>
       <c r="S9" s="30">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1359,53 +1382,53 @@
         <v>14789</v>
       </c>
       <c r="E10" s="18">
-        <v>14366</v>
+        <v>14447</v>
       </c>
       <c r="F10" s="18">
-        <v>14749</v>
+        <v>14760</v>
       </c>
       <c r="G10" s="19">
-        <v>14760</v>
+        <v>14830</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>7.458132754762925E-4</v>
+        <v>4.7425474254743083E-3</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="L10" s="23">
         <f t="shared" si="4"/>
-        <v>-29</v>
+        <v>41</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="5"/>
-        <v>-1.960916897694287E-3</v>
+        <v>2.7723307863953828E-3</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="8"/>
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="9"/>
-        <v>2.742586662954194E-2</v>
+        <v>2.651069426178454E-2</v>
       </c>
       <c r="R10" s="25">
         <f t="shared" si="10"/>
@@ -1430,25 +1453,25 @@
         <v>42167</v>
       </c>
       <c r="E11" s="18">
-        <v>40230</v>
+        <v>40523</v>
       </c>
       <c r="F11" s="18">
-        <v>42392</v>
+        <v>42400</v>
       </c>
       <c r="G11" s="19">
-        <v>42400</v>
+        <v>42452</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>1.8871485185889547E-4</v>
+        <v>1.2264150943395169E-3</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="3"/>
@@ -1456,11 +1479,11 @@
       </c>
       <c r="L11" s="23">
         <f t="shared" si="4"/>
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="5"/>
-        <v>5.5256480185927881E-3</v>
+        <v>6.7588398510682879E-3</v>
       </c>
       <c r="N11" s="25">
         <f t="shared" si="6"/>
@@ -1472,11 +1495,11 @@
       </c>
       <c r="P11" s="25">
         <f t="shared" si="8"/>
-        <v>2170</v>
+        <v>1929</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="9"/>
-        <v>5.3939845886154636E-2</v>
+        <v>4.7602596056560476E-2</v>
       </c>
       <c r="R11" s="25">
         <f t="shared" si="10"/>
@@ -1501,37 +1524,37 @@
         <v>125199</v>
       </c>
       <c r="E12" s="18">
-        <v>117947</v>
+        <v>118428</v>
       </c>
       <c r="F12" s="18">
-        <v>125850</v>
+        <v>126268</v>
       </c>
       <c r="G12" s="19">
-        <v>126268</v>
+        <v>126545</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>3.3214143822011266E-3</v>
+        <v>2.1937466341432899E-3</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="4"/>
-        <v>1069</v>
+        <v>1346</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="5"/>
-        <v>8.5384068562848192E-3</v>
+        <v>1.0750884591729903E-2</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="6"/>
@@ -1539,15 +1562,15 @@
       </c>
       <c r="O12" s="22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P12" s="25">
         <f t="shared" si="8"/>
-        <v>8321</v>
+        <v>8117</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="9"/>
-        <v>7.0548636251875907E-2</v>
+        <v>6.8539534569527438E-2</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="10"/>
@@ -1555,7 +1578,7 @@
       </c>
       <c r="S12" s="30">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1572,61 +1595,61 @@
         <v>35642</v>
       </c>
       <c r="E13" s="18">
-        <v>34327</v>
+        <v>34490</v>
       </c>
       <c r="F13" s="18">
-        <v>35845</v>
+        <v>35895</v>
       </c>
       <c r="G13" s="19">
-        <v>35895</v>
+        <v>35828</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>-67</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>1.3948946854511757E-3</v>
+        <v>-1.8665552305334732E-3</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="4"/>
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="5"/>
-        <v>7.0983670950002242E-3</v>
+        <v>5.218562370237434E-3</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="8"/>
-        <v>1568</v>
+        <v>1338</v>
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="9"/>
-        <v>4.5678329012147856E-2</v>
+        <v>3.8793853290808977E-2</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S13" s="30">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1643,61 +1666,61 @@
         <v>11397</v>
       </c>
       <c r="E14" s="18">
-        <v>10925</v>
+        <v>11020</v>
       </c>
       <c r="F14" s="18">
-        <v>11491</v>
+        <v>11536</v>
       </c>
       <c r="G14" s="19">
-        <v>11536</v>
+        <v>11541</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>3.9161082586371965E-3</v>
+        <v>4.3342579750338395E-4</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="4"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="5"/>
-        <v>1.2196191980345716E-2</v>
+        <v>1.2634903922084773E-2</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="8"/>
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="Q14" s="29">
         <f t="shared" si="9"/>
-        <v>5.5926773455377665E-2</v>
+        <v>4.727767695099816E-2</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1714,53 +1737,53 @@
         <v>14609</v>
       </c>
       <c r="E15" s="18">
-        <v>14323</v>
+        <v>14356</v>
       </c>
       <c r="F15" s="18">
-        <v>14691</v>
+        <v>14671</v>
       </c>
       <c r="G15" s="19">
-        <v>14671</v>
+        <v>14676</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>-1.3613777142468253E-3</v>
+        <v>3.4080839751893244E-4</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="5"/>
-        <v>4.2439592032308404E-3</v>
+        <v>4.5862139776848831E-3</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="8"/>
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="9"/>
-        <v>2.4296585910772883E-2</v>
+        <v>2.2290331568681987E-2</v>
       </c>
       <c r="R15" s="25">
         <f t="shared" si="10"/>
@@ -1768,7 +1791,7 @@
       </c>
       <c r="S15" s="30">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1785,37 +1808,37 @@
         <v>77044</v>
       </c>
       <c r="E16" s="18">
-        <v>72265</v>
+        <v>72470</v>
       </c>
       <c r="F16" s="18">
-        <v>77839</v>
+        <v>77908</v>
       </c>
       <c r="G16" s="19">
-        <v>77908</v>
+        <v>78102</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>8.8644509821556028E-4</v>
+        <v>2.4901165477229092E-3</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="4"/>
-        <v>864</v>
+        <v>1058</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="5"/>
-        <v>1.1214371008774204E-2</v>
+        <v>1.3732412647318393E-2</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="6"/>
@@ -1827,11 +1850,11 @@
       </c>
       <c r="P16" s="25">
         <f t="shared" si="8"/>
-        <v>5643</v>
+        <v>5632</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" si="9"/>
-        <v>7.8087594271085692E-2</v>
+        <v>7.7714916517179544E-2</v>
       </c>
       <c r="R16" s="25">
         <f t="shared" si="10"/>
@@ -1839,7 +1862,7 @@
       </c>
       <c r="S16" s="30">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1856,21 +1879,21 @@
         <v>49358</v>
       </c>
       <c r="E17" s="18">
-        <v>47805</v>
+        <v>48063</v>
       </c>
       <c r="F17" s="18">
-        <v>49438</v>
+        <v>49554</v>
       </c>
       <c r="G17" s="19">
-        <v>49554</v>
+        <v>49689</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>2.3463732351631794E-3</v>
+        <v>2.724300762804166E-3</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="2"/>
@@ -1878,31 +1901,31 @@
       </c>
       <c r="K17" s="22">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="4"/>
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="5"/>
-        <v>3.9709874792333011E-3</v>
+        <v>6.7061064062563513E-3</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="8"/>
-        <v>1749</v>
+        <v>1626</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" si="9"/>
-        <v>3.6586131157828605E-2</v>
+        <v>3.3830597340990032E-2</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="10"/>
@@ -1910,7 +1933,7 @@
       </c>
       <c r="S17" s="30">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1927,57 +1950,57 @@
         <v>13674</v>
       </c>
       <c r="E18" s="18">
-        <v>13561</v>
+        <v>13554</v>
       </c>
       <c r="F18" s="18">
-        <v>13607</v>
+        <v>13625</v>
       </c>
       <c r="G18" s="19">
-        <v>13625</v>
+        <v>13679</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>1.3228485338427909E-3</v>
+        <v>3.9633027522936182E-3</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="4"/>
-        <v>-49</v>
+        <v>5</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="5"/>
-        <v>-3.5834430305690113E-3</v>
+        <v>3.6565745209893308E-4</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="9"/>
-        <v>4.719415972273433E-3</v>
+        <v>9.2223697801387949E-3</v>
       </c>
       <c r="R18" s="25">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S18" s="30">
         <f t="shared" si="11"/>
@@ -1998,41 +2021,41 @@
         <v>15980</v>
       </c>
       <c r="E19" s="18">
-        <v>15535</v>
+        <v>15549</v>
       </c>
       <c r="F19" s="18">
-        <v>16045</v>
+        <v>16095</v>
       </c>
       <c r="G19" s="19">
-        <v>16095</v>
+        <v>16178</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>3.1162355874103653E-3</v>
+        <v>5.1568810189499548E-3</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="5"/>
-        <v>7.1964956195245122E-3</v>
+        <v>1.2390488110137765E-2</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O19" s="22">
         <f t="shared" si="7"/>
@@ -2040,19 +2063,19 @@
       </c>
       <c r="P19" s="25">
         <f t="shared" si="8"/>
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="9"/>
-        <v>3.6047634373994164E-2</v>
+        <v>4.0452762235513529E-2</v>
       </c>
       <c r="R19" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T19" s="2"/>
     </row>
@@ -2070,37 +2093,37 @@
         <v>103251</v>
       </c>
       <c r="E20" s="34">
-        <v>99245</v>
+        <v>99679</v>
       </c>
       <c r="F20" s="34">
-        <v>104232</v>
+        <v>104578</v>
       </c>
       <c r="G20" s="35">
-        <v>104578</v>
+        <v>104918</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I20" s="36">
         <f t="shared" si="1"/>
-        <v>3.3195179983114276E-3</v>
+        <v>3.2511618122359476E-3</v>
       </c>
       <c r="J20" s="37">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="38">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L20" s="39">
         <f t="shared" si="4"/>
-        <v>1327</v>
+        <v>1667</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="5"/>
-        <v>1.2852175765852181E-2</v>
+        <v>1.614512208114216E-2</v>
       </c>
       <c r="N20" s="41">
         <f t="shared" si="6"/>
@@ -2112,19 +2135,19 @@
       </c>
       <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>5333</v>
+        <v>5239</v>
       </c>
       <c r="Q20" s="42">
         <f t="shared" si="9"/>
-        <v>5.373570456949972E-2</v>
+        <v>5.2558713470239438E-2</v>
       </c>
       <c r="R20" s="41">
         <f>_xlfn.RANK.EQ(P20,$P$6:$P$37)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" s="43">
         <f>_xlfn.RANK.EQ(Q20,$Q$6:$Q$37)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T20" s="2"/>
     </row>
@@ -2142,61 +2165,61 @@
         <v>37104</v>
       </c>
       <c r="E21" s="18">
-        <v>36342</v>
+        <v>36500</v>
       </c>
       <c r="F21" s="18">
-        <v>37211</v>
+        <v>37225</v>
       </c>
       <c r="G21" s="19">
-        <v>37225</v>
+        <v>37244</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>3.7623283437682176E-4</v>
+        <v>5.1040967092008671E-4</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="5"/>
-        <v>3.2611039241052797E-3</v>
+        <v>3.7731780940060133E-3</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="8"/>
-        <v>883</v>
+        <v>744</v>
       </c>
       <c r="Q21" s="29">
         <f t="shared" si="9"/>
-        <v>2.4296956689230154E-2</v>
+        <v>2.0383561643835701E-2</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S21" s="30">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -2213,53 +2236,53 @@
         <v>12579</v>
       </c>
       <c r="E22" s="18">
-        <v>12150</v>
+        <v>12169</v>
       </c>
       <c r="F22" s="18">
-        <v>12608</v>
+        <v>12634</v>
       </c>
       <c r="G22" s="19">
-        <v>12634</v>
+        <v>12630</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>-4</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>2.0621827411166915E-3</v>
+        <v>-3.1660598385307992E-4</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L22" s="23">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="5"/>
-        <v>4.3723666428174823E-3</v>
+        <v>4.0543763415215039E-3</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="8"/>
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="9"/>
-        <v>3.9835390946502125E-2</v>
+        <v>3.7883145698085263E-2</v>
       </c>
       <c r="R22" s="25">
         <f t="shared" si="10"/>
@@ -2267,7 +2290,7 @@
       </c>
       <c r="S22" s="30">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2284,61 +2307,61 @@
         <v>13590</v>
       </c>
       <c r="E23" s="18">
-        <v>12903</v>
+        <v>13053</v>
       </c>
       <c r="F23" s="18">
-        <v>13668</v>
+        <v>13646</v>
       </c>
       <c r="G23" s="19">
-        <v>13646</v>
+        <v>13677</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>31</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>-1.6095990635059954E-3</v>
+        <v>2.2717279788948552E-3</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L23" s="23">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="5"/>
-        <v>4.1206769683590494E-3</v>
+        <v>6.4017660044151103E-3</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="8"/>
-        <v>743</v>
+        <v>624</v>
       </c>
       <c r="Q23" s="29">
         <f t="shared" si="9"/>
-        <v>5.7583507711384874E-2</v>
+        <v>4.7805102275338962E-2</v>
       </c>
       <c r="R23" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S23" s="30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2355,37 +2378,37 @@
         <v>74823</v>
       </c>
       <c r="E24" s="18">
-        <v>70064</v>
+        <v>70678</v>
       </c>
       <c r="F24" s="18">
-        <v>75353</v>
+        <v>75634</v>
       </c>
       <c r="G24" s="19">
-        <v>75634</v>
+        <v>75827</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>3.7291149655620526E-3</v>
+        <v>2.5517624348838641E-3</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L24" s="23">
         <f t="shared" si="4"/>
-        <v>811</v>
+        <v>1004</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="5"/>
-        <v>1.0838913168410791E-2</v>
+        <v>1.3418333934752669E-2</v>
       </c>
       <c r="N24" s="25">
         <f t="shared" si="6"/>
@@ -2393,23 +2416,23 @@
       </c>
       <c r="O24" s="22">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P24" s="25">
         <f t="shared" si="8"/>
-        <v>5570</v>
+        <v>5149</v>
       </c>
       <c r="Q24" s="29">
         <f t="shared" si="9"/>
-        <v>7.9498744005480626E-2</v>
+        <v>7.285152381221871E-2</v>
       </c>
       <c r="R24" s="25">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" s="30">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2426,61 +2449,61 @@
         <v>14401</v>
       </c>
       <c r="E25" s="18">
-        <v>13919</v>
+        <v>14047</v>
       </c>
       <c r="F25" s="18">
-        <v>14338</v>
+        <v>14439</v>
       </c>
       <c r="G25" s="19">
-        <v>14439</v>
+        <v>14512</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>7.0442181615288924E-3</v>
+        <v>5.0557517833644816E-3</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L25" s="23">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="5"/>
-        <v>2.6387056454413305E-3</v>
+        <v>7.7077980695785531E-3</v>
       </c>
       <c r="N25" s="25">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O25" s="22">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="8"/>
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="29">
         <f t="shared" si="9"/>
-        <v>3.7359005675695167E-2</v>
+        <v>3.3103153698298637E-2</v>
       </c>
       <c r="R25" s="25">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S25" s="30">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -2497,61 +2520,61 @@
         <v>34423</v>
       </c>
       <c r="E26" s="18">
-        <v>32984</v>
+        <v>33138</v>
       </c>
       <c r="F26" s="18">
-        <v>34668</v>
+        <v>34797</v>
       </c>
       <c r="G26" s="19">
-        <v>34797</v>
+        <v>34911</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>3.7210107303564666E-3</v>
+        <v>3.276144495215183E-3</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L26" s="23">
         <f t="shared" si="4"/>
-        <v>374</v>
+        <v>488</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="5"/>
-        <v>1.0864828748220701E-2</v>
+        <v>1.4176567992330691E-2</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26" s="22">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="8"/>
-        <v>1813</v>
+        <v>1773</v>
       </c>
       <c r="Q26" s="29">
         <f t="shared" si="9"/>
-        <v>5.4966044142614523E-2</v>
+        <v>5.3503530689842371E-2</v>
       </c>
       <c r="R26" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S26" s="30">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2568,41 +2591,41 @@
         <v>28507</v>
       </c>
       <c r="E27" s="18">
-        <v>26425</v>
+        <v>26639</v>
       </c>
       <c r="F27" s="18">
-        <v>28992</v>
+        <v>29096</v>
       </c>
       <c r="G27" s="19">
-        <v>29096</v>
+        <v>29302</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>3.5871964679912161E-3</v>
+        <v>7.0800109980753145E-3</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L27" s="23">
         <f t="shared" si="4"/>
-        <v>589</v>
+        <v>795</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="5"/>
-        <v>2.0661591889711284E-2</v>
+        <v>2.7887887185603644E-2</v>
       </c>
       <c r="N27" s="25">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" s="22">
         <f t="shared" si="7"/>
@@ -2610,11 +2633,11 @@
       </c>
       <c r="P27" s="25">
         <f t="shared" si="8"/>
-        <v>2671</v>
+        <v>2663</v>
       </c>
       <c r="Q27" s="29">
         <f t="shared" si="9"/>
-        <v>0.10107852412488172</v>
+        <v>9.9966214948008503E-2</v>
       </c>
       <c r="R27" s="25">
         <f t="shared" si="10"/>
@@ -2639,25 +2662,25 @@
         <v>19275</v>
       </c>
       <c r="E28" s="18">
-        <v>17142</v>
+        <v>17389</v>
       </c>
       <c r="F28" s="18">
-        <v>19607</v>
+        <v>19835</v>
       </c>
       <c r="G28" s="19">
-        <v>19835</v>
+        <v>20108</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>1.1628500025501198E-2</v>
+        <v>1.3763549281573084E-2</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="3"/>
@@ -2665,27 +2688,27 @@
       </c>
       <c r="L28" s="23">
         <f t="shared" si="4"/>
-        <v>560</v>
+        <v>833</v>
       </c>
       <c r="M28" s="24">
         <f t="shared" si="5"/>
-        <v>2.9053177691309884E-2</v>
+        <v>4.3216601815823541E-2</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O28" s="22">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="25">
         <f t="shared" si="8"/>
-        <v>2693</v>
+        <v>2719</v>
       </c>
       <c r="Q28" s="29">
         <f t="shared" si="9"/>
-        <v>0.15709952164274887</v>
+        <v>0.15636321812640164</v>
       </c>
       <c r="R28" s="25">
         <f t="shared" si="10"/>
@@ -2710,61 +2733,61 @@
         <v>23707</v>
       </c>
       <c r="E29" s="18">
-        <v>22967</v>
+        <v>23041</v>
       </c>
       <c r="F29" s="18">
-        <v>23705</v>
+        <v>23744</v>
       </c>
       <c r="G29" s="19">
-        <v>23744</v>
+        <v>23830</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="1"/>
-        <v>1.6452225268930309E-3</v>
+        <v>3.6219676549864577E-3</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="5"/>
-        <v>1.5607204623107052E-3</v>
+        <v>5.188340996330254E-3</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O29" s="22">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="8"/>
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="Q29" s="29">
         <f t="shared" si="9"/>
-        <v>3.3831149039926789E-2</v>
+        <v>3.4243305412091418E-2</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2781,37 +2804,37 @@
         <v>42868</v>
       </c>
       <c r="E30" s="18">
-        <v>41236</v>
+        <v>41559</v>
       </c>
       <c r="F30" s="18">
-        <v>43033</v>
+        <v>43163</v>
       </c>
       <c r="G30" s="19">
-        <v>43163</v>
+        <v>43261</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="1"/>
-        <v>3.0209374201195516E-3</v>
+        <v>2.2704631281420529E-3</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="M30" s="24">
         <f t="shared" si="5"/>
-        <v>6.8815899972007877E-3</v>
+        <v>9.1676775216944506E-3</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="6"/>
@@ -2823,15 +2846,15 @@
       </c>
       <c r="P30" s="25">
         <f t="shared" si="8"/>
-        <v>1927</v>
+        <v>1702</v>
       </c>
       <c r="Q30" s="29">
         <f t="shared" si="9"/>
-        <v>4.6731011737316974E-2</v>
+        <v>4.0953824682980811E-2</v>
       </c>
       <c r="R30" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S30" s="30">
         <f t="shared" si="11"/>
@@ -2852,53 +2875,53 @@
         <v>39139</v>
       </c>
       <c r="E31" s="18">
-        <v>37680</v>
+        <v>38030</v>
       </c>
       <c r="F31" s="18">
-        <v>39364</v>
+        <v>38919</v>
       </c>
       <c r="G31" s="19">
-        <v>38919</v>
+        <v>39151</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>-445</v>
+        <v>232</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="1"/>
-        <v>-1.1304745452697884E-2</v>
+        <v>5.9610986921554421E-3</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="L31" s="23">
         <f t="shared" si="4"/>
-        <v>-220</v>
+        <v>12</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="5"/>
-        <v>-5.6209918495617739E-3</v>
+        <v>3.0659955543055339E-4</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O31" s="22">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="8"/>
-        <v>1239</v>
+        <v>1121</v>
       </c>
       <c r="Q31" s="29">
         <f t="shared" si="9"/>
-        <v>3.2882165605095492E-2</v>
+        <v>2.9476728898238269E-2</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="10"/>
@@ -2906,7 +2929,7 @@
       </c>
       <c r="S31" s="30">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2923,37 +2946,37 @@
         <v>11432</v>
       </c>
       <c r="E32" s="18">
-        <v>10939</v>
+        <v>11015</v>
       </c>
       <c r="F32" s="18">
-        <v>11534</v>
+        <v>11596</v>
       </c>
       <c r="G32" s="19">
-        <v>11596</v>
+        <v>11633</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="1"/>
-        <v>5.3754118259059513E-3</v>
+        <v>3.1907554329078103E-3</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L32" s="23">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="5"/>
-        <v>1.4345696291112597E-2</v>
+        <v>1.7582225332400281E-2</v>
       </c>
       <c r="N32" s="25">
         <f t="shared" si="6"/>
@@ -2965,19 +2988,19 @@
       </c>
       <c r="P32" s="25">
         <f t="shared" si="8"/>
-        <v>657</v>
+        <v>618</v>
       </c>
       <c r="Q32" s="29">
         <f t="shared" si="9"/>
-        <v>6.0060334582685782E-2</v>
+        <v>5.6105310939627673E-2</v>
       </c>
       <c r="R32" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -2994,61 +3017,61 @@
         <v>34785</v>
       </c>
       <c r="E33" s="18">
-        <v>33906</v>
+        <v>34032</v>
       </c>
       <c r="F33" s="18">
-        <v>34740</v>
+        <v>34737</v>
       </c>
       <c r="G33" s="19">
-        <v>34737</v>
+        <v>34725</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="1"/>
-        <v>-8.6355785837599619E-5</v>
+        <v>-3.4545297521371143E-4</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L33" s="23">
         <f t="shared" si="4"/>
-        <v>-48</v>
+        <v>-60</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="5"/>
-        <v>-1.3799051315221966E-3</v>
+        <v>-1.7248814144027458E-3</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O33" s="22">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="8"/>
-        <v>831</v>
+        <v>693</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="9"/>
-        <v>2.450893647142105E-2</v>
+        <v>2.0363187588152254E-2</v>
       </c>
       <c r="R33" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S33" s="30">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -3065,53 +3088,53 @@
         <v>5466</v>
       </c>
       <c r="E34" s="18">
-        <v>5215</v>
+        <v>5252</v>
       </c>
       <c r="F34" s="18">
-        <v>5453</v>
+        <v>5455</v>
       </c>
       <c r="G34" s="19">
-        <v>5455</v>
+        <v>5467</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="1"/>
-        <v>3.6677058499900994E-4</v>
+        <v>2.1998166819432452E-3</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L34" s="23">
         <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="5"/>
-        <v>-2.0124405415294921E-3</v>
+        <v>1.8294914013905483E-4</v>
       </c>
       <c r="N34" s="25">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O34" s="22">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="8"/>
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="29">
         <f t="shared" si="9"/>
-        <v>4.6021093000958802E-2</v>
+        <v>4.0936785986291024E-2</v>
       </c>
       <c r="R34" s="25">
         <f t="shared" si="10"/>
@@ -3136,53 +3159,53 @@
         <v>44116</v>
       </c>
       <c r="E35" s="18">
-        <v>43190</v>
+        <v>43366</v>
       </c>
       <c r="F35" s="18">
-        <v>44111</v>
+        <v>44149</v>
       </c>
       <c r="G35" s="19">
-        <v>44149</v>
+        <v>44276</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="1"/>
-        <v>8.6146312711110617E-4</v>
+        <v>2.8766223470519936E-3</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="5"/>
-        <v>7.4802792637584936E-4</v>
+        <v>3.6268020672771684E-3</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O35" s="22">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P35" s="25">
         <f t="shared" si="8"/>
-        <v>959</v>
+        <v>910</v>
       </c>
       <c r="Q35" s="29">
         <f t="shared" si="9"/>
-        <v>2.2204213938411765E-2</v>
+        <v>2.0984181155744075E-2</v>
       </c>
       <c r="R35" s="25">
         <f t="shared" si="10"/>
@@ -3190,7 +3213,7 @@
       </c>
       <c r="S35" s="30">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3207,41 +3230,41 @@
         <v>20773</v>
       </c>
       <c r="E36" s="18">
-        <v>19720</v>
+        <v>19904</v>
       </c>
       <c r="F36" s="18">
-        <v>20936</v>
+        <v>21129</v>
       </c>
       <c r="G36" s="19">
-        <v>21129</v>
+        <v>21273</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="1"/>
-        <v>9.2185708826901802E-3</v>
+        <v>6.8152775805765398E-3</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" s="23">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>500</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="5"/>
-        <v>1.7137630578154317E-2</v>
+        <v>2.4069705868194236E-2</v>
       </c>
       <c r="N36" s="25">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O36" s="22">
         <f t="shared" si="7"/>
@@ -3249,86 +3272,86 @@
       </c>
       <c r="P36" s="25">
         <f t="shared" si="8"/>
-        <v>1409</v>
+        <v>1369</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="9"/>
-        <v>7.1450304259634834E-2</v>
+        <v>6.8780144694533751E-2</v>
       </c>
       <c r="R36" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S36" s="30">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="68">
         <v>11771</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="69">
         <v>11796</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="70">
         <v>12068</v>
       </c>
-      <c r="E37" s="18">
-        <v>11869</v>
-      </c>
-      <c r="F37" s="18">
-        <v>12042</v>
-      </c>
-      <c r="G37" s="19">
+      <c r="E37" s="70">
+        <v>11919</v>
+      </c>
+      <c r="F37" s="70">
         <v>12023</v>
+      </c>
+      <c r="G37" s="71">
+        <v>12040</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>17</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="1"/>
-        <v>-1.5778109948513253E-3</v>
+        <v>1.4139565832154144E-3</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="4"/>
-        <v>-45</v>
+        <v>-28</v>
       </c>
       <c r="M37" s="24">
         <f t="shared" si="5"/>
-        <v>-3.7288697381504532E-3</v>
+        <v>-2.3201856148491462E-3</v>
       </c>
       <c r="N37" s="25">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O37" s="22">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="Q37" s="29">
         <f t="shared" si="9"/>
-        <v>1.297497683039861E-2</v>
+        <v>1.0151858377380751E-2</v>
       </c>
       <c r="R37" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37" s="30">
         <f t="shared" si="11"/>
@@ -3339,52 +3362,53 @@
       <c r="A38" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="64">
         <v>1000414</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="65">
         <v>1003261</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="66">
         <v>1053670</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="66">
         <v>1006374</v>
       </c>
-      <c r="F38" s="58">
-        <f>SUM(F6:F37)</f>
-        <v>1059255</v>
-      </c>
-      <c r="G38" s="59">
-        <v>1061454</v>
-      </c>
-      <c r="H38" s="45">
+      <c r="F38" s="66" t="e">
+        <f>SUM(F6:V25F37)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G38" s="67">
+        <f>SUM(G6:G37)</f>
+        <v>1064631</v>
+      </c>
+      <c r="H38" s="45" t="e">
         <f>G38-F38</f>
-        <v>2199</v>
-      </c>
-      <c r="I38" s="46">
+        <v>#NAME?</v>
+      </c>
+      <c r="I38" s="46" t="e">
         <f t="shared" si="1"/>
-        <v>2.0759873684805807E-3</v>
+        <v>#NAME?</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="48"/>
       <c r="L38" s="49">
         <f t="shared" si="4"/>
-        <v>7784</v>
+        <v>10961</v>
       </c>
       <c r="M38" s="50">
         <f t="shared" si="5"/>
-        <v>7.3875122191957576E-3</v>
+        <v>1.0402687748536144E-2</v>
       </c>
       <c r="N38" s="47"/>
       <c r="O38" s="48"/>
       <c r="P38" s="51">
         <f t="shared" si="8"/>
-        <v>55080</v>
+        <v>58257</v>
       </c>
       <c r="Q38" s="52">
         <f t="shared" si="9"/>
-        <v>5.4731143690119222E-2</v>
+        <v>5.7888021749369578E-2</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="48"/>
@@ -3395,27 +3419,27 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:19" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
-    <sheet name="mayo" sheetId="2" r:id="rId1"/>
+    <sheet name="julio" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,27 +188,27 @@
   </si>
   <si>
     <t>2022
-Mayo</t>
+Junio</t>
   </si>
   <si>
     <t>2021
-Junio</t>
+Julio</t>
   </si>
   <si>
     <t>2022
-Junio</t>
-  </si>
-  <si>
-    <t>Junio 2022 respecto a Mayo 2022</t>
-  </si>
-  <si>
-    <t>Junio 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Junio 2022 respecto a Junio 2021</t>
-  </si>
-  <si>
-    <t>2020-junio 2022</t>
+Julio</t>
+  </si>
+  <si>
+    <t>Diciembre 2020-julio 2022</t>
+  </si>
+  <si>
+    <t>Julio 2022 respecto a Junio 2022</t>
+  </si>
+  <si>
+    <t>Julio 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Julio 2022 respecto a Julio 2021</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +316,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +477,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -600,28 +594,17 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="6" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -648,43 +631,66 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,7 +920,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -924,7 +930,8 @@
     <col min="3" max="4" width="10.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="15" width="9.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.625" style="2" customWidth="1"/>
     <col min="18" max="19" width="9.625" style="2" customWidth="1"/>
@@ -932,18 +939,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -955,18 +962,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="A2" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -999,54 +1006,54 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54" t="s">
+      <c r="H4" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="53" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
     </row>
     <row r="5" spans="1:19" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1088,47 +1095,47 @@
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="62">
         <v>16017</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="63">
         <v>16063</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="64">
         <v>16746</v>
       </c>
-      <c r="E6" s="18">
-        <v>16255</v>
-      </c>
-      <c r="F6" s="18">
-        <v>16722</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="E6" s="64">
+        <v>16473</v>
+      </c>
+      <c r="F6" s="64">
         <v>16756</v>
+      </c>
+      <c r="G6" s="65">
+        <v>16757</v>
       </c>
       <c r="H6" s="17">
         <f>G6-F6</f>
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I6" s="20">
         <f>G6/F6-1</f>
-        <v>2.0332496112904774E-3</v>
+        <v>5.9680114585791699E-5</v>
       </c>
       <c r="J6" s="21">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K6" s="22">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L6" s="23">
         <f>G6-D6</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6" s="24">
         <f>G6/D6-1</f>
-        <v>5.9715753015643358E-4</v>
+        <v>6.5687328317221017E-4</v>
       </c>
       <c r="N6" s="25">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
@@ -1136,19 +1143,19 @@
       </c>
       <c r="O6" s="22">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="26">
         <f>G6-E6</f>
-        <v>501</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="27">
         <f>G6/E6-1</f>
-        <v>3.0821285758228179E-2</v>
+        <v>1.7240332665573899E-2</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S6" s="28">
         <f>_xlfn.RANK.EQ(Q6,$Q$6:$Q$37)</f>
@@ -1169,61 +1176,61 @@
         <v>44540</v>
       </c>
       <c r="E7" s="18">
-        <v>42355</v>
+        <v>43092</v>
       </c>
       <c r="F7" s="18">
-        <v>44535</v>
+        <v>44751</v>
       </c>
       <c r="G7" s="19">
-        <v>44751</v>
+        <v>44387</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>216</v>
+        <v>-364</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>4.8501178848097126E-3</v>
+        <v>-8.1338964492413401E-3</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L7" s="23">
         <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>211</v>
+        <v>-153</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>4.7373147732374665E-3</v>
+        <v>-3.4351145038168385E-3</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P38" si="8">G7-E7</f>
-        <v>2396</v>
+        <v>1295</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:Q38" si="9">G7/E7-1</f>
-        <v>5.6569472317318015E-2</v>
+        <v>3.0051981806367811E-2</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" ref="R7:R37" si="10">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7:S37" si="11">_xlfn.RANK.EQ(Q7,$Q$6:$Q$37)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1240,21 +1247,21 @@
         <v>13964</v>
       </c>
       <c r="E8" s="18">
-        <v>13133</v>
+        <v>13392</v>
       </c>
       <c r="F8" s="18">
-        <v>14393</v>
+        <v>14487</v>
       </c>
       <c r="G8" s="19">
-        <v>14487</v>
+        <v>14512</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>6.5309525463768114E-3</v>
+        <v>1.7256850969835646E-3</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="2"/>
@@ -1262,15 +1269,15 @@
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="4"/>
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="5"/>
-        <v>3.7453451733027832E-2</v>
+        <v>3.9243769693497521E-2</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="6"/>
@@ -1282,15 +1289,15 @@
       </c>
       <c r="P8" s="25">
         <f t="shared" si="8"/>
-        <v>1354</v>
+        <v>1120</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" si="9"/>
-        <v>0.10309906342800579</v>
+        <v>8.3632019115890133E-2</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S8" s="30">
         <f t="shared" si="11"/>
@@ -1311,57 +1318,57 @@
         <v>6254</v>
       </c>
       <c r="E9" s="18">
-        <v>5921</v>
+        <v>6066</v>
       </c>
       <c r="F9" s="18">
-        <v>6293</v>
+        <v>6332</v>
       </c>
       <c r="G9" s="19">
-        <v>6332</v>
+        <v>6365</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>6.1973621484188168E-3</v>
+        <v>5.2116234996841815E-3</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9" s="23">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="5"/>
-        <v>1.2472017908538469E-2</v>
+        <v>1.7748640869843291E-2</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="8"/>
-        <v>411</v>
+        <v>299</v>
       </c>
       <c r="Q9" s="29">
         <f t="shared" si="9"/>
-        <v>6.9413950346225217E-2</v>
+        <v>4.9291130893504675E-2</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S9" s="30">
         <f t="shared" si="11"/>
@@ -1382,53 +1389,53 @@
         <v>14789</v>
       </c>
       <c r="E10" s="18">
-        <v>14447</v>
+        <v>14671</v>
       </c>
       <c r="F10" s="18">
-        <v>14760</v>
+        <v>14830</v>
       </c>
       <c r="G10" s="19">
-        <v>14830</v>
+        <v>14813</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>-17</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>4.7425474254743083E-3</v>
+        <v>-1.146325016857741E-3</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L10" s="23">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="5"/>
-        <v>2.7723307863953828E-3</v>
+        <v>1.6228277774021915E-3</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="8"/>
-        <v>383</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="9"/>
-        <v>2.651069426178454E-2</v>
+        <v>9.6789584895371483E-3</v>
       </c>
       <c r="R10" s="25">
         <f t="shared" si="10"/>
@@ -1436,7 +1443,7 @@
       </c>
       <c r="S10" s="30">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1453,37 +1460,37 @@
         <v>42167</v>
       </c>
       <c r="E11" s="18">
-        <v>40523</v>
+        <v>41096</v>
       </c>
       <c r="F11" s="18">
-        <v>42400</v>
+        <v>42452</v>
       </c>
       <c r="G11" s="19">
-        <v>42452</v>
+        <v>42398</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>-54</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>1.2264150943395169E-3</v>
+        <v>-1.2720248751530994E-3</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="23">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="5"/>
-        <v>6.7588398510682879E-3</v>
+        <v>5.4782175634975339E-3</v>
       </c>
       <c r="N11" s="25">
         <f t="shared" si="6"/>
@@ -1491,23 +1498,23 @@
       </c>
       <c r="O11" s="22">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P11" s="25">
         <f t="shared" si="8"/>
-        <v>1929</v>
+        <v>1302</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="9"/>
-        <v>4.7602596056560476E-2</v>
+        <v>3.1681915514891967E-2</v>
       </c>
       <c r="R11" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S11" s="30">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1524,37 +1531,37 @@
         <v>125199</v>
       </c>
       <c r="E12" s="18">
-        <v>118428</v>
+        <v>120984</v>
       </c>
       <c r="F12" s="18">
-        <v>126268</v>
+        <v>126545</v>
       </c>
       <c r="G12" s="19">
-        <v>126545</v>
+        <v>126772</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>2.1937466341432899E-3</v>
+        <v>1.793828282429244E-3</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="4"/>
-        <v>1346</v>
+        <v>1573</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="5"/>
-        <v>1.0750884591729903E-2</v>
+        <v>1.2563998115000974E-2</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="6"/>
@@ -1562,15 +1569,15 @@
       </c>
       <c r="O12" s="22">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P12" s="25">
         <f t="shared" si="8"/>
-        <v>8117</v>
+        <v>5788</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="9"/>
-        <v>6.8539534569527438E-2</v>
+        <v>4.7841036831316464E-2</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="10"/>
@@ -1595,53 +1602,53 @@
         <v>35642</v>
       </c>
       <c r="E13" s="18">
-        <v>34490</v>
+        <v>35062</v>
       </c>
       <c r="F13" s="18">
-        <v>35895</v>
+        <v>35828</v>
       </c>
       <c r="G13" s="19">
-        <v>35828</v>
+        <v>35784</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>-67</v>
+        <v>-44</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>-1.8665552305334732E-3</v>
+        <v>-1.2280897621971265E-3</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="4"/>
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="5"/>
-        <v>5.218562370237434E-3</v>
+        <v>3.9840637450199168E-3</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="8"/>
-        <v>1338</v>
+        <v>722</v>
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="9"/>
-        <v>3.8793853290808977E-2</v>
+        <v>2.0592094004905581E-2</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="10"/>
@@ -1649,7 +1656,7 @@
       </c>
       <c r="S13" s="30">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1666,61 +1673,61 @@
         <v>11397</v>
       </c>
       <c r="E14" s="18">
-        <v>11020</v>
+        <v>11173</v>
       </c>
       <c r="F14" s="18">
-        <v>11536</v>
+        <v>11541</v>
       </c>
       <c r="G14" s="19">
-        <v>11541</v>
+        <v>11563</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>4.3342579750338395E-4</v>
+        <v>1.9062472922624085E-3</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="5"/>
-        <v>1.2634903922084773E-2</v>
+        <v>1.4565236465736486E-2</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="8"/>
-        <v>521</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="29">
         <f t="shared" si="9"/>
-        <v>4.727767695099816E-2</v>
+        <v>3.4905575942002942E-2</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1737,25 +1744,25 @@
         <v>14609</v>
       </c>
       <c r="E15" s="18">
-        <v>14356</v>
+        <v>14515</v>
       </c>
       <c r="F15" s="18">
-        <v>14671</v>
+        <v>14676</v>
       </c>
       <c r="G15" s="19">
-        <v>14676</v>
+        <v>14641</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>3.4080839751893244E-4</v>
+        <v>-2.3848460070864386E-3</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="3"/>
@@ -1763,35 +1770,35 @@
       </c>
       <c r="L15" s="23">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="5"/>
-        <v>4.5862139776848831E-3</v>
+        <v>2.190430556506362E-3</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="8"/>
-        <v>320</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="9"/>
-        <v>2.2290331568681987E-2</v>
+        <v>8.6806751636239188E-3</v>
       </c>
       <c r="R15" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S15" s="30">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1808,37 +1815,37 @@
         <v>77044</v>
       </c>
       <c r="E16" s="18">
-        <v>72470</v>
+        <v>74305</v>
       </c>
       <c r="F16" s="18">
-        <v>77908</v>
+        <v>78102</v>
       </c>
       <c r="G16" s="19">
-        <v>78102</v>
+        <v>78218</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>2.4901165477229092E-3</v>
+        <v>1.4852372538476377E-3</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="4"/>
-        <v>1058</v>
+        <v>1174</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="5"/>
-        <v>1.3732412647318393E-2</v>
+        <v>1.5238045792014931E-2</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="6"/>
@@ -1850,19 +1857,19 @@
       </c>
       <c r="P16" s="25">
         <f t="shared" si="8"/>
-        <v>5632</v>
+        <v>3913</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" si="9"/>
-        <v>7.7714916517179544E-2</v>
+        <v>5.2661328308996724E-2</v>
       </c>
       <c r="R16" s="25">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16" s="30">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1879,61 +1886,61 @@
         <v>49358</v>
       </c>
       <c r="E17" s="18">
-        <v>48063</v>
+        <v>48679</v>
       </c>
       <c r="F17" s="18">
-        <v>49554</v>
+        <v>49689</v>
       </c>
       <c r="G17" s="19">
-        <v>49689</v>
+        <v>49725</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>2.724300762804166E-3</v>
+        <v>7.2450642999455361E-4</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="4"/>
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="5"/>
-        <v>6.7061064062563513E-3</v>
+        <v>7.4354714534623501E-3</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="8"/>
-        <v>1626</v>
+        <v>1046</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" si="9"/>
-        <v>3.3830597340990032E-2</v>
+        <v>2.1487705170607496E-2</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S17" s="30">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1950,53 +1957,53 @@
         <v>13674</v>
       </c>
       <c r="E18" s="18">
-        <v>13554</v>
+        <v>13680</v>
       </c>
       <c r="F18" s="18">
-        <v>13625</v>
+        <v>13679</v>
       </c>
       <c r="G18" s="19">
-        <v>13679</v>
+        <v>13710</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>3.9633027522936182E-3</v>
+        <v>2.2662475327144271E-3</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="5"/>
-        <v>3.6565745209893308E-4</v>
+        <v>2.6327336551119629E-3</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="9"/>
-        <v>9.2223697801387949E-3</v>
+        <v>2.1929824561404132E-3</v>
       </c>
       <c r="R18" s="25">
         <f t="shared" si="10"/>
@@ -2004,7 +2011,7 @@
       </c>
       <c r="S18" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2021,61 +2028,61 @@
         <v>15980</v>
       </c>
       <c r="E19" s="18">
-        <v>15549</v>
+        <v>15750</v>
       </c>
       <c r="F19" s="18">
-        <v>16095</v>
+        <v>16178</v>
       </c>
       <c r="G19" s="19">
-        <v>16178</v>
+        <v>16207</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>5.1568810189499548E-3</v>
+        <v>1.7925577945356874E-3</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="5"/>
-        <v>1.2390488110137765E-2</v>
+        <v>1.4205256570713365E-2</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O19" s="22">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="8"/>
-        <v>629</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="9"/>
-        <v>4.0452762235513529E-2</v>
+        <v>2.9015873015872939E-2</v>
       </c>
       <c r="R19" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T19" s="2"/>
     </row>
@@ -2093,37 +2100,37 @@
         <v>103251</v>
       </c>
       <c r="E20" s="34">
-        <v>99679</v>
+        <v>100963</v>
       </c>
       <c r="F20" s="34">
-        <v>104578</v>
+        <v>104918</v>
       </c>
       <c r="G20" s="35">
-        <v>104918</v>
+        <v>105078</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="I20" s="36">
         <f t="shared" si="1"/>
-        <v>3.2511618122359476E-3</v>
+        <v>1.5250004765625658E-3</v>
       </c>
       <c r="J20" s="37">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="38">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L20" s="39">
         <f t="shared" si="4"/>
-        <v>1667</v>
+        <v>1827</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="5"/>
-        <v>1.614512208114216E-2</v>
+        <v>1.7694743876572661E-2</v>
       </c>
       <c r="N20" s="41">
         <f t="shared" si="6"/>
@@ -2135,19 +2142,19 @@
       </c>
       <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>5239</v>
+        <v>4115</v>
       </c>
       <c r="Q20" s="42">
         <f t="shared" si="9"/>
-        <v>5.2558713470239438E-2</v>
+        <v>4.0757505224686241E-2</v>
       </c>
       <c r="R20" s="41">
         <f>_xlfn.RANK.EQ(P20,$P$6:$P$37)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" s="43">
         <f>_xlfn.RANK.EQ(Q20,$Q$6:$Q$37)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T20" s="2"/>
     </row>
@@ -2165,25 +2172,25 @@
         <v>37104</v>
       </c>
       <c r="E21" s="18">
-        <v>36500</v>
+        <v>36738</v>
       </c>
       <c r="F21" s="18">
-        <v>37225</v>
+        <v>37244</v>
       </c>
       <c r="G21" s="19">
-        <v>37244</v>
+        <v>37185</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-59</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>5.1040967092008671E-4</v>
+        <v>-1.5841477821930683E-3</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
@@ -2191,27 +2198,27 @@
       </c>
       <c r="L21" s="23">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="5"/>
-        <v>3.7731780940060133E-3</v>
+        <v>2.1830530401034665E-3</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="8"/>
-        <v>744</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="29">
         <f t="shared" si="9"/>
-        <v>2.0383561643835701E-2</v>
+        <v>1.2167238281888038E-2</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="10"/>
@@ -2219,7 +2226,7 @@
       </c>
       <c r="S21" s="30">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -2236,61 +2243,61 @@
         <v>12579</v>
       </c>
       <c r="E22" s="18">
-        <v>12169</v>
+        <v>12356</v>
       </c>
       <c r="F22" s="18">
-        <v>12634</v>
+        <v>12630</v>
       </c>
       <c r="G22" s="19">
-        <v>12630</v>
+        <v>12659</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>-3.1660598385307992E-4</v>
+        <v>2.2961203483768955E-3</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L22" s="23">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="5"/>
-        <v>4.0543763415215039E-3</v>
+        <v>6.359806025916237E-3</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="8"/>
-        <v>461</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="9"/>
-        <v>3.7883145698085263E-2</v>
+        <v>2.4522499190676506E-2</v>
       </c>
       <c r="R22" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S22" s="30">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2307,61 +2314,61 @@
         <v>13590</v>
       </c>
       <c r="E23" s="18">
-        <v>13053</v>
+        <v>13268</v>
       </c>
       <c r="F23" s="18">
-        <v>13646</v>
+        <v>13677</v>
       </c>
       <c r="G23" s="19">
-        <v>13677</v>
+        <v>13706</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>2.2717279788948552E-3</v>
+        <v>2.1203480295386434E-3</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L23" s="23">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="5"/>
-        <v>6.4017660044151103E-3</v>
+        <v>8.5356880058866658E-3</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="8"/>
-        <v>624</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="29">
         <f t="shared" si="9"/>
-        <v>4.7805102275338962E-2</v>
+        <v>3.3011757612300352E-2</v>
       </c>
       <c r="R23" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S23" s="30">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2378,37 +2385,37 @@
         <v>74823</v>
       </c>
       <c r="E24" s="18">
-        <v>70678</v>
+        <v>72034</v>
       </c>
       <c r="F24" s="18">
-        <v>75634</v>
+        <v>75827</v>
       </c>
       <c r="G24" s="19">
-        <v>75827</v>
+        <v>75889</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>2.5517624348838641E-3</v>
+        <v>8.1765070489403513E-4</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L24" s="23">
         <f t="shared" si="4"/>
-        <v>1004</v>
+        <v>1066</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="5"/>
-        <v>1.3418333934752669E-2</v>
+        <v>1.4246956149847056E-2</v>
       </c>
       <c r="N24" s="25">
         <f t="shared" si="6"/>
@@ -2416,15 +2423,15 @@
       </c>
       <c r="O24" s="22">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P24" s="25">
         <f t="shared" si="8"/>
-        <v>5149</v>
+        <v>3855</v>
       </c>
       <c r="Q24" s="29">
         <f t="shared" si="9"/>
-        <v>7.285152381221871E-2</v>
+        <v>5.3516395035677622E-2</v>
       </c>
       <c r="R24" s="25">
         <f t="shared" si="10"/>
@@ -2432,7 +2439,7 @@
       </c>
       <c r="S24" s="30">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2449,57 +2456,57 @@
         <v>14401</v>
       </c>
       <c r="E25" s="18">
-        <v>14047</v>
+        <v>14214</v>
       </c>
       <c r="F25" s="18">
-        <v>14439</v>
+        <v>14512</v>
       </c>
       <c r="G25" s="19">
-        <v>14512</v>
+        <v>14490</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>-22</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>5.0557517833644816E-3</v>
+        <v>-1.515986769569988E-3</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="L25" s="23">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="5"/>
-        <v>7.7077980695785531E-3</v>
+        <v>6.1801263801124495E-3</v>
       </c>
       <c r="N25" s="25">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O25" s="22">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="8"/>
-        <v>465</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="29">
         <f t="shared" si="9"/>
-        <v>3.3103153698298637E-2</v>
+        <v>1.9417475728155331E-2</v>
       </c>
       <c r="R25" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S25" s="30">
         <f t="shared" si="11"/>
@@ -2520,61 +2527,61 @@
         <v>34423</v>
       </c>
       <c r="E26" s="18">
-        <v>33138</v>
+        <v>33656</v>
       </c>
       <c r="F26" s="18">
-        <v>34797</v>
+        <v>34911</v>
       </c>
       <c r="G26" s="19">
-        <v>34911</v>
+        <v>34766</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>-145</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>3.276144495215183E-3</v>
+        <v>-4.1534186932485895E-3</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L26" s="23">
         <f t="shared" si="4"/>
-        <v>488</v>
+        <v>343</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="5"/>
-        <v>1.4176567992330691E-2</v>
+        <v>9.9642680765767988E-3</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O26" s="22">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="8"/>
-        <v>1773</v>
+        <v>1110</v>
       </c>
       <c r="Q26" s="29">
         <f t="shared" si="9"/>
-        <v>5.3503530689842371E-2</v>
+        <v>3.2980746375089076E-2</v>
       </c>
       <c r="R26" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S26" s="30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2591,37 +2598,37 @@
         <v>28507</v>
       </c>
       <c r="E27" s="18">
-        <v>26639</v>
+        <v>27264</v>
       </c>
       <c r="F27" s="18">
-        <v>29096</v>
+        <v>29302</v>
       </c>
       <c r="G27" s="19">
-        <v>29302</v>
+        <v>29396</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>7.0800109980753145E-3</v>
+        <v>3.2079721520714699E-3</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27" s="23">
         <f t="shared" si="4"/>
-        <v>795</v>
+        <v>889</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="5"/>
-        <v>2.7887887185603644E-2</v>
+        <v>3.1185322903146684E-2</v>
       </c>
       <c r="N27" s="25">
         <f t="shared" si="6"/>
@@ -2633,11 +2640,11 @@
       </c>
       <c r="P27" s="25">
         <f t="shared" si="8"/>
-        <v>2663</v>
+        <v>2132</v>
       </c>
       <c r="Q27" s="29">
         <f t="shared" si="9"/>
-        <v>9.9966214948008503E-2</v>
+        <v>7.8198356807511749E-2</v>
       </c>
       <c r="R27" s="25">
         <f t="shared" si="10"/>
@@ -2662,37 +2669,37 @@
         <v>19275</v>
       </c>
       <c r="E28" s="18">
-        <v>17389</v>
+        <v>18033</v>
       </c>
       <c r="F28" s="18">
-        <v>19835</v>
+        <v>20108</v>
       </c>
       <c r="G28" s="19">
-        <v>20108</v>
+        <v>20179</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>1.3763549281573084E-2</v>
+        <v>3.5309329620052399E-3</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="4"/>
-        <v>833</v>
+        <v>904</v>
       </c>
       <c r="M28" s="24">
         <f t="shared" si="5"/>
-        <v>4.3216601815823541E-2</v>
+        <v>4.6900129701686222E-2</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="6"/>
@@ -2704,11 +2711,11 @@
       </c>
       <c r="P28" s="25">
         <f t="shared" si="8"/>
-        <v>2719</v>
+        <v>2146</v>
       </c>
       <c r="Q28" s="29">
         <f t="shared" si="9"/>
-        <v>0.15636321812640164</v>
+        <v>0.11900404813397669</v>
       </c>
       <c r="R28" s="25">
         <f t="shared" si="10"/>
@@ -2733,41 +2740,41 @@
         <v>23707</v>
       </c>
       <c r="E29" s="18">
-        <v>23041</v>
+        <v>23311</v>
       </c>
       <c r="F29" s="18">
-        <v>23744</v>
+        <v>23830</v>
       </c>
       <c r="G29" s="19">
-        <v>23830</v>
+        <v>23810</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>-20</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="1"/>
-        <v>3.6219676549864577E-3</v>
+        <v>-8.3927822073015523E-4</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="5"/>
-        <v>5.188340996330254E-3</v>
+        <v>4.3447083140000231E-3</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O29" s="22">
         <f t="shared" si="7"/>
@@ -2775,15 +2782,15 @@
       </c>
       <c r="P29" s="25">
         <f t="shared" si="8"/>
-        <v>789</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="29">
         <f t="shared" si="9"/>
-        <v>3.4243305412091418E-2</v>
+        <v>2.1406203080091002E-2</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="11"/>
@@ -2804,41 +2811,41 @@
         <v>42868</v>
       </c>
       <c r="E30" s="18">
-        <v>41559</v>
+        <v>42178</v>
       </c>
       <c r="F30" s="18">
-        <v>43163</v>
+        <v>43261</v>
       </c>
       <c r="G30" s="19">
-        <v>43261</v>
+        <v>43273</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="1"/>
-        <v>2.2704631281420529E-3</v>
+        <v>2.7738609833338757E-4</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="4"/>
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M30" s="24">
         <f t="shared" si="5"/>
-        <v>9.1676775216944506E-3</v>
+        <v>9.4476066063264863E-3</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" s="22">
         <f t="shared" si="7"/>
@@ -2846,19 +2853,19 @@
       </c>
       <c r="P30" s="25">
         <f t="shared" si="8"/>
-        <v>1702</v>
+        <v>1095</v>
       </c>
       <c r="Q30" s="29">
         <f t="shared" si="9"/>
-        <v>4.0953824682980811E-2</v>
+        <v>2.5961401678600282E-2</v>
       </c>
       <c r="R30" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S30" s="30">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2875,53 +2882,53 @@
         <v>39139</v>
       </c>
       <c r="E31" s="18">
-        <v>38030</v>
+        <v>38675</v>
       </c>
       <c r="F31" s="18">
-        <v>38919</v>
+        <v>39151</v>
       </c>
       <c r="G31" s="19">
-        <v>39151</v>
+        <v>39292</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="1"/>
-        <v>5.9610986921554421E-3</v>
+        <v>3.6014405762305746E-3</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L31" s="23">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="5"/>
-        <v>3.0659955543055339E-4</v>
+        <v>3.9091443317407215E-3</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="O31" s="22">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="8"/>
-        <v>1121</v>
+        <v>617</v>
       </c>
       <c r="Q31" s="29">
         <f t="shared" si="9"/>
-        <v>2.9476728898238269E-2</v>
+        <v>1.5953458306399382E-2</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="10"/>
@@ -2946,37 +2953,37 @@
         <v>11432</v>
       </c>
       <c r="E32" s="18">
-        <v>11015</v>
+        <v>11282</v>
       </c>
       <c r="F32" s="18">
-        <v>11596</v>
+        <v>11633</v>
       </c>
       <c r="G32" s="19">
-        <v>11633</v>
+        <v>11626</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>-7</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="1"/>
-        <v>3.1907554329078103E-3</v>
+        <v>-6.0173643943950417E-4</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L32" s="23">
         <f t="shared" si="4"/>
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="5"/>
-        <v>1.7582225332400281E-2</v>
+        <v>1.6969909027291896E-2</v>
       </c>
       <c r="N32" s="25">
         <f t="shared" si="6"/>
@@ -2984,23 +2991,23 @@
       </c>
       <c r="O32" s="22">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="8"/>
-        <v>618</v>
+        <v>344</v>
       </c>
       <c r="Q32" s="29">
         <f t="shared" si="9"/>
-        <v>5.6105310939627673E-2</v>
+        <v>3.0491047686580286E-2</v>
       </c>
       <c r="R32" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -3017,41 +3024,41 @@
         <v>34785</v>
       </c>
       <c r="E33" s="18">
-        <v>34032</v>
+        <v>34370</v>
       </c>
       <c r="F33" s="18">
-        <v>34737</v>
+        <v>34725</v>
       </c>
       <c r="G33" s="19">
-        <v>34725</v>
+        <v>34667</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-58</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="1"/>
-        <v>-3.4545297521371143E-4</v>
+        <v>-1.6702663786897221E-3</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L33" s="23">
         <f t="shared" si="4"/>
-        <v>-60</v>
+        <v>-118</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="5"/>
-        <v>-1.7248814144027458E-3</v>
+        <v>-3.3922667816587149E-3</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O33" s="22">
         <f t="shared" si="7"/>
@@ -3059,19 +3066,19 @@
       </c>
       <c r="P33" s="25">
         <f t="shared" si="8"/>
-        <v>693</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="9"/>
-        <v>2.0363187588152254E-2</v>
+        <v>8.6412569100959846E-3</v>
       </c>
       <c r="R33" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S33" s="30">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -3088,57 +3095,57 @@
         <v>5466</v>
       </c>
       <c r="E34" s="18">
-        <v>5252</v>
+        <v>5322</v>
       </c>
       <c r="F34" s="18">
-        <v>5455</v>
+        <v>5467</v>
       </c>
       <c r="G34" s="19">
-        <v>5467</v>
+        <v>5462</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="1"/>
-        <v>2.1998166819432452E-3</v>
+        <v>-9.1457837936714803E-4</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" s="23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="5"/>
-        <v>1.8294914013905483E-4</v>
+        <v>-7.3179656055621933E-4</v>
       </c>
       <c r="N34" s="25">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O34" s="22">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="8"/>
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="29">
         <f t="shared" si="9"/>
-        <v>4.0936785986291024E-2</v>
+        <v>2.6305900037579821E-2</v>
       </c>
       <c r="R34" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="11"/>
@@ -3159,61 +3166,61 @@
         <v>44116</v>
       </c>
       <c r="E35" s="18">
-        <v>43366</v>
+        <v>43928</v>
       </c>
       <c r="F35" s="18">
-        <v>44149</v>
+        <v>44276</v>
       </c>
       <c r="G35" s="19">
-        <v>44276</v>
+        <v>44222</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>-54</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="1"/>
-        <v>2.8766223470519936E-3</v>
+        <v>-1.2196223687777064E-3</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="5"/>
-        <v>3.6268020672771684E-3</v>
+        <v>2.4027563695712129E-3</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O35" s="22">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P35" s="25">
         <f t="shared" si="8"/>
-        <v>910</v>
+        <v>294</v>
       </c>
       <c r="Q35" s="29">
         <f t="shared" si="9"/>
-        <v>2.0984181155744075E-2</v>
+        <v>6.6927699872518787E-3</v>
       </c>
       <c r="R35" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S35" s="30">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3230,37 +3237,37 @@
         <v>20773</v>
       </c>
       <c r="E36" s="18">
-        <v>19904</v>
+        <v>20210</v>
       </c>
       <c r="F36" s="18">
-        <v>21129</v>
+        <v>21273</v>
       </c>
       <c r="G36" s="19">
-        <v>21273</v>
+        <v>21204</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>-69</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="1"/>
-        <v>6.8152775805765398E-3</v>
+        <v>-3.2435481596390092E-3</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L36" s="23">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="5"/>
-        <v>2.4069705868194236E-2</v>
+        <v>2.0748086458383552E-2</v>
       </c>
       <c r="N36" s="25">
         <f t="shared" si="6"/>
@@ -3272,15 +3279,15 @@
       </c>
       <c r="P36" s="25">
         <f t="shared" si="8"/>
-        <v>1369</v>
+        <v>994</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="9"/>
-        <v>6.8780144694533751E-2</v>
+        <v>4.9183572488866956E-2</v>
       </c>
       <c r="R36" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S36" s="30">
         <f t="shared" si="11"/>
@@ -3291,63 +3298,63 @@
       <c r="A37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="44">
         <v>11771</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="45">
         <v>11796</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="46">
         <v>12068</v>
       </c>
-      <c r="E37" s="70">
-        <v>11919</v>
-      </c>
-      <c r="F37" s="70">
-        <v>12023</v>
-      </c>
-      <c r="G37" s="71">
+      <c r="E37" s="46">
+        <v>12017</v>
+      </c>
+      <c r="F37" s="46">
         <v>12040</v>
+      </c>
+      <c r="G37" s="47">
+        <v>12031</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="1"/>
-        <v>1.4139565832154144E-3</v>
+        <v>-7.475083056478482E-4</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="4"/>
-        <v>-28</v>
+        <v>-37</v>
       </c>
       <c r="M37" s="24">
         <f t="shared" si="5"/>
-        <v>-2.3201856148491462E-3</v>
+        <v>-3.0659595624792368E-3</v>
       </c>
       <c r="N37" s="25">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O37" s="22">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="8"/>
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="Q37" s="29">
         <f t="shared" si="9"/>
-        <v>1.0151858377380751E-2</v>
+        <v>1.165016227011817E-3</v>
       </c>
       <c r="R37" s="25">
         <f t="shared" si="10"/>
@@ -3355,63 +3362,64 @@
       </c>
       <c r="S37" s="30">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="9" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="67">
         <v>1000414</v>
       </c>
-      <c r="C38" s="65">
+      <c r="C38" s="68">
         <v>1003261</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="69">
         <v>1053670</v>
       </c>
-      <c r="E38" s="66">
-        <v>1006374</v>
-      </c>
-      <c r="F38" s="66" t="e">
-        <f>SUM(F6:V25F37)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G38" s="67">
+      <c r="E38" s="69">
+        <f>SUM(E6:E37)</f>
+        <v>1028757</v>
+      </c>
+      <c r="F38" s="69">
+        <f>SUM(F6:F37)</f>
+        <v>1064631</v>
+      </c>
+      <c r="G38" s="70">
         <f>SUM(G6:G37)</f>
-        <v>1064631</v>
-      </c>
-      <c r="H38" s="45" t="e">
+        <v>1064787</v>
+      </c>
+      <c r="H38" s="71">
         <f>G38-F38</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I38" s="46" t="e">
+        <v>156</v>
+      </c>
+      <c r="I38" s="72">
         <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="49">
+        <v>1.4652964266481661E-4</v>
+      </c>
+      <c r="J38" s="73"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="75">
         <f t="shared" si="4"/>
-        <v>10961</v>
-      </c>
-      <c r="M38" s="50">
+        <v>11117</v>
+      </c>
+      <c r="M38" s="76">
         <f t="shared" si="5"/>
-        <v>1.0402687748536144E-2</v>
-      </c>
-      <c r="N38" s="47"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="51">
+        <v>1.0550741693319488E-2</v>
+      </c>
+      <c r="N38" s="73"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="77">
         <f t="shared" si="8"/>
-        <v>58257</v>
-      </c>
-      <c r="Q38" s="52">
+        <v>36030</v>
+      </c>
+      <c r="Q38" s="78">
         <f t="shared" si="9"/>
-        <v>5.7888021749369578E-2</v>
-      </c>
-      <c r="R38" s="47"/>
-      <c r="S38" s="48"/>
+        <v>3.502284796118027E-2</v>
+      </c>
+      <c r="R38" s="73"/>
+      <c r="S38" s="74"/>
     </row>
     <row r="39" spans="1:19" s="5" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6"/>
@@ -3419,27 +3427,27 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:19" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
-    <sheet name="julio" sheetId="2" r:id="rId1"/>
+    <sheet name="agosto" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,27 +188,27 @@
   </si>
   <si>
     <t>2022
-Junio</t>
+Julio</t>
+  </si>
+  <si>
+    <t>Diciembre 2020-agosto 2022</t>
+  </si>
+  <si>
+    <t>2022
+Agosto</t>
   </si>
   <si>
     <t>2021
-Julio</t>
-  </si>
-  <si>
-    <t>2022
-Julio</t>
-  </si>
-  <si>
-    <t>Diciembre 2020-julio 2022</t>
-  </si>
-  <si>
-    <t>Julio 2022 respecto a Junio 2022</t>
-  </si>
-  <si>
-    <t>Julio 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Julio 2022 respecto a Julio 2021</t>
+Agosto</t>
+  </si>
+  <si>
+    <t>Agosto 2022 respecto a Julio 2022</t>
+  </si>
+  <si>
+    <t>Agosto 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Agosto 2022 respecto a Agosto 2021</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -594,17 +594,28 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -646,52 +657,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -920,12 +893,12 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
@@ -939,18 +912,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -962,18 +935,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="A2" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1006,54 +979,54 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="48" t="s">
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
     </row>
     <row r="5" spans="1:19" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="61"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1095,63 +1068,63 @@
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="16">
         <v>16017</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="17">
         <v>16063</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="18">
         <v>16746</v>
       </c>
-      <c r="E6" s="64">
-        <v>16473</v>
-      </c>
-      <c r="F6" s="64">
-        <v>16756</v>
-      </c>
-      <c r="G6" s="65">
+      <c r="E6" s="18">
+        <v>16597</v>
+      </c>
+      <c r="F6" s="18">
         <v>16757</v>
+      </c>
+      <c r="G6" s="19">
+        <v>16755</v>
       </c>
       <c r="H6" s="17">
         <f>G6-F6</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I6" s="20">
         <f>G6/F6-1</f>
-        <v>5.9680114585791699E-5</v>
+        <v>-1.1935310616462136E-4</v>
       </c>
       <c r="J6" s="21">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K6" s="22">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L6" s="23">
         <f>G6-D6</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M6" s="24">
         <f>G6/D6-1</f>
-        <v>6.5687328317221017E-4</v>
+        <v>5.3744177714087904E-4</v>
       </c>
       <c r="N6" s="25">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="22">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="26">
         <f>G6-E6</f>
-        <v>284</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="27">
         <f>G6/E6-1</f>
-        <v>1.7240332665573899E-2</v>
+        <v>9.5197927336265753E-3</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
@@ -1159,7 +1132,7 @@
       </c>
       <c r="S6" s="28">
         <f>_xlfn.RANK.EQ(Q6,$Q$6:$Q$37)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1176,61 +1149,61 @@
         <v>44540</v>
       </c>
       <c r="E7" s="18">
-        <v>43092</v>
+        <v>43604</v>
       </c>
       <c r="F7" s="18">
-        <v>44751</v>
+        <v>44387</v>
       </c>
       <c r="G7" s="19">
-        <v>44387</v>
+        <v>44462</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>-364</v>
+        <v>75</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>-8.1338964492413401E-3</v>
+        <v>1.6896839164619593E-3</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L7" s="23">
         <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>-153</v>
+        <v>-78</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>-3.4351145038168385E-3</v>
+        <v>-1.751234845083105E-3</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P38" si="8">G7-E7</f>
-        <v>1295</v>
+        <v>858</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:Q38" si="9">G7/E7-1</f>
-        <v>3.0051981806367811E-2</v>
+        <v>1.9677093844601368E-2</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" ref="R7:R37" si="10">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7:S37" si="11">_xlfn.RANK.EQ(Q7,$Q$6:$Q$37)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1247,37 +1220,37 @@
         <v>13964</v>
       </c>
       <c r="E8" s="18">
-        <v>13392</v>
+        <v>13503</v>
       </c>
       <c r="F8" s="18">
-        <v>14487</v>
+        <v>14512</v>
       </c>
       <c r="G8" s="19">
-        <v>14512</v>
+        <v>14588</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>1.7256850969835646E-3</v>
+        <v>5.2370452039691706E-3</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="4"/>
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="5"/>
-        <v>3.9243769693497521E-2</v>
+        <v>4.4686336293325635E-2</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="6"/>
@@ -1289,15 +1262,15 @@
       </c>
       <c r="P8" s="25">
         <f t="shared" si="8"/>
-        <v>1120</v>
+        <v>1085</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" si="9"/>
-        <v>8.3632019115890133E-2</v>
+        <v>8.0352514256091245E-2</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S8" s="30">
         <f t="shared" si="11"/>
@@ -1318,41 +1291,41 @@
         <v>6254</v>
       </c>
       <c r="E9" s="18">
-        <v>6066</v>
+        <v>6139</v>
       </c>
       <c r="F9" s="18">
-        <v>6332</v>
+        <v>6365</v>
       </c>
       <c r="G9" s="19">
-        <v>6365</v>
+        <v>6404</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>5.2116234996841815E-3</v>
+        <v>6.1272584446190326E-3</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="23">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="5"/>
-        <v>1.7748640869843291E-2</v>
+        <v>2.3984649824112525E-2</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="7"/>
@@ -1360,15 +1333,15 @@
       </c>
       <c r="P9" s="25">
         <f t="shared" si="8"/>
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="29">
         <f t="shared" si="9"/>
-        <v>4.9291130893504675E-2</v>
+        <v>4.3166639517836725E-2</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S9" s="30">
         <f t="shared" si="11"/>
@@ -1389,25 +1362,25 @@
         <v>14789</v>
       </c>
       <c r="E10" s="18">
-        <v>14671</v>
+        <v>14683</v>
       </c>
       <c r="F10" s="18">
-        <v>14830</v>
+        <v>14813</v>
       </c>
       <c r="G10" s="19">
-        <v>14813</v>
+        <v>14835</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>22</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>-1.146325016857741E-3</v>
+        <v>1.4851819347869721E-3</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
@@ -1415,11 +1388,11 @@
       </c>
       <c r="L10" s="23">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="5"/>
-        <v>1.6228277774021915E-3</v>
+        <v>3.1104199066873672E-3</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="6"/>
@@ -1431,19 +1404,19 @@
       </c>
       <c r="P10" s="25">
         <f t="shared" si="8"/>
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="9"/>
-        <v>9.6789584895371483E-3</v>
+        <v>1.0352107879860961E-2</v>
       </c>
       <c r="R10" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S10" s="30">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1460,61 +1433,61 @@
         <v>42167</v>
       </c>
       <c r="E11" s="18">
-        <v>41096</v>
+        <v>41443</v>
       </c>
       <c r="F11" s="18">
-        <v>42452</v>
+        <v>42398</v>
       </c>
       <c r="G11" s="19">
-        <v>42398</v>
+        <v>42383</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>-15</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>-1.2720248751530994E-3</v>
+        <v>-3.5379027312609779E-4</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L11" s="23">
         <f t="shared" si="4"/>
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="5"/>
-        <v>5.4782175634975339E-3</v>
+        <v>5.1224891502834602E-3</v>
       </c>
       <c r="N11" s="25">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O11" s="22">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P11" s="25">
         <f t="shared" si="8"/>
-        <v>1302</v>
+        <v>940</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="9"/>
-        <v>3.1681915514891967E-2</v>
+        <v>2.2681755664406555E-2</v>
       </c>
       <c r="R11" s="25">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S11" s="30">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1531,37 +1504,37 @@
         <v>125199</v>
       </c>
       <c r="E12" s="18">
-        <v>120984</v>
+        <v>122640</v>
       </c>
       <c r="F12" s="18">
-        <v>126545</v>
+        <v>126772</v>
       </c>
       <c r="G12" s="19">
-        <v>126772</v>
+        <v>127108</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>1.793828282429244E-3</v>
+        <v>2.6504275392043031E-3</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="4"/>
-        <v>1573</v>
+        <v>1909</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="5"/>
-        <v>1.2563998115000974E-2</v>
+        <v>1.524772562081167E-2</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="6"/>
@@ -1573,11 +1546,11 @@
       </c>
       <c r="P12" s="25">
         <f t="shared" si="8"/>
-        <v>5788</v>
+        <v>4468</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="9"/>
-        <v>4.7841036831316464E-2</v>
+        <v>3.6431833007175562E-2</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="10"/>
@@ -1602,53 +1575,53 @@
         <v>35642</v>
       </c>
       <c r="E13" s="18">
-        <v>35062</v>
+        <v>35290</v>
       </c>
       <c r="F13" s="18">
-        <v>35828</v>
+        <v>35784</v>
       </c>
       <c r="G13" s="19">
-        <v>35784</v>
+        <v>35816</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>32</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>-1.2280897621971265E-3</v>
+        <v>8.9425441538115713E-4</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="4"/>
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="5"/>
-        <v>3.9840637450199168E-3</v>
+        <v>4.8818809269961516E-3</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="8"/>
-        <v>722</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="9"/>
-        <v>2.0592094004905581E-2</v>
+        <v>1.4905072258430074E-2</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="10"/>
@@ -1673,37 +1646,37 @@
         <v>11397</v>
       </c>
       <c r="E14" s="18">
-        <v>11173</v>
+        <v>11279</v>
       </c>
       <c r="F14" s="18">
-        <v>11541</v>
+        <v>11563</v>
       </c>
       <c r="G14" s="19">
-        <v>11563</v>
+        <v>11625</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>1.9062472922624085E-3</v>
+        <v>5.3619302949061698E-3</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="5"/>
-        <v>1.4565236465736486E-2</v>
+        <v>2.0005264543300871E-2</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="6"/>
@@ -1711,23 +1684,23 @@
       </c>
       <c r="O14" s="22">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="8"/>
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="29">
         <f t="shared" si="9"/>
-        <v>3.4905575942002942E-2</v>
+        <v>3.0676478411206576E-2</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1744,57 +1717,57 @@
         <v>14609</v>
       </c>
       <c r="E15" s="18">
-        <v>14515</v>
+        <v>14584</v>
       </c>
       <c r="F15" s="18">
-        <v>14676</v>
+        <v>14641</v>
       </c>
       <c r="G15" s="19">
-        <v>14641</v>
+        <v>14655</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>14</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>-2.3848460070864386E-3</v>
+        <v>9.562188375111802E-4</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="5"/>
-        <v>2.190430556506362E-3</v>
+        <v>3.1487439249777704E-3</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="8"/>
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="9"/>
-        <v>8.6806751636239188E-3</v>
+        <v>4.8683488754799331E-3</v>
       </c>
       <c r="R15" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S15" s="30">
         <f t="shared" si="11"/>
@@ -1815,25 +1788,25 @@
         <v>77044</v>
       </c>
       <c r="E16" s="18">
-        <v>74305</v>
+        <v>75223</v>
       </c>
       <c r="F16" s="18">
-        <v>78102</v>
+        <v>78218</v>
       </c>
       <c r="G16" s="19">
-        <v>78218</v>
+        <v>78492</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>1.4852372538476377E-3</v>
+        <v>3.5030299930962627E-3</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="3"/>
@@ -1841,11 +1814,11 @@
       </c>
       <c r="L16" s="23">
         <f t="shared" si="4"/>
-        <v>1174</v>
+        <v>1448</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="5"/>
-        <v>1.5238045792014931E-2</v>
+        <v>1.8794455116556863E-2</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="6"/>
@@ -1853,15 +1826,15 @@
       </c>
       <c r="O16" s="22">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="8"/>
-        <v>3913</v>
+        <v>3269</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" si="9"/>
-        <v>5.2661328308996724E-2</v>
+        <v>4.3457453172566884E-2</v>
       </c>
       <c r="R16" s="25">
         <f t="shared" si="10"/>
@@ -1886,57 +1859,57 @@
         <v>49358</v>
       </c>
       <c r="E17" s="18">
-        <v>48679</v>
+        <v>48978</v>
       </c>
       <c r="F17" s="18">
-        <v>49689</v>
+        <v>49725</v>
       </c>
       <c r="G17" s="19">
-        <v>49725</v>
+        <v>49801</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>7.2450642999455361E-4</v>
+        <v>1.5284062342886262E-3</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="4"/>
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="5"/>
-        <v>7.4354714534623501E-3</v>
+        <v>8.9752421086752854E-3</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="8"/>
-        <v>1046</v>
+        <v>823</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" si="9"/>
-        <v>2.1487705170607496E-2</v>
+        <v>1.6803462779207079E-2</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S17" s="30">
         <f t="shared" si="11"/>
@@ -1957,53 +1930,53 @@
         <v>13674</v>
       </c>
       <c r="E18" s="18">
-        <v>13680</v>
+        <v>13765</v>
       </c>
       <c r="F18" s="18">
-        <v>13679</v>
+        <v>13710</v>
       </c>
       <c r="G18" s="19">
-        <v>13710</v>
+        <v>13775</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>2.2662475327144271E-3</v>
+        <v>4.7410649161196972E-3</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="5"/>
-        <v>2.6327336551119629E-3</v>
+        <v>7.3862805323972047E-3</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="9"/>
-        <v>2.1929824561404132E-3</v>
+        <v>7.2648020341437025E-4</v>
       </c>
       <c r="R18" s="25">
         <f t="shared" si="10"/>
@@ -2028,61 +2001,61 @@
         <v>15980</v>
       </c>
       <c r="E19" s="18">
-        <v>15750</v>
+        <v>15814</v>
       </c>
       <c r="F19" s="18">
-        <v>16178</v>
+        <v>16207</v>
       </c>
       <c r="G19" s="19">
-        <v>16207</v>
+        <v>16259</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>1.7925577945356874E-3</v>
+        <v>3.2084901585733849E-3</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="5"/>
-        <v>1.4205256570713365E-2</v>
+        <v>1.7459324155193912E-2</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O19" s="22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="8"/>
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="9"/>
-        <v>2.9015873015872939E-2</v>
+        <v>2.8139623118755619E-2</v>
       </c>
       <c r="R19" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T19" s="2"/>
     </row>
@@ -2100,25 +2073,25 @@
         <v>103251</v>
       </c>
       <c r="E20" s="34">
-        <v>100963</v>
+        <v>101796</v>
       </c>
       <c r="F20" s="34">
-        <v>104918</v>
+        <v>105078</v>
       </c>
       <c r="G20" s="35">
-        <v>105078</v>
+        <v>105454</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>376</v>
       </c>
       <c r="I20" s="36">
         <f t="shared" si="1"/>
-        <v>1.5250004765625658E-3</v>
+        <v>3.5782942195321521E-3</v>
       </c>
       <c r="J20" s="37">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="38">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
@@ -2126,11 +2099,11 @@
       </c>
       <c r="L20" s="39">
         <f t="shared" si="4"/>
-        <v>1827</v>
+        <v>2203</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="5"/>
-        <v>1.7694743876572661E-2</v>
+        <v>2.1336355095834314E-2</v>
       </c>
       <c r="N20" s="41">
         <f t="shared" si="6"/>
@@ -2138,15 +2111,15 @@
       </c>
       <c r="O20" s="38">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>4115</v>
+        <v>3658</v>
       </c>
       <c r="Q20" s="42">
         <f t="shared" si="9"/>
-        <v>4.0757505224686241E-2</v>
+        <v>3.5934614326692538E-2</v>
       </c>
       <c r="R20" s="41">
         <f>_xlfn.RANK.EQ(P20,$P$6:$P$37)</f>
@@ -2172,53 +2145,53 @@
         <v>37104</v>
       </c>
       <c r="E21" s="18">
-        <v>36738</v>
+        <v>36908</v>
       </c>
       <c r="F21" s="18">
-        <v>37244</v>
+        <v>37185</v>
       </c>
       <c r="G21" s="19">
-        <v>37185</v>
+        <v>37273</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>-59</v>
+        <v>88</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>-1.5841477821930683E-3</v>
+        <v>2.3665456501278381E-3</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="5"/>
-        <v>2.1830530401034665E-3</v>
+        <v>4.5547649849073668E-3</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="8"/>
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="Q21" s="29">
         <f t="shared" si="9"/>
-        <v>1.2167238281888038E-2</v>
+        <v>9.889454860734892E-3</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="10"/>
@@ -2243,57 +2216,57 @@
         <v>12579</v>
       </c>
       <c r="E22" s="18">
-        <v>12356</v>
+        <v>12437</v>
       </c>
       <c r="F22" s="18">
-        <v>12630</v>
+        <v>12659</v>
       </c>
       <c r="G22" s="19">
-        <v>12659</v>
+        <v>12656</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>-3</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>2.2961203483768955E-3</v>
+        <v>-2.3698554388185133E-4</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="L22" s="23">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="5"/>
-        <v>6.359806025916237E-3</v>
+        <v>6.1213132999442532E-3</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="8"/>
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="9"/>
-        <v>2.4522499190676506E-2</v>
+        <v>1.7608748090375492E-2</v>
       </c>
       <c r="R22" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S22" s="30">
         <f t="shared" si="11"/>
@@ -2314,61 +2287,61 @@
         <v>13590</v>
       </c>
       <c r="E23" s="18">
-        <v>13268</v>
+        <v>13376</v>
       </c>
       <c r="F23" s="18">
-        <v>13677</v>
+        <v>13706</v>
       </c>
       <c r="G23" s="19">
-        <v>13706</v>
+        <v>13772</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>2.1203480295386434E-3</v>
+        <v>4.8154093097914075E-3</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L23" s="23">
         <f t="shared" si="4"/>
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="5"/>
-        <v>8.5356880058866658E-3</v>
+        <v>1.3392200147167133E-2</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="8"/>
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="29">
         <f t="shared" si="9"/>
-        <v>3.3011757612300352E-2</v>
+        <v>2.960526315789469E-2</v>
       </c>
       <c r="R23" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S23" s="30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2385,37 +2358,37 @@
         <v>74823</v>
       </c>
       <c r="E24" s="18">
-        <v>72034</v>
+        <v>73017</v>
       </c>
       <c r="F24" s="18">
-        <v>75827</v>
+        <v>75889</v>
       </c>
       <c r="G24" s="19">
-        <v>75889</v>
+        <v>76111</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>8.1765070489403513E-4</v>
+        <v>2.9253251459369078E-3</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L24" s="23">
         <f t="shared" si="4"/>
-        <v>1066</v>
+        <v>1288</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="5"/>
-        <v>1.4246956149847056E-2</v>
+        <v>1.7213958274862051E-2</v>
       </c>
       <c r="N24" s="25">
         <f t="shared" si="6"/>
@@ -2423,15 +2396,15 @@
       </c>
       <c r="O24" s="22">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P24" s="25">
         <f t="shared" si="8"/>
-        <v>3855</v>
+        <v>3094</v>
       </c>
       <c r="Q24" s="29">
         <f t="shared" si="9"/>
-        <v>5.3516395035677622E-2</v>
+        <v>4.237369379733491E-2</v>
       </c>
       <c r="R24" s="25">
         <f t="shared" si="10"/>
@@ -2439,7 +2412,7 @@
       </c>
       <c r="S24" s="30">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2456,37 +2429,37 @@
         <v>14401</v>
       </c>
       <c r="E25" s="18">
-        <v>14214</v>
+        <v>14286</v>
       </c>
       <c r="F25" s="18">
-        <v>14512</v>
+        <v>14490</v>
       </c>
       <c r="G25" s="19">
-        <v>14490</v>
+        <v>14509</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>-1.515986769569988E-3</v>
+        <v>1.3112491373361568E-3</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L25" s="23">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="5"/>
-        <v>6.1801263801124495E-3</v>
+        <v>7.4994792028331148E-3</v>
       </c>
       <c r="N25" s="25">
         <f t="shared" si="6"/>
@@ -2498,19 +2471,19 @@
       </c>
       <c r="P25" s="25">
         <f t="shared" si="8"/>
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="29">
         <f t="shared" si="9"/>
-        <v>1.9417475728155331E-2</v>
+        <v>1.5609687806243944E-2</v>
       </c>
       <c r="R25" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S25" s="30">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -2527,41 +2500,41 @@
         <v>34423</v>
       </c>
       <c r="E26" s="18">
-        <v>33656</v>
+        <v>33954</v>
       </c>
       <c r="F26" s="18">
-        <v>34911</v>
+        <v>34766</v>
       </c>
       <c r="G26" s="19">
-        <v>34766</v>
+        <v>34917</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>-145</v>
+        <v>151</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>-4.1534186932485895E-3</v>
+        <v>4.3433239371799548E-3</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L26" s="23">
         <f t="shared" si="4"/>
-        <v>343</v>
+        <v>494</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="5"/>
-        <v>9.9642680765767988E-3</v>
+        <v>1.4350870057810106E-2</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" s="22">
         <f t="shared" si="7"/>
@@ -2569,19 +2542,19 @@
       </c>
       <c r="P26" s="25">
         <f t="shared" si="8"/>
-        <v>1110</v>
+        <v>963</v>
       </c>
       <c r="Q26" s="29">
         <f t="shared" si="9"/>
-        <v>3.2980746375089076E-2</v>
+        <v>2.8361901396006362E-2</v>
       </c>
       <c r="R26" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S26" s="30">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2598,37 +2571,37 @@
         <v>28507</v>
       </c>
       <c r="E27" s="18">
-        <v>27264</v>
+        <v>27761</v>
       </c>
       <c r="F27" s="18">
-        <v>29302</v>
+        <v>29396</v>
       </c>
       <c r="G27" s="19">
-        <v>29396</v>
+        <v>29505</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>3.2079721520714699E-3</v>
+        <v>3.707987481289976E-3</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L27" s="23">
         <f t="shared" si="4"/>
-        <v>889</v>
+        <v>998</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="5"/>
-        <v>3.1185322903146684E-2</v>
+        <v>3.5008945171361328E-2</v>
       </c>
       <c r="N27" s="25">
         <f t="shared" si="6"/>
@@ -2640,11 +2613,11 @@
       </c>
       <c r="P27" s="25">
         <f t="shared" si="8"/>
-        <v>2132</v>
+        <v>1744</v>
       </c>
       <c r="Q27" s="29">
         <f t="shared" si="9"/>
-        <v>7.8198356807511749E-2</v>
+        <v>6.282194445445044E-2</v>
       </c>
       <c r="R27" s="25">
         <f t="shared" si="10"/>
@@ -2669,21 +2642,21 @@
         <v>19275</v>
       </c>
       <c r="E28" s="18">
-        <v>18033</v>
+        <v>18458</v>
       </c>
       <c r="F28" s="18">
-        <v>20108</v>
+        <v>20179</v>
       </c>
       <c r="G28" s="19">
-        <v>20179</v>
+        <v>20311</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>3.5309329620052399E-3</v>
+        <v>6.5414539868180466E-3</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="2"/>
@@ -2691,15 +2664,15 @@
       </c>
       <c r="K28" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="4"/>
-        <v>904</v>
+        <v>1036</v>
       </c>
       <c r="M28" s="24">
         <f t="shared" si="5"/>
-        <v>4.6900129701686222E-2</v>
+        <v>5.3748378728923463E-2</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="6"/>
@@ -2711,11 +2684,11 @@
       </c>
       <c r="P28" s="25">
         <f t="shared" si="8"/>
-        <v>2146</v>
+        <v>1853</v>
       </c>
       <c r="Q28" s="29">
         <f t="shared" si="9"/>
-        <v>0.11900404813397669</v>
+        <v>0.10039007476432982</v>
       </c>
       <c r="R28" s="25">
         <f t="shared" si="10"/>
@@ -2740,21 +2713,21 @@
         <v>23707</v>
       </c>
       <c r="E29" s="18">
-        <v>23311</v>
+        <v>23505</v>
       </c>
       <c r="F29" s="18">
-        <v>23830</v>
+        <v>23810</v>
       </c>
       <c r="G29" s="19">
-        <v>23810</v>
+        <v>23845</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="1"/>
-        <v>-8.3927822073015523E-4</v>
+        <v>1.4699706005880664E-3</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="2"/>
@@ -2762,15 +2735,15 @@
       </c>
       <c r="K29" s="22">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="5"/>
-        <v>4.3447083140000231E-3</v>
+        <v>5.8210655080777052E-3</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="6"/>
@@ -2778,23 +2751,23 @@
       </c>
       <c r="O29" s="22">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="8"/>
-        <v>499</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="29">
         <f t="shared" si="9"/>
-        <v>2.1406203080091002E-2</v>
+        <v>1.4465007445224387E-2</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2811,25 +2784,25 @@
         <v>42868</v>
       </c>
       <c r="E30" s="18">
-        <v>42178</v>
+        <v>42434</v>
       </c>
       <c r="F30" s="18">
-        <v>43261</v>
+        <v>43273</v>
       </c>
       <c r="G30" s="19">
-        <v>43273</v>
+        <v>43393</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="1"/>
-        <v>2.7738609833338757E-4</v>
+        <v>2.7730917662283083E-3</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="3"/>
@@ -2837,11 +2810,11 @@
       </c>
       <c r="L30" s="23">
         <f t="shared" si="4"/>
-        <v>405</v>
+        <v>525</v>
       </c>
       <c r="M30" s="24">
         <f t="shared" si="5"/>
-        <v>9.4476066063264863E-3</v>
+        <v>1.2246897452645289E-2</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="6"/>
@@ -2849,23 +2822,23 @@
       </c>
       <c r="O30" s="22">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P30" s="25">
         <f t="shared" si="8"/>
-        <v>1095</v>
+        <v>959</v>
       </c>
       <c r="Q30" s="29">
         <f t="shared" si="9"/>
-        <v>2.5961401678600282E-2</v>
+        <v>2.2599802045529582E-2</v>
       </c>
       <c r="R30" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S30" s="30">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2882,61 +2855,61 @@
         <v>39139</v>
       </c>
       <c r="E31" s="18">
-        <v>38675</v>
+        <v>38969</v>
       </c>
       <c r="F31" s="18">
-        <v>39151</v>
+        <v>39292</v>
       </c>
       <c r="G31" s="19">
-        <v>39292</v>
+        <v>39374</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="1"/>
-        <v>3.6014405762305746E-3</v>
+        <v>2.0869388170619008E-3</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L31" s="23">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="5"/>
-        <v>3.9091443317407215E-3</v>
+        <v>6.0042412938501322E-3</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O31" s="22">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="8"/>
-        <v>617</v>
+        <v>405</v>
       </c>
       <c r="Q31" s="29">
         <f t="shared" si="9"/>
-        <v>1.5953458306399382E-2</v>
+        <v>1.0392876388924499E-2</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2953,53 +2926,53 @@
         <v>11432</v>
       </c>
       <c r="E32" s="18">
-        <v>11282</v>
+        <v>11358</v>
       </c>
       <c r="F32" s="18">
-        <v>11633</v>
+        <v>11626</v>
       </c>
       <c r="G32" s="19">
-        <v>11626</v>
+        <v>11695</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>69</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="1"/>
-        <v>-6.0173643943950417E-4</v>
+        <v>5.9349733356270917E-3</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L32" s="23">
         <f t="shared" si="4"/>
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="5"/>
-        <v>1.6969909027291896E-2</v>
+        <v>2.3005598320503751E-2</v>
       </c>
       <c r="N32" s="25">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O32" s="22">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="8"/>
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q32" s="29">
         <f t="shared" si="9"/>
-        <v>3.0491047686580286E-2</v>
+        <v>2.9670716675471054E-2</v>
       </c>
       <c r="R32" s="25">
         <f t="shared" si="10"/>
@@ -3007,7 +2980,7 @@
       </c>
       <c r="S32" s="30">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -3024,61 +2997,61 @@
         <v>34785</v>
       </c>
       <c r="E33" s="18">
-        <v>34370</v>
+        <v>34614</v>
       </c>
       <c r="F33" s="18">
-        <v>34725</v>
+        <v>34667</v>
       </c>
       <c r="G33" s="19">
-        <v>34667</v>
+        <v>34651</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>-58</v>
+        <v>-16</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="1"/>
-        <v>-1.6702663786897221E-3</v>
+        <v>-4.6153402371129637E-4</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L33" s="23">
         <f t="shared" si="4"/>
-        <v>-118</v>
+        <v>-134</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="5"/>
-        <v>-3.3922667816587149E-3</v>
+        <v>-3.8522351588328174E-3</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33" s="22">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="9"/>
-        <v>8.6412569100959846E-3</v>
+        <v>1.068931646154736E-3</v>
       </c>
       <c r="R33" s="25">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S33" s="30">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -3095,61 +3068,61 @@
         <v>5466</v>
       </c>
       <c r="E34" s="18">
-        <v>5322</v>
+        <v>5343</v>
       </c>
       <c r="F34" s="18">
-        <v>5467</v>
+        <v>5462</v>
       </c>
       <c r="G34" s="19">
-        <v>5462</v>
+        <v>5519</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>57</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="1"/>
-        <v>-9.1457837936714803E-4</v>
+        <v>1.0435737824972646E-2</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L34" s="23">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>53</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="5"/>
-        <v>-7.3179656055621933E-4</v>
+        <v>9.69630442736924E-3</v>
       </c>
       <c r="N34" s="25">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O34" s="22">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="8"/>
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="Q34" s="29">
         <f t="shared" si="9"/>
-        <v>2.6305900037579821E-2</v>
+        <v>3.2940295714018353E-2</v>
       </c>
       <c r="R34" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -3166,61 +3139,61 @@
         <v>44116</v>
       </c>
       <c r="E35" s="18">
-        <v>43928</v>
+        <v>44079</v>
       </c>
       <c r="F35" s="18">
-        <v>44276</v>
+        <v>44222</v>
       </c>
       <c r="G35" s="19">
-        <v>44222</v>
+        <v>44205</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>-17</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="1"/>
-        <v>-1.2196223687777064E-3</v>
+        <v>-3.8442404233185457E-4</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="5"/>
-        <v>2.4027563695712129E-3</v>
+        <v>2.0174086499229471E-3</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O35" s="22">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P35" s="25">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>126</v>
       </c>
       <c r="Q35" s="29">
         <f t="shared" si="9"/>
-        <v>6.6927699872518787E-3</v>
+        <v>2.8585040495474612E-3</v>
       </c>
       <c r="R35" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S35" s="30">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3237,37 +3210,37 @@
         <v>20773</v>
       </c>
       <c r="E36" s="18">
-        <v>20210</v>
+        <v>20382</v>
       </c>
       <c r="F36" s="18">
-        <v>21273</v>
+        <v>21204</v>
       </c>
       <c r="G36" s="19">
-        <v>21204</v>
+        <v>21309</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>-69</v>
+        <v>105</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="1"/>
-        <v>-3.2435481596390092E-3</v>
+        <v>4.9518958687040371E-3</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L36" s="23">
         <f t="shared" si="4"/>
-        <v>431</v>
+        <v>536</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="5"/>
-        <v>2.0748086458383552E-2</v>
+        <v>2.5802724690704215E-2</v>
       </c>
       <c r="N36" s="25">
         <f t="shared" si="6"/>
@@ -3279,66 +3252,66 @@
       </c>
       <c r="P36" s="25">
         <f t="shared" si="8"/>
-        <v>994</v>
+        <v>927</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="9"/>
-        <v>4.9183572488866956E-2</v>
+        <v>4.54813070356197E-2</v>
       </c>
       <c r="R36" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S36" s="30">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="16">
         <v>11771</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="17">
         <v>11796</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="18">
         <v>12068</v>
       </c>
-      <c r="E37" s="46">
-        <v>12017</v>
-      </c>
-      <c r="F37" s="46">
-        <v>12040</v>
-      </c>
-      <c r="G37" s="47">
+      <c r="E37" s="18">
+        <v>12067</v>
+      </c>
+      <c r="F37" s="18">
         <v>12031</v>
+      </c>
+      <c r="G37" s="19">
+        <v>12029</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="1"/>
-        <v>-7.475083056478482E-4</v>
+        <v>-1.662372205136764E-4</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="4"/>
-        <v>-37</v>
+        <v>-39</v>
       </c>
       <c r="M37" s="24">
         <f t="shared" si="5"/>
-        <v>-3.0659595624792368E-3</v>
+        <v>-3.2316871063970964E-3</v>
       </c>
       <c r="N37" s="25">
         <f t="shared" si="6"/>
@@ -3346,15 +3319,15 @@
       </c>
       <c r="O37" s="22">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>-38</v>
       </c>
       <c r="Q37" s="29">
         <f t="shared" si="9"/>
-        <v>1.165016227011817E-3</v>
+        <v>-3.1490842794398288E-3</v>
       </c>
       <c r="R37" s="25">
         <f t="shared" si="10"/>
@@ -3366,60 +3339,57 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="9" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="44" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="67">
         <v>1000414</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="45">
         <v>1003261</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="68">
         <v>1053670</v>
       </c>
-      <c r="E38" s="69">
-        <f>SUM(E6:E37)</f>
-        <v>1028757</v>
-      </c>
-      <c r="F38" s="69">
-        <f>SUM(F6:F37)</f>
-        <v>1064631</v>
-      </c>
-      <c r="G38" s="70">
-        <f>SUM(G6:G37)</f>
+      <c r="E38" s="68">
+        <v>1038286</v>
+      </c>
+      <c r="F38" s="68">
         <v>1064787</v>
       </c>
-      <c r="H38" s="71">
+      <c r="G38" s="69">
+        <v>1067486</v>
+      </c>
+      <c r="H38" s="45">
         <f>G38-F38</f>
-        <v>156</v>
-      </c>
-      <c r="I38" s="72">
+        <v>2699</v>
+      </c>
+      <c r="I38" s="46">
         <f t="shared" si="1"/>
-        <v>1.4652964266481661E-4</v>
-      </c>
-      <c r="J38" s="73"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="75">
+        <v>2.5347792563208404E-3</v>
+      </c>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="49">
         <f t="shared" si="4"/>
-        <v>11117</v>
-      </c>
-      <c r="M38" s="76">
+        <v>13816</v>
+      </c>
+      <c r="M38" s="50">
         <f t="shared" si="5"/>
-        <v>1.0550741693319488E-2</v>
-      </c>
-      <c r="N38" s="73"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="77">
+        <v>1.3112264750823277E-2</v>
+      </c>
+      <c r="N38" s="47"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="51">
         <f t="shared" si="8"/>
-        <v>36030</v>
-      </c>
-      <c r="Q38" s="78">
+        <v>29200</v>
+      </c>
+      <c r="Q38" s="52">
         <f t="shared" si="9"/>
-        <v>3.502284796118027E-2</v>
-      </c>
-      <c r="R38" s="73"/>
-      <c r="S38" s="74"/>
+        <v>2.8123272393155707E-2</v>
+      </c>
+      <c r="R38" s="47"/>
+      <c r="S38" s="48"/>
     </row>
     <row r="39" spans="1:19" s="5" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6"/>
@@ -3427,27 +3397,27 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:19" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
-    <sheet name="agosto" sheetId="2" r:id="rId1"/>
+    <sheet name="septiembre" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,27 +188,27 @@
   </si>
   <si>
     <t>2022
-Julio</t>
-  </si>
-  <si>
-    <t>Diciembre 2020-agosto 2022</t>
+Agosto</t>
+  </si>
+  <si>
+    <t>Diciembre 2020-septiembre 2022</t>
   </si>
   <si>
     <t>2022
-Agosto</t>
+Septiembre</t>
   </si>
   <si>
     <t>2021
-Agosto</t>
-  </si>
-  <si>
-    <t>Agosto 2022 respecto a Julio 2022</t>
-  </si>
-  <si>
-    <t>Agosto 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Agosto 2022 respecto a Agosto 2021</t>
+Septiembre</t>
+  </si>
+  <si>
+    <t>Septiembre 2022 respecto a Agosto 2022</t>
+  </si>
+  <si>
+    <t>Septiembre 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Septiembre 2022 respecto a Septiembre 2021</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -657,13 +657,40 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,7 +920,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -905,9 +932,8 @@
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="9.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.625" style="2" customWidth="1"/>
+    <col min="16" max="18" width="10.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
@@ -1068,51 +1094,51 @@
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="71">
         <v>16017</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="72">
         <v>16063</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="73">
         <v>16746</v>
       </c>
-      <c r="E6" s="18">
-        <v>16597</v>
-      </c>
-      <c r="F6" s="18">
-        <v>16757</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="E6" s="73">
+        <v>16724</v>
+      </c>
+      <c r="F6" s="73">
         <v>16755</v>
+      </c>
+      <c r="G6" s="74">
+        <v>16722</v>
       </c>
       <c r="H6" s="17">
         <f>G6-F6</f>
-        <v>-2</v>
+        <v>-33</v>
       </c>
       <c r="I6" s="20">
         <f>G6/F6-1</f>
-        <v>-1.1935310616462136E-4</v>
+        <v>-1.9695613249776089E-3</v>
       </c>
       <c r="J6" s="21">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K6" s="22">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L6" s="23">
         <f>G6-D6</f>
-        <v>9</v>
+        <v>-24</v>
       </c>
       <c r="M6" s="24">
         <f>G6/D6-1</f>
-        <v>5.3744177714087904E-4</v>
+        <v>-1.4331780723755294E-3</v>
       </c>
       <c r="N6" s="25">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="22">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
@@ -1120,15 +1146,15 @@
       </c>
       <c r="P6" s="26">
         <f>G6-E6</f>
-        <v>158</v>
+        <v>-2</v>
       </c>
       <c r="Q6" s="27">
         <f>G6/E6-1</f>
-        <v>9.5197927336265753E-3</v>
+        <v>-1.1958861516381258E-4</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" s="28">
         <f>_xlfn.RANK.EQ(Q6,$Q$6:$Q$37)</f>
@@ -1149,61 +1175,61 @@
         <v>44540</v>
       </c>
       <c r="E7" s="18">
-        <v>43604</v>
+        <v>44193</v>
       </c>
       <c r="F7" s="18">
-        <v>44387</v>
+        <v>44462</v>
       </c>
       <c r="G7" s="19">
-        <v>44462</v>
+        <v>44544</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>1.6896839164619593E-3</v>
+        <v>1.84427151275246E-3</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L7" s="23">
         <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>-78</v>
+        <v>4</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>-1.751234845083105E-3</v>
+        <v>8.9806915132495391E-5</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P38" si="8">G7-E7</f>
-        <v>858</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:Q38" si="9">G7/E7-1</f>
-        <v>1.9677093844601368E-2</v>
+        <v>7.9424343221776716E-3</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" ref="R7:R37" si="10">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7:S37" si="11">_xlfn.RANK.EQ(Q7,$Q$6:$Q$37)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1220,37 +1246,37 @@
         <v>13964</v>
       </c>
       <c r="E8" s="18">
-        <v>13503</v>
+        <v>13662</v>
       </c>
       <c r="F8" s="18">
-        <v>14512</v>
+        <v>14588</v>
       </c>
       <c r="G8" s="19">
-        <v>14588</v>
+        <v>14593</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>5.2370452039691706E-3</v>
+        <v>3.4274746366880215E-4</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="4"/>
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="5"/>
-        <v>4.4686336293325635E-2</v>
+        <v>4.504439988541975E-2</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="6"/>
@@ -1262,11 +1288,11 @@
       </c>
       <c r="P8" s="25">
         <f t="shared" si="8"/>
-        <v>1085</v>
+        <v>931</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" si="9"/>
-        <v>8.0352514256091245E-2</v>
+        <v>6.8145220319133282E-2</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="10"/>
@@ -1291,61 +1317,61 @@
         <v>6254</v>
       </c>
       <c r="E9" s="18">
-        <v>6139</v>
+        <v>6206</v>
       </c>
       <c r="F9" s="18">
-        <v>6365</v>
+        <v>6404</v>
       </c>
       <c r="G9" s="19">
-        <v>6404</v>
+        <v>6411</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>6.1272584446190326E-3</v>
+        <v>1.0930668332291837E-3</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L9" s="23">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="5"/>
-        <v>2.3984649824112525E-2</v>
+        <v>2.5103933482571117E-2</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="8"/>
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="29">
         <f t="shared" si="9"/>
-        <v>4.3166639517836725E-2</v>
+        <v>3.3032549145987744E-2</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S9" s="30">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1362,25 +1388,25 @@
         <v>14789</v>
       </c>
       <c r="E10" s="18">
-        <v>14683</v>
+        <v>14778</v>
       </c>
       <c r="F10" s="18">
-        <v>14813</v>
+        <v>14835</v>
       </c>
       <c r="G10" s="19">
-        <v>14835</v>
+        <v>14805</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>-30</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>1.4851819347869721E-3</v>
+        <v>-2.0222446916077219E-3</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
@@ -1388,31 +1414,31 @@
       </c>
       <c r="L10" s="23">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="5"/>
-        <v>3.1104199066873672E-3</v>
+        <v>1.0818851849347944E-3</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="9"/>
-        <v>1.0352107879860961E-2</v>
+        <v>1.8270401948843329E-3</v>
       </c>
       <c r="R10" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S10" s="30">
         <f t="shared" si="11"/>
@@ -1433,61 +1459,61 @@
         <v>42167</v>
       </c>
       <c r="E11" s="18">
-        <v>41443</v>
+        <v>41777</v>
       </c>
       <c r="F11" s="18">
-        <v>42398</v>
+        <v>42383</v>
       </c>
       <c r="G11" s="19">
-        <v>42383</v>
+        <v>42282</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-101</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>-3.5379027312609779E-4</v>
+        <v>-2.3830309322133703E-3</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L11" s="23">
         <f t="shared" si="4"/>
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="5"/>
-        <v>5.1224891502834602E-3</v>
+        <v>2.7272511679750089E-3</v>
       </c>
       <c r="N11" s="25">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O11" s="22">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" s="25">
         <f t="shared" si="8"/>
-        <v>940</v>
+        <v>505</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="9"/>
-        <v>2.2681755664406555E-2</v>
+        <v>1.2087990999832376E-2</v>
       </c>
       <c r="R11" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S11" s="30">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1504,37 +1530,37 @@
         <v>125199</v>
       </c>
       <c r="E12" s="18">
-        <v>122640</v>
+        <v>124086</v>
       </c>
       <c r="F12" s="18">
-        <v>126772</v>
+        <v>127108</v>
       </c>
       <c r="G12" s="19">
-        <v>127108</v>
+        <v>127017</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>-91</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>2.6504275392043031E-3</v>
+        <v>-7.1592661358843568E-4</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="4"/>
-        <v>1909</v>
+        <v>1818</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="5"/>
-        <v>1.524772562081167E-2</v>
+        <v>1.4520882754654574E-2</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="6"/>
@@ -1542,23 +1568,23 @@
       </c>
       <c r="O12" s="22">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P12" s="25">
         <f t="shared" si="8"/>
-        <v>4468</v>
+        <v>2931</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="9"/>
-        <v>3.6431833007175562E-2</v>
+        <v>2.362071466563509E-2</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="30">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1575,61 +1601,61 @@
         <v>35642</v>
       </c>
       <c r="E13" s="18">
-        <v>35290</v>
+        <v>35420</v>
       </c>
       <c r="F13" s="18">
-        <v>35784</v>
+        <v>35816</v>
       </c>
       <c r="G13" s="19">
-        <v>35816</v>
+        <v>35742</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>-74</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>8.9425441538115713E-4</v>
+        <v>-2.0661157024793875E-3</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="5"/>
-        <v>4.8818809269961516E-3</v>
+        <v>2.8056786936760947E-3</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="8"/>
-        <v>526</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="9"/>
-        <v>1.4905072258430074E-2</v>
+        <v>9.0909090909090384E-3</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S13" s="30">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1646,37 +1672,37 @@
         <v>11397</v>
       </c>
       <c r="E14" s="18">
-        <v>11279</v>
+        <v>11339</v>
       </c>
       <c r="F14" s="18">
-        <v>11563</v>
+        <v>11625</v>
       </c>
       <c r="G14" s="19">
-        <v>11625</v>
+        <v>11600</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>-25</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>5.3619302949061698E-3</v>
+        <v>-2.1505376344086446E-3</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="4"/>
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="5"/>
-        <v>2.0005264543300871E-2</v>
+        <v>1.7811704834605591E-2</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="6"/>
@@ -1684,15 +1710,15 @@
       </c>
       <c r="O14" s="22">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="8"/>
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="29">
         <f t="shared" si="9"/>
-        <v>3.0676478411206576E-2</v>
+        <v>2.3017902813299296E-2</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="10"/>
@@ -1700,7 +1726,7 @@
       </c>
       <c r="S14" s="30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1717,53 +1743,53 @@
         <v>14609</v>
       </c>
       <c r="E15" s="18">
-        <v>14584</v>
+        <v>14612</v>
       </c>
       <c r="F15" s="18">
-        <v>14641</v>
+        <v>14655</v>
       </c>
       <c r="G15" s="19">
-        <v>14655</v>
+        <v>14574</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>-81</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>9.562188375111802E-4</v>
+        <v>-5.5271238485158358E-3</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>-35</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="5"/>
-        <v>3.1487439249777704E-3</v>
+        <v>-2.3957834211787432E-3</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="8"/>
-        <v>71</v>
+        <v>-38</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="9"/>
-        <v>4.8683488754799331E-3</v>
+        <v>-2.6006022447303545E-3</v>
       </c>
       <c r="R15" s="25">
         <f t="shared" si="10"/>
@@ -1771,7 +1797,7 @@
       </c>
       <c r="S15" s="30">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1788,37 +1814,37 @@
         <v>77044</v>
       </c>
       <c r="E16" s="18">
-        <v>75223</v>
+        <v>76166</v>
       </c>
       <c r="F16" s="18">
-        <v>78218</v>
+        <v>78492</v>
       </c>
       <c r="G16" s="19">
-        <v>78492</v>
+        <v>78279</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>-213</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>3.5030299930962627E-3</v>
+        <v>-2.7136523467359286E-3</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="4"/>
-        <v>1448</v>
+        <v>1235</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="5"/>
-        <v>1.8794455116556863E-2</v>
+        <v>1.6029801152588119E-2</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="6"/>
@@ -1826,15 +1852,15 @@
       </c>
       <c r="O16" s="22">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="8"/>
-        <v>3269</v>
+        <v>2113</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" si="9"/>
-        <v>4.3457453172566884E-2</v>
+        <v>2.774203712942791E-2</v>
       </c>
       <c r="R16" s="25">
         <f t="shared" si="10"/>
@@ -1842,7 +1868,7 @@
       </c>
       <c r="S16" s="30">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1859,37 +1885,37 @@
         <v>49358</v>
       </c>
       <c r="E17" s="18">
-        <v>48978</v>
+        <v>49169</v>
       </c>
       <c r="F17" s="18">
-        <v>49725</v>
+        <v>49801</v>
       </c>
       <c r="G17" s="19">
-        <v>49801</v>
+        <v>49745</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>-56</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>1.5284062342886262E-3</v>
+        <v>-1.1244754121403355E-3</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="4"/>
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="5"/>
-        <v>8.9752421086752854E-3</v>
+        <v>7.8406742574659294E-3</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="6"/>
@@ -1897,23 +1923,23 @@
       </c>
       <c r="O17" s="22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="8"/>
-        <v>823</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" si="9"/>
-        <v>1.6803462779207079E-2</v>
+        <v>1.1714698285505198E-2</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S17" s="30">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1930,61 +1956,61 @@
         <v>13674</v>
       </c>
       <c r="E18" s="18">
-        <v>13765</v>
+        <v>13745</v>
       </c>
       <c r="F18" s="18">
-        <v>13710</v>
+        <v>13775</v>
       </c>
       <c r="G18" s="19">
-        <v>13775</v>
+        <v>13770</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>-5</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>4.7410649161196972E-3</v>
+        <v>-3.6297640653359942E-4</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="5"/>
-        <v>7.3862805323972047E-3</v>
+        <v>7.0206230802982716E-3</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="9"/>
-        <v>7.2648020341437025E-4</v>
+        <v>1.8188432157149048E-3</v>
       </c>
       <c r="R18" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S18" s="30">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2001,37 +2027,37 @@
         <v>15980</v>
       </c>
       <c r="E19" s="18">
-        <v>15814</v>
+        <v>15889</v>
       </c>
       <c r="F19" s="18">
-        <v>16207</v>
+        <v>16259</v>
       </c>
       <c r="G19" s="19">
-        <v>16259</v>
+        <v>16307</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>3.2084901585733849E-3</v>
+        <v>2.9522110830924042E-3</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="5"/>
-        <v>1.7459324155193912E-2</v>
+        <v>2.046307884856069E-2</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="6"/>
@@ -2039,23 +2065,23 @@
       </c>
       <c r="O19" s="22">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="8"/>
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="9"/>
-        <v>2.8139623118755619E-2</v>
+        <v>2.6307508339102448E-2</v>
       </c>
       <c r="R19" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" s="2"/>
     </row>
@@ -2073,21 +2099,21 @@
         <v>103251</v>
       </c>
       <c r="E20" s="34">
-        <v>101796</v>
+        <v>102475</v>
       </c>
       <c r="F20" s="34">
-        <v>105078</v>
+        <v>105454</v>
       </c>
       <c r="G20" s="35">
-        <v>105454</v>
+        <v>105603</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="I20" s="36">
         <f t="shared" si="1"/>
-        <v>3.5782942195321521E-3</v>
+        <v>1.4129383427845532E-3</v>
       </c>
       <c r="J20" s="37">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
@@ -2095,15 +2121,15 @@
       </c>
       <c r="K20" s="38">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L20" s="39">
         <f t="shared" si="4"/>
-        <v>2203</v>
+        <v>2352</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="5"/>
-        <v>2.1336355095834314E-2</v>
+        <v>2.2779440392829198E-2</v>
       </c>
       <c r="N20" s="41">
         <f t="shared" si="6"/>
@@ -2115,19 +2141,19 @@
       </c>
       <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>3658</v>
+        <v>3128</v>
       </c>
       <c r="Q20" s="42">
         <f t="shared" si="9"/>
-        <v>3.5934614326692538E-2</v>
+        <v>3.0524518175164772E-2</v>
       </c>
       <c r="R20" s="41">
         <f>_xlfn.RANK.EQ(P20,$P$6:$P$37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" s="43">
         <f>_xlfn.RANK.EQ(Q20,$Q$6:$Q$37)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T20" s="2"/>
     </row>
@@ -2145,53 +2171,53 @@
         <v>37104</v>
       </c>
       <c r="E21" s="18">
-        <v>36908</v>
+        <v>37019</v>
       </c>
       <c r="F21" s="18">
-        <v>37185</v>
+        <v>37273</v>
       </c>
       <c r="G21" s="19">
-        <v>37273</v>
+        <v>37282</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>2.3665456501278381E-3</v>
+        <v>2.4146164784166757E-4</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="5"/>
-        <v>4.5547649849073668E-3</v>
+        <v>4.7973264338077026E-3</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="8"/>
-        <v>365</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="29">
         <f t="shared" si="9"/>
-        <v>9.889454860734892E-3</v>
+        <v>7.1044598719576246E-3</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="10"/>
@@ -2199,7 +2225,7 @@
       </c>
       <c r="S21" s="30">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -2216,53 +2242,53 @@
         <v>12579</v>
       </c>
       <c r="E22" s="18">
-        <v>12437</v>
+        <v>12516</v>
       </c>
       <c r="F22" s="18">
-        <v>12659</v>
+        <v>12656</v>
       </c>
       <c r="G22" s="19">
-        <v>12656</v>
+        <v>12632</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-24</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>-2.3698554388185133E-4</v>
+        <v>-1.8963337547408532E-3</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L22" s="23">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="5"/>
-        <v>6.1213132999442532E-3</v>
+        <v>4.2133714921694931E-3</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="8"/>
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="9"/>
-        <v>1.7608748090375492E-2</v>
+        <v>9.2681367849152263E-3</v>
       </c>
       <c r="R22" s="25">
         <f t="shared" si="10"/>
@@ -2270,7 +2296,7 @@
       </c>
       <c r="S22" s="30">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2287,53 +2313,53 @@
         <v>13590</v>
       </c>
       <c r="E23" s="18">
-        <v>13376</v>
+        <v>13478</v>
       </c>
       <c r="F23" s="18">
-        <v>13706</v>
+        <v>13772</v>
       </c>
       <c r="G23" s="19">
-        <v>13772</v>
+        <v>13797</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>4.8154093097914075E-3</v>
+        <v>1.8152773743826955E-3</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L23" s="23">
         <f t="shared" si="4"/>
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="5"/>
-        <v>1.3392200147167133E-2</v>
+        <v>1.5231788079470121E-2</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="29">
         <f t="shared" si="9"/>
-        <v>2.960526315789469E-2</v>
+        <v>2.3668200029677955E-2</v>
       </c>
       <c r="R23" s="25">
         <f t="shared" si="10"/>
@@ -2358,37 +2384,37 @@
         <v>74823</v>
       </c>
       <c r="E24" s="18">
-        <v>73017</v>
+        <v>74025</v>
       </c>
       <c r="F24" s="18">
-        <v>75889</v>
+        <v>76111</v>
       </c>
       <c r="G24" s="19">
-        <v>76111</v>
+        <v>76016</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>-95</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>2.9253251459369078E-3</v>
+        <v>-1.2481770046379737E-3</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L24" s="23">
         <f t="shared" si="4"/>
-        <v>1288</v>
+        <v>1193</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="5"/>
-        <v>1.7213958274862051E-2</v>
+        <v>1.5944295203346615E-2</v>
       </c>
       <c r="N24" s="25">
         <f t="shared" si="6"/>
@@ -2396,15 +2422,15 @@
       </c>
       <c r="O24" s="22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P24" s="25">
         <f t="shared" si="8"/>
-        <v>3094</v>
+        <v>1991</v>
       </c>
       <c r="Q24" s="29">
         <f t="shared" si="9"/>
-        <v>4.237369379733491E-2</v>
+        <v>2.689631881121235E-2</v>
       </c>
       <c r="R24" s="25">
         <f t="shared" si="10"/>
@@ -2412,7 +2438,7 @@
       </c>
       <c r="S24" s="30">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2429,61 +2455,61 @@
         <v>14401</v>
       </c>
       <c r="E25" s="18">
-        <v>14286</v>
+        <v>14322</v>
       </c>
       <c r="F25" s="18">
-        <v>14490</v>
+        <v>14509</v>
       </c>
       <c r="G25" s="19">
-        <v>14509</v>
+        <v>14501</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-8</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>1.3112491373361568E-3</v>
+        <v>-5.5138190088910299E-4</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L25" s="23">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="5"/>
-        <v>7.4994792028331148E-3</v>
+        <v>6.9439622248455013E-3</v>
       </c>
       <c r="N25" s="25">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O25" s="22">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="8"/>
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="29">
         <f t="shared" si="9"/>
-        <v>1.5609687806243944E-2</v>
+        <v>1.2498254433738198E-2</v>
       </c>
       <c r="R25" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S25" s="30">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -2500,53 +2526,53 @@
         <v>34423</v>
       </c>
       <c r="E26" s="18">
-        <v>33954</v>
+        <v>34133</v>
       </c>
       <c r="F26" s="18">
-        <v>34766</v>
+        <v>34917</v>
       </c>
       <c r="G26" s="19">
-        <v>34917</v>
+        <v>34973</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>4.3433239371799548E-3</v>
+        <v>1.6038033049803335E-3</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L26" s="23">
         <f t="shared" si="4"/>
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="5"/>
-        <v>1.4350870057810106E-2</v>
+        <v>1.5977689335618717E-2</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O26" s="22">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="8"/>
-        <v>963</v>
+        <v>840</v>
       </c>
       <c r="Q26" s="29">
         <f t="shared" si="9"/>
-        <v>2.8361901396006362E-2</v>
+        <v>2.4609615328274659E-2</v>
       </c>
       <c r="R26" s="25">
         <f t="shared" si="10"/>
@@ -2554,7 +2580,7 @@
       </c>
       <c r="S26" s="30">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2571,37 +2597,37 @@
         <v>28507</v>
       </c>
       <c r="E27" s="18">
-        <v>27761</v>
+        <v>28158</v>
       </c>
       <c r="F27" s="18">
-        <v>29396</v>
+        <v>29505</v>
       </c>
       <c r="G27" s="19">
-        <v>29505</v>
+        <v>29483</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>-22</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>3.707987481289976E-3</v>
+        <v>-7.4563633282498376E-4</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L27" s="23">
         <f t="shared" si="4"/>
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="5"/>
-        <v>3.5008945171361328E-2</v>
+        <v>3.4237204897042739E-2</v>
       </c>
       <c r="N27" s="25">
         <f t="shared" si="6"/>
@@ -2613,11 +2639,11 @@
       </c>
       <c r="P27" s="25">
         <f t="shared" si="8"/>
-        <v>1744</v>
+        <v>1325</v>
       </c>
       <c r="Q27" s="29">
         <f t="shared" si="9"/>
-        <v>6.282194445445044E-2</v>
+        <v>4.7055898856452893E-2</v>
       </c>
       <c r="R27" s="25">
         <f t="shared" si="10"/>
@@ -2642,37 +2668,37 @@
         <v>19275</v>
       </c>
       <c r="E28" s="18">
-        <v>18458</v>
+        <v>18704</v>
       </c>
       <c r="F28" s="18">
-        <v>20179</v>
+        <v>20311</v>
       </c>
       <c r="G28" s="19">
-        <v>20311</v>
+        <v>20426</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>6.5414539868180466E-3</v>
+        <v>5.6619565752547008E-3</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="4"/>
-        <v>1036</v>
+        <v>1151</v>
       </c>
       <c r="M28" s="24">
         <f t="shared" si="5"/>
-        <v>5.3748378728923463E-2</v>
+        <v>5.9714656290531742E-2</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="6"/>
@@ -2684,11 +2710,11 @@
       </c>
       <c r="P28" s="25">
         <f t="shared" si="8"/>
-        <v>1853</v>
+        <v>1722</v>
       </c>
       <c r="Q28" s="29">
         <f t="shared" si="9"/>
-        <v>0.10039007476432982</v>
+        <v>9.2065868263472961E-2</v>
       </c>
       <c r="R28" s="25">
         <f t="shared" si="10"/>
@@ -2713,61 +2739,61 @@
         <v>23707</v>
       </c>
       <c r="E29" s="18">
-        <v>23505</v>
+        <v>23622</v>
       </c>
       <c r="F29" s="18">
-        <v>23810</v>
+        <v>23845</v>
       </c>
       <c r="G29" s="19">
-        <v>23845</v>
+        <v>23824</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>-21</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="1"/>
-        <v>1.4699706005880664E-3</v>
+        <v>-8.8068777521488339E-4</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="5"/>
-        <v>5.8210655080777052E-3</v>
+        <v>4.9352511916311848E-3</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O29" s="22">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="8"/>
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="29">
         <f t="shared" si="9"/>
-        <v>1.4465007445224387E-2</v>
+        <v>8.5513504360341663E-3</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2784,41 +2810,41 @@
         <v>42868</v>
       </c>
       <c r="E30" s="18">
-        <v>42434</v>
+        <v>42665</v>
       </c>
       <c r="F30" s="18">
-        <v>43273</v>
+        <v>43393</v>
       </c>
       <c r="G30" s="19">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="1"/>
-        <v>2.7730917662283083E-3</v>
+        <v>6.9135574862322358E-5</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="4"/>
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M30" s="24">
         <f t="shared" si="5"/>
-        <v>1.2246897452645289E-2</v>
+        <v>1.2316879723803353E-2</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O30" s="22">
         <f t="shared" si="7"/>
@@ -2826,11 +2852,11 @@
       </c>
       <c r="P30" s="25">
         <f t="shared" si="8"/>
-        <v>959</v>
+        <v>731</v>
       </c>
       <c r="Q30" s="29">
         <f t="shared" si="9"/>
-        <v>2.2599802045529582E-2</v>
+        <v>1.7133481776631987E-2</v>
       </c>
       <c r="R30" s="25">
         <f t="shared" si="10"/>
@@ -2838,7 +2864,7 @@
       </c>
       <c r="S30" s="30">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2855,61 +2881,61 @@
         <v>39139</v>
       </c>
       <c r="E31" s="18">
-        <v>38969</v>
+        <v>39166</v>
       </c>
       <c r="F31" s="18">
-        <v>39292</v>
+        <v>39374</v>
       </c>
       <c r="G31" s="19">
-        <v>39374</v>
+        <v>39157</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>-217</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="1"/>
-        <v>2.0869388170619008E-3</v>
+        <v>-5.5112510793925429E-3</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L31" s="23">
         <f t="shared" si="4"/>
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="5"/>
-        <v>6.0042412938501322E-3</v>
+        <v>4.5989933314594111E-4</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O31" s="22">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="8"/>
-        <v>405</v>
+        <v>-9</v>
       </c>
       <c r="Q31" s="29">
         <f t="shared" si="9"/>
-        <v>1.0392876388924499E-2</v>
+        <v>-2.2979114538124179E-4</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2926,37 +2952,37 @@
         <v>11432</v>
       </c>
       <c r="E32" s="18">
-        <v>11358</v>
+        <v>11405</v>
       </c>
       <c r="F32" s="18">
-        <v>11626</v>
+        <v>11695</v>
       </c>
       <c r="G32" s="19">
-        <v>11695</v>
+        <v>11727</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="1"/>
-        <v>5.9349733356270917E-3</v>
+        <v>2.7362120564344838E-3</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" s="23">
         <f t="shared" si="4"/>
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="5"/>
-        <v>2.3005598320503751E-2</v>
+        <v>2.5804758572428366E-2</v>
       </c>
       <c r="N32" s="25">
         <f t="shared" si="6"/>
@@ -2964,23 +2990,23 @@
       </c>
       <c r="O32" s="22">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="8"/>
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="Q32" s="29">
         <f t="shared" si="9"/>
-        <v>2.9670716675471054E-2</v>
+        <v>2.823323103901787E-2</v>
       </c>
       <c r="R32" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -2997,37 +3023,37 @@
         <v>34785</v>
       </c>
       <c r="E33" s="18">
-        <v>34614</v>
+        <v>34741</v>
       </c>
       <c r="F33" s="18">
-        <v>34667</v>
+        <v>34651</v>
       </c>
       <c r="G33" s="19">
-        <v>34651</v>
+        <v>34566</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-85</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="1"/>
-        <v>-4.6153402371129637E-4</v>
+        <v>-2.4530316585379408E-3</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L33" s="23">
         <f t="shared" si="4"/>
-        <v>-134</v>
+        <v>-219</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="5"/>
-        <v>-3.8522351588328174E-3</v>
+        <v>-6.2958171625701054E-3</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="6"/>
@@ -3035,23 +3061,23 @@
       </c>
       <c r="O33" s="22">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="8"/>
-        <v>37</v>
+        <v>-175</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="9"/>
-        <v>1.068931646154736E-3</v>
+        <v>-5.0372758412250418E-3</v>
       </c>
       <c r="R33" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S33" s="30">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -3068,61 +3094,61 @@
         <v>5466</v>
       </c>
       <c r="E34" s="18">
-        <v>5343</v>
+        <v>5367</v>
       </c>
       <c r="F34" s="18">
-        <v>5462</v>
+        <v>5519</v>
       </c>
       <c r="G34" s="19">
-        <v>5519</v>
+        <v>5505</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>-14</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="1"/>
-        <v>1.0435737824972646E-2</v>
+        <v>-2.5366914296067744E-3</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L34" s="23">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="5"/>
-        <v>9.69630442736924E-3</v>
+        <v>7.1350164654226944E-3</v>
       </c>
       <c r="N34" s="25">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O34" s="22">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="Q34" s="29">
         <f t="shared" si="9"/>
-        <v>3.2940295714018353E-2</v>
+        <v>2.5712688652878679E-2</v>
       </c>
       <c r="R34" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -3139,41 +3165,41 @@
         <v>44116</v>
       </c>
       <c r="E35" s="18">
-        <v>44079</v>
+        <v>44117</v>
       </c>
       <c r="F35" s="18">
-        <v>44222</v>
+        <v>44205</v>
       </c>
       <c r="G35" s="19">
-        <v>44205</v>
+        <v>44070</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-135</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="1"/>
-        <v>-3.8442404233185457E-4</v>
+        <v>-3.0539531727180602E-3</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>-46</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="5"/>
-        <v>2.0174086499229471E-3</v>
+        <v>-1.0427055943421637E-3</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O35" s="22">
         <f t="shared" si="7"/>
@@ -3181,15 +3207,15 @@
       </c>
       <c r="P35" s="25">
         <f t="shared" si="8"/>
-        <v>126</v>
+        <v>-47</v>
       </c>
       <c r="Q35" s="29">
         <f t="shared" si="9"/>
-        <v>2.8585040495474612E-3</v>
+        <v>-1.0653489584513398E-3</v>
       </c>
       <c r="R35" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S35" s="30">
         <f t="shared" si="11"/>
@@ -3210,57 +3236,57 @@
         <v>20773</v>
       </c>
       <c r="E36" s="18">
-        <v>20382</v>
+        <v>20574</v>
       </c>
       <c r="F36" s="18">
-        <v>21204</v>
+        <v>21309</v>
       </c>
       <c r="G36" s="19">
-        <v>21309</v>
+        <v>21305</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>-4</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="1"/>
-        <v>4.9518958687040371E-3</v>
+        <v>-1.8771411140827698E-4</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L36" s="23">
         <f t="shared" si="4"/>
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="5"/>
-        <v>2.5802724690704215E-2</v>
+        <v>2.5610167043758736E-2</v>
       </c>
       <c r="N36" s="25">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O36" s="22">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P36" s="25">
         <f t="shared" si="8"/>
-        <v>927</v>
+        <v>731</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="9"/>
-        <v>4.54813070356197E-2</v>
+        <v>3.5530280937104974E-2</v>
       </c>
       <c r="R36" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S36" s="30">
         <f t="shared" si="11"/>
@@ -3271,67 +3297,67 @@
       <c r="A37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="75">
         <v>11771</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="76">
         <v>11796</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="77">
         <v>12068</v>
       </c>
-      <c r="E37" s="18">
-        <v>12067</v>
-      </c>
-      <c r="F37" s="18">
-        <v>12031</v>
-      </c>
-      <c r="G37" s="19">
+      <c r="E37" s="77">
+        <v>12087</v>
+      </c>
+      <c r="F37" s="77">
         <v>12029</v>
+      </c>
+      <c r="G37" s="78">
+        <v>11966</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-63</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="1"/>
-        <v>-1.662372205136764E-4</v>
+        <v>-5.2373430875384264E-3</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="4"/>
-        <v>-39</v>
+        <v>-102</v>
       </c>
       <c r="M37" s="24">
         <f t="shared" si="5"/>
-        <v>-3.2316871063970964E-3</v>
+        <v>-8.4521047398077309E-3</v>
       </c>
       <c r="N37" s="25">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O37" s="22">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="8"/>
-        <v>-38</v>
+        <v>-121</v>
       </c>
       <c r="Q37" s="29">
         <f t="shared" si="9"/>
-        <v>-3.1490842794398288E-3</v>
+        <v>-1.0010755356995138E-2</v>
       </c>
       <c r="R37" s="25">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S37" s="30">
         <f t="shared" si="11"/>
@@ -3343,50 +3369,56 @@
         <v>39</v>
       </c>
       <c r="B38" s="67">
+        <f>SUM(B6:B37)</f>
         <v>1000414</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="68">
+        <f>SUM(C6:C37)</f>
         <v>1003261</v>
       </c>
-      <c r="D38" s="68">
+      <c r="D38" s="69">
+        <f>SUM(D6:D37)</f>
         <v>1053670</v>
       </c>
-      <c r="E38" s="68">
-        <v>1038286</v>
-      </c>
-      <c r="F38" s="68">
-        <v>1064787</v>
-      </c>
-      <c r="G38" s="69">
+      <c r="E38" s="69">
+        <f>SUM(E6:E37)</f>
+        <v>1046340</v>
+      </c>
+      <c r="F38" s="69">
+        <f>SUM(F6:F37)</f>
         <v>1067486</v>
+      </c>
+      <c r="G38" s="70">
+        <f>SUM(G6:G37)</f>
+        <v>1066620</v>
       </c>
       <c r="H38" s="45">
         <f>G38-F38</f>
-        <v>2699</v>
+        <v>-866</v>
       </c>
       <c r="I38" s="46">
         <f t="shared" si="1"/>
-        <v>2.5347792563208404E-3</v>
+        <v>-8.1125185716723891E-4</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="48"/>
       <c r="L38" s="49">
         <f t="shared" si="4"/>
-        <v>13816</v>
+        <v>12950</v>
       </c>
       <c r="M38" s="50">
         <f t="shared" si="5"/>
-        <v>1.3112264750823277E-2</v>
+        <v>1.2290375544525389E-2</v>
       </c>
       <c r="N38" s="47"/>
       <c r="O38" s="48"/>
       <c r="P38" s="51">
         <f t="shared" si="8"/>
-        <v>29200</v>
+        <v>20280</v>
       </c>
       <c r="Q38" s="52">
         <f t="shared" si="9"/>
-        <v>2.8123272393155707E-2</v>
+        <v>1.9381845289294208E-2</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="48"/>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
-    <sheet name="septiembre" sheetId="2" r:id="rId1"/>
+    <sheet name="octubre" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,27 +188,27 @@
   </si>
   <si>
     <t>2022
-Agosto</t>
-  </si>
-  <si>
-    <t>Diciembre 2020-septiembre 2022</t>
+Septiembre</t>
+  </si>
+  <si>
+    <t>Diciembre 2020 - octubre 2022</t>
   </si>
   <si>
     <t>2022
-Septiembre</t>
+Octubre</t>
   </si>
   <si>
     <t>2021
-Septiembre</t>
-  </si>
-  <si>
-    <t>Septiembre 2022 respecto a Agosto 2022</t>
-  </si>
-  <si>
-    <t>Septiembre 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Septiembre 2022 respecto a Septiembre 2021</t>
+Octubre</t>
+  </si>
+  <si>
+    <t>Octubre 2022 respecto a Septiembre 2022</t>
+  </si>
+  <si>
+    <t>Octubre 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Octubre 2022 respecto a Octubre 2021</t>
   </si>
 </sst>
 </file>
@@ -617,6 +617,42 @@
     <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,42 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -920,7 +920,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -938,18 +938,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -961,18 +961,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1005,54 +1005,54 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="53" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
     </row>
     <row r="5" spans="1:19" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="66"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1094,71 +1094,71 @@
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="57">
         <v>16017</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="58">
         <v>16063</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="59">
         <v>16746</v>
       </c>
-      <c r="E6" s="73">
-        <v>16724</v>
-      </c>
-      <c r="F6" s="73">
-        <v>16755</v>
-      </c>
-      <c r="G6" s="74">
+      <c r="E6" s="59">
+        <v>16788</v>
+      </c>
+      <c r="F6" s="59">
         <v>16722</v>
+      </c>
+      <c r="G6" s="60">
+        <v>16710</v>
       </c>
       <c r="H6" s="17">
         <f>G6-F6</f>
-        <v>-33</v>
+        <v>-12</v>
       </c>
       <c r="I6" s="20">
         <f>G6/F6-1</f>
-        <v>-1.9695613249776089E-3</v>
+        <v>-7.1761750986720774E-4</v>
       </c>
       <c r="J6" s="21">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K6" s="22">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L6" s="23">
         <f>G6-D6</f>
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="M6" s="24">
         <f>G6/D6-1</f>
-        <v>-1.4331780723755294E-3</v>
+        <v>-2.1497671085632941E-3</v>
       </c>
       <c r="N6" s="25">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="22">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="26">
         <f>G6-E6</f>
-        <v>-2</v>
+        <v>-78</v>
       </c>
       <c r="Q6" s="27">
         <f>G6/E6-1</f>
-        <v>-1.1958861516381258E-4</v>
+        <v>-4.6461758398855801E-3</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S6" s="28">
         <f>_xlfn.RANK.EQ(Q6,$Q$6:$Q$37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1175,21 +1175,21 @@
         <v>44540</v>
       </c>
       <c r="E7" s="18">
-        <v>44193</v>
+        <v>44527</v>
       </c>
       <c r="F7" s="18">
-        <v>44462</v>
+        <v>44544</v>
       </c>
       <c r="G7" s="19">
-        <v>44544</v>
+        <v>44714</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>1.84427151275246E-3</v>
+        <v>3.8164511494251929E-3</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
@@ -1197,39 +1197,39 @@
       </c>
       <c r="K7" s="22">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L7" s="23">
         <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>8.9806915132495391E-5</v>
+        <v>3.9066008082622172E-3</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P38" si="8">G7-E7</f>
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:Q38" si="9">G7/E7-1</f>
-        <v>7.9424343221776716E-3</v>
+        <v>4.1996990589978633E-3</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" ref="R7:R37" si="10">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7:S37" si="11">_xlfn.RANK.EQ(Q7,$Q$6:$Q$37)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1246,37 +1246,37 @@
         <v>13964</v>
       </c>
       <c r="E8" s="18">
-        <v>13662</v>
+        <v>13905</v>
       </c>
       <c r="F8" s="18">
-        <v>14588</v>
+        <v>14593</v>
       </c>
       <c r="G8" s="19">
-        <v>14593</v>
+        <v>14700</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>3.4274746366880215E-4</v>
+        <v>7.3322826012471864E-3</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="4"/>
-        <v>629</v>
+        <v>736</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="5"/>
-        <v>4.504439988541975E-2</v>
+        <v>5.270696075623027E-2</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="6"/>
@@ -1288,11 +1288,11 @@
       </c>
       <c r="P8" s="25">
         <f t="shared" si="8"/>
-        <v>931</v>
+        <v>795</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" si="9"/>
-        <v>6.8145220319133282E-2</v>
+        <v>5.7173678532901784E-2</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="10"/>
@@ -1317,61 +1317,61 @@
         <v>6254</v>
       </c>
       <c r="E9" s="18">
-        <v>6206</v>
+        <v>6208</v>
       </c>
       <c r="F9" s="18">
-        <v>6404</v>
+        <v>6411</v>
       </c>
       <c r="G9" s="19">
-        <v>6411</v>
+        <v>6457</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>1.0930668332291837E-3</v>
+        <v>7.1751676805491549E-3</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L9" s="23">
         <f t="shared" si="4"/>
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="5"/>
-        <v>2.5103933482571117E-2</v>
+        <v>3.2459226095298943E-2</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="8"/>
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="29">
         <f t="shared" si="9"/>
-        <v>3.3032549145987744E-2</v>
+        <v>4.010953608247414E-2</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S9" s="30">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1388,37 +1388,37 @@
         <v>14789</v>
       </c>
       <c r="E10" s="18">
-        <v>14778</v>
+        <v>14805</v>
       </c>
       <c r="F10" s="18">
-        <v>14835</v>
+        <v>14805</v>
       </c>
       <c r="G10" s="19">
-        <v>14805</v>
+        <v>14834</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>-2.0222446916077219E-3</v>
+        <v>1.9587977034785098E-3</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="5"/>
-        <v>1.0818851849347944E-3</v>
+        <v>3.0428020826289703E-3</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="6"/>
@@ -1426,23 +1426,23 @@
       </c>
       <c r="O10" s="22">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="9"/>
-        <v>1.8270401948843329E-3</v>
+        <v>1.9587977034785098E-3</v>
       </c>
       <c r="R10" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S10" s="30">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1459,53 +1459,53 @@
         <v>42167</v>
       </c>
       <c r="E11" s="18">
-        <v>41777</v>
+        <v>42026</v>
       </c>
       <c r="F11" s="18">
-        <v>42383</v>
+        <v>42282</v>
       </c>
       <c r="G11" s="19">
-        <v>42282</v>
+        <v>42399</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>-101</v>
+        <v>117</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>-2.3830309322133703E-3</v>
+        <v>2.767134951042971E-3</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L11" s="23">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="5"/>
-        <v>2.7272511679750089E-3</v>
+        <v>5.50193279104505E-3</v>
       </c>
       <c r="N11" s="25">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O11" s="22">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="25">
         <f t="shared" si="8"/>
-        <v>505</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="9"/>
-        <v>1.2087990999832376E-2</v>
+        <v>8.8754580497787394E-3</v>
       </c>
       <c r="R11" s="25">
         <f t="shared" si="10"/>
@@ -1530,37 +1530,37 @@
         <v>125199</v>
       </c>
       <c r="E12" s="18">
-        <v>124086</v>
+        <v>124614</v>
       </c>
       <c r="F12" s="18">
-        <v>127108</v>
+        <v>127017</v>
       </c>
       <c r="G12" s="19">
-        <v>127017</v>
+        <v>127138</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>-91</v>
+        <v>121</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>-7.1592661358843568E-4</v>
+        <v>9.5262838832588237E-4</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="4"/>
-        <v>1818</v>
+        <v>1939</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="5"/>
-        <v>1.4520882754654574E-2</v>
+        <v>1.5487344148116255E-2</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="6"/>
@@ -1572,11 +1572,11 @@
       </c>
       <c r="P12" s="25">
         <f t="shared" si="8"/>
-        <v>2931</v>
+        <v>2524</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="9"/>
-        <v>2.362071466563509E-2</v>
+        <v>2.0254546038165788E-2</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="10"/>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="S12" s="30">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1601,61 +1601,61 @@
         <v>35642</v>
       </c>
       <c r="E13" s="18">
-        <v>35420</v>
+        <v>35640</v>
       </c>
       <c r="F13" s="18">
-        <v>35816</v>
+        <v>35742</v>
       </c>
       <c r="G13" s="19">
-        <v>35742</v>
+        <v>35793</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>-74</v>
+        <v>51</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>-2.0661157024793875E-3</v>
+        <v>1.4268927312406365E-3</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="5"/>
-        <v>2.8056786936760947E-3</v>
+        <v>4.2365748274506565E-3</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="8"/>
-        <v>322</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="9"/>
-        <v>9.0909090909090384E-3</v>
+        <v>4.2929292929292373E-3</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S13" s="30">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1672,21 +1672,21 @@
         <v>11397</v>
       </c>
       <c r="E14" s="18">
-        <v>11339</v>
+        <v>11417</v>
       </c>
       <c r="F14" s="18">
-        <v>11625</v>
+        <v>11600</v>
       </c>
       <c r="G14" s="19">
-        <v>11600</v>
+        <v>11643</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>43</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>-2.1505376344086446E-3</v>
+        <v>3.7068965517241814E-3</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="2"/>
@@ -1694,35 +1694,35 @@
       </c>
       <c r="K14" s="22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="5"/>
-        <v>1.7811704834605591E-2</v>
+        <v>2.1584627533561385E-2</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="8"/>
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="29">
         <f t="shared" si="9"/>
-        <v>2.3017902813299296E-2</v>
+        <v>1.979504248051156E-2</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="11"/>
@@ -1743,21 +1743,21 @@
         <v>14609</v>
       </c>
       <c r="E15" s="18">
-        <v>14612</v>
+        <v>14658</v>
       </c>
       <c r="F15" s="18">
-        <v>14655</v>
+        <v>14574</v>
       </c>
       <c r="G15" s="19">
-        <v>14574</v>
+        <v>14584</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>-81</v>
+        <v>10</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>-5.5271238485158358E-3</v>
+        <v>6.8615342390554446E-4</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="2"/>
@@ -1765,39 +1765,39 @@
       </c>
       <c r="K15" s="22">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="4"/>
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="5"/>
-        <v>-2.3957834211787432E-3</v>
+        <v>-1.7112738722705467E-3</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="8"/>
-        <v>-38</v>
+        <v>-74</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="9"/>
-        <v>-2.6006022447303545E-3</v>
+        <v>-5.0484377131941871E-3</v>
       </c>
       <c r="R15" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S15" s="30">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1814,61 +1814,61 @@
         <v>77044</v>
       </c>
       <c r="E16" s="18">
-        <v>76166</v>
+        <v>76825</v>
       </c>
       <c r="F16" s="18">
-        <v>78492</v>
+        <v>78279</v>
       </c>
       <c r="G16" s="19">
-        <v>78279</v>
+        <v>78348</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>-213</v>
+        <v>69</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>-2.7136523467359286E-3</v>
+        <v>8.8146246119658045E-4</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="4"/>
-        <v>1235</v>
+        <v>1304</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="5"/>
-        <v>1.6029801152588119E-2</v>
+        <v>1.6925393281761014E-2</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O16" s="22">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="8"/>
-        <v>2113</v>
+        <v>1523</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" si="9"/>
-        <v>2.774203712942791E-2</v>
+        <v>1.9824275951838555E-2</v>
       </c>
       <c r="R16" s="25">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S16" s="30">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1885,53 +1885,53 @@
         <v>49358</v>
       </c>
       <c r="E17" s="18">
-        <v>49169</v>
+        <v>49324</v>
       </c>
       <c r="F17" s="18">
-        <v>49801</v>
+        <v>49745</v>
       </c>
       <c r="G17" s="19">
-        <v>49745</v>
+        <v>49706</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>-56</v>
+        <v>-39</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>-1.1244754121403355E-3</v>
+        <v>-7.8399839179821296E-4</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="4"/>
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="5"/>
-        <v>7.8406742574659294E-3</v>
+        <v>7.0505287896591717E-3</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="8"/>
-        <v>576</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" si="9"/>
-        <v>1.1714698285505198E-2</v>
+        <v>7.7447084583570636E-3</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="10"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="S17" s="30">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1956,41 +1956,41 @@
         <v>13674</v>
       </c>
       <c r="E18" s="18">
-        <v>13745</v>
+        <v>13754</v>
       </c>
       <c r="F18" s="18">
-        <v>13775</v>
+        <v>13770</v>
       </c>
       <c r="G18" s="19">
-        <v>13770</v>
+        <v>13802</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>32</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>-3.6297640653359942E-4</v>
+        <v>2.3238925199708937E-3</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="5"/>
-        <v>7.0206230802982716E-3</v>
+        <v>9.3608307737311769E-3</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="7"/>
@@ -1998,19 +1998,19 @@
       </c>
       <c r="P18" s="25">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="9"/>
-        <v>1.8188432157149048E-3</v>
+        <v>3.4898938490621756E-3</v>
       </c>
       <c r="R18" s="25">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S18" s="30">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2027,61 +2027,61 @@
         <v>15980</v>
       </c>
       <c r="E19" s="18">
-        <v>15889</v>
+        <v>15993</v>
       </c>
       <c r="F19" s="18">
-        <v>16259</v>
+        <v>16307</v>
       </c>
       <c r="G19" s="19">
-        <v>16307</v>
+        <v>16312</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>2.9522110830924042E-3</v>
+        <v>3.0661679033539002E-4</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="5"/>
-        <v>2.046307884856069E-2</v>
+        <v>2.0775969962453011E-2</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19" s="22">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="8"/>
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="9"/>
-        <v>2.6307508339102448E-2</v>
+        <v>1.9946226474082396E-2</v>
       </c>
       <c r="R19" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T19" s="2"/>
     </row>
@@ -2099,21 +2099,21 @@
         <v>103251</v>
       </c>
       <c r="E20" s="34">
-        <v>102475</v>
+        <v>102866</v>
       </c>
       <c r="F20" s="34">
-        <v>105454</v>
+        <v>105603</v>
       </c>
       <c r="G20" s="35">
-        <v>105603</v>
+        <v>105902</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="I20" s="36">
         <f t="shared" si="1"/>
-        <v>1.4129383427845532E-3</v>
+        <v>2.8313589576054454E-3</v>
       </c>
       <c r="J20" s="37">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
@@ -2121,15 +2121,15 @@
       </c>
       <c r="K20" s="38">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L20" s="39">
         <f t="shared" si="4"/>
-        <v>2352</v>
+        <v>2651</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="5"/>
-        <v>2.2779440392829198E-2</v>
+        <v>2.5675296123039981E-2</v>
       </c>
       <c r="N20" s="41">
         <f t="shared" si="6"/>
@@ -2141,11 +2141,11 @@
       </c>
       <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>3128</v>
+        <v>3036</v>
       </c>
       <c r="Q20" s="42">
         <f t="shared" si="9"/>
-        <v>3.0524518175164772E-2</v>
+        <v>2.9514125172554584E-2</v>
       </c>
       <c r="R20" s="41">
         <f>_xlfn.RANK.EQ(P20,$P$6:$P$37)</f>
@@ -2171,61 +2171,61 @@
         <v>37104</v>
       </c>
       <c r="E21" s="18">
-        <v>37019</v>
+        <v>37053</v>
       </c>
       <c r="F21" s="18">
-        <v>37273</v>
+        <v>37282</v>
       </c>
       <c r="G21" s="19">
-        <v>37282</v>
+        <v>37352</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>2.4146164784166757E-4</v>
+        <v>1.8775816748028973E-3</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="5"/>
-        <v>4.7973264338077026E-3</v>
+        <v>6.6839154808107093E-3</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="8"/>
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="29">
         <f t="shared" si="9"/>
-        <v>7.1044598719576246E-3</v>
+        <v>8.0695220360025299E-3</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S21" s="30">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -2242,41 +2242,41 @@
         <v>12579</v>
       </c>
       <c r="E22" s="18">
-        <v>12516</v>
+        <v>12560</v>
       </c>
       <c r="F22" s="18">
-        <v>12656</v>
+        <v>12632</v>
       </c>
       <c r="G22" s="19">
-        <v>12632</v>
+        <v>12659</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>27</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>-1.8963337547408532E-3</v>
+        <v>2.1374287523749924E-3</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L22" s="23">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="5"/>
-        <v>4.2133714921694931E-3</v>
+        <v>6.359806025916237E-3</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="7"/>
@@ -2284,11 +2284,11 @@
       </c>
       <c r="P22" s="25">
         <f t="shared" si="8"/>
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="9"/>
-        <v>9.2681367849152263E-3</v>
+        <v>7.8821656050955813E-3</v>
       </c>
       <c r="R22" s="25">
         <f t="shared" si="10"/>
@@ -2313,37 +2313,37 @@
         <v>13590</v>
       </c>
       <c r="E23" s="18">
-        <v>13478</v>
+        <v>13541</v>
       </c>
       <c r="F23" s="18">
-        <v>13772</v>
+        <v>13797</v>
       </c>
       <c r="G23" s="19">
-        <v>13797</v>
+        <v>13880</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>1.8152773743826955E-3</v>
+        <v>6.0158005363484257E-3</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" s="23">
         <f t="shared" si="4"/>
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="5"/>
-        <v>1.5231788079470121E-2</v>
+        <v>2.1339220014716664E-2</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="6"/>
@@ -2351,23 +2351,23 @@
       </c>
       <c r="O23" s="22">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="8"/>
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="29">
         <f t="shared" si="9"/>
-        <v>2.3668200029677955E-2</v>
+        <v>2.5035078650025744E-2</v>
       </c>
       <c r="R23" s="25">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S23" s="30">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2384,61 +2384,61 @@
         <v>74823</v>
       </c>
       <c r="E24" s="18">
-        <v>74025</v>
+        <v>74370</v>
       </c>
       <c r="F24" s="18">
-        <v>76111</v>
+        <v>76016</v>
       </c>
       <c r="G24" s="19">
-        <v>76016</v>
+        <v>76282</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>-95</v>
+        <v>266</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>-1.2481770046379737E-3</v>
+        <v>3.4992633129866668E-3</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L24" s="23">
         <f t="shared" si="4"/>
-        <v>1193</v>
+        <v>1459</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="5"/>
-        <v>1.5944295203346615E-2</v>
+        <v>1.9499351803589748E-2</v>
       </c>
       <c r="N24" s="25">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" s="22">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P24" s="25">
         <f t="shared" si="8"/>
-        <v>1991</v>
+        <v>1912</v>
       </c>
       <c r="Q24" s="29">
         <f t="shared" si="9"/>
-        <v>2.689631881121235E-2</v>
+        <v>2.5709291380933141E-2</v>
       </c>
       <c r="R24" s="25">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S24" s="30">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2455,37 +2455,37 @@
         <v>14401</v>
       </c>
       <c r="E25" s="18">
-        <v>14322</v>
+        <v>14433</v>
       </c>
       <c r="F25" s="18">
-        <v>14509</v>
+        <v>14501</v>
       </c>
       <c r="G25" s="19">
-        <v>14501</v>
+        <v>14562</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>61</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>-5.5138190088910299E-4</v>
+        <v>4.2066064409351789E-3</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L25" s="23">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="5"/>
-        <v>6.9439622248455013E-3</v>
+        <v>1.1179779182001193E-2</v>
       </c>
       <c r="N25" s="25">
         <f t="shared" si="6"/>
@@ -2493,15 +2493,15 @@
       </c>
       <c r="O25" s="22">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="8"/>
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="29">
         <f t="shared" si="9"/>
-        <v>1.2498254433738198E-2</v>
+        <v>8.9378507586779232E-3</v>
       </c>
       <c r="R25" s="25">
         <f t="shared" si="10"/>
@@ -2526,53 +2526,53 @@
         <v>34423</v>
       </c>
       <c r="E26" s="18">
-        <v>34133</v>
+        <v>34280</v>
       </c>
       <c r="F26" s="18">
-        <v>34917</v>
+        <v>34973</v>
       </c>
       <c r="G26" s="19">
-        <v>34973</v>
+        <v>35060</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>1.6038033049803335E-3</v>
+        <v>2.4876333171304221E-3</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L26" s="23">
         <f t="shared" si="4"/>
-        <v>550</v>
+        <v>637</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="5"/>
-        <v>1.5977689335618717E-2</v>
+        <v>1.8505069285071007E-2</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26" s="22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="8"/>
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="Q26" s="29">
         <f t="shared" si="9"/>
-        <v>2.4609615328274659E-2</v>
+        <v>2.2753792298716435E-2</v>
       </c>
       <c r="R26" s="25">
         <f t="shared" si="10"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="S26" s="30">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2597,37 +2597,37 @@
         <v>28507</v>
       </c>
       <c r="E27" s="18">
-        <v>28158</v>
+        <v>28379</v>
       </c>
       <c r="F27" s="18">
-        <v>29505</v>
+        <v>29483</v>
       </c>
       <c r="G27" s="19">
-        <v>29483</v>
+        <v>29643</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>160</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>-7.4563633282498376E-4</v>
+        <v>5.4268561543939775E-3</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L27" s="23">
         <f t="shared" si="4"/>
-        <v>976</v>
+        <v>1136</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="5"/>
-        <v>3.4237204897042739E-2</v>
+        <v>3.9849861437541767E-2</v>
       </c>
       <c r="N27" s="25">
         <f t="shared" si="6"/>
@@ -2639,11 +2639,11 @@
       </c>
       <c r="P27" s="25">
         <f t="shared" si="8"/>
-        <v>1325</v>
+        <v>1264</v>
       </c>
       <c r="Q27" s="29">
         <f t="shared" si="9"/>
-        <v>4.7055898856452893E-2</v>
+        <v>4.4539976743366516E-2</v>
       </c>
       <c r="R27" s="25">
         <f t="shared" si="10"/>
@@ -2668,25 +2668,25 @@
         <v>19275</v>
       </c>
       <c r="E28" s="18">
-        <v>18704</v>
+        <v>19036</v>
       </c>
       <c r="F28" s="18">
-        <v>20311</v>
+        <v>20426</v>
       </c>
       <c r="G28" s="19">
-        <v>20426</v>
+        <v>20596</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>5.6619565752547008E-3</v>
+        <v>8.322725937530695E-3</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="3"/>
@@ -2694,15 +2694,15 @@
       </c>
       <c r="L28" s="23">
         <f t="shared" si="4"/>
-        <v>1151</v>
+        <v>1321</v>
       </c>
       <c r="M28" s="24">
         <f t="shared" si="5"/>
-        <v>5.9714656290531742E-2</v>
+        <v>6.8534370946822243E-2</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" s="22">
         <f t="shared" si="7"/>
@@ -2710,15 +2710,15 @@
       </c>
       <c r="P28" s="25">
         <f t="shared" si="8"/>
-        <v>1722</v>
+        <v>1560</v>
       </c>
       <c r="Q28" s="29">
         <f t="shared" si="9"/>
-        <v>9.2065868263472961E-2</v>
+        <v>8.1949989493591113E-2</v>
       </c>
       <c r="R28" s="25">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" s="30">
         <f t="shared" si="11"/>
@@ -2739,57 +2739,57 @@
         <v>23707</v>
       </c>
       <c r="E29" s="18">
-        <v>23622</v>
+        <v>23752</v>
       </c>
       <c r="F29" s="18">
-        <v>23845</v>
+        <v>23824</v>
       </c>
       <c r="G29" s="19">
-        <v>23824</v>
+        <v>23864</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>40</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="1"/>
-        <v>-8.8068777521488339E-4</v>
+        <v>1.67897918065818E-3</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="4"/>
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="5"/>
-        <v>4.9352511916311848E-3</v>
+        <v>6.6225165562914245E-3</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O29" s="22">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="8"/>
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="29">
         <f t="shared" si="9"/>
-        <v>8.5513504360341663E-3</v>
+        <v>4.7153923880094428E-3</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="11"/>
@@ -2810,21 +2810,21 @@
         <v>42868</v>
       </c>
       <c r="E30" s="18">
-        <v>42665</v>
+        <v>42810</v>
       </c>
       <c r="F30" s="18">
-        <v>43393</v>
+        <v>43396</v>
       </c>
       <c r="G30" s="19">
-        <v>43396</v>
+        <v>43482</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="1"/>
-        <v>6.9135574862322358E-5</v>
+        <v>1.9817494699971849E-3</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="2"/>
@@ -2832,15 +2832,15 @@
       </c>
       <c r="K30" s="22">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="4"/>
-        <v>528</v>
+        <v>614</v>
       </c>
       <c r="M30" s="24">
         <f t="shared" si="5"/>
-        <v>1.2316879723803353E-2</v>
+        <v>1.4323038163665203E-2</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="6"/>
@@ -2852,15 +2852,15 @@
       </c>
       <c r="P30" s="25">
         <f t="shared" si="8"/>
-        <v>731</v>
+        <v>672</v>
       </c>
       <c r="Q30" s="29">
         <f t="shared" si="9"/>
-        <v>1.7133481776631987E-2</v>
+        <v>1.5697266993693004E-2</v>
       </c>
       <c r="R30" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S30" s="30">
         <f t="shared" si="11"/>
@@ -2881,25 +2881,25 @@
         <v>39139</v>
       </c>
       <c r="E31" s="18">
-        <v>39166</v>
+        <v>39220</v>
       </c>
       <c r="F31" s="18">
-        <v>39374</v>
+        <v>39157</v>
       </c>
       <c r="G31" s="19">
-        <v>39157</v>
+        <v>39113</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>-217</v>
+        <v>-44</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="1"/>
-        <v>-5.5112510793925429E-3</v>
+        <v>-1.1236815894987151E-3</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="3"/>
@@ -2907,35 +2907,35 @@
       </c>
       <c r="L31" s="23">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>-26</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="5"/>
-        <v>4.5989933314594111E-4</v>
+        <v>-6.6429903676634705E-4</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O31" s="22">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="8"/>
-        <v>-9</v>
+        <v>-107</v>
       </c>
       <c r="Q31" s="29">
         <f t="shared" si="9"/>
-        <v>-2.2979114538124179E-4</v>
+        <v>-2.7281998980112077E-3</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2952,57 +2952,57 @@
         <v>11432</v>
       </c>
       <c r="E32" s="18">
-        <v>11405</v>
+        <v>11457</v>
       </c>
       <c r="F32" s="18">
-        <v>11695</v>
+        <v>11727</v>
       </c>
       <c r="G32" s="19">
-        <v>11727</v>
+        <v>11792</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="1"/>
-        <v>2.7362120564344838E-3</v>
+        <v>5.5427645604160247E-3</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L32" s="23">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="5"/>
-        <v>2.5804758572428366E-2</v>
+        <v>3.149055283414981E-2</v>
       </c>
       <c r="N32" s="25">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O32" s="22">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="8"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Q32" s="29">
         <f t="shared" si="9"/>
-        <v>2.823323103901787E-2</v>
+        <v>2.9239766081871288E-2</v>
       </c>
       <c r="R32" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" si="11"/>
@@ -3023,37 +3023,37 @@
         <v>34785</v>
       </c>
       <c r="E33" s="18">
-        <v>34741</v>
+        <v>34913</v>
       </c>
       <c r="F33" s="18">
-        <v>34651</v>
+        <v>34566</v>
       </c>
       <c r="G33" s="19">
-        <v>34566</v>
+        <v>34493</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>-85</v>
+        <v>-73</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="1"/>
-        <v>-2.4530316585379408E-3</v>
+        <v>-2.1119018688885438E-3</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L33" s="23">
         <f t="shared" si="4"/>
-        <v>-219</v>
+        <v>-292</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="5"/>
-        <v>-6.2958171625701054E-3</v>
+        <v>-8.3944228834267332E-3</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="6"/>
@@ -3065,11 +3065,11 @@
       </c>
       <c r="P33" s="25">
         <f t="shared" si="8"/>
-        <v>-175</v>
+        <v>-420</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="9"/>
-        <v>-5.0372758412250418E-3</v>
+        <v>-1.2029902901497969E-2</v>
       </c>
       <c r="R33" s="25">
         <f t="shared" si="10"/>
@@ -3094,61 +3094,61 @@
         <v>5466</v>
       </c>
       <c r="E34" s="18">
-        <v>5367</v>
+        <v>5403</v>
       </c>
       <c r="F34" s="18">
-        <v>5519</v>
+        <v>5505</v>
       </c>
       <c r="G34" s="19">
-        <v>5505</v>
+        <v>5536</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="1"/>
-        <v>-2.5366914296067744E-3</v>
+        <v>5.6312443233423881E-3</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="L34" s="23">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="5"/>
-        <v>7.1350164654226944E-3</v>
+        <v>1.280643980973295E-2</v>
       </c>
       <c r="N34" s="25">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O34" s="22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="8"/>
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="29">
         <f t="shared" si="9"/>
-        <v>2.5712688652878679E-2</v>
+        <v>2.4615954099574289E-2</v>
       </c>
       <c r="R34" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -3165,37 +3165,37 @@
         <v>44116</v>
       </c>
       <c r="E35" s="18">
-        <v>44117</v>
+        <v>44292</v>
       </c>
       <c r="F35" s="18">
-        <v>44205</v>
+        <v>44070</v>
       </c>
       <c r="G35" s="19">
-        <v>44070</v>
+        <v>44046</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-24</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="1"/>
-        <v>-3.0539531727180602E-3</v>
+        <v>-5.4458815520763704E-4</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="4"/>
-        <v>-46</v>
+        <v>-70</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="5"/>
-        <v>-1.0427055943421637E-3</v>
+        <v>-1.5867259044337612E-3</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" si="6"/>
@@ -3207,19 +3207,19 @@
       </c>
       <c r="P35" s="25">
         <f t="shared" si="8"/>
-        <v>-47</v>
+        <v>-246</v>
       </c>
       <c r="Q35" s="29">
         <f t="shared" si="9"/>
-        <v>-1.0653489584513398E-3</v>
+        <v>-5.5540503928475093E-3</v>
       </c>
       <c r="R35" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S35" s="30">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3236,41 +3236,41 @@
         <v>20773</v>
       </c>
       <c r="E36" s="18">
-        <v>20574</v>
+        <v>20660</v>
       </c>
       <c r="F36" s="18">
-        <v>21309</v>
+        <v>21305</v>
       </c>
       <c r="G36" s="19">
-        <v>21305</v>
+        <v>21431</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>126</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="1"/>
-        <v>-1.8771411140827698E-4</v>
+        <v>5.9141046702650968E-3</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L36" s="23">
         <f t="shared" si="4"/>
-        <v>532</v>
+        <v>658</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="5"/>
-        <v>2.5610167043758736E-2</v>
+        <v>3.1675732922543665E-2</v>
       </c>
       <c r="N36" s="25">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O36" s="22">
         <f t="shared" si="7"/>
@@ -3278,11 +3278,11 @@
       </c>
       <c r="P36" s="25">
         <f t="shared" si="8"/>
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="9"/>
-        <v>3.5530280937104974E-2</v>
+        <v>3.7318489835430846E-2</v>
       </c>
       <c r="R36" s="25">
         <f t="shared" si="10"/>
@@ -3290,54 +3290,54 @@
       </c>
       <c r="S36" s="30">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="61">
         <v>11771</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="62">
         <v>11796</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="63">
         <v>12068</v>
       </c>
-      <c r="E37" s="77">
-        <v>12087</v>
-      </c>
-      <c r="F37" s="77">
-        <v>12029</v>
-      </c>
-      <c r="G37" s="78">
+      <c r="E37" s="63">
+        <v>12110</v>
+      </c>
+      <c r="F37" s="63">
         <v>11966</v>
+      </c>
+      <c r="G37" s="64">
+        <v>11961</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>-63</v>
+        <v>-5</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="1"/>
-        <v>-5.2373430875384264E-3</v>
+        <v>-4.1785057663379366E-4</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="4"/>
-        <v>-102</v>
+        <v>-107</v>
       </c>
       <c r="M37" s="24">
         <f t="shared" si="5"/>
-        <v>-8.4521047398077309E-3</v>
+        <v>-8.8664235996022134E-3</v>
       </c>
       <c r="N37" s="25">
         <f t="shared" si="6"/>
@@ -3349,15 +3349,15 @@
       </c>
       <c r="P37" s="25">
         <f t="shared" si="8"/>
-        <v>-121</v>
+        <v>-149</v>
       </c>
       <c r="Q37" s="29">
         <f t="shared" si="9"/>
-        <v>-1.0010755356995138E-2</v>
+        <v>-1.230388109000824E-2</v>
       </c>
       <c r="R37" s="25">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S37" s="30">
         <f t="shared" si="11"/>
@@ -3368,57 +3368,57 @@
       <c r="A38" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="67">
-        <f>SUM(B6:B37)</f>
+      <c r="B38" s="53">
+        <f t="shared" ref="B38:G38" si="12">SUM(B6:B37)</f>
         <v>1000414</v>
       </c>
-      <c r="C38" s="68">
-        <f>SUM(C6:C37)</f>
+      <c r="C38" s="54">
+        <f t="shared" si="12"/>
         <v>1003261</v>
       </c>
-      <c r="D38" s="69">
-        <f>SUM(D6:D37)</f>
+      <c r="D38" s="55">
+        <f t="shared" si="12"/>
         <v>1053670</v>
       </c>
-      <c r="E38" s="69">
-        <f>SUM(E6:E37)</f>
-        <v>1046340</v>
-      </c>
-      <c r="F38" s="69">
-        <f>SUM(F6:F37)</f>
-        <v>1067486</v>
-      </c>
-      <c r="G38" s="70">
-        <f>SUM(G6:G37)</f>
+      <c r="E38" s="55">
+        <f t="shared" si="12"/>
+        <v>1051619</v>
+      </c>
+      <c r="F38" s="55">
+        <f t="shared" si="12"/>
         <v>1066620</v>
+      </c>
+      <c r="G38" s="56">
+        <f t="shared" si="12"/>
+        <v>1068794</v>
       </c>
       <c r="H38" s="45">
         <f>G38-F38</f>
-        <v>-866</v>
+        <v>2174</v>
       </c>
       <c r="I38" s="46">
         <f t="shared" si="1"/>
-        <v>-8.1125185716723891E-4</v>
+        <v>2.0382141718700009E-3</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="48"/>
       <c r="L38" s="49">
         <f t="shared" si="4"/>
-        <v>12950</v>
+        <v>15124</v>
       </c>
       <c r="M38" s="50">
         <f t="shared" si="5"/>
-        <v>1.2290375544525389E-2</v>
+        <v>1.4353640134007861E-2</v>
       </c>
       <c r="N38" s="47"/>
       <c r="O38" s="48"/>
       <c r="P38" s="51">
         <f t="shared" si="8"/>
-        <v>20280</v>
+        <v>17175</v>
       </c>
       <c r="Q38" s="52">
         <f t="shared" si="9"/>
-        <v>1.9381845289294208E-2</v>
+        <v>1.63319605294312E-2</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="48"/>
@@ -3429,27 +3429,27 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:19" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -187,10 +187,6 @@
 Diciembre</t>
   </si>
   <si>
-    <t>2022
-Septiembre</t>
-  </si>
-  <si>
     <t>Diciembre 2020 - octubre 2022</t>
   </si>
   <si>
@@ -198,17 +194,21 @@
 Octubre</t>
   </si>
   <si>
+    <t>Octubre 2022 respecto a Septiembre 2022</t>
+  </si>
+  <si>
+    <t>Octubre 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Octubre 2022 respecto a Octubre 2021</t>
+  </si>
+  <si>
+    <t>2022
+Noviembre</t>
+  </si>
+  <si>
     <t>2021
-Octubre</t>
-  </si>
-  <si>
-    <t>Octubre 2022 respecto a Septiembre 2022</t>
-  </si>
-  <si>
-    <t>Octubre 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Octubre 2022 respecto a Octubre 2021</t>
+Noviembre</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,18 +627,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,7 +908,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="G6" sqref="G6:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -938,18 +926,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -961,18 +949,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="A2" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1005,54 +993,54 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="65" t="s">
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
     </row>
     <row r="5" spans="1:19" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="78"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1094,23 +1082,23 @@
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="16">
         <v>16017</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="17">
         <v>16063</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="18">
         <v>16746</v>
       </c>
-      <c r="E6" s="59">
-        <v>16788</v>
-      </c>
-      <c r="F6" s="59">
-        <v>16722</v>
-      </c>
-      <c r="G6" s="60">
+      <c r="E6" s="18">
+        <v>16770</v>
+      </c>
+      <c r="F6" s="18">
         <v>16710</v>
+      </c>
+      <c r="G6" s="19">
+        <v>16698</v>
       </c>
       <c r="H6" s="17">
         <f>G6-F6</f>
@@ -1118,39 +1106,39 @@
       </c>
       <c r="I6" s="20">
         <f>G6/F6-1</f>
-        <v>-7.1761750986720774E-4</v>
+        <v>-7.1813285457811293E-4</v>
       </c>
       <c r="J6" s="21">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K6" s="22">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L6" s="23">
         <f>G6-D6</f>
-        <v>-36</v>
+        <v>-48</v>
       </c>
       <c r="M6" s="24">
         <f>G6/D6-1</f>
-        <v>-2.1497671085632941E-3</v>
+        <v>-2.8663561447509478E-3</v>
       </c>
       <c r="N6" s="25">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="22">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="26">
         <f>G6-E6</f>
-        <v>-78</v>
+        <v>-72</v>
       </c>
       <c r="Q6" s="27">
         <f>G6/E6-1</f>
-        <v>-4.6461758398855801E-3</v>
+        <v>-4.2933810375670456E-3</v>
       </c>
       <c r="R6" s="26">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
@@ -1158,7 +1146,7 @@
       </c>
       <c r="S6" s="28">
         <f>_xlfn.RANK.EQ(Q6,$Q$6:$Q$37)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1175,61 +1163,61 @@
         <v>44540</v>
       </c>
       <c r="E7" s="18">
-        <v>44527</v>
+        <v>44564</v>
       </c>
       <c r="F7" s="18">
-        <v>44544</v>
+        <v>44714</v>
       </c>
       <c r="G7" s="19">
-        <v>44714</v>
+        <v>44819</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>3.8164511494251929E-3</v>
+        <v>2.3482578163438461E-3</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L7" s="23">
         <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="M7" s="24">
         <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>3.9066008082622172E-3</v>
+        <v>6.2640323304894441E-3</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P38" si="8">G7-E7</f>
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" ref="Q7:Q38" si="9">G7/E7-1</f>
-        <v>4.1996990589978633E-3</v>
+        <v>5.7221075307423153E-3</v>
       </c>
       <c r="R7" s="25">
         <f t="shared" ref="R7:R37" si="10">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S7" s="30">
         <f t="shared" ref="S7:S37" si="11">_xlfn.RANK.EQ(Q7,$Q$6:$Q$37)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1246,37 +1234,37 @@
         <v>13964</v>
       </c>
       <c r="E8" s="18">
-        <v>13905</v>
+        <v>13977</v>
       </c>
       <c r="F8" s="18">
-        <v>14593</v>
+        <v>14700</v>
       </c>
       <c r="G8" s="19">
-        <v>14700</v>
+        <v>14786</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>7.3322826012471864E-3</v>
+        <v>5.8503401360543439E-3</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="4"/>
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="M8" s="24">
         <f t="shared" si="5"/>
-        <v>5.270696075623027E-2</v>
+        <v>5.8865654540246393E-2</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="6"/>
@@ -1288,11 +1276,11 @@
       </c>
       <c r="P8" s="25">
         <f t="shared" si="8"/>
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" si="9"/>
-        <v>5.7173678532901784E-2</v>
+        <v>5.7880804178292999E-2</v>
       </c>
       <c r="R8" s="25">
         <f t="shared" si="10"/>
@@ -1317,37 +1305,37 @@
         <v>6254</v>
       </c>
       <c r="E9" s="18">
-        <v>6208</v>
+        <v>6232</v>
       </c>
       <c r="F9" s="18">
-        <v>6411</v>
+        <v>6457</v>
       </c>
       <c r="G9" s="19">
-        <v>6457</v>
+        <v>6443</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>-14</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>7.1751676805491549E-3</v>
+        <v>-2.1681895617159386E-3</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="L9" s="23">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="5"/>
-        <v>3.2459226095298943E-2</v>
+        <v>3.0220658778381759E-2</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="6"/>
@@ -1355,15 +1343,15 @@
       </c>
       <c r="O9" s="22">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="8"/>
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="29">
         <f t="shared" si="9"/>
-        <v>4.010953608247414E-2</v>
+        <v>3.3857509627727822E-2</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="10"/>
@@ -1388,53 +1376,53 @@
         <v>14789</v>
       </c>
       <c r="E10" s="18">
-        <v>14805</v>
+        <v>14864</v>
       </c>
       <c r="F10" s="18">
-        <v>14805</v>
+        <v>14834</v>
       </c>
       <c r="G10" s="19">
-        <v>14834</v>
+        <v>14861</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>1.9587977034785098E-3</v>
+        <v>1.8201429149251602E-3</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L10" s="23">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="5"/>
-        <v>3.0428020826289703E-3</v>
+        <v>4.8684833322063525E-3</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>-3</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="9"/>
-        <v>1.9587977034785098E-3</v>
+        <v>-2.0182992465012095E-4</v>
       </c>
       <c r="R10" s="25">
         <f t="shared" si="10"/>
@@ -1459,37 +1447,37 @@
         <v>42167</v>
       </c>
       <c r="E11" s="18">
-        <v>42026</v>
+        <v>42209</v>
       </c>
       <c r="F11" s="18">
-        <v>42282</v>
+        <v>42399</v>
       </c>
       <c r="G11" s="19">
-        <v>42399</v>
+        <v>42371</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>-28</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>2.767134951042971E-3</v>
+        <v>-6.6039293379560604E-4</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L11" s="23">
         <f t="shared" si="4"/>
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="5"/>
-        <v>5.50193279104505E-3</v>
+        <v>4.8379064197121568E-3</v>
       </c>
       <c r="N11" s="25">
         <f t="shared" si="6"/>
@@ -1497,23 +1485,23 @@
       </c>
       <c r="O11" s="22">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" s="25">
         <f t="shared" si="8"/>
-        <v>373</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="9"/>
-        <v>8.8754580497787394E-3</v>
+        <v>3.8380440190479703E-3</v>
       </c>
       <c r="R11" s="25">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S11" s="30">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1530,37 +1518,37 @@
         <v>125199</v>
       </c>
       <c r="E12" s="18">
-        <v>124614</v>
+        <v>125176</v>
       </c>
       <c r="F12" s="18">
-        <v>127017</v>
+        <v>127138</v>
       </c>
       <c r="G12" s="19">
-        <v>127138</v>
+        <v>126815</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>-323</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v>9.5262838832588237E-4</v>
+        <v>-2.5405464927873433E-3</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="4"/>
-        <v>1939</v>
+        <v>1616</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="5"/>
-        <v>1.5487344148116255E-2</v>
+        <v>1.2907451337470732E-2</v>
       </c>
       <c r="N12" s="25">
         <f t="shared" si="6"/>
@@ -1568,15 +1556,15 @@
       </c>
       <c r="O12" s="22">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P12" s="25">
         <f t="shared" si="8"/>
-        <v>2524</v>
+        <v>1639</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="9"/>
-        <v>2.0254546038165788E-2</v>
+        <v>1.3093564261519752E-2</v>
       </c>
       <c r="R12" s="25">
         <f t="shared" si="10"/>
@@ -1584,7 +1572,7 @@
       </c>
       <c r="S12" s="30">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1601,61 +1589,61 @@
         <v>35642</v>
       </c>
       <c r="E13" s="18">
-        <v>35640</v>
+        <v>35712</v>
       </c>
       <c r="F13" s="18">
-        <v>35742</v>
+        <v>35793</v>
       </c>
       <c r="G13" s="19">
-        <v>35793</v>
+        <v>35796</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="1"/>
-        <v>1.4268927312406365E-3</v>
+        <v>8.3815271142428927E-5</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="4"/>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="5"/>
-        <v>4.2365748274506565E-3</v>
+        <v>4.3207451882609771E-3</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="8"/>
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="9"/>
-        <v>4.2929292929292373E-3</v>
+        <v>2.3521505376344898E-3</v>
       </c>
       <c r="R13" s="25">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S13" s="30">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1672,37 +1660,37 @@
         <v>11397</v>
       </c>
       <c r="E14" s="18">
-        <v>11417</v>
+        <v>11421</v>
       </c>
       <c r="F14" s="18">
-        <v>11600</v>
+        <v>11643</v>
       </c>
       <c r="G14" s="19">
-        <v>11643</v>
+        <v>11674</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v>3.7068965517241814E-3</v>
+        <v>2.6625440178649207E-3</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="4"/>
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="5"/>
-        <v>2.1584627533561385E-2</v>
+        <v>2.4304641572343577E-2</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" si="6"/>
@@ -1714,19 +1702,19 @@
       </c>
       <c r="P14" s="25">
         <f t="shared" si="8"/>
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="29">
         <f t="shared" si="9"/>
-        <v>1.979504248051156E-2</v>
+        <v>2.2152175816478437E-2</v>
       </c>
       <c r="R14" s="25">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1743,37 +1731,37 @@
         <v>14609</v>
       </c>
       <c r="E15" s="18">
-        <v>14658</v>
+        <v>14686</v>
       </c>
       <c r="F15" s="18">
-        <v>14574</v>
+        <v>14584</v>
       </c>
       <c r="G15" s="19">
-        <v>14584</v>
+        <v>14583</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>6.8615342390554446E-4</v>
+        <v>-6.8568294020798781E-5</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="4"/>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="5"/>
-        <v>-1.7112738722705467E-3</v>
+        <v>-1.7797248271613775E-3</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="6"/>
@@ -1781,23 +1769,23 @@
       </c>
       <c r="O15" s="22">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="8"/>
-        <v>-74</v>
+        <v>-103</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="9"/>
-        <v>-5.0484377131941871E-3</v>
+        <v>-7.0134822279722675E-3</v>
       </c>
       <c r="R15" s="25">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S15" s="30">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1814,37 +1802,37 @@
         <v>77044</v>
       </c>
       <c r="E16" s="18">
-        <v>76825</v>
+        <v>77219</v>
       </c>
       <c r="F16" s="18">
-        <v>78279</v>
+        <v>78348</v>
       </c>
       <c r="G16" s="19">
-        <v>78348</v>
+        <v>78267</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>-81</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v>8.8146246119658045E-4</v>
+        <v>-1.0338489814673002E-3</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K16" s="22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="4"/>
-        <v>1304</v>
+        <v>1223</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="5"/>
-        <v>1.6925393281761014E-2</v>
+        <v>1.5874045999688446E-2</v>
       </c>
       <c r="N16" s="25">
         <f t="shared" si="6"/>
@@ -1852,23 +1840,23 @@
       </c>
       <c r="O16" s="22">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="8"/>
-        <v>1523</v>
+        <v>1048</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" si="9"/>
-        <v>1.9824275951838555E-2</v>
+        <v>1.3571789326461081E-2</v>
       </c>
       <c r="R16" s="25">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S16" s="30">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1885,41 +1873,41 @@
         <v>49358</v>
       </c>
       <c r="E17" s="18">
-        <v>49324</v>
+        <v>49490</v>
       </c>
       <c r="F17" s="18">
-        <v>49745</v>
+        <v>49706</v>
       </c>
       <c r="G17" s="19">
-        <v>49706</v>
+        <v>49740</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>34</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" si="1"/>
-        <v>-7.8399839179821296E-4</v>
+        <v>6.8402204965201108E-4</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K17" s="22">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="4"/>
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="5"/>
-        <v>7.0505287896591717E-3</v>
+        <v>7.7393735564650346E-3</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="7"/>
@@ -1927,15 +1915,15 @@
       </c>
       <c r="P17" s="25">
         <f t="shared" si="8"/>
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" si="9"/>
-        <v>7.7447084583570636E-3</v>
+        <v>5.0515255607193055E-3</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S17" s="30">
         <f t="shared" si="11"/>
@@ -1956,61 +1944,61 @@
         <v>13674</v>
       </c>
       <c r="E18" s="18">
-        <v>13754</v>
+        <v>13739</v>
       </c>
       <c r="F18" s="18">
-        <v>13770</v>
+        <v>13802</v>
       </c>
       <c r="G18" s="19">
-        <v>13802</v>
+        <v>13820</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v>2.3238925199708937E-3</v>
+        <v>1.3041588175626284E-3</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="5"/>
-        <v>9.3608307737311769E-3</v>
+        <v>1.0677197601287158E-2</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="9"/>
-        <v>3.4898938490621756E-3</v>
+        <v>5.8956255913822364E-3</v>
       </c>
       <c r="R18" s="25">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S18" s="30">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2027,37 +2015,37 @@
         <v>15980</v>
       </c>
       <c r="E19" s="18">
-        <v>15993</v>
+        <v>16050</v>
       </c>
       <c r="F19" s="18">
-        <v>16307</v>
+        <v>16312</v>
       </c>
       <c r="G19" s="19">
-        <v>16312</v>
+        <v>16318</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="1"/>
-        <v>3.0661679033539002E-4</v>
+        <v>3.6782736635609936E-4</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K19" s="22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="5"/>
-        <v>2.0775969962453011E-2</v>
+        <v>2.1151439299123886E-2</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="6"/>
@@ -2065,23 +2053,23 @@
       </c>
       <c r="O19" s="22">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="8"/>
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="9"/>
-        <v>1.9946226474082396E-2</v>
+        <v>1.6697819314641649E-2</v>
       </c>
       <c r="R19" s="25">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T19" s="2"/>
     </row>
@@ -2099,37 +2087,37 @@
         <v>103251</v>
       </c>
       <c r="E20" s="34">
-        <v>102866</v>
+        <v>103172</v>
       </c>
       <c r="F20" s="34">
-        <v>105603</v>
+        <v>105902</v>
       </c>
       <c r="G20" s="35">
-        <v>105902</v>
+        <v>105908</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="I20" s="36">
         <f t="shared" si="1"/>
-        <v>2.8313589576054454E-3</v>
+        <v>5.6656153802681075E-5</v>
       </c>
       <c r="J20" s="37">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K20" s="38">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L20" s="39">
         <f t="shared" si="4"/>
-        <v>2651</v>
+        <v>2657</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="5"/>
-        <v>2.5675296123039981E-2</v>
+        <v>2.5733406940368519E-2</v>
       </c>
       <c r="N20" s="41">
         <f t="shared" si="6"/>
@@ -2141,11 +2129,11 @@
       </c>
       <c r="P20" s="41">
         <f t="shared" si="8"/>
-        <v>3036</v>
+        <v>2736</v>
       </c>
       <c r="Q20" s="42">
         <f t="shared" si="9"/>
-        <v>2.9514125172554584E-2</v>
+        <v>2.6518822936455688E-2</v>
       </c>
       <c r="R20" s="41">
         <f>_xlfn.RANK.EQ(P20,$P$6:$P$37)</f>
@@ -2153,7 +2141,7 @@
       </c>
       <c r="S20" s="43">
         <f>_xlfn.RANK.EQ(Q20,$Q$6:$Q$37)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T20" s="2"/>
     </row>
@@ -2171,61 +2159,61 @@
         <v>37104</v>
       </c>
       <c r="E21" s="18">
-        <v>37053</v>
+        <v>37101</v>
       </c>
       <c r="F21" s="18">
-        <v>37282</v>
+        <v>37352</v>
       </c>
       <c r="G21" s="19">
-        <v>37352</v>
+        <v>37289</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>-63</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="1"/>
-        <v>1.8775816748028973E-3</v>
+        <v>-1.6866566716641218E-3</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K21" s="22">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" si="4"/>
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="5"/>
-        <v>6.6839154808107093E-3</v>
+        <v>4.9859853385079145E-3</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="8"/>
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="Q21" s="29">
         <f t="shared" si="9"/>
-        <v>8.0695220360025299E-3</v>
+        <v>5.0672488612166777E-3</v>
       </c>
       <c r="R21" s="25">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S21" s="30">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -2242,61 +2230,61 @@
         <v>12579</v>
       </c>
       <c r="E22" s="18">
-        <v>12560</v>
+        <v>12612</v>
       </c>
       <c r="F22" s="18">
-        <v>12632</v>
+        <v>12659</v>
       </c>
       <c r="G22" s="19">
-        <v>12659</v>
+        <v>12625</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>-34</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v>2.1374287523749924E-3</v>
+        <v>-2.6858361639939821E-3</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K22" s="22">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L22" s="23">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="5"/>
-        <v>6.359806025916237E-3</v>
+        <v>3.656888464901753E-3</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="9"/>
-        <v>7.8821656050955813E-3</v>
+        <v>1.0307643514113618E-3</v>
       </c>
       <c r="R22" s="25">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S22" s="30">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2313,37 +2301,37 @@
         <v>13590</v>
       </c>
       <c r="E23" s="18">
-        <v>13541</v>
+        <v>13569</v>
       </c>
       <c r="F23" s="18">
-        <v>13797</v>
+        <v>13880</v>
       </c>
       <c r="G23" s="19">
-        <v>13880</v>
+        <v>13888</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" si="1"/>
-        <v>6.0158005363484257E-3</v>
+        <v>5.7636887608070175E-4</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L23" s="23">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="5"/>
-        <v>2.1339220014716664E-2</v>
+        <v>2.1927888153053798E-2</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="6"/>
@@ -2351,19 +2339,19 @@
       </c>
       <c r="O23" s="22">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="8"/>
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="29">
         <f t="shared" si="9"/>
-        <v>2.5035078650025744E-2</v>
+        <v>2.3509470115704811E-2</v>
       </c>
       <c r="R23" s="25">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S23" s="30">
         <f t="shared" si="11"/>
@@ -2384,61 +2372,61 @@
         <v>74823</v>
       </c>
       <c r="E24" s="18">
-        <v>74370</v>
+        <v>74878</v>
       </c>
       <c r="F24" s="18">
-        <v>76016</v>
+        <v>76282</v>
       </c>
       <c r="G24" s="19">
-        <v>76282</v>
+        <v>76316</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v>3.4992633129866668E-3</v>
+        <v>4.4571458535425101E-4</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K24" s="22">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L24" s="23">
         <f t="shared" si="4"/>
-        <v>1459</v>
+        <v>1493</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="5"/>
-        <v>1.9499351803589748E-2</v>
+        <v>1.9953757534447947E-2</v>
       </c>
       <c r="N24" s="25">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" s="22">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P24" s="25">
         <f t="shared" si="8"/>
-        <v>1912</v>
+        <v>1438</v>
       </c>
       <c r="Q24" s="29">
         <f t="shared" si="9"/>
-        <v>2.5709291380933141E-2</v>
+        <v>1.9204572771708728E-2</v>
       </c>
       <c r="R24" s="25">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" s="30">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -2455,57 +2443,57 @@
         <v>14401</v>
       </c>
       <c r="E25" s="18">
-        <v>14433</v>
+        <v>14443</v>
       </c>
       <c r="F25" s="18">
-        <v>14501</v>
+        <v>14562</v>
       </c>
       <c r="G25" s="19">
-        <v>14562</v>
+        <v>14553</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>-9</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="1"/>
-        <v>4.2066064409351789E-3</v>
+        <v>-6.1804697156986332E-4</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K25" s="22">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L25" s="23">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="5"/>
-        <v>1.1179779182001193E-2</v>
+        <v>1.05548225817651E-2</v>
       </c>
       <c r="N25" s="25">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O25" s="22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="8"/>
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="29">
         <f t="shared" si="9"/>
-        <v>8.9378507586779232E-3</v>
+        <v>7.6161462300077254E-3</v>
       </c>
       <c r="R25" s="25">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S25" s="30">
         <f t="shared" si="11"/>
@@ -2526,37 +2514,37 @@
         <v>34423</v>
       </c>
       <c r="E26" s="18">
-        <v>34280</v>
+        <v>34485</v>
       </c>
       <c r="F26" s="18">
-        <v>34973</v>
+        <v>35060</v>
       </c>
       <c r="G26" s="19">
-        <v>35060</v>
+        <v>35048</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>-12</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v>2.4876333171304221E-3</v>
+        <v>-3.422703936108995E-4</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K26" s="22">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L26" s="23">
         <f t="shared" si="4"/>
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="5"/>
-        <v>1.8505069285071007E-2</v>
+        <v>1.8156465154112178E-2</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="6"/>
@@ -2564,23 +2552,23 @@
       </c>
       <c r="O26" s="22">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="8"/>
-        <v>780</v>
+        <v>563</v>
       </c>
       <c r="Q26" s="29">
         <f t="shared" si="9"/>
-        <v>2.2753792298716435E-2</v>
+        <v>1.6325938813977148E-2</v>
       </c>
       <c r="R26" s="25">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S26" s="30">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -2597,37 +2585,37 @@
         <v>28507</v>
       </c>
       <c r="E27" s="18">
-        <v>28379</v>
+        <v>28561</v>
       </c>
       <c r="F27" s="18">
-        <v>29483</v>
+        <v>29643</v>
       </c>
       <c r="G27" s="19">
-        <v>29643</v>
+        <v>29711</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="1"/>
-        <v>5.4268561543939775E-3</v>
+        <v>2.2939648483621955E-3</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" s="22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L27" s="23">
         <f t="shared" si="4"/>
-        <v>1136</v>
+        <v>1204</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="5"/>
-        <v>3.9849861437541767E-2</v>
+        <v>4.2235240467253687E-2</v>
       </c>
       <c r="N27" s="25">
         <f t="shared" si="6"/>
@@ -2639,15 +2627,15 @@
       </c>
       <c r="P27" s="25">
         <f t="shared" si="8"/>
-        <v>1264</v>
+        <v>1150</v>
       </c>
       <c r="Q27" s="29">
         <f t="shared" si="9"/>
-        <v>4.4539976743366516E-2</v>
+        <v>4.0264696614264128E-2</v>
       </c>
       <c r="R27" s="25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S27" s="30">
         <f t="shared" si="11"/>
@@ -2668,41 +2656,41 @@
         <v>19275</v>
       </c>
       <c r="E28" s="18">
-        <v>19036</v>
+        <v>19219</v>
       </c>
       <c r="F28" s="18">
-        <v>20426</v>
+        <v>20596</v>
       </c>
       <c r="G28" s="19">
-        <v>20596</v>
+        <v>20780</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v>8.322725937530695E-3</v>
+        <v>8.9337735482617475E-3</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" s="22">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="23">
         <f t="shared" si="4"/>
-        <v>1321</v>
+        <v>1505</v>
       </c>
       <c r="M28" s="24">
         <f t="shared" si="5"/>
-        <v>6.8534370946822243E-2</v>
+        <v>7.8080415045395535E-2</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" s="22">
         <f t="shared" si="7"/>
@@ -2710,15 +2698,15 @@
       </c>
       <c r="P28" s="25">
         <f t="shared" si="8"/>
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="Q28" s="29">
         <f t="shared" si="9"/>
-        <v>8.1949989493591113E-2</v>
+        <v>8.1221707685103173E-2</v>
       </c>
       <c r="R28" s="25">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S28" s="30">
         <f t="shared" si="11"/>
@@ -2739,41 +2727,41 @@
         <v>23707</v>
       </c>
       <c r="E29" s="18">
-        <v>23752</v>
+        <v>23778</v>
       </c>
       <c r="F29" s="18">
-        <v>23824</v>
+        <v>23864</v>
       </c>
       <c r="G29" s="19">
-        <v>23864</v>
+        <v>23845</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>-19</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="1"/>
-        <v>1.67897918065818E-3</v>
+        <v>-7.9617834394907216E-4</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K29" s="22">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L29" s="23">
         <f t="shared" si="4"/>
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="5"/>
-        <v>6.6225165562914245E-3</v>
+        <v>5.8210655080777052E-3</v>
       </c>
       <c r="N29" s="25">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O29" s="22">
         <f t="shared" si="7"/>
@@ -2781,19 +2769,19 @@
       </c>
       <c r="P29" s="25">
         <f t="shared" si="8"/>
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="29">
         <f t="shared" si="9"/>
-        <v>4.7153923880094428E-3</v>
+        <v>2.8177306754142428E-3</v>
       </c>
       <c r="R29" s="25">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S29" s="30">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2810,37 +2798,37 @@
         <v>42868</v>
       </c>
       <c r="E30" s="18">
-        <v>42810</v>
+        <v>42879</v>
       </c>
       <c r="F30" s="18">
-        <v>43396</v>
+        <v>43482</v>
       </c>
       <c r="G30" s="19">
-        <v>43482</v>
+        <v>43476</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>-6</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="1"/>
-        <v>1.9817494699971849E-3</v>
+        <v>-1.3798813302057233E-4</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K30" s="22">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30" s="23">
         <f t="shared" si="4"/>
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M30" s="24">
         <f t="shared" si="5"/>
-        <v>1.4323038163665203E-2</v>
+        <v>1.4183073621349296E-2</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="6"/>
@@ -2852,19 +2840,19 @@
       </c>
       <c r="P30" s="25">
         <f t="shared" si="8"/>
-        <v>672</v>
+        <v>597</v>
       </c>
       <c r="Q30" s="29">
         <f t="shared" si="9"/>
-        <v>1.5697266993693004E-2</v>
+        <v>1.3922899321346049E-2</v>
       </c>
       <c r="R30" s="25">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S30" s="30">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2881,61 +2869,61 @@
         <v>39139</v>
       </c>
       <c r="E31" s="18">
-        <v>39220</v>
+        <v>39233</v>
       </c>
       <c r="F31" s="18">
-        <v>39157</v>
+        <v>39113</v>
       </c>
       <c r="G31" s="19">
-        <v>39113</v>
+        <v>39037</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>-44</v>
+        <v>-76</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="1"/>
-        <v>-1.1236815894987151E-3</v>
+        <v>-1.9430879758648434E-3</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K31" s="22">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L31" s="23">
         <f t="shared" si="4"/>
-        <v>-26</v>
+        <v>-102</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="5"/>
-        <v>-6.6429903676634705E-4</v>
+        <v>-2.606096221160481E-3</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O31" s="22">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="8"/>
-        <v>-107</v>
+        <v>-196</v>
       </c>
       <c r="Q31" s="29">
         <f t="shared" si="9"/>
-        <v>-2.7281998980112077E-3</v>
+        <v>-4.9957943567914276E-3</v>
       </c>
       <c r="R31" s="25">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2952,61 +2940,61 @@
         <v>11432</v>
       </c>
       <c r="E32" s="18">
-        <v>11457</v>
+        <v>11461</v>
       </c>
       <c r="F32" s="18">
-        <v>11727</v>
+        <v>11792</v>
       </c>
       <c r="G32" s="19">
-        <v>11792</v>
+        <v>11795</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="1"/>
-        <v>5.5427645604160247E-3</v>
+        <v>2.5440976933510662E-4</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L32" s="23">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="5"/>
-        <v>3.149055283414981E-2</v>
+        <v>3.1752974107767562E-2</v>
       </c>
       <c r="N32" s="25">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O32" s="22">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="8"/>
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="29">
         <f t="shared" si="9"/>
-        <v>2.9239766081871288E-2</v>
+        <v>2.914230869906631E-2</v>
       </c>
       <c r="R32" s="25">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -3023,37 +3011,37 @@
         <v>34785</v>
       </c>
       <c r="E33" s="18">
-        <v>34913</v>
+        <v>34872</v>
       </c>
       <c r="F33" s="18">
-        <v>34566</v>
+        <v>34493</v>
       </c>
       <c r="G33" s="19">
-        <v>34493</v>
+        <v>34367</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>-73</v>
+        <v>-126</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="1"/>
-        <v>-2.1119018688885438E-3</v>
+        <v>-3.6529150842199432E-3</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L33" s="23">
         <f t="shared" si="4"/>
-        <v>-292</v>
+        <v>-418</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="5"/>
-        <v>-8.3944228834267332E-3</v>
+        <v>-1.2016673853672555E-2</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="6"/>
@@ -3061,15 +3049,15 @@
       </c>
       <c r="O33" s="22">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="8"/>
-        <v>-420</v>
+        <v>-505</v>
       </c>
       <c r="Q33" s="29">
         <f t="shared" si="9"/>
-        <v>-1.2029902901497969E-2</v>
+        <v>-1.4481532461573798E-2</v>
       </c>
       <c r="R33" s="25">
         <f t="shared" si="10"/>
@@ -3077,7 +3065,7 @@
       </c>
       <c r="S33" s="30">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -3094,61 +3082,61 @@
         <v>5466</v>
       </c>
       <c r="E34" s="18">
-        <v>5403</v>
+        <v>5453</v>
       </c>
       <c r="F34" s="18">
-        <v>5505</v>
+        <v>5536</v>
       </c>
       <c r="G34" s="19">
-        <v>5536</v>
+        <v>5590</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="1"/>
-        <v>5.6312443233423881E-3</v>
+        <v>9.7543352601157096E-3</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L34" s="23">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="5"/>
-        <v>1.280643980973295E-2</v>
+        <v>2.2685693377241023E-2</v>
       </c>
       <c r="N34" s="25">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O34" s="22">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="8"/>
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="29">
         <f t="shared" si="9"/>
-        <v>2.4615954099574289E-2</v>
+        <v>2.5123785072437288E-2</v>
       </c>
       <c r="R34" s="25">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -3165,53 +3153,53 @@
         <v>44116</v>
       </c>
       <c r="E35" s="18">
-        <v>44292</v>
+        <v>44225</v>
       </c>
       <c r="F35" s="18">
-        <v>44070</v>
+        <v>44046</v>
       </c>
       <c r="G35" s="19">
-        <v>44046</v>
+        <v>43864</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-182</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="1"/>
-        <v>-5.4458815520763704E-4</v>
+        <v>-4.1320437724197134E-3</v>
       </c>
       <c r="J35" s="21">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L35" s="23">
         <f t="shared" si="4"/>
-        <v>-70</v>
+        <v>-252</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="5"/>
-        <v>-1.5867259044337612E-3</v>
+        <v>-5.7122132559616068E-3</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O35" s="22">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P35" s="25">
         <f t="shared" si="8"/>
-        <v>-246</v>
+        <v>-361</v>
       </c>
       <c r="Q35" s="29">
         <f t="shared" si="9"/>
-        <v>-5.5540503928475093E-3</v>
+        <v>-8.1628038439796047E-3</v>
       </c>
       <c r="R35" s="25">
         <f t="shared" si="10"/>
@@ -3219,7 +3207,7 @@
       </c>
       <c r="S35" s="30">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3236,37 +3224,37 @@
         <v>20773</v>
       </c>
       <c r="E36" s="18">
-        <v>20660</v>
+        <v>20780</v>
       </c>
       <c r="F36" s="18">
-        <v>21305</v>
+        <v>21431</v>
       </c>
       <c r="G36" s="19">
-        <v>21431</v>
+        <v>21446</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="1"/>
-        <v>5.9141046702650968E-3</v>
+        <v>6.9992067565682881E-4</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L36" s="23">
         <f t="shared" si="4"/>
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="5"/>
-        <v>3.1675732922543665E-2</v>
+        <v>3.23978240985896E-2</v>
       </c>
       <c r="N36" s="25">
         <f t="shared" si="6"/>
@@ -3274,19 +3262,19 @@
       </c>
       <c r="O36" s="22">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P36" s="25">
         <f t="shared" si="8"/>
-        <v>771</v>
+        <v>666</v>
       </c>
       <c r="Q36" s="29">
         <f t="shared" si="9"/>
-        <v>3.7318489835430846E-2</v>
+        <v>3.205004812319534E-2</v>
       </c>
       <c r="R36" s="25">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S36" s="30">
         <f t="shared" si="11"/>
@@ -3297,71 +3285,71 @@
       <c r="A37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="61">
+      <c r="B37" s="57">
         <v>11771</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="58">
         <v>11796</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="59">
         <v>12068</v>
       </c>
-      <c r="E37" s="63">
-        <v>12110</v>
-      </c>
-      <c r="F37" s="63">
-        <v>11966</v>
-      </c>
-      <c r="G37" s="64">
+      <c r="E37" s="59">
+        <v>12049</v>
+      </c>
+      <c r="F37" s="59">
         <v>11961</v>
+      </c>
+      <c r="G37" s="60">
+        <v>11980</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="1"/>
-        <v>-4.1785057663379366E-4</v>
+        <v>1.5884959451550884E-3</v>
       </c>
       <c r="J37" s="21">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K37" s="22">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L37" s="23">
         <f t="shared" si="4"/>
-        <v>-107</v>
+        <v>-88</v>
       </c>
       <c r="M37" s="24">
         <f t="shared" si="5"/>
-        <v>-8.8664235996022134E-3</v>
+        <v>-7.2920119323831578E-3</v>
       </c>
       <c r="N37" s="25">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O37" s="22">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="8"/>
-        <v>-149</v>
+        <v>-69</v>
       </c>
       <c r="Q37" s="29">
         <f t="shared" si="9"/>
-        <v>-1.230388109000824E-2</v>
+        <v>-5.7266163167067896E-3</v>
       </c>
       <c r="R37" s="25">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S37" s="30">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="9" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
@@ -3382,43 +3370,43 @@
       </c>
       <c r="E38" s="55">
         <f t="shared" si="12"/>
-        <v>1051619</v>
+        <v>1054879</v>
       </c>
       <c r="F38" s="55">
         <f t="shared" si="12"/>
-        <v>1066620</v>
+        <v>1068794</v>
       </c>
       <c r="G38" s="56">
         <f t="shared" si="12"/>
-        <v>1068794</v>
+        <v>1068509</v>
       </c>
       <c r="H38" s="45">
         <f>G38-F38</f>
-        <v>2174</v>
+        <v>-285</v>
       </c>
       <c r="I38" s="46">
         <f t="shared" si="1"/>
-        <v>2.0382141718700009E-3</v>
+        <v>-2.6665568856110156E-4</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="48"/>
       <c r="L38" s="49">
         <f t="shared" si="4"/>
-        <v>15124</v>
+        <v>14839</v>
       </c>
       <c r="M38" s="50">
         <f t="shared" si="5"/>
-        <v>1.4353640134007861E-2</v>
+        <v>1.4083156965653432E-2</v>
       </c>
       <c r="N38" s="47"/>
       <c r="O38" s="48"/>
       <c r="P38" s="51">
         <f t="shared" si="8"/>
-        <v>17175</v>
+        <v>13630</v>
       </c>
       <c r="Q38" s="52">
         <f t="shared" si="9"/>
-        <v>1.63319605294312E-2</v>
+        <v>1.292091320426314E-2</v>
       </c>
       <c r="R38" s="47"/>
       <c r="S38" s="48"/>
@@ -3429,27 +3417,27 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:19" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="2" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -188,24 +188,24 @@
   </si>
   <si>
     <t>2022
-Noviembre</t>
-  </si>
-  <si>
-    <t>2021
-Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre 2020 - diciembre 2022</t>
+Diciembre</t>
+  </si>
+  <si>
+    <t>Diciembre 2020 - enero 2023</t>
+  </si>
+  <si>
+    <t>2023
+Enero</t>
+  </si>
+  <si>
+    <t>Enero 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Enero 2023 respecto a Enero 2022</t>
   </si>
   <si>
     <t>2022
-Diciembre</t>
-  </si>
-  <si>
-    <t>Diciembre 2022 respecto a Noviembre 2022</t>
-  </si>
-  <si>
-    <t>Diciembre 2022 respecto a Diciembre 2021</t>
+Enero</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -599,12 +599,6 @@
     <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -639,7 +633,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,7 +872,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -877,7 +880,8 @@
     <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
     <col min="8" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="9.375" style="2" customWidth="1"/>
@@ -885,18 +889,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -904,18 +908,18 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="A2" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -940,48 +944,48 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="61"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1021,41 +1025,41 @@
         <v>16746</v>
       </c>
       <c r="E6" s="16">
-        <v>16770</v>
+        <v>16734</v>
       </c>
       <c r="F6" s="16">
-        <v>16698</v>
+        <v>16707</v>
       </c>
       <c r="G6" s="17">
-        <v>16707</v>
+        <v>16656</v>
       </c>
       <c r="H6" s="15">
         <f>G6-F6</f>
-        <v>9</v>
+        <v>-51</v>
       </c>
       <c r="I6" s="18">
         <f>G6/F6-1</f>
-        <v>5.3898670499452628E-4</v>
+        <v>-3.0526126773209317E-3</v>
       </c>
       <c r="J6" s="19">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K6" s="20">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L6" s="21">
-        <f>G6-D6</f>
-        <v>-39</v>
+        <f>G6-E6</f>
+        <v>-78</v>
       </c>
       <c r="M6" s="22">
-        <f>G6/D6-1</f>
-        <v>-2.3289143676101798E-3</v>
+        <f>G6/E6-1</f>
+        <v>-4.6611688777339344E-3</v>
       </c>
       <c r="N6" s="23">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="20">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
@@ -1076,45 +1080,45 @@
         <v>44540</v>
       </c>
       <c r="E7" s="16">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="F7" s="16">
-        <v>44819</v>
+        <v>44653</v>
       </c>
       <c r="G7" s="17">
-        <v>44653</v>
+        <v>44615</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>-166</v>
+        <v>-38</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>-3.7037863406145233E-3</v>
+        <v>-8.5100665128878816E-4</v>
       </c>
       <c r="J7" s="19">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
+        <v>8</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" ref="L7:L37" si="4">G7-E7</f>
         <v>22</v>
       </c>
-      <c r="L7" s="21">
-        <f t="shared" ref="L7:L38" si="4">G7-D7</f>
-        <v>113</v>
-      </c>
       <c r="M7" s="22">
-        <f t="shared" ref="M7:M38" si="5">G7/D7-1</f>
-        <v>2.5370453524922176E-3</v>
+        <f t="shared" ref="M7:M37" si="5">G7/E7-1</f>
+        <v>4.9335097436808972E-4</v>
       </c>
       <c r="N7" s="23">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1131,41 +1135,41 @@
         <v>13964</v>
       </c>
       <c r="E8" s="16">
-        <v>13977</v>
+        <v>14006</v>
       </c>
       <c r="F8" s="16">
-        <v>14786</v>
+        <v>14759</v>
       </c>
       <c r="G8" s="17">
-        <v>14759</v>
+        <v>14772</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>13</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="1"/>
-        <v>-1.8260516704990959E-3</v>
+        <v>8.8081848363708026E-4</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K8" s="20">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L8" s="21">
         <f t="shared" si="4"/>
-        <v>795</v>
+        <v>766</v>
       </c>
       <c r="M8" s="22">
         <f t="shared" si="5"/>
-        <v>5.6932111142939057E-2</v>
+        <v>5.4690846779951396E-2</v>
       </c>
       <c r="N8" s="23">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" s="20">
         <f t="shared" si="7"/>
@@ -1186,45 +1190,45 @@
         <v>6254</v>
       </c>
       <c r="E9" s="16">
-        <v>6232</v>
+        <v>6295</v>
       </c>
       <c r="F9" s="16">
-        <v>6443</v>
+        <v>6418</v>
       </c>
       <c r="G9" s="17">
-        <v>6418</v>
+        <v>6369</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-49</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="1"/>
-        <v>-3.8801800403538422E-3</v>
+        <v>-7.6347771891555061E-3</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L9" s="21">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="M9" s="22">
         <f t="shared" si="5"/>
-        <v>2.6223217141029709E-2</v>
+        <v>1.1755361397934871E-2</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1241,45 +1245,45 @@
         <v>14789</v>
       </c>
       <c r="E10" s="16">
-        <v>14864</v>
+        <v>14753</v>
       </c>
       <c r="F10" s="16">
-        <v>14861</v>
+        <v>14786</v>
       </c>
       <c r="G10" s="17">
-        <v>14786</v>
+        <v>14747</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
-        <v>-75</v>
+        <v>-39</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="1"/>
-        <v>-5.046766704797756E-3</v>
+        <v>-2.637630190720941E-3</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K10" s="20">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L10" s="21">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="M10" s="22">
         <f t="shared" si="5"/>
-        <v>-2.028534721753017E-4</v>
+        <v>-4.0669694299466652E-4</v>
       </c>
       <c r="N10" s="23">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1296,45 +1300,45 @@
         <v>42167</v>
       </c>
       <c r="E11" s="16">
-        <v>42209</v>
+        <v>42125</v>
       </c>
       <c r="F11" s="16">
-        <v>42371</v>
+        <v>42300</v>
       </c>
       <c r="G11" s="17">
-        <v>42300</v>
+        <v>42172</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>-71</v>
+        <v>-128</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="1"/>
-        <v>-1.6756743999433166E-3</v>
+        <v>-3.0260047281324143E-3</v>
       </c>
       <c r="J11" s="19">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K11" s="20">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L11" s="21">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="M11" s="22">
         <f t="shared" si="5"/>
-        <v>3.1541252638318529E-3</v>
+        <v>1.1157270029673594E-3</v>
       </c>
       <c r="N11" s="23">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1351,25 +1355,25 @@
         <v>125199</v>
       </c>
       <c r="E12" s="16">
-        <v>125176</v>
+        <v>124898</v>
       </c>
       <c r="F12" s="16">
-        <v>126815</v>
+        <v>126560</v>
       </c>
       <c r="G12" s="17">
-        <v>126560</v>
+        <v>126345</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="0"/>
-        <v>-255</v>
+        <v>-215</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="1"/>
-        <v>-2.0108031384300507E-3</v>
+        <v>-1.6987989886220189E-3</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="20">
         <f t="shared" si="3"/>
@@ -1377,19 +1381,19 @@
       </c>
       <c r="L12" s="21">
         <f t="shared" si="4"/>
-        <v>1361</v>
+        <v>1447</v>
       </c>
       <c r="M12" s="22">
         <f t="shared" si="5"/>
-        <v>1.0870693855382196E-2</v>
+        <v>1.1585453730243778E-2</v>
       </c>
       <c r="N12" s="23">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1406,45 +1410,45 @@
         <v>35642</v>
       </c>
       <c r="E13" s="16">
-        <v>35712</v>
+        <v>35582</v>
       </c>
       <c r="F13" s="16">
-        <v>35796</v>
+        <v>35695</v>
       </c>
       <c r="G13" s="17">
-        <v>35695</v>
+        <v>35642</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="0"/>
-        <v>-101</v>
+        <v>-53</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="1"/>
-        <v>-2.8215443066264001E-3</v>
+        <v>-1.4848017929681712E-3</v>
       </c>
       <c r="J13" s="19">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L13" s="21">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M13" s="22">
         <f t="shared" si="5"/>
-        <v>1.4870097076482569E-3</v>
+        <v>1.6862458546456072E-3</v>
       </c>
       <c r="N13" s="23">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1461,41 +1465,41 @@
         <v>11397</v>
       </c>
       <c r="E14" s="16">
-        <v>11421</v>
+        <v>11363</v>
       </c>
       <c r="F14" s="16">
-        <v>11674</v>
+        <v>11673</v>
       </c>
       <c r="G14" s="17">
-        <v>11673</v>
+        <v>11607</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-66</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="1"/>
-        <v>-8.5660442007862159E-5</v>
+        <v>-5.6540735029555478E-3</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="L14" s="21">
         <f t="shared" si="4"/>
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" si="5"/>
-        <v>2.4216899183995722E-2</v>
+        <v>2.1473202499340038E-2</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" si="7"/>
@@ -1516,45 +1520,45 @@
         <v>14609</v>
       </c>
       <c r="E15" s="16">
-        <v>14686</v>
+        <v>14605</v>
       </c>
       <c r="F15" s="16">
-        <v>14583</v>
+        <v>14532</v>
       </c>
       <c r="G15" s="17">
-        <v>14532</v>
+        <v>14500</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="0"/>
-        <v>-51</v>
+        <v>-32</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="1"/>
-        <v>-3.4972227936638234E-3</v>
+        <v>-2.2020368841177973E-3</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L15" s="21">
         <f t="shared" si="4"/>
-        <v>-77</v>
+        <v>-105</v>
       </c>
       <c r="M15" s="22">
         <f t="shared" si="5"/>
-        <v>-5.2707235265931907E-3</v>
+        <v>-7.1893187264635561E-3</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O15" s="20">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1571,41 +1575,41 @@
         <v>77044</v>
       </c>
       <c r="E16" s="16">
-        <v>77219</v>
+        <v>77149</v>
       </c>
       <c r="F16" s="16">
-        <v>78267</v>
+        <v>78074</v>
       </c>
       <c r="G16" s="17">
-        <v>78074</v>
+        <v>77908</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="0"/>
-        <v>-193</v>
+        <v>-166</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="1"/>
-        <v>-2.4659179475385873E-3</v>
+        <v>-2.1261879755104518E-3</v>
       </c>
       <c r="J16" s="19">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="21">
         <f t="shared" si="4"/>
-        <v>1030</v>
+        <v>759</v>
       </c>
       <c r="M16" s="22">
         <f t="shared" si="5"/>
-        <v>1.3368983957219305E-2</v>
+        <v>9.8381054841929494E-3</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O16" s="20">
         <f t="shared" si="7"/>
@@ -1626,45 +1630,45 @@
         <v>49358</v>
       </c>
       <c r="E17" s="16">
-        <v>49490</v>
+        <v>49238</v>
       </c>
       <c r="F17" s="16">
-        <v>49740</v>
+        <v>49507</v>
       </c>
       <c r="G17" s="17">
-        <v>49507</v>
+        <v>49458</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" si="0"/>
-        <v>-233</v>
+        <v>-49</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="1"/>
-        <v>-4.6843586650583413E-3</v>
+        <v>-9.897590239763554E-4</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="K17" s="20">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L17" s="21">
         <f t="shared" si="4"/>
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="M17" s="22">
         <f t="shared" si="5"/>
-        <v>3.0187608898253337E-3</v>
+        <v>4.4680937487306949E-3</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1681,45 +1685,45 @@
         <v>13674</v>
       </c>
       <c r="E18" s="16">
-        <v>13739</v>
+        <v>13586</v>
       </c>
       <c r="F18" s="16">
-        <v>13820</v>
+        <v>13719</v>
       </c>
       <c r="G18" s="17">
-        <v>13719</v>
+        <v>13594</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="0"/>
-        <v>-101</v>
+        <v>-125</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="1"/>
-        <v>-7.3082489146164553E-3</v>
+        <v>-9.1114512719585594E-3</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="21">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M18" s="22">
         <f t="shared" si="5"/>
-        <v>3.2909170688899536E-3</v>
+        <v>5.8884145443838243E-4</v>
       </c>
       <c r="N18" s="23">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" s="20">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1736,45 +1740,45 @@
         <v>15980</v>
       </c>
       <c r="E19" s="16">
-        <v>16050</v>
+        <v>15961</v>
       </c>
       <c r="F19" s="16">
-        <v>16318</v>
+        <v>16245</v>
       </c>
       <c r="G19" s="17">
-        <v>16245</v>
+        <v>16200</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="0"/>
-        <v>-73</v>
+        <v>-45</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>-4.4735874494423733E-3</v>
+        <v>-2.7700831024930483E-3</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L19" s="21">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="M19" s="22">
         <f t="shared" si="5"/>
-        <v>1.6583229036295277E-2</v>
+        <v>1.4973999122861903E-2</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O19" s="20">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P19" s="2"/>
     </row>
@@ -1792,37 +1796,37 @@
         <v>103251</v>
       </c>
       <c r="E20" s="27">
-        <v>103172</v>
+        <v>103200</v>
       </c>
       <c r="F20" s="27">
-        <v>105908</v>
+        <v>105675</v>
       </c>
       <c r="G20" s="28">
-        <v>105675</v>
+        <v>105609</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="0"/>
-        <v>-233</v>
+        <v>-66</v>
       </c>
       <c r="I20" s="29">
         <f t="shared" si="1"/>
-        <v>-2.2000226611775808E-3</v>
+        <v>-6.2455642299508174E-4</v>
       </c>
       <c r="J20" s="30">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K20" s="31">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L20" s="32">
         <f t="shared" si="4"/>
-        <v>2424</v>
+        <v>2409</v>
       </c>
       <c r="M20" s="33">
         <f t="shared" si="5"/>
-        <v>2.3476770200772767E-2</v>
+        <v>2.3343023255814055E-2</v>
       </c>
       <c r="N20" s="34">
         <f t="shared" si="6"/>
@@ -1830,7 +1834,7 @@
       </c>
       <c r="O20" s="31">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P20" s="2"/>
     </row>
@@ -1848,45 +1852,45 @@
         <v>37104</v>
       </c>
       <c r="E21" s="16">
-        <v>37101</v>
+        <v>36985</v>
       </c>
       <c r="F21" s="16">
-        <v>37289</v>
+        <v>37170</v>
       </c>
       <c r="G21" s="17">
-        <v>37170</v>
+        <v>36990</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="0"/>
-        <v>-119</v>
+        <v>-180</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="1"/>
-        <v>-3.191289656467089E-3</v>
+        <v>-4.8426150121065881E-3</v>
       </c>
       <c r="J21" s="19">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="M21" s="22">
         <f t="shared" si="5"/>
-        <v>1.7787839586027587E-3</v>
+        <v>1.3518994186823008E-4</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O21" s="20">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1903,45 +1907,45 @@
         <v>12579</v>
       </c>
       <c r="E22" s="16">
-        <v>12612</v>
+        <v>12565</v>
       </c>
       <c r="F22" s="16">
-        <v>12625</v>
+        <v>12596</v>
       </c>
       <c r="G22" s="17">
-        <v>12596</v>
+        <v>12537</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>-59</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="1"/>
-        <v>-2.2970297029702991E-3</v>
+        <v>-4.6840266751350113E-3</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L22" s="21">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>-28</v>
       </c>
       <c r="M22" s="22">
         <f t="shared" si="5"/>
-        <v>1.351458780507242E-3</v>
+        <v>-2.2284122562674646E-3</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O22" s="20">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1958,45 +1962,45 @@
         <v>13590</v>
       </c>
       <c r="E23" s="16">
-        <v>13569</v>
+        <v>13588</v>
       </c>
       <c r="F23" s="16">
-        <v>13888</v>
+        <v>13869</v>
       </c>
       <c r="G23" s="17">
-        <v>13869</v>
+        <v>13826</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-43</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="1"/>
-        <v>-1.3680875576036478E-3</v>
+        <v>-3.1004398298363212E-3</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="5"/>
+        <v>1.7515454813070264E-2</v>
+      </c>
+      <c r="N23" s="23">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="7"/>
         <v>8</v>
-      </c>
-      <c r="L23" s="21">
-        <f t="shared" si="4"/>
-        <v>279</v>
-      </c>
-      <c r="M23" s="22">
-        <f t="shared" si="5"/>
-        <v>2.0529801324503216E-2</v>
-      </c>
-      <c r="N23" s="23">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="O23" s="20">
-        <f t="shared" si="7"/>
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -2013,45 +2017,45 @@
         <v>74823</v>
       </c>
       <c r="E24" s="16">
-        <v>74878</v>
+        <v>74930</v>
       </c>
       <c r="F24" s="16">
-        <v>76316</v>
+        <v>76087</v>
       </c>
       <c r="G24" s="17">
-        <v>76087</v>
+        <v>76188</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="0"/>
-        <v>-229</v>
+        <v>101</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="1"/>
-        <v>-3.0006813774307028E-3</v>
+        <v>1.3274278128982964E-3</v>
       </c>
       <c r="J24" s="19">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L24" s="21">
         <f t="shared" si="4"/>
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="M24" s="22">
         <f t="shared" si="5"/>
-        <v>1.6893201288373794E-2</v>
+        <v>1.6789003069531461E-2</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" s="20">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2068,41 +2072,41 @@
         <v>14401</v>
       </c>
       <c r="E25" s="16">
-        <v>14443</v>
+        <v>14299</v>
       </c>
       <c r="F25" s="16">
-        <v>14553</v>
+        <v>14448</v>
       </c>
       <c r="G25" s="17">
-        <v>14448</v>
+        <v>14336</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="0"/>
-        <v>-105</v>
+        <v>-112</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" si="1"/>
-        <v>-7.2150072150072297E-3</v>
+        <v>-7.7519379844961378E-3</v>
       </c>
       <c r="J25" s="19">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M25" s="22">
         <f t="shared" si="5"/>
-        <v>3.2636622456774234E-3</v>
+        <v>2.587593538009747E-3</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O25" s="20">
         <f t="shared" si="7"/>
@@ -2123,37 +2127,37 @@
         <v>34423</v>
       </c>
       <c r="E26" s="16">
-        <v>34485</v>
+        <v>34468</v>
       </c>
       <c r="F26" s="16">
-        <v>35048</v>
+        <v>35020</v>
       </c>
       <c r="G26" s="17">
-        <v>35020</v>
+        <v>34995</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" si="1"/>
-        <v>-7.9890435973517526E-4</v>
+        <v>-7.1387778412335123E-4</v>
       </c>
       <c r="J26" s="19">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L26" s="21">
         <f t="shared" si="4"/>
-        <v>597</v>
+        <v>527</v>
       </c>
       <c r="M26" s="22">
         <f t="shared" si="5"/>
-        <v>1.7343055515207872E-2</v>
+        <v>1.5289543924799753E-2</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="6"/>
@@ -2178,37 +2182,37 @@
         <v>28507</v>
       </c>
       <c r="E27" s="16">
-        <v>28561</v>
+        <v>28619</v>
       </c>
       <c r="F27" s="16">
-        <v>29711</v>
+        <v>29588</v>
       </c>
       <c r="G27" s="17">
-        <v>29588</v>
+        <v>29593</v>
       </c>
       <c r="H27" s="15">
         <f t="shared" si="0"/>
-        <v>-123</v>
+        <v>5</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" si="1"/>
-        <v>-4.1398808522096209E-3</v>
+        <v>1.6898742733539862E-4</v>
       </c>
       <c r="J27" s="19">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L27" s="21">
         <f t="shared" si="4"/>
-        <v>1081</v>
+        <v>974</v>
       </c>
       <c r="M27" s="22">
         <f t="shared" si="5"/>
-        <v>3.7920510751745296E-2</v>
+        <v>3.4033334498060785E-2</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="6"/>
@@ -2233,41 +2237,41 @@
         <v>19275</v>
       </c>
       <c r="E28" s="16">
-        <v>19219</v>
+        <v>19462</v>
       </c>
       <c r="F28" s="16">
-        <v>20780</v>
+        <v>20714</v>
       </c>
       <c r="G28" s="17">
-        <v>20714</v>
+        <v>20683</v>
       </c>
       <c r="H28" s="15">
         <f t="shared" si="0"/>
-        <v>-66</v>
+        <v>-31</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="1"/>
-        <v>-3.1761308950913891E-3</v>
+        <v>-1.4965723665153474E-3</v>
       </c>
       <c r="J28" s="19">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L28" s="21">
         <f t="shared" si="4"/>
-        <v>1439</v>
+        <v>1221</v>
       </c>
       <c r="M28" s="22">
         <f t="shared" si="5"/>
-        <v>7.4656290531776914E-2</v>
+        <v>6.2737642585551257E-2</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O28" s="20">
         <f t="shared" si="7"/>
@@ -2288,45 +2292,45 @@
         <v>23707</v>
       </c>
       <c r="E29" s="16">
-        <v>23778</v>
+        <v>23673</v>
       </c>
       <c r="F29" s="16">
-        <v>23845</v>
+        <v>23802</v>
       </c>
       <c r="G29" s="17">
-        <v>23802</v>
+        <v>23741</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="0"/>
-        <v>-43</v>
+        <v>-61</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" si="1"/>
-        <v>-1.8033130635353167E-3</v>
+        <v>-2.5628098479119066E-3</v>
       </c>
       <c r="J29" s="19">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L29" s="21">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M29" s="22">
         <f t="shared" si="5"/>
-        <v>4.0072552410679307E-3</v>
+        <v>2.8724707472647104E-3</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O29" s="20">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2343,37 +2347,37 @@
         <v>42868</v>
       </c>
       <c r="E30" s="16">
-        <v>42879</v>
+        <v>42858</v>
       </c>
       <c r="F30" s="16">
-        <v>43476</v>
+        <v>43507</v>
       </c>
       <c r="G30" s="17">
-        <v>43507</v>
+        <v>43394</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>-113</v>
       </c>
       <c r="I30" s="18">
         <f t="shared" si="1"/>
-        <v>7.1303707792802484E-4</v>
+        <v>-2.5972831958075426E-3</v>
       </c>
       <c r="J30" s="19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L30" s="21">
         <f t="shared" si="4"/>
-        <v>639</v>
+        <v>536</v>
       </c>
       <c r="M30" s="22">
         <f t="shared" si="5"/>
-        <v>1.4906223756648407E-2</v>
+        <v>1.2506416538335952E-2</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="6"/>
@@ -2381,7 +2385,7 @@
       </c>
       <c r="O30" s="20">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2398,37 +2402,37 @@
         <v>39139</v>
       </c>
       <c r="E31" s="16">
-        <v>39233</v>
+        <v>39129</v>
       </c>
       <c r="F31" s="16">
-        <v>39037</v>
+        <v>39024</v>
       </c>
       <c r="G31" s="17">
-        <v>39024</v>
+        <v>38890</v>
       </c>
       <c r="H31" s="15">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>-134</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" si="1"/>
-        <v>-3.3301739375468653E-4</v>
+        <v>-3.4337843378433597E-3</v>
       </c>
       <c r="J31" s="19">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K31" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="L31" s="21">
         <f t="shared" si="4"/>
-        <v>-115</v>
+        <v>-239</v>
       </c>
       <c r="M31" s="22">
         <f t="shared" si="5"/>
-        <v>-2.93824573954371E-3</v>
+        <v>-6.1080017378415397E-3</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="6"/>
@@ -2436,7 +2440,7 @@
       </c>
       <c r="O31" s="20">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2453,29 +2457,29 @@
         <v>11432</v>
       </c>
       <c r="E32" s="16">
-        <v>11461</v>
+        <v>11428</v>
       </c>
       <c r="F32" s="16">
-        <v>11795</v>
+        <v>11763</v>
       </c>
       <c r="G32" s="17">
-        <v>11763</v>
+        <v>11759</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>-4</v>
       </c>
       <c r="I32" s="18">
         <f t="shared" si="1"/>
-        <v>-2.7130139889783855E-3</v>
+        <v>-3.4004930714948145E-4</v>
       </c>
       <c r="J32" s="19">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K32" s="20">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L32" s="21">
         <f t="shared" si="4"/>
@@ -2483,7 +2487,7 @@
       </c>
       <c r="M32" s="22">
         <f t="shared" si="5"/>
-        <v>2.8953813855843169E-2</v>
+        <v>2.8963948197409772E-2</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="6"/>
@@ -2508,37 +2512,37 @@
         <v>34785</v>
       </c>
       <c r="E33" s="16">
-        <v>34872</v>
+        <v>34764</v>
       </c>
       <c r="F33" s="16">
-        <v>34367</v>
+        <v>34174</v>
       </c>
       <c r="G33" s="17">
-        <v>34174</v>
+        <v>34014</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="0"/>
-        <v>-193</v>
+        <v>-160</v>
       </c>
       <c r="I33" s="18">
         <f t="shared" si="1"/>
-        <v>-5.6158524165623724E-3</v>
+        <v>-4.6819219289517822E-3</v>
       </c>
       <c r="J33" s="19">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K33" s="20">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L33" s="21">
         <f t="shared" si="4"/>
-        <v>-611</v>
+        <v>-750</v>
       </c>
       <c r="M33" s="22">
         <f t="shared" si="5"/>
-        <v>-1.7565042403334785E-2</v>
+        <v>-2.1574042112530223E-2</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="6"/>
@@ -2563,45 +2567,45 @@
         <v>5466</v>
       </c>
       <c r="E34" s="16">
-        <v>5453</v>
+        <v>5449</v>
       </c>
       <c r="F34" s="16">
-        <v>5590</v>
+        <v>5549</v>
       </c>
       <c r="G34" s="17">
-        <v>5549</v>
+        <v>5498</v>
       </c>
       <c r="H34" s="15">
         <f t="shared" si="0"/>
-        <v>-41</v>
+        <v>-51</v>
       </c>
       <c r="I34" s="18">
         <f t="shared" si="1"/>
-        <v>-7.3345259391770501E-3</v>
+        <v>-9.1908451973328198E-3</v>
       </c>
       <c r="J34" s="19">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K34" s="20">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L34" s="21">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="M34" s="22">
         <f t="shared" si="5"/>
-        <v>1.5184778631540441E-2</v>
+        <v>8.9924756836117226E-3</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O34" s="20">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2618,37 +2622,37 @@
         <v>44116</v>
       </c>
       <c r="E35" s="16">
-        <v>44225</v>
+        <v>43912</v>
       </c>
       <c r="F35" s="16">
-        <v>43864</v>
+        <v>43533</v>
       </c>
       <c r="G35" s="17">
-        <v>43533</v>
+        <v>43333</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" si="0"/>
-        <v>-331</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="18">
         <f t="shared" si="1"/>
-        <v>-7.5460514316979532E-3</v>
+        <v>-4.5942158822043222E-3</v>
       </c>
       <c r="J35" s="19">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K35" s="20">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L35" s="21">
         <f t="shared" si="4"/>
-        <v>-583</v>
+        <v>-579</v>
       </c>
       <c r="M35" s="22">
         <f t="shared" si="5"/>
-        <v>-1.3215160032641227E-2</v>
+        <v>-1.3185461832756373E-2</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="6"/>
@@ -2673,37 +2677,37 @@
         <v>20773</v>
       </c>
       <c r="E36" s="16">
-        <v>20780</v>
+        <v>20863</v>
       </c>
       <c r="F36" s="16">
-        <v>21446</v>
+        <v>21443</v>
       </c>
       <c r="G36" s="17">
-        <v>21443</v>
+        <v>21515</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>72</v>
       </c>
       <c r="I36" s="18">
         <f t="shared" si="1"/>
-        <v>-1.3988622586957877E-4</v>
+        <v>3.3577391223242881E-3</v>
       </c>
       <c r="J36" s="19">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K36" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L36" s="21">
         <f t="shared" si="4"/>
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="M36" s="22">
         <f t="shared" si="5"/>
-        <v>3.2253405863380324E-2</v>
+        <v>3.1251497867037292E-2</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="6"/>
@@ -2728,21 +2732,21 @@
         <v>12068</v>
       </c>
       <c r="E37" s="47">
-        <v>12049</v>
+        <v>12015</v>
       </c>
       <c r="F37" s="47">
-        <v>11980</v>
-      </c>
-      <c r="G37" s="17">
         <v>11966</v>
       </c>
+      <c r="G37" s="63">
+        <v>11943</v>
+      </c>
       <c r="H37" s="15">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-23</v>
       </c>
       <c r="I37" s="18">
         <f t="shared" si="1"/>
-        <v>-1.168614357262121E-3</v>
+        <v>-1.9221126525154064E-3</v>
       </c>
       <c r="J37" s="19">
         <f t="shared" si="2"/>
@@ -2750,23 +2754,23 @@
       </c>
       <c r="K37" s="20">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L37" s="21">
         <f t="shared" si="4"/>
-        <v>-102</v>
+        <v>-72</v>
       </c>
       <c r="M37" s="22">
         <f t="shared" si="5"/>
-        <v>-8.4521047398077309E-3</v>
+        <v>-5.9925093632958726E-3</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O37" s="20">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="9" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
@@ -2787,32 +2791,33 @@
       </c>
       <c r="E38" s="44">
         <f t="shared" si="8"/>
-        <v>1054879</v>
+        <v>1053095</v>
       </c>
       <c r="F38" s="44">
         <f t="shared" si="8"/>
-        <v>1068509</v>
+        <v>1065556</v>
       </c>
       <c r="G38" s="62">
-        <v>1065556</v>
+        <f>SUM(G6:G37)</f>
+        <v>1063429</v>
       </c>
       <c r="H38" s="36">
         <f>G38-F38</f>
-        <v>-2953</v>
+        <v>-2127</v>
       </c>
       <c r="I38" s="37">
         <f t="shared" si="1"/>
-        <v>-2.7636641338537604E-3</v>
+        <v>-1.9961409817973452E-3</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="39"/>
       <c r="L38" s="40">
-        <f t="shared" si="4"/>
-        <v>11886</v>
+        <f t="shared" ref="L38" si="9">G38-D38</f>
+        <v>9759</v>
       </c>
       <c r="M38" s="41">
-        <f t="shared" si="5"/>
-        <v>1.1280571716002274E-2</v>
+        <f t="shared" ref="M38" si="10">G38/D38-1</f>
+        <v>9.2619131227045237E-3</v>
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="39"/>
@@ -2823,23 +2828,23 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DD77C-15A0-4ACD-A468-A4011A01FEAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj8/yEMSSHYXCo/De6/mKyjCrt5Rg=="/>
@@ -194,25 +195,25 @@
     <t>Diciembre 2020 - enero 2023</t>
   </si>
   <si>
+    <t>2022
+Febrero</t>
+  </si>
+  <si>
     <t>2023
-Enero</t>
-  </si>
-  <si>
-    <t>Enero 2023 respecto a Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Enero 2023 respecto a Enero 2022</t>
-  </si>
-  <si>
-    <t>2022
-Enero</t>
+Febrero</t>
+  </si>
+  <si>
+    <t>Febrero 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Febrero 2023 respecto a Febrero 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -283,6 +284,11 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -474,7 +480,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -599,6 +605,12 @@
     <xf numFmtId="3" fontId="11" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -639,21 +651,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 2 2 2" xfId="3"/>
-    <cellStyle name="Normal 7" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 7" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Porcentaje" xfId="6" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="5"/>
+    <cellStyle name="Porcentaje 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,68 +873,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.125" style="2"/>
+    <col min="8" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="13.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -943,49 +953,49 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-    </row>
-    <row r="5" spans="1:15" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="59"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+    </row>
+    <row r="5" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1025,25 +1035,25 @@
         <v>16746</v>
       </c>
       <c r="E6" s="16">
-        <v>16734</v>
+        <v>16759</v>
       </c>
       <c r="F6" s="16">
         <v>16707</v>
       </c>
       <c r="G6" s="17">
-        <v>16656</v>
+        <v>16687</v>
       </c>
       <c r="H6" s="15">
         <f>G6-F6</f>
-        <v>-51</v>
+        <v>-20</v>
       </c>
       <c r="I6" s="18">
         <f>G6/F6-1</f>
-        <v>-3.0526126773209317E-3</v>
+        <v>-1.1971030107140734E-3</v>
       </c>
       <c r="J6" s="19">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K6" s="20">
         <f>_xlfn.RANK.EQ(I6,$I$6:$I$37)</f>
@@ -1051,11 +1061,11 @@
       </c>
       <c r="L6" s="21">
         <f>G6-E6</f>
-        <v>-78</v>
+        <v>-72</v>
       </c>
       <c r="M6" s="22">
         <f>G6/E6-1</f>
-        <v>-4.6611688777339344E-3</v>
+        <v>-4.2961990572230047E-3</v>
       </c>
       <c r="N6" s="23">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
@@ -1063,10 +1073,12 @@
       </c>
       <c r="O6" s="20">
         <f>_xlfn.RANK.EQ(M6,$M$6:$M$37)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -1080,37 +1092,37 @@
         <v>44540</v>
       </c>
       <c r="E7" s="16">
-        <v>44593</v>
+        <v>44231</v>
       </c>
       <c r="F7" s="16">
         <v>44653</v>
       </c>
       <c r="G7" s="17">
-        <v>44615</v>
+        <v>44283</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" ref="H7:H37" si="0">G7-F7</f>
-        <v>-38</v>
+        <v>-370</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" ref="I7:I38" si="1">G7/F7-1</f>
-        <v>-8.5100665128878816E-4</v>
+        <v>-8.2861173941281008E-3</v>
       </c>
       <c r="J7" s="19">
         <f t="shared" ref="J7:J37" si="2">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" ref="K7:K37" si="3">_xlfn.RANK.EQ(I7,$I$6:$I$37)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L7" s="21">
         <f t="shared" ref="L7:L37" si="4">G7-E7</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M7" s="22">
         <f t="shared" ref="M7:M37" si="5">G7/E7-1</f>
-        <v>4.9335097436808972E-4</v>
+        <v>1.1756460401075586E-3</v>
       </c>
       <c r="N7" s="23">
         <f t="shared" ref="N7:N37" si="6">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
@@ -1120,8 +1132,10 @@
         <f t="shared" ref="O7:O37" si="7">_xlfn.RANK.EQ(M7,$M$6:$M$37)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="64"/>
+      <c r="Q7" s="65"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1135,25 +1149,25 @@
         <v>13964</v>
       </c>
       <c r="E8" s="16">
-        <v>14006</v>
+        <v>14112</v>
       </c>
       <c r="F8" s="16">
         <v>14759</v>
       </c>
       <c r="G8" s="17">
-        <v>14772</v>
+        <v>14823</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="1"/>
-        <v>8.8081848363708026E-4</v>
+        <v>4.3363371502134207E-3</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K8" s="20">
         <f t="shared" si="3"/>
@@ -1161,22 +1175,24 @@
       </c>
       <c r="L8" s="21">
         <f t="shared" si="4"/>
-        <v>766</v>
+        <v>711</v>
       </c>
       <c r="M8" s="22">
         <f t="shared" si="5"/>
-        <v>5.4690846779951396E-2</v>
+        <v>5.038265306122458E-2</v>
       </c>
       <c r="N8" s="23">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8" s="20">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
@@ -1190,29 +1206,29 @@
         <v>6254</v>
       </c>
       <c r="E9" s="16">
-        <v>6295</v>
+        <v>6311</v>
       </c>
       <c r="F9" s="16">
         <v>6418</v>
       </c>
       <c r="G9" s="17">
-        <v>6369</v>
+        <v>6385</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>-33</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="1"/>
-        <v>-7.6347771891555061E-3</v>
+        <v>-5.1417887192272138E-3</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="21">
         <f t="shared" si="4"/>
@@ -1220,18 +1236,20 @@
       </c>
       <c r="M9" s="22">
         <f t="shared" si="5"/>
-        <v>1.1755361397934871E-2</v>
+        <v>1.1725558548566051E-2</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
@@ -1245,48 +1263,50 @@
         <v>14789</v>
       </c>
       <c r="E10" s="16">
-        <v>14753</v>
+        <v>14730</v>
       </c>
       <c r="F10" s="16">
         <v>14786</v>
       </c>
       <c r="G10" s="17">
-        <v>14747</v>
+        <v>14828</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>42</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="1"/>
-        <v>-2.637630190720941E-3</v>
+        <v>2.8405248207763467E-3</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="20">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L10" s="21">
         <f t="shared" si="4"/>
-        <v>-6</v>
+        <v>98</v>
       </c>
       <c r="M10" s="22">
         <f t="shared" si="5"/>
-        <v>-4.0669694299466652E-4</v>
+        <v>6.6530889341480659E-3</v>
       </c>
       <c r="N10" s="23">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
@@ -1300,48 +1320,50 @@
         <v>42167</v>
       </c>
       <c r="E11" s="16">
-        <v>42125</v>
+        <v>42291</v>
       </c>
       <c r="F11" s="16">
         <v>42300</v>
       </c>
       <c r="G11" s="17">
-        <v>42172</v>
+        <v>42372</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>-128</v>
+        <v>72</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="1"/>
-        <v>-3.0260047281324143E-3</v>
+        <v>1.7021276595745594E-3</v>
       </c>
       <c r="J11" s="19">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K11" s="20">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L11" s="21">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="M11" s="22">
         <f t="shared" si="5"/>
-        <v>1.1157270029673594E-3</v>
+        <v>1.9153011278996157E-3</v>
       </c>
       <c r="N11" s="23">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -1355,37 +1377,37 @@
         <v>125199</v>
       </c>
       <c r="E12" s="16">
-        <v>124898</v>
+        <v>125331</v>
       </c>
       <c r="F12" s="16">
         <v>126560</v>
       </c>
       <c r="G12" s="17">
-        <v>126345</v>
+        <v>126731</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="0"/>
-        <v>-215</v>
+        <v>171</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="1"/>
-        <v>-1.6987989886220189E-3</v>
+        <v>1.3511378002528662E-3</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K12" s="20">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" s="21">
         <f t="shared" si="4"/>
-        <v>1447</v>
+        <v>1400</v>
       </c>
       <c r="M12" s="22">
         <f t="shared" si="5"/>
-        <v>1.1585453730243778E-2</v>
+        <v>1.1170420725917785E-2</v>
       </c>
       <c r="N12" s="23">
         <f t="shared" si="6"/>
@@ -1393,10 +1415,12 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1410,48 +1434,50 @@
         <v>35642</v>
       </c>
       <c r="E13" s="16">
-        <v>35582</v>
+        <v>35733</v>
       </c>
       <c r="F13" s="16">
         <v>35695</v>
       </c>
       <c r="G13" s="17">
-        <v>35642</v>
+        <v>35736</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>41</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="1"/>
-        <v>-1.4848017929681712E-3</v>
+        <v>1.1486202549375601E-3</v>
       </c>
       <c r="J13" s="19">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L13" s="21">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="M13" s="22">
         <f t="shared" si="5"/>
-        <v>1.6862458546456072E-3</v>
+        <v>8.395600705224382E-5</v>
       </c>
       <c r="N13" s="23">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1465,21 +1491,21 @@
         <v>11397</v>
       </c>
       <c r="E14" s="16">
-        <v>11363</v>
+        <v>11379</v>
       </c>
       <c r="F14" s="16">
         <v>11673</v>
       </c>
       <c r="G14" s="17">
-        <v>11607</v>
+        <v>11658</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="0"/>
-        <v>-66</v>
+        <v>-15</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="1"/>
-        <v>-5.6540735029555478E-3</v>
+        <v>-1.2850167052171901E-3</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" si="2"/>
@@ -1487,26 +1513,28 @@
       </c>
       <c r="K14" s="20">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L14" s="21">
         <f t="shared" si="4"/>
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" si="5"/>
-        <v>2.1473202499340038E-2</v>
+        <v>2.4518850514104962E-2</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
@@ -1520,37 +1548,37 @@
         <v>14609</v>
       </c>
       <c r="E15" s="16">
-        <v>14605</v>
+        <v>14634</v>
       </c>
       <c r="F15" s="16">
         <v>14532</v>
       </c>
       <c r="G15" s="17">
-        <v>14500</v>
+        <v>14538</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>6</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="1"/>
-        <v>-2.2020368841177973E-3</v>
+        <v>4.1288191577204536E-4</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L15" s="21">
         <f t="shared" si="4"/>
-        <v>-105</v>
+        <v>-96</v>
       </c>
       <c r="M15" s="22">
         <f t="shared" si="5"/>
-        <v>-7.1893187264635561E-3</v>
+        <v>-6.5600656006560287E-3</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="6"/>
@@ -1558,10 +1586,12 @@
       </c>
       <c r="O15" s="20">
         <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
@@ -1575,37 +1605,37 @@
         <v>77044</v>
       </c>
       <c r="E16" s="16">
-        <v>77149</v>
+        <v>77507</v>
       </c>
       <c r="F16" s="16">
         <v>78074</v>
       </c>
       <c r="G16" s="17">
-        <v>77908</v>
+        <v>78225</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="0"/>
-        <v>-166</v>
+        <v>151</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="1"/>
-        <v>-2.1261879755104518E-3</v>
+        <v>1.9340625560366753E-3</v>
       </c>
       <c r="J16" s="19">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L16" s="21">
         <f t="shared" si="4"/>
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="M16" s="22">
         <f t="shared" si="5"/>
-        <v>9.8381054841929494E-3</v>
+        <v>9.2636794096017105E-3</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="6"/>
@@ -1613,10 +1643,12 @@
       </c>
       <c r="O16" s="20">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
@@ -1630,48 +1662,50 @@
         <v>49358</v>
       </c>
       <c r="E17" s="16">
-        <v>49238</v>
+        <v>49257</v>
       </c>
       <c r="F17" s="16">
         <v>49507</v>
       </c>
       <c r="G17" s="17">
-        <v>49458</v>
+        <v>49590</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" si="0"/>
-        <v>-49</v>
+        <v>83</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="1"/>
-        <v>-9.897590239763554E-4</v>
+        <v>1.6765305916335294E-3</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K17" s="20">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L17" s="21">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="M17" s="22">
         <f t="shared" si="5"/>
-        <v>4.4680937487306949E-3</v>
+        <v>6.7604604421707126E-3</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
@@ -1685,25 +1719,25 @@
         <v>13674</v>
       </c>
       <c r="E18" s="16">
-        <v>13586</v>
+        <v>13648</v>
       </c>
       <c r="F18" s="16">
         <v>13719</v>
       </c>
       <c r="G18" s="17">
-        <v>13594</v>
+        <v>13616</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="0"/>
-        <v>-125</v>
+        <v>-103</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="1"/>
-        <v>-9.1114512719585594E-3</v>
+        <v>-7.5078358480938912E-3</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="3"/>
@@ -1711,22 +1745,24 @@
       </c>
       <c r="L18" s="21">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>-32</v>
       </c>
       <c r="M18" s="22">
         <f t="shared" si="5"/>
-        <v>5.8884145443838243E-4</v>
+        <v>-2.3446658851113966E-3</v>
       </c>
       <c r="N18" s="23">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O18" s="20">
         <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1740,49 +1776,50 @@
         <v>15980</v>
       </c>
       <c r="E19" s="16">
-        <v>15961</v>
+        <v>16003</v>
       </c>
       <c r="F19" s="16">
         <v>16245</v>
       </c>
       <c r="G19" s="17">
-        <v>16200</v>
+        <v>16263</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>18</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>-2.7700831024930483E-3</v>
+        <v>1.1080332409971749E-3</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L19" s="21">
         <f t="shared" si="4"/>
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M19" s="22">
         <f t="shared" si="5"/>
-        <v>1.4973999122861903E-2</v>
+        <v>1.6246953696182009E-2</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O19" s="20">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>21</v>
       </c>
@@ -1796,37 +1833,37 @@
         <v>103251</v>
       </c>
       <c r="E20" s="27">
-        <v>103200</v>
+        <v>103626</v>
       </c>
       <c r="F20" s="27">
         <v>105675</v>
       </c>
       <c r="G20" s="28">
-        <v>105609</v>
+        <v>105971</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="0"/>
-        <v>-66</v>
+        <v>296</v>
       </c>
       <c r="I20" s="29">
         <f t="shared" si="1"/>
-        <v>-6.2455642299508174E-4</v>
+        <v>2.8010409273717674E-3</v>
       </c>
       <c r="J20" s="30">
         <f>_xlfn.RANK.EQ(H20,$H$6:$H$37)</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K20" s="31">
         <f>_xlfn.RANK.EQ(I20,$I$6:$I$37)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L20" s="32">
         <f t="shared" si="4"/>
-        <v>2409</v>
+        <v>2345</v>
       </c>
       <c r="M20" s="33">
         <f t="shared" si="5"/>
-        <v>2.3343023255814055E-2</v>
+        <v>2.2629455928048881E-2</v>
       </c>
       <c r="N20" s="34">
         <f t="shared" si="6"/>
@@ -1834,11 +1871,12 @@
       </c>
       <c r="O20" s="31">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1852,48 +1890,50 @@
         <v>37104</v>
       </c>
       <c r="E21" s="16">
-        <v>36985</v>
+        <v>37036</v>
       </c>
       <c r="F21" s="16">
         <v>37170</v>
       </c>
       <c r="G21" s="17">
-        <v>36990</v>
+        <v>37100</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="0"/>
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="1"/>
-        <v>-4.8426150121065881E-3</v>
+        <v>-1.8832391713747842E-3</v>
       </c>
       <c r="J21" s="19">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="M21" s="22">
         <f t="shared" si="5"/>
-        <v>1.3518994186823008E-4</v>
+        <v>1.7280483853547857E-3</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O21" s="20">
         <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>23</v>
       </c>
@@ -1907,48 +1947,50 @@
         <v>12579</v>
       </c>
       <c r="E22" s="16">
-        <v>12565</v>
+        <v>12597</v>
       </c>
       <c r="F22" s="16">
         <v>12596</v>
       </c>
       <c r="G22" s="17">
-        <v>12537</v>
+        <v>12563</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" si="0"/>
-        <v>-59</v>
+        <v>-33</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="1"/>
-        <v>-4.6840266751350113E-3</v>
+        <v>-2.6198793267704357E-3</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="21">
         <f t="shared" si="4"/>
-        <v>-28</v>
+        <v>-34</v>
       </c>
       <c r="M22" s="22">
         <f t="shared" si="5"/>
-        <v>-2.2284122562674646E-3</v>
+        <v>-2.6990553306343035E-3</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O22" s="20">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
@@ -1962,48 +2004,50 @@
         <v>13590</v>
       </c>
       <c r="E23" s="16">
-        <v>13588</v>
+        <v>13626</v>
       </c>
       <c r="F23" s="16">
         <v>13869</v>
       </c>
       <c r="G23" s="17">
-        <v>13826</v>
+        <v>13881</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="0"/>
-        <v>-43</v>
+        <v>12</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="1"/>
-        <v>-3.1004398298363212E-3</v>
+        <v>8.6523902227986227E-4</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L23" s="21">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M23" s="22">
         <f t="shared" si="5"/>
-        <v>1.7515454813070264E-2</v>
+        <v>1.8714222809335102E-2</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O23" s="20">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
@@ -2017,48 +2061,50 @@
         <v>74823</v>
       </c>
       <c r="E24" s="16">
-        <v>74930</v>
+        <v>75221</v>
       </c>
       <c r="F24" s="16">
         <v>76087</v>
       </c>
       <c r="G24" s="17">
-        <v>76188</v>
+        <v>76346</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="1"/>
-        <v>1.3274278128982964E-3</v>
+        <v>3.4039980548583593E-3</v>
       </c>
       <c r="J24" s="19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L24" s="21">
         <f t="shared" si="4"/>
-        <v>1258</v>
+        <v>1125</v>
       </c>
       <c r="M24" s="22">
         <f t="shared" si="5"/>
-        <v>1.6789003069531461E-2</v>
+        <v>1.4955929860012596E-2</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O24" s="20">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
@@ -2072,48 +2118,50 @@
         <v>14401</v>
       </c>
       <c r="E25" s="16">
-        <v>14299</v>
+        <v>14330</v>
       </c>
       <c r="F25" s="16">
         <v>14448</v>
       </c>
       <c r="G25" s="17">
-        <v>14336</v>
+        <v>14377</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="0"/>
-        <v>-112</v>
+        <v>-71</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" si="1"/>
-        <v>-7.7519379844961378E-3</v>
+        <v>-4.9141749723145001E-3</v>
       </c>
       <c r="J25" s="19">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M25" s="22">
         <f t="shared" si="5"/>
-        <v>2.587593538009747E-3</v>
+        <v>3.2798325191905064E-3</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O25" s="20">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
@@ -2127,21 +2175,21 @@
         <v>34423</v>
       </c>
       <c r="E26" s="16">
-        <v>34468</v>
+        <v>34612</v>
       </c>
       <c r="F26" s="16">
         <v>35020</v>
       </c>
       <c r="G26" s="17">
-        <v>34995</v>
+        <v>35135</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>115</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" si="1"/>
-        <v>-7.1387778412335123E-4</v>
+        <v>3.2838378069675045E-3</v>
       </c>
       <c r="J26" s="19">
         <f t="shared" si="2"/>
@@ -2153,11 +2201,11 @@
       </c>
       <c r="L26" s="21">
         <f t="shared" si="4"/>
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M26" s="22">
         <f t="shared" si="5"/>
-        <v>1.5289543924799753E-2</v>
+        <v>1.5110366346931636E-2</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="6"/>
@@ -2167,8 +2215,10 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
@@ -2182,37 +2232,37 @@
         <v>28507</v>
       </c>
       <c r="E27" s="16">
-        <v>28619</v>
+        <v>28845</v>
       </c>
       <c r="F27" s="16">
         <v>29588</v>
       </c>
       <c r="G27" s="17">
-        <v>29593</v>
+        <v>29719</v>
       </c>
       <c r="H27" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" si="1"/>
-        <v>1.6898742733539862E-4</v>
+        <v>4.4274705961875327E-3</v>
       </c>
       <c r="J27" s="19">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27" s="21">
         <f t="shared" si="4"/>
-        <v>974</v>
+        <v>874</v>
       </c>
       <c r="M27" s="22">
         <f t="shared" si="5"/>
-        <v>3.4033334498060785E-2</v>
+        <v>3.0299878661813162E-2</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="6"/>
@@ -2220,10 +2270,12 @@
       </c>
       <c r="O27" s="20">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>29</v>
       </c>
@@ -2237,48 +2289,50 @@
         <v>19275</v>
       </c>
       <c r="E28" s="16">
-        <v>19462</v>
+        <v>19640</v>
       </c>
       <c r="F28" s="16">
         <v>20714</v>
       </c>
       <c r="G28" s="17">
-        <v>20683</v>
+        <v>20787</v>
       </c>
       <c r="H28" s="15">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>73</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="1"/>
-        <v>-1.4965723665153474E-3</v>
+        <v>3.5241865405040151E-3</v>
       </c>
       <c r="J28" s="19">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L28" s="21">
         <f t="shared" si="4"/>
-        <v>1221</v>
+        <v>1147</v>
       </c>
       <c r="M28" s="22">
         <f t="shared" si="5"/>
-        <v>6.2737642585551257E-2</v>
+        <v>5.8401221995926678E-2</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O28" s="20">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>30</v>
       </c>
@@ -2292,48 +2346,50 @@
         <v>23707</v>
       </c>
       <c r="E29" s="16">
-        <v>23673</v>
+        <v>23699</v>
       </c>
       <c r="F29" s="16">
         <v>23802</v>
       </c>
       <c r="G29" s="17">
-        <v>23741</v>
+        <v>23839</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="0"/>
-        <v>-61</v>
+        <v>37</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" si="1"/>
-        <v>-2.5628098479119066E-3</v>
+        <v>1.5544912192253513E-3</v>
       </c>
       <c r="J29" s="19">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L29" s="21">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="M29" s="22">
         <f t="shared" si="5"/>
-        <v>2.8724707472647104E-3</v>
+        <v>5.907422254103567E-3</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O29" s="20">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="65"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>31</v>
       </c>
@@ -2347,37 +2403,37 @@
         <v>42868</v>
       </c>
       <c r="E30" s="16">
-        <v>42858</v>
+        <v>42995</v>
       </c>
       <c r="F30" s="16">
         <v>43507</v>
       </c>
       <c r="G30" s="17">
-        <v>43394</v>
+        <v>43552</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="0"/>
-        <v>-113</v>
+        <v>45</v>
       </c>
       <c r="I30" s="18">
         <f t="shared" si="1"/>
-        <v>-2.5972831958075426E-3</v>
+        <v>1.0343163169144187E-3</v>
       </c>
       <c r="J30" s="19">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L30" s="21">
         <f t="shared" si="4"/>
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="M30" s="22">
         <f t="shared" si="5"/>
-        <v>1.2506416538335952E-2</v>
+        <v>1.2954994766833261E-2</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="6"/>
@@ -2385,10 +2441,12 @@
       </c>
       <c r="O30" s="20">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="65"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
@@ -2402,37 +2460,37 @@
         <v>39139</v>
       </c>
       <c r="E31" s="16">
-        <v>39129</v>
+        <v>39261</v>
       </c>
       <c r="F31" s="16">
         <v>39024</v>
       </c>
       <c r="G31" s="17">
-        <v>38890</v>
+        <v>38848</v>
       </c>
       <c r="H31" s="15">
         <f t="shared" si="0"/>
-        <v>-134</v>
+        <v>-176</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" si="1"/>
-        <v>-3.4337843378433597E-3</v>
+        <v>-4.5100451004510544E-3</v>
       </c>
       <c r="J31" s="19">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K31" s="20">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L31" s="21">
         <f t="shared" si="4"/>
-        <v>-239</v>
+        <v>-413</v>
       </c>
       <c r="M31" s="22">
         <f t="shared" si="5"/>
-        <v>-6.1080017378415397E-3</v>
+        <v>-1.0519344896971594E-2</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="6"/>
@@ -2440,10 +2498,12 @@
       </c>
       <c r="O31" s="20">
         <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="65"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>33</v>
       </c>
@@ -2457,48 +2517,50 @@
         <v>11432</v>
       </c>
       <c r="E32" s="16">
-        <v>11428</v>
+        <v>11468</v>
       </c>
       <c r="F32" s="16">
         <v>11763</v>
       </c>
       <c r="G32" s="17">
-        <v>11759</v>
+        <v>11778</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="I32" s="18">
         <f t="shared" si="1"/>
-        <v>-3.4004930714948145E-4</v>
+        <v>1.2751849018106665E-3</v>
       </c>
       <c r="J32" s="19">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K32" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L32" s="21">
         <f t="shared" si="4"/>
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="M32" s="22">
         <f t="shared" si="5"/>
-        <v>2.8963948197409772E-2</v>
+        <v>2.7031740495291334E-2</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O32" s="20">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="64"/>
+      <c r="Q32" s="65"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -2512,37 +2574,37 @@
         <v>34785</v>
       </c>
       <c r="E33" s="16">
-        <v>34764</v>
+        <v>34767</v>
       </c>
       <c r="F33" s="16">
         <v>34174</v>
       </c>
       <c r="G33" s="17">
-        <v>34014</v>
+        <v>34105</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="0"/>
-        <v>-160</v>
+        <v>-69</v>
       </c>
       <c r="I33" s="18">
         <f t="shared" si="1"/>
-        <v>-4.6819219289517822E-3</v>
+        <v>-2.0190788318604769E-3</v>
       </c>
       <c r="J33" s="19">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K33" s="20">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L33" s="21">
         <f t="shared" si="4"/>
-        <v>-750</v>
+        <v>-662</v>
       </c>
       <c r="M33" s="22">
         <f t="shared" si="5"/>
-        <v>-2.1574042112530223E-2</v>
+        <v>-1.9041044668795082E-2</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="6"/>
@@ -2552,8 +2614,10 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="64"/>
+      <c r="Q33" s="65"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -2567,48 +2631,50 @@
         <v>5466</v>
       </c>
       <c r="E34" s="16">
-        <v>5449</v>
+        <v>5457</v>
       </c>
       <c r="F34" s="16">
         <v>5549</v>
       </c>
       <c r="G34" s="17">
-        <v>5498</v>
+        <v>5530</v>
       </c>
       <c r="H34" s="15">
         <f t="shared" si="0"/>
-        <v>-51</v>
+        <v>-19</v>
       </c>
       <c r="I34" s="18">
         <f t="shared" si="1"/>
-        <v>-9.1908451973328198E-3</v>
+        <v>-3.4240403676337738E-3</v>
       </c>
       <c r="J34" s="19">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K34" s="20">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L34" s="21">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="M34" s="22">
         <f t="shared" si="5"/>
-        <v>8.9924756836117226E-3</v>
+        <v>1.3377313542239255E-2</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O34" s="20">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="65"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>36</v>
       </c>
@@ -2622,37 +2688,37 @@
         <v>44116</v>
       </c>
       <c r="E35" s="16">
-        <v>43912</v>
+        <v>44020</v>
       </c>
       <c r="F35" s="16">
         <v>43533</v>
       </c>
       <c r="G35" s="17">
-        <v>43333</v>
+        <v>43400</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>-133</v>
       </c>
       <c r="I35" s="18">
         <f t="shared" si="1"/>
-        <v>-4.5942158822043222E-3</v>
+        <v>-3.0551535616658576E-3</v>
       </c>
       <c r="J35" s="19">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K35" s="20">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L35" s="21">
         <f t="shared" si="4"/>
-        <v>-579</v>
+        <v>-620</v>
       </c>
       <c r="M35" s="22">
         <f t="shared" si="5"/>
-        <v>-1.3185461832756373E-2</v>
+        <v>-1.4084507042253502E-2</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="6"/>
@@ -2662,8 +2728,10 @@
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="64"/>
+      <c r="Q35" s="65"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>37</v>
       </c>
@@ -2677,25 +2745,25 @@
         <v>20773</v>
       </c>
       <c r="E36" s="16">
-        <v>20863</v>
+        <v>20892</v>
       </c>
       <c r="F36" s="16">
         <v>21443</v>
       </c>
       <c r="G36" s="17">
-        <v>21515</v>
+        <v>21655</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="I36" s="18">
         <f t="shared" si="1"/>
-        <v>3.3577391223242881E-3</v>
+        <v>9.8866763046214778E-3</v>
       </c>
       <c r="J36" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" s="20">
         <f t="shared" si="3"/>
@@ -2703,22 +2771,24 @@
       </c>
       <c r="L36" s="21">
         <f t="shared" si="4"/>
-        <v>652</v>
+        <v>763</v>
       </c>
       <c r="M36" s="22">
         <f t="shared" si="5"/>
-        <v>3.1251497867037292E-2</v>
+        <v>3.6521156423511503E-2</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O36" s="20">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="65"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
@@ -2732,48 +2802,50 @@
         <v>12068</v>
       </c>
       <c r="E37" s="47">
-        <v>12015</v>
+        <v>12038</v>
       </c>
       <c r="F37" s="47">
         <v>11966</v>
       </c>
-      <c r="G37" s="63">
-        <v>11943</v>
+      <c r="G37" s="49">
+        <v>12017</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>51</v>
       </c>
       <c r="I37" s="18">
         <f t="shared" si="1"/>
-        <v>-1.9221126525154064E-3</v>
+        <v>4.2620758816647175E-3</v>
       </c>
       <c r="J37" s="19">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K37" s="20">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L37" s="21">
         <f t="shared" si="4"/>
-        <v>-72</v>
+        <v>-21</v>
       </c>
       <c r="M37" s="22">
         <f t="shared" si="5"/>
-        <v>-5.9925093632958726E-3</v>
+        <v>-1.744475826549241E-3</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O37" s="20">
         <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="9" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>39</v>
       </c>
@@ -2791,62 +2863,62 @@
       </c>
       <c r="E38" s="44">
         <f t="shared" si="8"/>
-        <v>1053095</v>
+        <v>1056056</v>
       </c>
       <c r="F38" s="44">
         <f t="shared" si="8"/>
         <v>1065556</v>
       </c>
-      <c r="G38" s="62">
+      <c r="G38" s="48">
         <f>SUM(G6:G37)</f>
-        <v>1063429</v>
+        <v>1066338</v>
       </c>
       <c r="H38" s="36">
         <f>G38-F38</f>
-        <v>-2127</v>
+        <v>782</v>
       </c>
       <c r="I38" s="37">
         <f t="shared" si="1"/>
-        <v>-1.9961409817973452E-3</v>
+        <v>7.3388916209005117E-4</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="39"/>
       <c r="L38" s="40">
-        <f t="shared" ref="L38" si="9">G38-D38</f>
-        <v>9759</v>
+        <f>G38-E38</f>
+        <v>10282</v>
       </c>
       <c r="M38" s="41">
-        <f t="shared" ref="M38" si="10">G38/D38-1</f>
-        <v>9.2619131227045237E-3</v>
+        <f>G38/E38-1</f>
+        <v>9.7362261092215352E-3</v>
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="39"/>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="5" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>41</v>
       </c>

--- a/Tabulados/Patrones_entidadrank_delegacion.xlsx
+++ b/Tabulados/Patrones_entidadrank_delegacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56157FD2-23AC-4D8D-9BC7-AB5BDF7B6737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B49F9B-7D64-429B-A695-9D20237A18E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,27 +194,27 @@
   </si>
   <si>
     <t>2023
-Junio</t>
-  </si>
-  <si>
-    <t>Diciembre 2021 - julio 2023</t>
+Octubre</t>
   </si>
   <si>
     <t>2023
-Julio</t>
+Noviembre</t>
   </si>
   <si>
     <t>2022
-Julio</t>
-  </si>
-  <si>
-    <t>Julio 2023 respecto a Junio 2023</t>
-  </si>
-  <si>
-    <t>Julio 2023 respecto a Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Julio 2023 respecto a Julio 2022</t>
+Noviembre</t>
+  </si>
+  <si>
+    <t>Noviembre 2023 respecto a Octubre 2023</t>
+  </si>
+  <si>
+    <t>Noviembre 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Noviembre 2023 respecto a Noviembre 2022</t>
+  </si>
+  <si>
+    <t>Diciembre 2021 - noviembre 2023</t>
   </si>
 </sst>
 </file>
@@ -596,6 +596,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -616,9 +617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,7 +855,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -879,17 +877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -901,17 +899,17 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -942,52 +940,52 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="53" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
-      <c r="K4" s="52" t="s">
-        <v>48</v>
+      <c r="K4" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="L4" s="53"/>
       <c r="M4" s="53"/>
       <c r="N4" s="53"/>
       <c r="O4" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="53"/>
       <c r="Q4" s="53"/>
       <c r="R4" s="53"/>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="55"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -999,7 +997,7 @@
       <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -1032,44 +1030,44 @@
         <v>16746</v>
       </c>
       <c r="C6" s="41">
-        <v>16757</v>
+        <v>16698</v>
       </c>
       <c r="D6" s="41">
         <v>16707</v>
       </c>
       <c r="E6" s="41">
-        <v>16699</v>
+        <v>16711</v>
       </c>
       <c r="F6" s="14">
-        <v>16677</v>
+        <v>16724</v>
       </c>
       <c r="G6" s="13">
         <f>F6-E6</f>
-        <v>-22</v>
+        <v>13</v>
       </c>
       <c r="H6" s="15">
         <f>F6/E6-1</f>
-        <v>-1.3174441583327923E-3</v>
+        <v>7.7793070432652378E-4</v>
       </c>
       <c r="I6" s="16">
         <f>_xlfn.RANK.EQ(G6,$G$6:$G$37)</f>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J6" s="17">
         <f>_xlfn.RANK.EQ(H6,$H$6:$H$37)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K6" s="20">
         <f>F6-D6</f>
-        <v>-30</v>
+        <v>17</v>
       </c>
       <c r="L6" s="19">
         <f>F6/D6-1</f>
-        <v>-1.7956545160711102E-3</v>
+        <v>1.0175375591070512E-3</v>
       </c>
       <c r="M6" s="20">
         <f>_xlfn.RANK.EQ(K6,$K$6:$K$37)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="20">
         <f>_xlfn.RANK.EQ(L6,$L$6:$L$37)</f>
@@ -1077,15 +1075,15 @@
       </c>
       <c r="O6" s="18">
         <f t="shared" ref="O6:O37" si="0">F6-C6</f>
-        <v>-80</v>
+        <v>26</v>
       </c>
       <c r="P6" s="19">
         <f t="shared" ref="P6:P37" si="1">F6/C6-1</f>
-        <v>-4.7741242465835221E-3</v>
+        <v>1.5570727033178411E-3</v>
       </c>
       <c r="Q6" s="20">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$37)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R6" s="17">
         <f>_xlfn.RANK.EQ(P6,$P$6:$P$37)</f>
@@ -1100,64 +1098,64 @@
         <v>44540</v>
       </c>
       <c r="C7" s="41">
-        <v>44387</v>
+        <v>44819</v>
       </c>
       <c r="D7" s="41">
         <v>44653</v>
       </c>
       <c r="E7" s="41">
-        <v>44819</v>
+        <v>44905</v>
       </c>
       <c r="F7" s="14">
-        <v>44925</v>
+        <v>44893</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" ref="G7:G37" si="2">F7-E7</f>
-        <v>106</v>
+        <v>-12</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" ref="H7:H37" si="3">F7/E7-1</f>
-        <v>2.3650683861755617E-3</v>
+        <v>-2.6723082062130032E-4</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" ref="I7:I37" si="4">_xlfn.RANK.EQ(G7,$G$6:$G$37)</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J7" s="17">
         <f t="shared" ref="J7:J37" si="5">_xlfn.RANK.EQ(H7,$H$6:$H$37)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" ref="K7:K37" si="6">F7-D7</f>
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ref="L7:L37" si="7">F7/D7-1</f>
-        <v>6.0914160302778519E-3</v>
+        <v>5.3747788502451765E-3</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" ref="M7:M37" si="8">_xlfn.RANK.EQ(K7,$K$6:$K$37)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" ref="N7:N37" si="9">_xlfn.RANK.EQ(L7,$L$6:$L$37)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>74</v>
       </c>
       <c r="P7" s="19">
         <f t="shared" si="1"/>
-        <v>1.2120665960754229E-2</v>
+        <v>1.6510854771414341E-3</v>
       </c>
       <c r="Q7" s="20">
         <f t="shared" ref="Q7:Q37" si="10">_xlfn.RANK.EQ(O7,$O$6:$O$37)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" ref="R7:R37" si="11">_xlfn.RANK.EQ(P7,$P$6:$P$37)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1168,64 +1166,64 @@
         <v>13964</v>
       </c>
       <c r="C8" s="41">
-        <v>14512</v>
+        <v>14786</v>
       </c>
       <c r="D8" s="41">
         <v>14759</v>
       </c>
       <c r="E8" s="41">
-        <v>15044</v>
+        <v>15211</v>
       </c>
       <c r="F8" s="14">
-        <v>15062</v>
+        <v>15215</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="3"/>
-        <v>1.1964902951342449E-3</v>
+        <v>2.6296758924471142E-4</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K8" s="20">
         <f t="shared" si="6"/>
-        <v>303</v>
+        <v>456</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="7"/>
-        <v>2.0529846195541657E-2</v>
+        <v>3.0896402195270678E-2</v>
       </c>
       <c r="M8" s="20">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>429</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" si="1"/>
-        <v>3.7899669239250366E-2</v>
+        <v>2.9013932097930573E-2</v>
       </c>
       <c r="Q8" s="20">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1236,56 +1234,56 @@
         <v>6254</v>
       </c>
       <c r="C9" s="41">
-        <v>6365</v>
+        <v>6443</v>
       </c>
       <c r="D9" s="41">
         <v>6418</v>
       </c>
       <c r="E9" s="41">
-        <v>6477</v>
+        <v>6498</v>
       </c>
       <c r="F9" s="14">
-        <v>6386</v>
+        <v>6472</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="2"/>
-        <v>-91</v>
+        <v>-26</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
-        <v>-1.4049714373938538E-2</v>
+        <v>-4.0012311480455143E-3</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="6"/>
-        <v>-32</v>
+        <v>54</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="7"/>
-        <v>-4.9859769398566955E-3</v>
+        <v>8.4138360860082084E-3</v>
       </c>
       <c r="M9" s="20">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P9" s="19">
         <f t="shared" si="1"/>
-        <v>3.2992930086410688E-3</v>
+        <v>4.5010088468104836E-3</v>
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="10"/>
@@ -1304,64 +1302,64 @@
         <v>14789</v>
       </c>
       <c r="C10" s="41">
-        <v>14813</v>
+        <v>14861</v>
       </c>
       <c r="D10" s="41">
         <v>14786</v>
       </c>
       <c r="E10" s="41">
-        <v>15036</v>
+        <v>15114</v>
       </c>
       <c r="F10" s="14">
-        <v>15078</v>
+        <v>15061</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>-53</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="3"/>
-        <v>2.7932960893854997E-3</v>
+        <v>-3.5066825459838524E-3</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K10" s="20">
         <f t="shared" si="6"/>
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="7"/>
-        <v>1.9748410658731341E-2</v>
+        <v>1.8598674421750339E-2</v>
       </c>
       <c r="M10" s="20">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="P10" s="19">
         <f t="shared" si="1"/>
-        <v>1.7889691487207093E-2</v>
+        <v>1.3458044546127423E-2</v>
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1372,64 +1370,64 @@
         <v>42167</v>
       </c>
       <c r="C11" s="41">
-        <v>42398</v>
+        <v>42371</v>
       </c>
       <c r="D11" s="41">
         <v>42300</v>
       </c>
       <c r="E11" s="41">
-        <v>42655</v>
+        <v>42847</v>
       </c>
       <c r="F11" s="14">
-        <v>42667</v>
+        <v>42844</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="3"/>
-        <v>2.8132692533122672E-4</v>
+        <v>-7.0016570588360416E-5</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K11" s="20">
         <f t="shared" si="6"/>
-        <v>367</v>
+        <v>544</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="7"/>
-        <v>8.6761229314420429E-3</v>
+        <v>1.2860520094562622E-2</v>
       </c>
       <c r="M11" s="20">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>473</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="1"/>
-        <v>6.34463889806125E-3</v>
+        <v>1.1163295650326921E-2</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1440,64 +1438,64 @@
         <v>125199</v>
       </c>
       <c r="C12" s="41">
-        <v>126772</v>
+        <v>126815</v>
       </c>
       <c r="D12" s="41">
         <v>126560</v>
       </c>
       <c r="E12" s="41">
-        <v>127010</v>
+        <v>127677</v>
       </c>
       <c r="F12" s="14">
-        <v>127233</v>
+        <v>127772</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="2"/>
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="3"/>
-        <v>1.7557672624202159E-3</v>
+        <v>7.4406510178026686E-4</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12" s="20">
         <f t="shared" si="6"/>
-        <v>673</v>
+        <v>1212</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="7"/>
-        <v>5.3176359039190935E-3</v>
+        <v>9.5764854614412975E-3</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="0"/>
-        <v>461</v>
+        <v>957</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>3.6364496892058451E-3</v>
+        <v>7.5464258959903052E-3</v>
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R12" s="17">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1508,56 +1506,56 @@
         <v>35642</v>
       </c>
       <c r="C13" s="41">
-        <v>35784</v>
+        <v>35796</v>
       </c>
       <c r="D13" s="41">
         <v>35695</v>
       </c>
       <c r="E13" s="41">
-        <v>35796</v>
+        <v>35867</v>
       </c>
       <c r="F13" s="14">
-        <v>35806</v>
+        <v>35826</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>-41</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="3"/>
-        <v>2.7936082243829041E-4</v>
+        <v>-1.1431120528619942E-3</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="6"/>
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="7"/>
-        <v>3.1096792267824025E-3</v>
+        <v>3.6699817901666432E-3</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O13" s="18">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="1"/>
-        <v>6.1479991057455941E-4</v>
+        <v>8.3808246731487124E-4</v>
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="10"/>
@@ -1565,7 +1563,7 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1576,64 +1574,64 @@
         <v>11397</v>
       </c>
       <c r="C14" s="41">
-        <v>11563</v>
+        <v>11674</v>
       </c>
       <c r="D14" s="41">
         <v>11673</v>
       </c>
       <c r="E14" s="41">
-        <v>11728</v>
+        <v>11874</v>
       </c>
       <c r="F14" s="14">
-        <v>11717</v>
+        <v>11887</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="2"/>
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="3"/>
-        <v>-9.3792633015010729E-4</v>
+        <v>1.0948290382348791E-3</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J14" s="17">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="7"/>
-        <v>3.7693823353037725E-3</v>
+        <v>1.8332904994431631E-2</v>
       </c>
       <c r="M14" s="20">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O14" s="18">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="P14" s="19">
         <f t="shared" si="1"/>
-        <v>1.331834299057344E-2</v>
+        <v>1.8245674147678637E-2</v>
       </c>
       <c r="Q14" s="20">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14" s="17">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1644,64 +1642,64 @@
         <v>14609</v>
       </c>
       <c r="C15" s="41">
-        <v>14641</v>
+        <v>14583</v>
       </c>
       <c r="D15" s="41">
         <v>14532</v>
       </c>
       <c r="E15" s="41">
-        <v>14586</v>
+        <v>14600</v>
       </c>
       <c r="F15" s="14">
-        <v>14508</v>
+        <v>14606</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="2"/>
-        <v>-78</v>
+        <v>6</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="3"/>
-        <v>-5.3475935828877219E-3</v>
+        <v>4.1095890410969282E-4</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="6"/>
-        <v>-24</v>
+        <v>74</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="7"/>
-        <v>-1.6515276630884035E-3</v>
+        <v>5.0922102945223369E-3</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="0"/>
-        <v>-133</v>
+        <v>23</v>
       </c>
       <c r="P15" s="19">
         <f t="shared" si="1"/>
-        <v>-9.0840789563554347E-3</v>
+        <v>1.5771789069465303E-3</v>
       </c>
       <c r="Q15" s="20">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1712,64 +1710,64 @@
         <v>77044</v>
       </c>
       <c r="C16" s="41">
-        <v>78218</v>
+        <v>78267</v>
       </c>
       <c r="D16" s="41">
         <v>78074</v>
       </c>
       <c r="E16" s="41">
-        <v>78213</v>
+        <v>78616</v>
       </c>
       <c r="F16" s="14">
-        <v>78294</v>
+        <v>78773</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="3"/>
-        <v>1.0356334624679331E-3</v>
+        <v>1.9970489467793229E-3</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J16" s="17">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" si="6"/>
-        <v>220</v>
+        <v>699</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="7"/>
-        <v>2.8178394856162026E-3</v>
+        <v>8.953044547480582E-3</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>506</v>
       </c>
       <c r="P16" s="19">
         <f t="shared" si="1"/>
-        <v>9.7164335574939642E-4</v>
+        <v>6.4650491267073118E-3</v>
       </c>
       <c r="Q16" s="20">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="R16" s="17">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1780,64 +1778,64 @@
         <v>49358</v>
       </c>
       <c r="C17" s="41">
-        <v>49725</v>
+        <v>49740</v>
       </c>
       <c r="D17" s="41">
         <v>49507</v>
       </c>
       <c r="E17" s="41">
-        <v>49925</v>
+        <v>50156</v>
       </c>
       <c r="F17" s="14">
-        <v>50002</v>
+        <v>50160</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" si="3"/>
-        <v>1.542313470205281E-3</v>
+        <v>7.9751176329745377E-5</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J17" s="17">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K17" s="20">
         <f t="shared" si="6"/>
-        <v>495</v>
+        <v>653</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="7"/>
-        <v>9.9985860585372066E-3</v>
+        <v>1.3190053931767309E-2</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>420</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="1"/>
-        <v>5.5706385118150514E-3</v>
+        <v>8.443908323281013E-3</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R17" s="17">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1848,40 +1846,40 @@
         <v>13674</v>
       </c>
       <c r="C18" s="41">
-        <v>13710</v>
+        <v>13820</v>
       </c>
       <c r="D18" s="41">
         <v>13719</v>
       </c>
       <c r="E18" s="41">
-        <v>13538</v>
+        <v>13477</v>
       </c>
       <c r="F18" s="14">
-        <v>13478</v>
+        <v>13298</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="2"/>
-        <v>-60</v>
+        <v>-179</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="3"/>
-        <v>-4.4319692716797698E-3</v>
+        <v>-1.3281887660458569E-2</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J18" s="17">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="6"/>
-        <v>-241</v>
+        <v>-421</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="7"/>
-        <v>-1.7566878052336143E-2</v>
+        <v>-3.068736788395654E-2</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" si="8"/>
@@ -1893,19 +1891,19 @@
       </c>
       <c r="O18" s="18">
         <f t="shared" si="0"/>
-        <v>-232</v>
+        <v>-522</v>
       </c>
       <c r="P18" s="19">
         <f t="shared" si="1"/>
-        <v>-1.6921954777534665E-2</v>
+        <v>-3.777134587554265E-2</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R18" s="17">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1916,40 +1914,40 @@
         <v>15980</v>
       </c>
       <c r="C19" s="41">
-        <v>16207</v>
+        <v>16318</v>
       </c>
       <c r="D19" s="41">
         <v>16245</v>
       </c>
       <c r="E19" s="41">
-        <v>16528</v>
+        <v>16791</v>
       </c>
       <c r="F19" s="14">
-        <v>16582</v>
+        <v>16813</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H19" s="15">
         <f t="shared" si="3"/>
-        <v>3.2671829622459292E-3</v>
+        <v>1.3102257161574649E-3</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" s="17">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K19" s="20">
         <f t="shared" si="6"/>
-        <v>337</v>
+        <v>568</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="7"/>
-        <v>2.0744844567559317E-2</v>
+        <v>3.4964604493690432E-2</v>
       </c>
       <c r="M19" s="20">
         <f t="shared" si="8"/>
@@ -1961,19 +1959,19 @@
       </c>
       <c r="O19" s="18">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="P19" s="19">
         <f t="shared" si="1"/>
-        <v>2.3138150182020034E-2</v>
+        <v>3.0334599828410358E-2</v>
       </c>
       <c r="Q19" s="20">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R19" s="17">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1984,40 +1982,40 @@
         <v>103251</v>
       </c>
       <c r="C20" s="42">
-        <v>105078</v>
+        <v>105908</v>
       </c>
       <c r="D20" s="42">
         <v>105675</v>
       </c>
       <c r="E20" s="42">
-        <v>106987</v>
+        <v>107771</v>
       </c>
       <c r="F20" s="23">
-        <v>107086</v>
+        <v>107862</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" si="3"/>
-        <v>9.2534607008332159E-4</v>
+        <v>8.4438299728128996E-4</v>
       </c>
       <c r="I20" s="25">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="26">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K20" s="29">
         <f t="shared" si="6"/>
-        <v>1411</v>
+        <v>2187</v>
       </c>
       <c r="L20" s="28">
         <f t="shared" si="7"/>
-        <v>1.3352259285545287E-2</v>
+        <v>2.0695528743789993E-2</v>
       </c>
       <c r="M20" s="29">
         <f t="shared" si="8"/>
@@ -2025,15 +2023,15 @@
       </c>
       <c r="N20" s="29">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" s="27">
         <f t="shared" si="0"/>
-        <v>2008</v>
+        <v>1954</v>
       </c>
       <c r="P20" s="28">
         <f t="shared" si="1"/>
-        <v>1.9109613810692982E-2</v>
+        <v>1.8449975450390843E-2</v>
       </c>
       <c r="Q20" s="29">
         <f>_xlfn.RANK.EQ(O20,$O$6:$O$37)</f>
@@ -2041,7 +2039,7 @@
       </c>
       <c r="R20" s="26">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2052,40 +2050,40 @@
         <v>37104</v>
       </c>
       <c r="C21" s="41">
-        <v>37185</v>
+        <v>37289</v>
       </c>
       <c r="D21" s="41">
         <v>37170</v>
       </c>
       <c r="E21" s="41">
-        <v>37043</v>
+        <v>36941</v>
       </c>
       <c r="F21" s="14">
-        <v>36933</v>
+        <v>36900</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="2"/>
-        <v>-110</v>
+        <v>-41</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="3"/>
-        <v>-2.9695219069729717E-3</v>
+        <v>-1.1098779134295356E-3</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="6"/>
-        <v>-237</v>
+        <v>-270</v>
       </c>
       <c r="L21" s="19">
         <f t="shared" si="7"/>
-        <v>-6.3761097659402743E-3</v>
+        <v>-7.2639225181597711E-3</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" si="8"/>
@@ -2097,19 +2095,19 @@
       </c>
       <c r="O21" s="18">
         <f t="shared" si="0"/>
-        <v>-252</v>
+        <v>-389</v>
       </c>
       <c r="P21" s="19">
         <f t="shared" si="1"/>
-        <v>-6.7769261799112135E-3</v>
+        <v>-1.0432030893829269E-2</v>
       </c>
       <c r="Q21" s="20">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R21" s="17">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2120,64 +2118,64 @@
         <v>12579</v>
       </c>
       <c r="C22" s="41">
-        <v>12659</v>
+        <v>12625</v>
       </c>
       <c r="D22" s="41">
         <v>12596</v>
       </c>
       <c r="E22" s="41">
-        <v>12593</v>
+        <v>12602</v>
       </c>
       <c r="F22" s="14">
-        <v>12588</v>
+        <v>12587</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" si="3"/>
-        <v>-3.9704597792422636E-4</v>
+        <v>-1.1902872559911293E-3</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J22" s="17">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" si="6"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="L22" s="19">
         <f t="shared" si="7"/>
-        <v>-6.3512226103523695E-4</v>
+        <v>-7.1451254366461381E-4</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O22" s="18">
         <f t="shared" si="0"/>
-        <v>-71</v>
+        <v>-38</v>
       </c>
       <c r="P22" s="19">
         <f t="shared" si="1"/>
-        <v>-5.6086578718698155E-3</v>
+        <v>-3.0099009900990126E-3</v>
       </c>
       <c r="Q22" s="20">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R22" s="17">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2188,64 +2186,64 @@
         <v>13590</v>
       </c>
       <c r="C23" s="41">
-        <v>13706</v>
+        <v>13888</v>
       </c>
       <c r="D23" s="41">
         <v>13869</v>
       </c>
       <c r="E23" s="41">
-        <v>13891</v>
+        <v>13961</v>
       </c>
       <c r="F23" s="14">
-        <v>13884</v>
+        <v>14003</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>42</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="3"/>
-        <v>-5.0392340364269206E-4</v>
+        <v>3.0083804885037146E-3</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="7"/>
-        <v>1.0815487778499389E-3</v>
+        <v>9.6618357487923134E-3</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="1"/>
-        <v>1.298701298701288E-2</v>
+        <v>8.2805299539170374E-3</v>
       </c>
       <c r="Q23" s="20">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R23" s="17">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2256,24 +2254,24 @@
         <v>74823</v>
       </c>
       <c r="C24" s="41">
-        <v>75889</v>
+        <v>76316</v>
       </c>
       <c r="D24" s="41">
         <v>76087</v>
       </c>
       <c r="E24" s="41">
-        <v>76924</v>
+        <v>77390</v>
       </c>
       <c r="F24" s="14">
-        <v>77082</v>
+        <v>77513</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>2.0539753522956783E-3</v>
+        <v>1.5893526295387428E-3</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="4"/>
@@ -2281,15 +2279,15 @@
       </c>
       <c r="J24" s="17">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" si="6"/>
-        <v>995</v>
+        <v>1426</v>
       </c>
       <c r="L24" s="19">
         <f t="shared" si="7"/>
-        <v>1.3077135384494065E-2</v>
+        <v>1.8741703576169444E-2</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" si="8"/>
@@ -2297,23 +2295,23 @@
       </c>
       <c r="N24" s="20">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" s="18">
         <f t="shared" si="0"/>
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="P24" s="19">
         <f t="shared" si="1"/>
-        <v>1.5720328374336123E-2</v>
+        <v>1.5684784317836264E-2</v>
       </c>
       <c r="Q24" s="20">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" s="17">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2324,64 +2322,64 @@
         <v>14401</v>
       </c>
       <c r="C25" s="41">
-        <v>14490</v>
+        <v>14553</v>
       </c>
       <c r="D25" s="41">
         <v>14448</v>
       </c>
       <c r="E25" s="41">
-        <v>14641</v>
+        <v>14931</v>
       </c>
       <c r="F25" s="14">
-        <v>14659</v>
+        <v>14936</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="3"/>
-        <v>1.2294242196571048E-3</v>
+        <v>3.3487375259522167E-4</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J25" s="17">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="6"/>
-        <v>211</v>
+        <v>488</v>
       </c>
       <c r="L25" s="19">
         <f t="shared" si="7"/>
-        <v>1.4604097452934672E-2</v>
+        <v>3.3776301218161775E-2</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="P25" s="19">
         <f t="shared" si="1"/>
-        <v>1.1663216011042143E-2</v>
+        <v>2.6317597746169152E-2</v>
       </c>
       <c r="Q25" s="20">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R25" s="17">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2392,40 +2390,40 @@
         <v>34423</v>
       </c>
       <c r="C26" s="41">
-        <v>34766</v>
+        <v>35048</v>
       </c>
       <c r="D26" s="41">
         <v>35020</v>
       </c>
       <c r="E26" s="41">
-        <v>35406</v>
+        <v>35621</v>
       </c>
       <c r="F26" s="14">
-        <v>35386</v>
+        <v>35618</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="2"/>
-        <v>-20</v>
+        <v>-3</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="3"/>
-        <v>-5.648760097158867E-4</v>
+        <v>-8.4219982594557763E-5</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J26" s="17">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" si="6"/>
-        <v>366</v>
+        <v>598</v>
       </c>
       <c r="L26" s="19">
         <f t="shared" si="7"/>
-        <v>1.0451170759566031E-2</v>
+        <v>1.7075956596230624E-2</v>
       </c>
       <c r="M26" s="20">
         <f t="shared" si="8"/>
@@ -2433,23 +2431,23 @@
       </c>
       <c r="N26" s="20">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="P26" s="19">
         <f t="shared" si="1"/>
-        <v>1.7833515503653086E-2</v>
+        <v>1.6263410180324067E-2</v>
       </c>
       <c r="Q26" s="20">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R26" s="17">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2460,28 +2458,28 @@
         <v>28507</v>
       </c>
       <c r="C27" s="41">
-        <v>29396</v>
+        <v>29711</v>
       </c>
       <c r="D27" s="41">
         <v>29588</v>
       </c>
       <c r="E27" s="41">
-        <v>30029</v>
+        <v>30456</v>
       </c>
       <c r="F27" s="14">
-        <v>30096</v>
+        <v>30495</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H27" s="15">
         <f t="shared" si="3"/>
-        <v>2.2311765293550057E-3</v>
+        <v>1.2805358550038726E-3</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J27" s="17">
         <f t="shared" si="5"/>
@@ -2489,11 +2487,11 @@
       </c>
       <c r="K27" s="20">
         <f t="shared" si="6"/>
-        <v>508</v>
+        <v>907</v>
       </c>
       <c r="L27" s="19">
         <f t="shared" si="7"/>
-        <v>1.716912261727721E-2</v>
+        <v>3.0654319318642598E-2</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" si="8"/>
@@ -2501,23 +2499,23 @@
       </c>
       <c r="N27" s="20">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27" s="18">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="P27" s="19">
         <f t="shared" si="1"/>
-        <v>2.3812763641311685E-2</v>
+        <v>2.6387533236848393E-2</v>
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" s="17">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2528,44 +2526,44 @@
         <v>19275</v>
       </c>
       <c r="C28" s="41">
-        <v>20179</v>
+        <v>20780</v>
       </c>
       <c r="D28" s="41">
         <v>20714</v>
       </c>
       <c r="E28" s="41">
-        <v>21379</v>
+        <v>21716</v>
       </c>
       <c r="F28" s="14">
-        <v>21447</v>
+        <v>21836</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="H28" s="15">
         <f t="shared" si="3"/>
-        <v>3.1806913326162256E-3</v>
+        <v>5.5258795358261725E-3</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J28" s="17">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="6"/>
-        <v>733</v>
+        <v>1122</v>
       </c>
       <c r="L28" s="19">
         <f t="shared" si="7"/>
-        <v>3.538669498889635E-2</v>
+        <v>5.4166264362267125E-2</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" s="20">
         <f t="shared" si="9"/>
@@ -2573,15 +2571,15 @@
       </c>
       <c r="O28" s="18">
         <f t="shared" si="0"/>
-        <v>1268</v>
+        <v>1056</v>
       </c>
       <c r="P28" s="19">
         <f t="shared" si="1"/>
-        <v>6.2837603449130253E-2</v>
+        <v>5.0818094321462892E-2</v>
       </c>
       <c r="Q28" s="20">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" s="17">
         <f t="shared" si="11"/>
@@ -2596,44 +2594,44 @@
         <v>23707</v>
       </c>
       <c r="C29" s="41">
-        <v>23810</v>
+        <v>23845</v>
       </c>
       <c r="D29" s="41">
         <v>23802</v>
       </c>
       <c r="E29" s="41">
-        <v>23926</v>
+        <v>24017</v>
       </c>
       <c r="F29" s="14">
-        <v>23881</v>
+        <v>24028</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="2"/>
-        <v>-45</v>
+        <v>11</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="3"/>
-        <v>-1.880799130652866E-3</v>
+        <v>4.5800891035518987E-4</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J29" s="17">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" si="6"/>
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="L29" s="19">
         <f t="shared" si="7"/>
-        <v>3.3190488194270173E-3</v>
+        <v>9.4950004201328486E-3</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N29" s="20">
         <f t="shared" si="9"/>
@@ -2641,19 +2639,19 @@
       </c>
       <c r="O29" s="18">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="P29" s="19">
         <f t="shared" si="1"/>
-        <v>2.9819403611928141E-3</v>
+        <v>7.6745648983014281E-3</v>
       </c>
       <c r="Q29" s="20">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R29" s="17">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2664,64 +2662,64 @@
         <v>42868</v>
       </c>
       <c r="C30" s="41">
-        <v>43273</v>
+        <v>43476</v>
       </c>
       <c r="D30" s="41">
         <v>43507</v>
       </c>
       <c r="E30" s="41">
-        <v>43721</v>
+        <v>43671</v>
       </c>
       <c r="F30" s="14">
-        <v>43653</v>
+        <v>43654</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="2"/>
-        <v>-68</v>
+        <v>-17</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="3"/>
-        <v>-1.5553166670478902E-3</v>
+        <v>-3.8927434682056727E-4</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J30" s="17">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" si="6"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L30" s="19">
         <f t="shared" si="7"/>
-        <v>3.3557818282115015E-3</v>
+        <v>3.3787666352540491E-3</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N30" s="20">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>178</v>
       </c>
       <c r="P30" s="19">
         <f t="shared" si="1"/>
-        <v>8.7814572597231244E-3</v>
+        <v>4.0942128990708593E-3</v>
       </c>
       <c r="Q30" s="20">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2732,64 +2730,64 @@
         <v>39139</v>
       </c>
       <c r="C31" s="41">
-        <v>39292</v>
+        <v>39037</v>
       </c>
       <c r="D31" s="41">
         <v>39024</v>
       </c>
       <c r="E31" s="41">
-        <v>38878</v>
+        <v>38932</v>
       </c>
       <c r="F31" s="14">
-        <v>38849</v>
+        <v>38896</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="2"/>
-        <v>-29</v>
+        <v>-36</v>
       </c>
       <c r="H31" s="15">
         <f t="shared" si="3"/>
-        <v>-7.459231441946379E-4</v>
+        <v>-9.2468920168498059E-4</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J31" s="17">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" s="20">
         <f t="shared" si="6"/>
-        <v>-175</v>
+        <v>-128</v>
       </c>
       <c r="L31" s="19">
         <f t="shared" si="7"/>
-        <v>-4.4844198441984506E-3</v>
+        <v>-3.2800328003279589E-3</v>
       </c>
       <c r="M31" s="20">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N31" s="20">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" si="0"/>
-        <v>-443</v>
+        <v>-141</v>
       </c>
       <c r="P31" s="19">
         <f t="shared" si="1"/>
-        <v>-1.1274559706810572E-2</v>
+        <v>-3.6119578861080193E-3</v>
       </c>
       <c r="Q31" s="20">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2800,16 +2798,16 @@
         <v>11432</v>
       </c>
       <c r="C32" s="41">
-        <v>11626</v>
+        <v>11795</v>
       </c>
       <c r="D32" s="41">
         <v>11763</v>
       </c>
       <c r="E32" s="41">
-        <v>11971</v>
+        <v>12127</v>
       </c>
       <c r="F32" s="14">
-        <v>12052</v>
+        <v>12208</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="2"/>
@@ -2817,7 +2815,7 @@
       </c>
       <c r="H32" s="15">
         <f t="shared" si="3"/>
-        <v>6.7663520173752989E-3</v>
+        <v>6.6793106291744841E-3</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="4"/>
@@ -2829,15 +2827,15 @@
       </c>
       <c r="K32" s="20">
         <f t="shared" si="6"/>
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="L32" s="19">
         <f t="shared" si="7"/>
-        <v>2.4568562441553921E-2</v>
+        <v>3.7830485420385918E-2</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N32" s="20">
         <f t="shared" si="9"/>
@@ -2845,19 +2843,19 @@
       </c>
       <c r="O32" s="18">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="P32" s="19">
         <f t="shared" si="1"/>
-        <v>3.6642009289523436E-2</v>
+        <v>3.5014836795252302E-2</v>
       </c>
       <c r="Q32" s="20">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2868,56 +2866,56 @@
         <v>34785</v>
       </c>
       <c r="C33" s="41">
-        <v>34667</v>
+        <v>34367</v>
       </c>
       <c r="D33" s="41">
         <v>34174</v>
       </c>
       <c r="E33" s="41">
-        <v>34071</v>
+        <v>34053</v>
       </c>
       <c r="F33" s="14">
-        <v>34015</v>
+        <v>33966</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" si="2"/>
-        <v>-56</v>
+        <v>-87</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="3"/>
-        <v>-1.6436265445687326E-3</v>
+        <v>-2.5548409831732677E-3</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J33" s="17">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K33" s="20">
         <f t="shared" si="6"/>
-        <v>-159</v>
+        <v>-208</v>
       </c>
       <c r="L33" s="19">
         <f t="shared" si="7"/>
-        <v>-4.652659916895896E-3</v>
+        <v>-6.0864985076374278E-3</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N33" s="20">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O33" s="18">
         <f t="shared" si="0"/>
-        <v>-652</v>
+        <v>-401</v>
       </c>
       <c r="P33" s="19">
         <f t="shared" si="1"/>
-        <v>-1.8807511466235938E-2</v>
+        <v>-1.1668170046847282E-2</v>
       </c>
       <c r="Q33" s="20">
         <f t="shared" si="10"/>
@@ -2925,7 +2923,7 @@
       </c>
       <c r="R33" s="17">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2936,16 +2934,16 @@
         <v>5466</v>
       </c>
       <c r="C34" s="41">
-        <v>5462</v>
+        <v>5590</v>
       </c>
       <c r="D34" s="41">
         <v>5549</v>
       </c>
       <c r="E34" s="41">
-        <v>5506</v>
+        <v>5607</v>
       </c>
       <c r="F34" s="14">
-        <v>5528</v>
+        <v>5629</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="2"/>
@@ -2953,11 +2951,11 @@
       </c>
       <c r="H34" s="15">
         <f t="shared" si="3"/>
-        <v>3.9956411187795915E-3</v>
+        <v>3.9236668450151058E-3</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J34" s="17">
         <f t="shared" si="5"/>
@@ -2965,27 +2963,27 @@
       </c>
       <c r="K34" s="20">
         <f t="shared" si="6"/>
-        <v>-21</v>
+        <v>80</v>
       </c>
       <c r="L34" s="19">
         <f t="shared" si="7"/>
-        <v>-3.7844656694899781E-3</v>
+        <v>1.4417012074247504E-2</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N34" s="20">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O34" s="18">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="P34" s="19">
         <f t="shared" si="1"/>
-        <v>1.2083485902599778E-2</v>
+        <v>6.9767441860464352E-3</v>
       </c>
       <c r="Q34" s="20">
         <f t="shared" si="10"/>
@@ -2993,7 +2991,7 @@
       </c>
       <c r="R34" s="17">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3004,64 +3002,64 @@
         <v>44116</v>
       </c>
       <c r="C35" s="41">
-        <v>44222</v>
+        <v>43864</v>
       </c>
       <c r="D35" s="41">
         <v>43533</v>
       </c>
       <c r="E35" s="41">
-        <v>43548</v>
+        <v>43582</v>
       </c>
       <c r="F35" s="14">
-        <v>43537</v>
+        <v>43494</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="2"/>
-        <v>-11</v>
+        <v>-88</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" si="3"/>
-        <v>-2.5259483788009351E-4</v>
+        <v>-2.0191822311963481E-3</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J35" s="17">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K35" s="20">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>-39</v>
       </c>
       <c r="L35" s="19">
         <f t="shared" si="7"/>
-        <v>9.188431764406424E-5</v>
+        <v>-8.9587209702979287E-4</v>
       </c>
       <c r="M35" s="20">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N35" s="20">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O35" s="18">
         <f t="shared" si="0"/>
-        <v>-685</v>
+        <v>-370</v>
       </c>
       <c r="P35" s="19">
         <f t="shared" si="1"/>
-        <v>-1.5490027588078381E-2</v>
+        <v>-8.4351632318073744E-3</v>
       </c>
       <c r="Q35" s="20">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R35" s="17">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3072,60 +3070,60 @@
         <v>20773</v>
       </c>
       <c r="C36" s="41">
-        <v>21204</v>
+        <v>21446</v>
       </c>
       <c r="D36" s="41">
         <v>21443</v>
       </c>
       <c r="E36" s="41">
-        <v>21766</v>
+        <v>22101</v>
       </c>
       <c r="F36" s="14">
-        <v>21856</v>
+        <v>22092</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>-9</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="3"/>
-        <v>4.1348892768537926E-3</v>
+        <v>-4.0722139269711022E-4</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J36" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K36" s="20">
         <f t="shared" si="6"/>
-        <v>413</v>
+        <v>649</v>
       </c>
       <c r="L36" s="19">
         <f t="shared" si="7"/>
-        <v>1.9260364687776921E-2</v>
+        <v>3.0266287366506495E-2</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N36" s="20">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O36" s="18">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="P36" s="19">
         <f t="shared" si="1"/>
-        <v>3.0748915299000146E-2</v>
+        <v>3.0122167303926251E-2</v>
       </c>
       <c r="Q36" s="20">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R36" s="17">
         <f t="shared" si="11"/>
@@ -3140,44 +3138,44 @@
         <v>12068</v>
       </c>
       <c r="C37" s="41">
-        <v>12031</v>
+        <v>11980</v>
       </c>
       <c r="D37" s="41">
         <v>11966</v>
       </c>
       <c r="E37" s="41">
-        <v>11897</v>
+        <v>11839</v>
       </c>
       <c r="F37" s="14">
-        <v>11849</v>
+        <v>11822</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="2"/>
-        <v>-48</v>
+        <v>-17</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="3"/>
-        <v>-4.0346305791375547E-3</v>
+        <v>-1.4359320888588378E-3</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J37" s="17">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K37" s="20">
         <f t="shared" si="6"/>
-        <v>-117</v>
+        <v>-144</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="7"/>
-        <v>-9.777703493230816E-3</v>
+        <v>-1.2034096607053346E-2</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N37" s="20">
         <f t="shared" si="9"/>
@@ -3185,19 +3183,19 @@
       </c>
       <c r="O37" s="18">
         <f t="shared" si="0"/>
-        <v>-182</v>
+        <v>-158</v>
       </c>
       <c r="P37" s="19">
         <f t="shared" si="1"/>
-        <v>-1.5127587066744219E-2</v>
+        <v>-1.3188647746243731E-2</v>
       </c>
       <c r="Q37" s="20">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R37" s="17">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3210,7 +3208,7 @@
       </c>
       <c r="C38" s="39">
         <f>SUM(C6:C37)</f>
-        <v>1064787</v>
+        <v>1068509</v>
       </c>
       <c r="D38" s="39">
         <f t="shared" si="12"/>
@@ -3218,39 +3216,39 @@
       </c>
       <c r="E38" s="39">
         <f>SUM(E6:E37)</f>
-        <v>1072231</v>
+        <v>1077662</v>
       </c>
       <c r="F38" s="40">
         <f>SUM(F6:F37)</f>
-        <v>1072796</v>
+        <v>1077883</v>
       </c>
       <c r="G38" s="31">
         <f>F38-E38</f>
-        <v>565</v>
+        <v>221</v>
       </c>
       <c r="H38" s="32">
         <f>F38/E38-1</f>
-        <v>5.2693869138265015E-4</v>
+        <v>2.0507357594490294E-4</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="34"/>
       <c r="K38" s="35">
         <f>F38-D38</f>
-        <v>7240</v>
+        <v>12327</v>
       </c>
       <c r="L38" s="36">
         <f>F38/D38-1</f>
-        <v>6.7945748510636061E-3</v>
+        <v>1.1568608313406337E-2</v>
       </c>
       <c r="M38" s="37"/>
       <c r="N38" s="38"/>
       <c r="O38" s="35">
         <f t="shared" ref="O38" si="13">F38-C38</f>
-        <v>8009</v>
+        <v>9374</v>
       </c>
       <c r="P38" s="36">
         <f t="shared" ref="P38" si="14">F38/C38-1</f>
-        <v>7.5216921318534968E-3</v>
+        <v>8.7729724316780722E-3</v>
       </c>
       <c r="Q38" s="37"/>
       <c r="R38" s="38"/>
@@ -3260,26 +3258,26 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -3301,14 +3299,23 @@
       <c r="F44" s="43"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="43"/>
